--- a/docs/Cogen_Protocol.xlsx
+++ b/docs/Cogen_Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepos\sim-tools\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepoGit\sim-tools\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E3A4E4-B059-4C0B-87D8-06B688E2640E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ED527C-9BC0-4135-9B33-C32759857CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me" sheetId="11" r:id="rId1"/>
@@ -26,16 +26,60 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>천해철</author>
+  </authors>
+  <commentList>
+    <comment ref="L15" authorId="0" shapeId="0" xr:uid="{A19271C5-A2AB-491D-91FA-0823C3D3FECF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제어기에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>업데이트함</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="450">
   <si>
     <t>Cogen B'd 제어 로직</t>
     <phoneticPr fontId="21" type="noConversion"/>
@@ -356,7 +400,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -409,7 +453,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -430,7 +474,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -632,7 +676,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -697,7 +741,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -721,7 +765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1509,18 +1553,6 @@
     <t>BitIndex</t>
   </si>
   <si>
-    <t>3WAY A/M</t>
-  </si>
-  <si>
-    <t>NC412변경</t>
-  </si>
-  <si>
-    <t>운전상태(NC414)-이것도 실험인듯</t>
-  </si>
-  <si>
-    <t>전자변 A/M</t>
-  </si>
-  <si>
     <t>Fan A/M</t>
   </si>
   <si>
@@ -1617,9 +1649,6 @@
     <t>레벨M</t>
   </si>
   <si>
-    <t>유량SW</t>
-  </si>
-  <si>
     <t>레벨L</t>
   </si>
   <si>
@@ -1656,27 +1685,6 @@
     <t>동작상태</t>
   </si>
   <si>
-    <t>TH_3</t>
-  </si>
-  <si>
-    <t>TH_2</t>
-  </si>
-  <si>
-    <t>TH_1</t>
-  </si>
-  <si>
-    <t>TH_4</t>
-  </si>
-  <si>
-    <t>TH_5</t>
-  </si>
-  <si>
-    <t>PIT_4</t>
-  </si>
-  <si>
-    <t>PIT_5</t>
-  </si>
-  <si>
     <t>PIT_1</t>
   </si>
   <si>
@@ -1740,51 +1748,126 @@
     <t>NC417_OPEN</t>
   </si>
   <si>
+    <t>NC413_MODE</t>
+  </si>
+  <si>
+    <t>FC_RUN1</t>
+  </si>
+  <si>
+    <t>FC_RUN2</t>
+  </si>
+  <si>
+    <t>FC_RUN3</t>
+  </si>
+  <si>
+    <t>FC_RUN</t>
+  </si>
+  <si>
+    <t>각 연료전지가 기동중인 상태인지 COGEN에 알려주는 정보 아닌가?</t>
+  </si>
+  <si>
+    <t>%(RPM)</t>
+  </si>
+  <si>
+    <t>Echo Back</t>
+  </si>
+  <si>
+    <t>압력, 온도는 Scale 10 적용해서 전송</t>
+  </si>
+  <si>
+    <t>but 20</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전상태</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>유량SW(사용 안함)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>3WAY A/M(난방수순환 우회, 사용안함)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC412(드레인)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>직수밸브 A/M</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
     <t>NC413(전자변-CN6) 직수밸브 On/Off</t>
-  </si>
-  <si>
-    <t>NC413_MODE</t>
-  </si>
-  <si>
-    <t>FC_RUN1</t>
-  </si>
-  <si>
-    <t>FC_RUN2</t>
-  </si>
-  <si>
-    <t>FC_RUN3</t>
-  </si>
-  <si>
-    <t>FC_RUN</t>
-  </si>
-  <si>
-    <t>각 연료전지가 기동중인 상태인지 COGEN에 알려주는 정보 아닌가?</t>
-  </si>
-  <si>
-    <t>%(RPM)</t>
-  </si>
-  <si>
-    <t>Echo Back</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>RX</t>
-  </si>
-  <si>
-    <t>압력, 온도는 Scale 10 적용해서 전송</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>펌프1 전원 Relay</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>펌프2 PWM 신호</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>직수밸브</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC412_OPEN</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT_TH3</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH_M</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH_H</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH_L</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIT02</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIT03</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH_6</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객측 온수 온도</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX(코젠통신상태, LabView용)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX(코젠통신상태, LabView용)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1792,7 +1875,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1801,7 +1884,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1810,7 +1893,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1819,7 +1902,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1828,7 +1911,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1836,7 +1919,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1844,7 +1927,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1852,7 +1935,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1860,7 +1943,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1869,7 +1952,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1878,7 +1961,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1886,7 +1969,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1895,7 +1978,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1903,7 +1986,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1912,7 +1995,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1921,7 +2004,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1929,7 +2012,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1950,14 +2033,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1966,7 +2049,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1974,7 +2057,7 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1982,7 +2065,7 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2006,7 +2089,7 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2021,7 +2104,7 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2029,7 +2112,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2038,7 +2121,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2067,6 +2150,28 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -3472,7 +3577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3671,6 +3776,162 @@
     <xf numFmtId="0" fontId="14" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3680,15 +3941,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3698,53 +3950,128 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -3776,301 +4103,109 @@
     <xf numFmtId="0" fontId="22" fillId="36" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4579,135 +4714,135 @@
   <dimension ref="B2:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:H25"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:12" ht="28.5">
-      <c r="B2" s="75" t="s">
+    <row r="2" spans="2:12" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-    </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+    </row>
+    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="76" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77" t="s">
+      <c r="C5" s="113"/>
+      <c r="D5" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77" t="s">
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="78"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="69" t="s">
+      <c r="J5" s="114"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70" t="s">
+      <c r="C6" s="116"/>
+      <c r="D6" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="71"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="69" t="s">
+      <c r="J6" s="117"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70" t="s">
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="71"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="69"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" thickBot="1">
+      <c r="J7" s="117"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="115"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="117"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="117"/>
+    </row>
+    <row r="12" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
+    </row>
+    <row r="16" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -4715,228 +4850,280 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="72" t="s">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73" t="s">
+      <c r="C17" s="122"/>
+      <c r="D17" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73" t="s">
+      <c r="E17" s="122"/>
+      <c r="F17" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-      <c r="L17" s="85" t="s">
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="L17" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="87"/>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="B18" s="69" t="s">
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="110"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70" t="s">
+      <c r="C18" s="116"/>
+      <c r="D18" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70" t="s">
+      <c r="E18" s="116"/>
+      <c r="F18" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
-      <c r="L18" s="79" t="s">
+      <c r="G18" s="116"/>
+      <c r="H18" s="117"/>
+      <c r="L18" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="81"/>
-    </row>
-    <row r="19" spans="2:20">
-      <c r="B19" s="69" t="s">
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="104"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70" t="s">
+      <c r="C19" s="116"/>
+      <c r="D19" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70" t="s">
+      <c r="E19" s="116"/>
+      <c r="F19" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="70"/>
-      <c r="H19" s="71"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="81"/>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="B20" s="69" t="s">
+      <c r="G19" s="116"/>
+      <c r="H19" s="117"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="104"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70" t="s">
+      <c r="C20" s="116"/>
+      <c r="D20" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70" t="s">
+      <c r="E20" s="116"/>
+      <c r="F20" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="71"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="81"/>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="69" t="s">
+      <c r="G20" s="116"/>
+      <c r="H20" s="117"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="104"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70" t="s">
+      <c r="C21" s="116"/>
+      <c r="D21" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70" t="s">
+      <c r="E21" s="116"/>
+      <c r="F21" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="71"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="81"/>
-    </row>
-    <row r="22" spans="2:20">
-      <c r="B22" s="69" t="s">
+      <c r="G21" s="116"/>
+      <c r="H21" s="117"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="104"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70" t="s">
+      <c r="C22" s="116"/>
+      <c r="D22" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70" t="s">
+      <c r="E22" s="116"/>
+      <c r="F22" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="71"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="81"/>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="69" t="s">
+      <c r="G22" s="116"/>
+      <c r="H22" s="117"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="104"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70" t="s">
+      <c r="C23" s="116"/>
+      <c r="D23" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70" t="s">
+      <c r="E23" s="116"/>
+      <c r="F23" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="71"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="81"/>
-    </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="69" t="s">
+      <c r="G23" s="116"/>
+      <c r="H23" s="117"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="104"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70" t="s">
+      <c r="C24" s="116"/>
+      <c r="D24" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70" t="s">
+      <c r="E24" s="116"/>
+      <c r="F24" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="81"/>
-    </row>
-    <row r="25" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B25" s="66" t="s">
+      <c r="G24" s="116"/>
+      <c r="H24" s="117"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="104"/>
+    </row>
+    <row r="25" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67" t="s">
+      <c r="C25" s="119"/>
+      <c r="D25" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67" t="s">
+      <c r="E25" s="119"/>
+      <c r="F25" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="84"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="L22:T22"/>
     <mergeCell ref="L23:T23"/>
     <mergeCell ref="L24:T24"/>
@@ -4946,58 +5133,6 @@
     <mergeCell ref="L19:T19"/>
     <mergeCell ref="L20:T20"/>
     <mergeCell ref="L21:T21"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5009,29 +5144,29 @@
   <dimension ref="A1:AM99"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="8.85546875" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.875" customWidth="1"/>
+    <col min="24" max="24" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:39">
-      <c r="B2" s="107" t="s">
+    <row r="1" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B2" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -5039,18 +5174,18 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="106" t="s">
+      <c r="S2" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="161"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
@@ -5063,7 +5198,7 @@
       <c r="AL2" s="10"/>
       <c r="AM2" s="11"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>42</v>
       </c>
@@ -5158,7 +5293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B4" s="63" t="s">
         <v>63</v>
       </c>
@@ -5253,7 +5388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -5283,80 +5418,80 @@
       <c r="AL5" s="7"/>
       <c r="AM5" s="3"/>
     </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="110" t="s">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B6" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="S6" s="88" t="s">
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="S6" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88" t="s">
+      <c r="T6" s="133"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133"/>
+      <c r="AA6" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="88"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="88"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="88"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133"/>
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
       <c r="AM6" s="3"/>
     </row>
-    <row r="7" spans="1:39">
-      <c r="B7" s="108" t="s">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B7" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89" t="s">
+      <c r="C7" s="124"/>
+      <c r="D7" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89" t="s">
+      <c r="E7" s="124"/>
+      <c r="F7" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89" t="s">
+      <c r="G7" s="124"/>
+      <c r="H7" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89" t="s">
+      <c r="I7" s="124"/>
+      <c r="J7" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89" t="s">
+      <c r="K7" s="124"/>
+      <c r="L7" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89" t="s">
+      <c r="M7" s="124"/>
+      <c r="N7" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89" t="s">
+      <c r="O7" s="124"/>
+      <c r="P7" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="89"/>
+      <c r="Q7" s="124"/>
       <c r="S7" s="60" t="s">
         <v>69</v>
       </c>
@@ -5407,60 +5542,60 @@
       </c>
       <c r="AM7" s="3"/>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" s="109" t="s">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B8" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103" t="s">
+      <c r="C8" s="131"/>
+      <c r="D8" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="70" t="s">
+      <c r="E8" s="131"/>
+      <c r="F8" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70" t="s">
+      <c r="G8" s="116"/>
+      <c r="H8" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70" t="s">
+      <c r="I8" s="116"/>
+      <c r="J8" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70" t="s">
+      <c r="K8" s="116"/>
+      <c r="L8" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70" t="s">
+      <c r="M8" s="116"/>
+      <c r="N8" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70" t="s">
+      <c r="O8" s="116"/>
+      <c r="P8" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="Q8" s="70"/>
-      <c r="S8" s="103" t="s">
+      <c r="Q8" s="116"/>
+      <c r="S8" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="103"/>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="103"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="131"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="131"/>
+      <c r="Z8" s="131"/>
+      <c r="AA8" s="131"/>
+      <c r="AB8" s="131"/>
+      <c r="AC8" s="131"/>
+      <c r="AD8" s="131"/>
+      <c r="AE8" s="131"/>
+      <c r="AF8" s="131"/>
+      <c r="AG8" s="131"/>
+      <c r="AH8" s="131"/>
       <c r="AM8" s="3"/>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -5512,88 +5647,88 @@
       <c r="AL9" s="9"/>
       <c r="AM9" s="36"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="88" t="s">
+      <c r="S10" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="88" t="s">
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="88"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="133"/>
+      <c r="AD10" s="133"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="133"/>
+      <c r="AG10" s="133"/>
+      <c r="AH10" s="133"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="36"/>
     </row>
-    <row r="11" spans="1:39">
-      <c r="B11" s="108" t="s">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B11" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89" t="s">
+      <c r="C11" s="124"/>
+      <c r="D11" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89" t="s">
+      <c r="E11" s="124"/>
+      <c r="F11" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89" t="s">
+      <c r="G11" s="124"/>
+      <c r="H11" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89" t="s">
+      <c r="I11" s="124"/>
+      <c r="J11" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89" t="s">
+      <c r="K11" s="124"/>
+      <c r="L11" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89" t="s">
+      <c r="M11" s="124"/>
+      <c r="N11" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89" t="s">
+      <c r="O11" s="124"/>
+      <c r="P11" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="89"/>
+      <c r="Q11" s="124"/>
       <c r="R11" s="9"/>
       <c r="S11" s="60" t="s">
         <v>69</v>
@@ -5649,61 +5784,61 @@
       <c r="AL11" s="9"/>
       <c r="AM11" s="36"/>
     </row>
-    <row r="12" spans="1:39">
-      <c r="B12" s="109"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="70" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B12" s="153"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70" t="s">
+      <c r="G12" s="116"/>
+      <c r="H12" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70" t="s">
+      <c r="I12" s="116"/>
+      <c r="J12" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70" t="s">
+      <c r="K12" s="116"/>
+      <c r="L12" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70" t="s">
+      <c r="M12" s="116"/>
+      <c r="N12" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70" t="s">
+      <c r="O12" s="116"/>
+      <c r="P12" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="70"/>
+      <c r="Q12" s="116"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="103" t="s">
+      <c r="S12" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="T12" s="103"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="103"/>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="103"/>
-      <c r="AG12" s="103"/>
-      <c r="AH12" s="103"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="131"/>
+      <c r="AA12" s="131"/>
+      <c r="AB12" s="131"/>
+      <c r="AC12" s="131"/>
+      <c r="AD12" s="131"/>
+      <c r="AE12" s="131"/>
+      <c r="AF12" s="131"/>
+      <c r="AG12" s="131"/>
+      <c r="AH12" s="131"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="36"/>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -5738,21 +5873,21 @@
       <c r="AH13" s="8"/>
       <c r="AM13" s="3"/>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="S14" s="88" t="s">
+      <c r="S14" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="133"/>
       <c r="AM14" s="3"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="S15" s="60" t="s">
         <v>69</v>
@@ -5780,21 +5915,21 @@
       </c>
       <c r="AM15" s="3"/>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="S16" s="103" t="s">
+      <c r="S16" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
+      <c r="Z16" s="131"/>
       <c r="AM16" s="3"/>
     </row>
-    <row r="17" spans="2:39">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -5818,109 +5953,109 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="17"/>
     </row>
-    <row r="18" spans="2:39">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
-      <c r="S18" s="88" t="s">
+      <c r="S18" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="88"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="88"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="88"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="133"/>
+      <c r="W18" s="133"/>
+      <c r="X18" s="133"/>
+      <c r="Y18" s="133"/>
+      <c r="Z18" s="133"/>
+      <c r="AA18" s="133"/>
+      <c r="AB18" s="133"/>
+      <c r="AC18" s="133"/>
+      <c r="AD18" s="133"/>
+      <c r="AE18" s="133"/>
+      <c r="AF18" s="133"/>
+      <c r="AG18" s="133"/>
+      <c r="AH18" s="133"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
       <c r="AM18" s="17"/>
     </row>
-    <row r="19" spans="2:39">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="S19" s="89" t="s">
+      <c r="S19" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89" t="s">
+      <c r="T19" s="124"/>
+      <c r="U19" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89" t="s">
+      <c r="V19" s="124"/>
+      <c r="W19" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89" t="s">
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89" t="s">
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89" t="s">
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="89" t="s">
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="89" t="s">
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="AH19" s="89"/>
+      <c r="AH19" s="124"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="8"/>
       <c r="AM19" s="17"/>
     </row>
-    <row r="20" spans="2:39">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="70" t="s">
+      <c r="S20" s="131"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="131"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70" t="s">
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70" t="s">
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="70" t="s">
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="AD20" s="70"/>
-      <c r="AE20" s="70" t="s">
+      <c r="AD20" s="116"/>
+      <c r="AE20" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="AF20" s="70"/>
-      <c r="AG20" s="70" t="s">
+      <c r="AF20" s="116"/>
+      <c r="AG20" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="AH20" s="70"/>
+      <c r="AH20" s="116"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
       <c r="AL20" s="8"/>
       <c r="AM20" s="17"/>
     </row>
-    <row r="21" spans="2:39">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -5940,101 +6075,101 @@
       <c r="AH21" s="8"/>
       <c r="AM21" s="3"/>
     </row>
-    <row r="22" spans="2:39">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
-      <c r="S22" s="88" t="s">
+      <c r="S22" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="88"/>
-      <c r="AC22" s="88"/>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="88"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="133"/>
+      <c r="V22" s="133"/>
+      <c r="W22" s="133"/>
+      <c r="X22" s="133"/>
+      <c r="Y22" s="133"/>
+      <c r="Z22" s="133"/>
+      <c r="AA22" s="133"/>
+      <c r="AB22" s="133"/>
+      <c r="AC22" s="133"/>
+      <c r="AD22" s="133"/>
+      <c r="AE22" s="133"/>
+      <c r="AF22" s="133"/>
+      <c r="AG22" s="133"/>
+      <c r="AH22" s="133"/>
       <c r="AM22" s="3"/>
     </row>
-    <row r="23" spans="2:39">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
-      <c r="S23" s="89" t="s">
+      <c r="S23" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89" t="s">
+      <c r="T23" s="124"/>
+      <c r="U23" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89" t="s">
+      <c r="V23" s="124"/>
+      <c r="W23" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89" t="s">
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89" t="s">
+      <c r="Z23" s="124"/>
+      <c r="AA23" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="AB23" s="89"/>
-      <c r="AC23" s="89" t="s">
+      <c r="AB23" s="124"/>
+      <c r="AC23" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="AD23" s="89"/>
-      <c r="AE23" s="89" t="s">
+      <c r="AD23" s="124"/>
+      <c r="AE23" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="AF23" s="89"/>
-      <c r="AG23" s="89" t="s">
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="AH23" s="89"/>
+      <c r="AH23" s="124"/>
       <c r="AM23" s="3"/>
     </row>
-    <row r="24" spans="2:39">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
-      <c r="S24" s="103" t="s">
+      <c r="S24" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="T24" s="103"/>
-      <c r="U24" s="104" t="s">
+      <c r="T24" s="131"/>
+      <c r="U24" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="V24" s="105"/>
-      <c r="W24" s="103" t="s">
+      <c r="V24" s="130"/>
+      <c r="W24" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="103" t="s">
+      <c r="X24" s="131"/>
+      <c r="Y24" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="Z24" s="103"/>
-      <c r="AA24" s="103" t="s">
+      <c r="Z24" s="131"/>
+      <c r="AA24" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="104" t="s">
+      <c r="AB24" s="131"/>
+      <c r="AC24" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="AD24" s="105"/>
-      <c r="AE24" s="103" t="s">
+      <c r="AD24" s="130"/>
+      <c r="AE24" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="AF24" s="103"/>
-      <c r="AG24" s="105" t="s">
+      <c r="AF24" s="131"/>
+      <c r="AG24" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="AH24" s="105"/>
+      <c r="AH24" s="130"/>
       <c r="AM24" s="3"/>
     </row>
-    <row r="25" spans="2:39">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
@@ -6058,113 +6193,113 @@
       <c r="AL25" s="38"/>
       <c r="AM25" s="39"/>
     </row>
-    <row r="26" spans="2:39">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
-      <c r="S26" s="88" t="s">
+      <c r="S26" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="88"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="88"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="88"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="133"/>
+      <c r="W26" s="133"/>
+      <c r="X26" s="133"/>
+      <c r="Y26" s="133"/>
+      <c r="Z26" s="133"/>
+      <c r="AA26" s="133"/>
+      <c r="AB26" s="133"/>
+      <c r="AC26" s="133"/>
+      <c r="AD26" s="133"/>
+      <c r="AE26" s="133"/>
+      <c r="AF26" s="133"/>
+      <c r="AG26" s="133"/>
+      <c r="AH26" s="133"/>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
       <c r="AK26" s="37"/>
       <c r="AL26" s="38"/>
       <c r="AM26" s="39"/>
     </row>
-    <row r="27" spans="2:39">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
-      <c r="S27" s="89" t="s">
+      <c r="S27" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89" t="s">
+      <c r="T27" s="124"/>
+      <c r="U27" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89" t="s">
+      <c r="V27" s="124"/>
+      <c r="W27" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89" t="s">
+      <c r="X27" s="124"/>
+      <c r="Y27" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89" t="s">
+      <c r="Z27" s="124"/>
+      <c r="AA27" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89" t="s">
+      <c r="AB27" s="124"/>
+      <c r="AC27" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="AD27" s="89"/>
-      <c r="AE27" s="89" t="s">
+      <c r="AD27" s="124"/>
+      <c r="AE27" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="89" t="s">
+      <c r="AF27" s="124"/>
+      <c r="AG27" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="AH27" s="89"/>
+      <c r="AH27" s="124"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
       <c r="AK27" s="37"/>
       <c r="AL27" s="38"/>
       <c r="AM27" s="39"/>
     </row>
-    <row r="28" spans="2:39">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
-      <c r="S28" s="103" t="s">
+      <c r="S28" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="T28" s="103"/>
-      <c r="U28" s="104" t="s">
+      <c r="T28" s="131"/>
+      <c r="U28" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="V28" s="105"/>
-      <c r="W28" s="105" t="s">
+      <c r="V28" s="130"/>
+      <c r="W28" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="X28" s="105"/>
-      <c r="Y28" s="103" t="s">
+      <c r="X28" s="130"/>
+      <c r="Y28" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="Z28" s="103"/>
-      <c r="AA28" s="103" t="s">
+      <c r="Z28" s="131"/>
+      <c r="AA28" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="AB28" s="103"/>
-      <c r="AC28" s="104" t="s">
+      <c r="AB28" s="131"/>
+      <c r="AC28" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="AD28" s="105"/>
-      <c r="AE28" s="104" t="s">
+      <c r="AD28" s="130"/>
+      <c r="AE28" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="AF28" s="105"/>
-      <c r="AG28" s="105" t="s">
+      <c r="AF28" s="130"/>
+      <c r="AG28" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="AH28" s="105"/>
+      <c r="AH28" s="130"/>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
       <c r="AK28" s="37"/>
       <c r="AL28" s="38"/>
       <c r="AM28" s="39"/>
     </row>
-    <row r="29" spans="2:39">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -6184,101 +6319,101 @@
       <c r="AH29" s="8"/>
       <c r="AM29" s="3"/>
     </row>
-    <row r="30" spans="2:39">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
-      <c r="S30" s="88" t="s">
+      <c r="S30" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="88"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="88"/>
-      <c r="AA30" s="88"/>
-      <c r="AB30" s="88"/>
-      <c r="AC30" s="88"/>
-      <c r="AD30" s="88"/>
-      <c r="AE30" s="88"/>
-      <c r="AF30" s="88"/>
-      <c r="AG30" s="88"/>
-      <c r="AH30" s="88"/>
+      <c r="T30" s="133"/>
+      <c r="U30" s="133"/>
+      <c r="V30" s="133"/>
+      <c r="W30" s="133"/>
+      <c r="X30" s="133"/>
+      <c r="Y30" s="133"/>
+      <c r="Z30" s="133"/>
+      <c r="AA30" s="133"/>
+      <c r="AB30" s="133"/>
+      <c r="AC30" s="133"/>
+      <c r="AD30" s="133"/>
+      <c r="AE30" s="133"/>
+      <c r="AF30" s="133"/>
+      <c r="AG30" s="133"/>
+      <c r="AH30" s="133"/>
       <c r="AM30" s="3"/>
     </row>
-    <row r="31" spans="2:39">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
-      <c r="S31" s="89" t="s">
+      <c r="S31" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89" t="s">
+      <c r="T31" s="124"/>
+      <c r="U31" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89" t="s">
+      <c r="V31" s="124"/>
+      <c r="W31" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89" t="s">
+      <c r="X31" s="124"/>
+      <c r="Y31" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89" t="s">
+      <c r="Z31" s="124"/>
+      <c r="AA31" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="AB31" s="89"/>
-      <c r="AC31" s="89" t="s">
+      <c r="AB31" s="124"/>
+      <c r="AC31" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="AD31" s="89"/>
-      <c r="AE31" s="89" t="s">
+      <c r="AD31" s="124"/>
+      <c r="AE31" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="AF31" s="89"/>
-      <c r="AG31" s="89" t="s">
+      <c r="AF31" s="124"/>
+      <c r="AG31" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="AH31" s="89"/>
+      <c r="AH31" s="124"/>
       <c r="AM31" s="3"/>
     </row>
-    <row r="32" spans="2:39">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
-      <c r="S32" s="103" t="s">
+      <c r="S32" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="T32" s="103"/>
-      <c r="U32" s="103" t="s">
+      <c r="T32" s="131"/>
+      <c r="U32" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="V32" s="103"/>
-      <c r="W32" s="70" t="s">
+      <c r="V32" s="131"/>
+      <c r="W32" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="X32" s="70"/>
-      <c r="Y32" s="70" t="s">
+      <c r="X32" s="116"/>
+      <c r="Y32" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="Z32" s="70"/>
-      <c r="AA32" s="70" t="s">
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="AB32" s="70"/>
-      <c r="AC32" s="70" t="s">
+      <c r="AB32" s="116"/>
+      <c r="AC32" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="AD32" s="70"/>
-      <c r="AE32" s="70" t="s">
+      <c r="AD32" s="116"/>
+      <c r="AE32" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="AF32" s="70"/>
-      <c r="AG32" s="70" t="s">
+      <c r="AF32" s="116"/>
+      <c r="AG32" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="AH32" s="70"/>
+      <c r="AH32" s="116"/>
       <c r="AM32" s="3"/>
     </row>
-    <row r="33" spans="2:39">
+    <row r="33" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
@@ -6298,31 +6433,31 @@
       <c r="AH33" s="8"/>
       <c r="AM33" s="3"/>
     </row>
-    <row r="34" spans="2:39">
+    <row r="34" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
-      <c r="S34" s="88" t="s">
+      <c r="S34" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="T34" s="88"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="88"/>
-      <c r="Y34" s="88"/>
-      <c r="Z34" s="88"/>
-      <c r="AA34" s="88" t="s">
+      <c r="T34" s="133"/>
+      <c r="U34" s="133"/>
+      <c r="V34" s="133"/>
+      <c r="W34" s="133"/>
+      <c r="X34" s="133"/>
+      <c r="Y34" s="133"/>
+      <c r="Z34" s="133"/>
+      <c r="AA34" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="AB34" s="88"/>
-      <c r="AC34" s="88"/>
-      <c r="AD34" s="88"/>
-      <c r="AE34" s="88"/>
-      <c r="AF34" s="88"/>
-      <c r="AG34" s="88"/>
-      <c r="AH34" s="88"/>
+      <c r="AB34" s="133"/>
+      <c r="AC34" s="133"/>
+      <c r="AD34" s="133"/>
+      <c r="AE34" s="133"/>
+      <c r="AF34" s="133"/>
+      <c r="AG34" s="133"/>
+      <c r="AH34" s="133"/>
       <c r="AM34" s="3"/>
     </row>
-    <row r="35" spans="2:39">
+    <row r="35" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="S35" s="60" t="s">
         <v>69</v>
@@ -6374,29 +6509,29 @@
       </c>
       <c r="AM35" s="3"/>
     </row>
-    <row r="36" spans="2:39">
+    <row r="36" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
-      <c r="S36" s="130" t="s">
+      <c r="S36" s="138" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="130"/>
-      <c r="U36" s="130"/>
-      <c r="V36" s="130"/>
-      <c r="W36" s="130"/>
-      <c r="X36" s="130"/>
-      <c r="Y36" s="130"/>
-      <c r="Z36" s="130"/>
-      <c r="AA36" s="130"/>
-      <c r="AB36" s="130"/>
-      <c r="AC36" s="130"/>
-      <c r="AD36" s="130"/>
-      <c r="AE36" s="130"/>
-      <c r="AF36" s="130"/>
-      <c r="AG36" s="130"/>
-      <c r="AH36" s="130"/>
+      <c r="T36" s="138"/>
+      <c r="U36" s="138"/>
+      <c r="V36" s="138"/>
+      <c r="W36" s="138"/>
+      <c r="X36" s="138"/>
+      <c r="Y36" s="138"/>
+      <c r="Z36" s="138"/>
+      <c r="AA36" s="138"/>
+      <c r="AB36" s="138"/>
+      <c r="AC36" s="138"/>
+      <c r="AD36" s="138"/>
+      <c r="AE36" s="138"/>
+      <c r="AF36" s="138"/>
+      <c r="AG36" s="138"/>
+      <c r="AH36" s="138"/>
       <c r="AM36" s="3"/>
     </row>
-    <row r="37" spans="2:39">
+    <row r="37" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="S37" s="32"/>
       <c r="T37" s="32"/>
@@ -6420,35 +6555,35 @@
       <c r="AL37" s="32"/>
       <c r="AM37" s="33"/>
     </row>
-    <row r="38" spans="2:39">
+    <row r="38" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
-      <c r="S38" s="88" t="s">
+      <c r="S38" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="T38" s="88"/>
-      <c r="U38" s="88"/>
-      <c r="V38" s="88"/>
-      <c r="W38" s="88"/>
-      <c r="X38" s="88"/>
-      <c r="Y38" s="88"/>
-      <c r="Z38" s="88"/>
-      <c r="AA38" s="88" t="s">
+      <c r="T38" s="133"/>
+      <c r="U38" s="133"/>
+      <c r="V38" s="133"/>
+      <c r="W38" s="133"/>
+      <c r="X38" s="133"/>
+      <c r="Y38" s="133"/>
+      <c r="Z38" s="133"/>
+      <c r="AA38" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="AB38" s="88"/>
-      <c r="AC38" s="88"/>
-      <c r="AD38" s="88"/>
-      <c r="AE38" s="88"/>
-      <c r="AF38" s="88"/>
-      <c r="AG38" s="88"/>
-      <c r="AH38" s="88"/>
+      <c r="AB38" s="133"/>
+      <c r="AC38" s="133"/>
+      <c r="AD38" s="133"/>
+      <c r="AE38" s="133"/>
+      <c r="AF38" s="133"/>
+      <c r="AG38" s="133"/>
+      <c r="AH38" s="133"/>
       <c r="AI38" s="32"/>
       <c r="AJ38" s="32"/>
       <c r="AK38" s="32"/>
       <c r="AL38" s="32"/>
       <c r="AM38" s="33"/>
     </row>
-    <row r="39" spans="2:39">
+    <row r="39" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="S39" s="60" t="s">
         <v>69</v>
@@ -6504,33 +6639,33 @@
       <c r="AL39" s="32"/>
       <c r="AM39" s="33"/>
     </row>
-    <row r="40" spans="2:39">
+    <row r="40" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
-      <c r="S40" s="130" t="s">
+      <c r="S40" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="T40" s="130"/>
-      <c r="U40" s="130"/>
-      <c r="V40" s="130"/>
-      <c r="W40" s="130"/>
-      <c r="X40" s="130"/>
-      <c r="Y40" s="130"/>
-      <c r="Z40" s="130"/>
-      <c r="AA40" s="130"/>
-      <c r="AB40" s="130"/>
-      <c r="AC40" s="130"/>
-      <c r="AD40" s="130"/>
-      <c r="AE40" s="130"/>
-      <c r="AF40" s="130"/>
-      <c r="AG40" s="130"/>
-      <c r="AH40" s="130"/>
+      <c r="T40" s="138"/>
+      <c r="U40" s="138"/>
+      <c r="V40" s="138"/>
+      <c r="W40" s="138"/>
+      <c r="X40" s="138"/>
+      <c r="Y40" s="138"/>
+      <c r="Z40" s="138"/>
+      <c r="AA40" s="138"/>
+      <c r="AB40" s="138"/>
+      <c r="AC40" s="138"/>
+      <c r="AD40" s="138"/>
+      <c r="AE40" s="138"/>
+      <c r="AF40" s="138"/>
+      <c r="AG40" s="138"/>
+      <c r="AH40" s="138"/>
       <c r="AI40" s="32"/>
       <c r="AJ40" s="32"/>
       <c r="AK40" s="32"/>
       <c r="AL40" s="32"/>
       <c r="AM40" s="33"/>
     </row>
-    <row r="41" spans="2:39">
+    <row r="41" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="S41" s="32"/>
       <c r="T41" s="32"/>
@@ -6554,26 +6689,26 @@
       <c r="AL41" s="32"/>
       <c r="AM41" s="33"/>
     </row>
-    <row r="42" spans="2:39">
+    <row r="42" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
-      <c r="S42" s="88" t="s">
+      <c r="S42" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="88"/>
-      <c r="Y42" s="88"/>
-      <c r="Z42" s="88"/>
-      <c r="AA42" s="88"/>
-      <c r="AB42" s="88"/>
-      <c r="AC42" s="88"/>
-      <c r="AD42" s="88"/>
-      <c r="AE42" s="88"/>
-      <c r="AF42" s="88"/>
-      <c r="AG42" s="88"/>
-      <c r="AH42" s="88"/>
+      <c r="T42" s="133"/>
+      <c r="U42" s="133"/>
+      <c r="V42" s="133"/>
+      <c r="W42" s="133"/>
+      <c r="X42" s="133"/>
+      <c r="Y42" s="133"/>
+      <c r="Z42" s="133"/>
+      <c r="AA42" s="133"/>
+      <c r="AB42" s="133"/>
+      <c r="AC42" s="133"/>
+      <c r="AD42" s="133"/>
+      <c r="AE42" s="133"/>
+      <c r="AF42" s="133"/>
+      <c r="AG42" s="133"/>
+      <c r="AH42" s="133"/>
       <c r="AI42" s="32"/>
       <c r="AJ42" s="32" t="s">
         <v>114</v>
@@ -6586,40 +6721,40 @@
       </c>
       <c r="AM42" s="33"/>
     </row>
-    <row r="43" spans="2:39">
+    <row r="43" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
-      <c r="S43" s="89" t="s">
+      <c r="S43" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="T43" s="89"/>
-      <c r="U43" s="89" t="s">
+      <c r="T43" s="124"/>
+      <c r="U43" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="V43" s="89"/>
-      <c r="W43" s="89" t="s">
+      <c r="V43" s="124"/>
+      <c r="W43" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="X43" s="89"/>
-      <c r="Y43" s="89" t="s">
+      <c r="X43" s="124"/>
+      <c r="Y43" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="Z43" s="89"/>
-      <c r="AA43" s="89" t="s">
+      <c r="Z43" s="124"/>
+      <c r="AA43" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="AB43" s="89"/>
-      <c r="AC43" s="89" t="s">
+      <c r="AB43" s="124"/>
+      <c r="AC43" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="AD43" s="89"/>
-      <c r="AE43" s="89" t="s">
+      <c r="AD43" s="124"/>
+      <c r="AE43" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="AF43" s="89"/>
-      <c r="AG43" s="89" t="s">
+      <c r="AF43" s="124"/>
+      <c r="AG43" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="AH43" s="89"/>
+      <c r="AH43" s="124"/>
       <c r="AI43" s="32"/>
       <c r="AJ43" s="32" t="s">
         <v>117</v>
@@ -6632,7 +6767,7 @@
       </c>
       <c r="AM43" s="33"/>
     </row>
-    <row r="44" spans="2:39" ht="15.75" thickBot="1">
+    <row r="44" spans="2:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="22"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
@@ -6650,28 +6785,28 @@
       <c r="P44" s="20"/>
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
-      <c r="S44" s="137"/>
-      <c r="T44" s="137"/>
-      <c r="U44" s="137"/>
-      <c r="V44" s="137"/>
-      <c r="W44" s="67"/>
-      <c r="X44" s="67"/>
-      <c r="Y44" s="67"/>
-      <c r="Z44" s="67"/>
-      <c r="AA44" s="67"/>
-      <c r="AB44" s="67"/>
-      <c r="AC44" s="67" t="s">
+      <c r="S44" s="139"/>
+      <c r="T44" s="139"/>
+      <c r="U44" s="139"/>
+      <c r="V44" s="139"/>
+      <c r="W44" s="119"/>
+      <c r="X44" s="119"/>
+      <c r="Y44" s="119"/>
+      <c r="Z44" s="119"/>
+      <c r="AA44" s="119"/>
+      <c r="AB44" s="119"/>
+      <c r="AC44" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="AD44" s="67"/>
-      <c r="AE44" s="67" t="s">
+      <c r="AD44" s="119"/>
+      <c r="AE44" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="AF44" s="67"/>
-      <c r="AG44" s="67" t="s">
+      <c r="AF44" s="119"/>
+      <c r="AG44" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="AH44" s="67"/>
+      <c r="AH44" s="119"/>
       <c r="AI44" s="34"/>
       <c r="AJ44" s="34" t="s">
         <v>120</v>
@@ -6682,7 +6817,7 @@
       </c>
       <c r="AM44" s="35"/>
     </row>
-    <row r="45" spans="2:39" ht="15.75" thickBot="1">
+    <row r="45" spans="2:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -6700,7 +6835,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="2:39" ht="16.5">
+    <row r="46" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>122</v>
       </c>
@@ -6717,23 +6852,23 @@
       <c r="M46" s="10"/>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="2:39">
-      <c r="B47" s="111" t="s">
+    <row r="47" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B47" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="I47" s="112" t="s">
+      <c r="C47" s="154"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="154"/>
+      <c r="I47" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="J47" s="112"/>
-      <c r="K47" s="112"/>
-      <c r="L47" s="112"/>
-      <c r="M47" s="112"/>
-      <c r="N47" s="128"/>
+      <c r="J47" s="154"/>
+      <c r="K47" s="154"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="154"/>
+      <c r="N47" s="155"/>
       <c r="O47" s="24" t="s">
         <v>125</v>
       </c>
@@ -6753,7 +6888,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="2:39">
+    <row r="48" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B48" s="30" t="s">
         <v>131</v>
       </c>
@@ -6763,11 +6898,11 @@
       <c r="D48" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="102" t="s">
+      <c r="E48" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="146"/>
       <c r="I48" s="61" t="s">
         <v>131</v>
       </c>
@@ -6777,11 +6912,11 @@
       <c r="K48" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="L48" s="99" t="s">
+      <c r="L48" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="M48" s="99"/>
-      <c r="N48" s="100"/>
+      <c r="M48" s="173"/>
+      <c r="N48" s="174"/>
       <c r="O48" s="24" t="s">
         <v>125</v>
       </c>
@@ -6801,7 +6936,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="2:27">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B49" s="19" t="s">
         <v>139</v>
       </c>
@@ -6811,12 +6946,12 @@
       <c r="D49" s="43">
         <v>10</v>
       </c>
-      <c r="E49" s="90" t="s">
+      <c r="E49" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="I49" s="118" t="s">
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+      <c r="I49" s="157" t="s">
         <v>142</v>
       </c>
       <c r="J49" s="40" t="s">
@@ -6825,9 +6960,9 @@
       <c r="K49" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="L49" s="91"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="92"/>
+      <c r="L49" s="165"/>
+      <c r="M49" s="165"/>
+      <c r="N49" s="166"/>
       <c r="O49" s="24" t="s">
         <v>144</v>
       </c>
@@ -6841,7 +6976,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="2:27">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B50" s="19" t="s">
         <v>148</v>
       </c>
@@ -6851,26 +6986,26 @@
       <c r="D50" s="43">
         <v>10</v>
       </c>
-      <c r="E50" s="90" t="s">
+      <c r="E50" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="I50" s="119"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128"/>
+      <c r="I50" s="158"/>
       <c r="J50" s="40" t="s">
         <v>151</v>
       </c>
       <c r="K50" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L50" s="91"/>
-      <c r="M50" s="91"/>
-      <c r="N50" s="92"/>
+      <c r="L50" s="165"/>
+      <c r="M50" s="165"/>
+      <c r="N50" s="166"/>
       <c r="O50" s="24"/>
       <c r="P50" s="23"/>
       <c r="Q50" s="23"/>
     </row>
-    <row r="51" spans="2:27">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B51" s="19" t="s">
         <v>152</v>
       </c>
@@ -6880,23 +7015,23 @@
       <c r="D51" s="43">
         <v>100</v>
       </c>
-      <c r="E51" s="90" t="s">
+      <c r="E51" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="I51" s="119"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+      <c r="I51" s="158"/>
       <c r="J51" s="40" t="s">
         <v>155</v>
       </c>
       <c r="K51" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="L51" s="91" t="s">
+      <c r="L51" s="165" t="s">
         <v>157</v>
       </c>
-      <c r="M51" s="91"/>
-      <c r="N51" s="92"/>
+      <c r="M51" s="165"/>
+      <c r="N51" s="166"/>
       <c r="O51" s="24" t="s">
         <v>144</v>
       </c>
@@ -6916,8 +7051,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="2:27">
-      <c r="B52" s="122" t="s">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B52" s="141" t="s">
         <v>163</v>
       </c>
       <c r="C52" s="40" t="s">
@@ -6929,22 +7064,22 @@
       <c r="E52" s="125"/>
       <c r="F52" s="126"/>
       <c r="G52" s="127"/>
-      <c r="I52" s="119"/>
+      <c r="I52" s="158"/>
       <c r="J52" s="40" t="s">
         <v>165</v>
       </c>
       <c r="K52" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="L52" s="91"/>
-      <c r="M52" s="91"/>
-      <c r="N52" s="92"/>
+      <c r="L52" s="165"/>
+      <c r="M52" s="165"/>
+      <c r="N52" s="166"/>
       <c r="O52" s="24"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
     </row>
-    <row r="53" spans="2:27">
-      <c r="B53" s="123"/>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B53" s="142"/>
       <c r="C53" s="4" t="s">
         <v>101</v>
       </c>
@@ -6954,22 +7089,22 @@
       <c r="E53" s="125"/>
       <c r="F53" s="126"/>
       <c r="G53" s="127"/>
-      <c r="I53" s="119"/>
+      <c r="I53" s="158"/>
       <c r="J53" s="54" t="s">
         <v>167</v>
       </c>
       <c r="K53" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="L53" s="93" t="s">
+      <c r="L53" s="167" t="s">
         <v>169</v>
       </c>
-      <c r="M53" s="94"/>
-      <c r="N53" s="95"/>
+      <c r="M53" s="168"/>
+      <c r="N53" s="169"/>
       <c r="O53" s="24"/>
     </row>
-    <row r="54" spans="2:27">
-      <c r="B54" s="123"/>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B54" s="142"/>
       <c r="C54" s="40" t="s">
         <v>170</v>
       </c>
@@ -6979,18 +7114,18 @@
       <c r="E54" s="125"/>
       <c r="F54" s="126"/>
       <c r="G54" s="127"/>
-      <c r="I54" s="119"/>
+      <c r="I54" s="158"/>
       <c r="J54" s="40" t="s">
         <v>171</v>
       </c>
       <c r="K54" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="L54" s="91" t="s">
+      <c r="L54" s="165" t="s">
         <v>173</v>
       </c>
-      <c r="M54" s="91"/>
-      <c r="N54" s="92"/>
+      <c r="M54" s="165"/>
+      <c r="N54" s="166"/>
       <c r="O54" s="24" t="s">
         <v>144</v>
       </c>
@@ -7016,8 +7151,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="2:27">
-      <c r="B55" s="123"/>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B55" s="142"/>
       <c r="C55" s="65" t="s">
         <v>180</v>
       </c>
@@ -7029,18 +7164,18 @@
       </c>
       <c r="F55" s="126"/>
       <c r="G55" s="127"/>
-      <c r="I55" s="119"/>
+      <c r="I55" s="158"/>
       <c r="J55" s="31" t="s">
         <v>182</v>
       </c>
       <c r="K55" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="L55" s="96" t="s">
+      <c r="L55" s="170" t="s">
         <v>184</v>
       </c>
-      <c r="M55" s="97"/>
-      <c r="N55" s="98"/>
+      <c r="M55" s="171"/>
+      <c r="N55" s="172"/>
       <c r="O55" s="24" t="s">
         <v>125</v>
       </c>
@@ -7051,8 +7186,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="2:27">
-      <c r="B56" s="123"/>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B56" s="142"/>
       <c r="C56" s="40" t="s">
         <v>187</v>
       </c>
@@ -7062,23 +7197,23 @@
       <c r="E56" s="125"/>
       <c r="F56" s="126"/>
       <c r="G56" s="127"/>
-      <c r="I56" s="120"/>
+      <c r="I56" s="159"/>
       <c r="J56" s="31" t="s">
         <v>188</v>
       </c>
       <c r="K56" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="L56" s="91"/>
-      <c r="M56" s="91"/>
-      <c r="N56" s="92"/>
+      <c r="L56" s="165"/>
+      <c r="M56" s="165"/>
+      <c r="N56" s="166"/>
       <c r="Q56" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="2:27">
-      <c r="B57" s="123"/>
-      <c r="C57" s="115" t="s">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B57" s="142"/>
+      <c r="C57" s="147" t="s">
         <v>191</v>
       </c>
       <c r="D57" s="29" t="s">
@@ -7089,7 +7224,7 @@
       </c>
       <c r="F57" s="126"/>
       <c r="G57" s="127"/>
-      <c r="I57" s="121" t="s">
+      <c r="I57" s="140" t="s">
         <v>193</v>
       </c>
       <c r="J57" s="40" t="s">
@@ -7098,15 +7233,15 @@
       <c r="K57" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="L57" s="90" t="s">
+      <c r="L57" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="M57" s="90"/>
-      <c r="N57" s="101"/>
-    </row>
-    <row r="58" spans="2:27">
-      <c r="B58" s="123"/>
-      <c r="C58" s="116"/>
+      <c r="M57" s="128"/>
+      <c r="N57" s="134"/>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B58" s="142"/>
+      <c r="C58" s="148"/>
       <c r="D58" s="29" t="s">
         <v>183</v>
       </c>
@@ -7115,18 +7250,18 @@
       </c>
       <c r="F58" s="126"/>
       <c r="G58" s="127"/>
-      <c r="I58" s="121"/>
+      <c r="I58" s="140"/>
       <c r="J58" s="40" t="s">
         <v>196</v>
       </c>
       <c r="K58" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L58" s="90" t="s">
+      <c r="L58" s="128" t="s">
         <v>197</v>
       </c>
-      <c r="M58" s="90"/>
-      <c r="N58" s="101"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="134"/>
       <c r="Q58" t="s">
         <v>127</v>
       </c>
@@ -7140,9 +7275,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:27">
-      <c r="B59" s="124"/>
-      <c r="C59" s="117"/>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B59" s="160"/>
+      <c r="C59" s="149"/>
       <c r="D59" s="29" t="s">
         <v>189</v>
       </c>
@@ -7151,18 +7286,18 @@
       </c>
       <c r="F59" s="126"/>
       <c r="G59" s="127"/>
-      <c r="I59" s="121"/>
+      <c r="I59" s="140"/>
       <c r="J59" s="40" t="s">
         <v>170</v>
       </c>
       <c r="K59" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="L59" s="90" t="s">
+      <c r="L59" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="M59" s="90"/>
-      <c r="N59" s="101"/>
+      <c r="M59" s="128"/>
+      <c r="N59" s="134"/>
       <c r="Q59" t="s">
         <v>201</v>
       </c>
@@ -7176,7 +7311,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="2:27" ht="16.5">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B60" s="19" t="s">
         <v>204</v>
       </c>
@@ -7186,26 +7321,26 @@
       <c r="D60" s="43">
         <v>1</v>
       </c>
-      <c r="E60" s="133" t="s">
+      <c r="E60" s="145" t="s">
         <v>206</v>
       </c>
       <c r="F60" s="126"/>
       <c r="G60" s="127"/>
-      <c r="I60" s="121"/>
+      <c r="I60" s="140"/>
       <c r="J60" s="40" t="s">
         <v>207</v>
       </c>
       <c r="K60" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="L60" s="90" t="s">
+      <c r="L60" s="128" t="s">
         <v>208</v>
       </c>
-      <c r="M60" s="90"/>
-      <c r="N60" s="101"/>
-    </row>
-    <row r="61" spans="2:27">
-      <c r="B61" s="113" t="s">
+      <c r="M60" s="128"/>
+      <c r="N60" s="134"/>
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B61" s="150" t="s">
         <v>209</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -7214,70 +7349,70 @@
       <c r="D61" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="I61" s="121"/>
+      <c r="E61" s="128"/>
+      <c r="F61" s="128"/>
+      <c r="G61" s="128"/>
+      <c r="I61" s="140"/>
       <c r="J61" s="40" t="s">
         <v>187</v>
       </c>
       <c r="K61" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="L61" s="90" t="s">
+      <c r="L61" s="128" t="s">
         <v>210</v>
       </c>
-      <c r="M61" s="90"/>
-      <c r="N61" s="101"/>
-    </row>
-    <row r="62" spans="2:27">
-      <c r="B62" s="114"/>
+      <c r="M61" s="128"/>
+      <c r="N61" s="134"/>
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B62" s="151"/>
       <c r="C62" s="40" t="s">
         <v>143</v>
       </c>
       <c r="D62" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="I62" s="121"/>
+      <c r="E62" s="128"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="128"/>
+      <c r="I62" s="140"/>
       <c r="J62" s="40" t="s">
         <v>211</v>
       </c>
       <c r="K62" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="L62" s="90" t="s">
+      <c r="L62" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="M62" s="90"/>
-      <c r="N62" s="101"/>
+      <c r="M62" s="128"/>
+      <c r="N62" s="134"/>
       <c r="Q62" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="2:27">
-      <c r="B63" s="114"/>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B63" s="151"/>
       <c r="C63" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D63" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="I63" s="121"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="128"/>
+      <c r="G63" s="128"/>
+      <c r="I63" s="140"/>
       <c r="J63" s="40" t="s">
         <v>214</v>
       </c>
       <c r="K63" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="L63" s="90"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="101"/>
+      <c r="L63" s="128"/>
+      <c r="M63" s="128"/>
+      <c r="N63" s="134"/>
       <c r="Q63" t="s">
         <v>127</v>
       </c>
@@ -7288,29 +7423,29 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="2:27">
-      <c r="B64" s="114"/>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B64" s="151"/>
       <c r="C64" s="40" t="s">
         <v>155</v>
       </c>
       <c r="D64" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E64" s="90" t="s">
+      <c r="E64" s="128" t="s">
         <v>216</v>
       </c>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
-      <c r="I64" s="121"/>
+      <c r="F64" s="128"/>
+      <c r="G64" s="128"/>
+      <c r="I64" s="140"/>
       <c r="J64" s="40" t="s">
         <v>217</v>
       </c>
       <c r="K64" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="L64" s="90"/>
-      <c r="M64" s="90"/>
-      <c r="N64" s="101"/>
+      <c r="L64" s="128"/>
+      <c r="M64" s="128"/>
+      <c r="N64" s="134"/>
       <c r="Q64" t="s">
         <v>201</v>
       </c>
@@ -7330,19 +7465,19 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="2:26">
-      <c r="B65" s="114"/>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B65" s="151"/>
       <c r="C65" s="40" t="s">
         <v>171</v>
       </c>
       <c r="D65" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E65" s="90" t="s">
+      <c r="E65" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="F65" s="90"/>
-      <c r="G65" s="90"/>
+      <c r="F65" s="128"/>
+      <c r="G65" s="128"/>
       <c r="I65" s="31" t="s">
         <v>221</v>
       </c>
@@ -7350,26 +7485,26 @@
         <v>222</v>
       </c>
       <c r="K65" s="43"/>
-      <c r="L65" s="134" t="s">
+      <c r="L65" s="135" t="s">
         <v>223</v>
       </c>
-      <c r="M65" s="135"/>
-      <c r="N65" s="136"/>
+      <c r="M65" s="136"/>
+      <c r="N65" s="137"/>
       <c r="Q65" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="2:26">
-      <c r="B66" s="114"/>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B66" s="151"/>
       <c r="C66" s="31" t="s">
         <v>225</v>
       </c>
       <c r="D66" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E66" s="90"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="90"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
       <c r="N66" s="3"/>
       <c r="Q66" t="s">
         <v>190</v>
@@ -7387,39 +7522,39 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="2:26">
-      <c r="B67" s="114"/>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B67" s="151"/>
       <c r="C67" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D67" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="90"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
       <c r="N67" s="3"/>
       <c r="Q67" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="2:26">
-      <c r="B68" s="114"/>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B68" s="151"/>
       <c r="C68" s="31" t="s">
         <v>182</v>
       </c>
       <c r="D68" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="90" t="s">
+      <c r="E68" s="128" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="90"/>
-      <c r="G68" s="90"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="2:26">
-      <c r="B69" s="113" t="s">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B69" s="150" t="s">
         <v>229</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -7428,143 +7563,143 @@
       <c r="D69" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E69" s="90"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="90"/>
+      <c r="E69" s="128"/>
+      <c r="F69" s="128"/>
+      <c r="G69" s="128"/>
       <c r="N69" s="3"/>
       <c r="Q69" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="2:26">
-      <c r="B70" s="114"/>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B70" s="151"/>
       <c r="C70" s="41" t="s">
         <v>230</v>
       </c>
       <c r="D70" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E70" s="90"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="90"/>
+      <c r="E70" s="128"/>
+      <c r="F70" s="128"/>
+      <c r="G70" s="128"/>
       <c r="N70" s="3"/>
       <c r="Q70" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="2:26">
-      <c r="B71" s="114"/>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B71" s="151"/>
       <c r="C71" s="41" t="s">
         <v>231</v>
       </c>
       <c r="D71" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="90"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="90"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="128"/>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="2:26">
-      <c r="B72" s="114"/>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B72" s="151"/>
       <c r="C72" s="40" t="s">
         <v>232</v>
       </c>
       <c r="D72" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="90"/>
+      <c r="E72" s="128"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="128"/>
       <c r="N72" s="3"/>
       <c r="Q72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="2:26">
-      <c r="B73" s="114"/>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B73" s="151"/>
       <c r="C73" s="40" t="s">
         <v>233</v>
       </c>
       <c r="D73" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E73" s="90"/>
-      <c r="F73" s="90"/>
-      <c r="G73" s="90"/>
+      <c r="E73" s="128"/>
+      <c r="F73" s="128"/>
+      <c r="G73" s="128"/>
       <c r="N73" s="3"/>
       <c r="Q73" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="2:26">
-      <c r="B74" s="114"/>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B74" s="151"/>
       <c r="C74" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D74" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E74" s="90"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="90"/>
+      <c r="E74" s="128"/>
+      <c r="F74" s="128"/>
+      <c r="G74" s="128"/>
       <c r="I74" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="J74" s="102" t="s">
+      <c r="J74" s="146" t="s">
         <v>235</v>
       </c>
-      <c r="K74" s="102"/>
-      <c r="L74" s="102" t="s">
+      <c r="K74" s="146"/>
+      <c r="L74" s="146" t="s">
         <v>236</v>
       </c>
-      <c r="M74" s="102"/>
+      <c r="M74" s="146"/>
       <c r="N74" s="3"/>
     </row>
-    <row r="75" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B75" s="114"/>
+    <row r="75" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="151"/>
       <c r="C75" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D75" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E75" s="90"/>
-      <c r="F75" s="90"/>
-      <c r="G75" s="90"/>
+      <c r="E75" s="128"/>
+      <c r="F75" s="128"/>
+      <c r="G75" s="128"/>
       <c r="I75" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="J75" s="121" t="s">
+      <c r="J75" s="140" t="s">
         <v>237</v>
       </c>
-      <c r="K75" s="121"/>
-      <c r="L75" s="70" t="s">
+      <c r="K75" s="140"/>
+      <c r="L75" s="116" t="s">
         <v>238</v>
       </c>
-      <c r="M75" s="70"/>
+      <c r="M75" s="116"/>
       <c r="N75" s="3"/>
     </row>
-    <row r="76" spans="2:26">
-      <c r="B76" s="114"/>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B76" s="151"/>
       <c r="C76" s="31" t="s">
         <v>239</v>
       </c>
       <c r="D76" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E76" s="90"/>
-      <c r="F76" s="90"/>
-      <c r="G76" s="90"/>
+      <c r="E76" s="128"/>
+      <c r="F76" s="128"/>
+      <c r="G76" s="128"/>
       <c r="I76" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="J76" s="121"/>
-      <c r="K76" s="121"/>
-      <c r="L76" s="70" t="s">
+      <c r="J76" s="140"/>
+      <c r="K76" s="140"/>
+      <c r="L76" s="116" t="s">
         <v>240</v>
       </c>
-      <c r="M76" s="70"/>
+      <c r="M76" s="116"/>
       <c r="N76" s="3"/>
       <c r="P76" s="46" t="s">
         <v>241</v>
@@ -7580,8 +7715,8 @@
       <c r="Y76" s="47"/>
       <c r="Z76" s="48"/>
     </row>
-    <row r="77" spans="2:26">
-      <c r="B77" s="113" t="s">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B77" s="150" t="s">
         <v>242</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -7590,204 +7725,204 @@
       <c r="D77" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E77" s="90"/>
-      <c r="F77" s="90"/>
-      <c r="G77" s="90"/>
+      <c r="E77" s="128"/>
+      <c r="F77" s="128"/>
+      <c r="G77" s="128"/>
       <c r="I77" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="J77" s="121"/>
-      <c r="K77" s="121"/>
-      <c r="L77" s="70" t="s">
+      <c r="J77" s="140"/>
+      <c r="K77" s="140"/>
+      <c r="L77" s="116" t="s">
         <v>243</v>
       </c>
-      <c r="M77" s="70"/>
+      <c r="M77" s="116"/>
       <c r="N77" s="3"/>
       <c r="P77" s="49" t="s">
         <v>244</v>
       </c>
       <c r="Z77" s="50"/>
     </row>
-    <row r="78" spans="2:26">
-      <c r="B78" s="114"/>
+    <row r="78" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B78" s="151"/>
       <c r="C78" s="40" t="s">
         <v>245</v>
       </c>
       <c r="D78" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
+      <c r="E78" s="128"/>
+      <c r="F78" s="128"/>
+      <c r="G78" s="128"/>
       <c r="I78" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="J78" s="121"/>
-      <c r="K78" s="121"/>
-      <c r="L78" s="70" t="s">
+      <c r="J78" s="140"/>
+      <c r="K78" s="140"/>
+      <c r="L78" s="116" t="s">
         <v>247</v>
       </c>
-      <c r="M78" s="70"/>
+      <c r="M78" s="116"/>
       <c r="N78" s="3"/>
       <c r="P78" s="49" t="s">
         <v>248</v>
       </c>
       <c r="Z78" s="50"/>
     </row>
-    <row r="79" spans="2:26">
-      <c r="B79" s="114"/>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B79" s="151"/>
       <c r="C79" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D79" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
+      <c r="E79" s="128"/>
+      <c r="F79" s="128"/>
+      <c r="G79" s="128"/>
       <c r="I79" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J79" s="121"/>
-      <c r="K79" s="121"/>
-      <c r="L79" s="70" t="s">
+      <c r="J79" s="140"/>
+      <c r="K79" s="140"/>
+      <c r="L79" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="M79" s="70"/>
+      <c r="M79" s="116"/>
       <c r="N79" s="3"/>
       <c r="P79" s="49" t="s">
         <v>249</v>
       </c>
       <c r="Z79" s="50"/>
     </row>
-    <row r="80" spans="2:26">
-      <c r="B80" s="114"/>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B80" s="151"/>
       <c r="C80" s="40" t="s">
         <v>165</v>
       </c>
       <c r="D80" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="90"/>
+      <c r="E80" s="128"/>
+      <c r="F80" s="128"/>
+      <c r="G80" s="128"/>
       <c r="I80" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="J80" s="121"/>
-      <c r="K80" s="121"/>
-      <c r="L80" s="70" t="s">
+      <c r="J80" s="140"/>
+      <c r="K80" s="140"/>
+      <c r="L80" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="M80" s="70"/>
+      <c r="M80" s="116"/>
       <c r="N80" s="3"/>
       <c r="P80" s="49" t="s">
         <v>252</v>
       </c>
       <c r="Z80" s="50"/>
     </row>
-    <row r="81" spans="2:26">
-      <c r="B81" s="114"/>
+    <row r="81" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B81" s="151"/>
       <c r="C81" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D81" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
-      <c r="G81" s="90"/>
+      <c r="E81" s="128"/>
+      <c r="F81" s="128"/>
+      <c r="G81" s="128"/>
       <c r="I81" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="J81" s="121"/>
-      <c r="K81" s="121"/>
-      <c r="L81" s="70" t="s">
+      <c r="J81" s="140"/>
+      <c r="K81" s="140"/>
+      <c r="L81" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="M81" s="70"/>
+      <c r="M81" s="116"/>
       <c r="N81" s="3"/>
       <c r="P81" s="49"/>
       <c r="Z81" s="50"/>
     </row>
-    <row r="82" spans="2:26">
-      <c r="B82" s="114"/>
+    <row r="82" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B82" s="151"/>
       <c r="C82" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E82" s="90"/>
-      <c r="F82" s="90"/>
-      <c r="G82" s="90"/>
+      <c r="E82" s="128"/>
+      <c r="F82" s="128"/>
+      <c r="G82" s="128"/>
       <c r="I82" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="J82" s="121"/>
-      <c r="K82" s="121"/>
-      <c r="L82" s="70" t="s">
+      <c r="J82" s="140"/>
+      <c r="K82" s="140"/>
+      <c r="L82" s="116" t="s">
         <v>256</v>
       </c>
-      <c r="M82" s="70"/>
+      <c r="M82" s="116"/>
       <c r="N82" s="3"/>
       <c r="P82" s="49"/>
       <c r="Z82" s="50"/>
     </row>
-    <row r="83" spans="2:26">
-      <c r="B83" s="114"/>
+    <row r="83" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B83" s="151"/>
       <c r="C83" s="26" t="s">
         <v>257</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="131" t="s">
+      <c r="E83" s="143" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="132"/>
-      <c r="G83" s="132"/>
+      <c r="F83" s="144"/>
+      <c r="G83" s="144"/>
       <c r="I83" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="J83" s="70" t="s">
+      <c r="J83" s="116" t="s">
         <v>260</v>
       </c>
-      <c r="K83" s="70"/>
-      <c r="L83" s="70" t="s">
+      <c r="K83" s="116"/>
+      <c r="L83" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="M83" s="70"/>
+      <c r="M83" s="116"/>
       <c r="N83" s="3"/>
       <c r="P83" s="49" t="s">
         <v>262</v>
       </c>
       <c r="Z83" s="50"/>
     </row>
-    <row r="84" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B84" s="129"/>
+    <row r="84" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="152"/>
       <c r="C84" s="27" t="s">
         <v>263</v>
       </c>
       <c r="D84" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="E84" s="132" t="s">
+      <c r="E84" s="144" t="s">
         <v>258</v>
       </c>
-      <c r="F84" s="132"/>
-      <c r="G84" s="132"/>
+      <c r="F84" s="144"/>
+      <c r="G84" s="144"/>
       <c r="I84" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="J84" s="70" t="s">
+      <c r="J84" s="116" t="s">
         <v>265</v>
       </c>
-      <c r="K84" s="70"/>
-      <c r="L84" s="70" t="s">
+      <c r="K84" s="116"/>
+      <c r="L84" s="116" t="s">
         <v>266</v>
       </c>
-      <c r="M84" s="70"/>
+      <c r="M84" s="116"/>
       <c r="N84" s="3"/>
       <c r="P84" s="51" t="s">
         <v>267</v>
@@ -7803,7 +7938,7 @@
       <c r="Y84" s="52"/>
       <c r="Z84" s="53"/>
     </row>
-    <row r="85" spans="2:26">
+    <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B85" s="19" t="s">
         <v>259</v>
       </c>
@@ -7813,25 +7948,25 @@
       <c r="D85" s="43">
         <v>10</v>
       </c>
-      <c r="E85" s="90" t="s">
+      <c r="E85" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="F85" s="90"/>
-      <c r="G85" s="90"/>
+      <c r="F85" s="128"/>
+      <c r="G85" s="128"/>
       <c r="I85" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="J85" s="70" t="s">
+      <c r="J85" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="K85" s="70"/>
-      <c r="L85" s="70" t="s">
+      <c r="K85" s="116"/>
+      <c r="L85" s="116" t="s">
         <v>271</v>
       </c>
-      <c r="M85" s="70"/>
+      <c r="M85" s="116"/>
       <c r="N85" s="3"/>
     </row>
-    <row r="86" spans="2:26">
+    <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B86" s="28" t="s">
         <v>264</v>
       </c>
@@ -7841,26 +7976,26 @@
       <c r="D86" s="45">
         <v>10</v>
       </c>
-      <c r="E86" s="90" t="s">
+      <c r="E86" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="F86" s="90"/>
-      <c r="G86" s="90"/>
+      <c r="F86" s="128"/>
+      <c r="G86" s="128"/>
       <c r="I86" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="J86" s="70" t="s">
+      <c r="J86" s="116" t="s">
         <v>273</v>
       </c>
-      <c r="K86" s="70"/>
-      <c r="L86" s="70" t="s">
+      <c r="K86" s="116"/>
+      <c r="L86" s="116" t="s">
         <v>256</v>
       </c>
-      <c r="M86" s="70"/>
+      <c r="M86" s="116"/>
       <c r="N86" s="3"/>
     </row>
-    <row r="87" spans="2:26">
-      <c r="B87" s="122" t="s">
+    <row r="87" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B87" s="141" t="s">
         <v>274</v>
       </c>
       <c r="C87" s="40" t="s">
@@ -7869,131 +8004,131 @@
       <c r="D87" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E87" s="90" t="s">
+      <c r="E87" s="128" t="s">
         <v>197</v>
       </c>
-      <c r="F87" s="90"/>
-      <c r="G87" s="90"/>
+      <c r="F87" s="128"/>
+      <c r="G87" s="128"/>
       <c r="I87" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="J87" s="70" t="s">
+      <c r="J87" s="116" t="s">
         <v>275</v>
       </c>
-      <c r="K87" s="70"/>
-      <c r="L87" s="70" t="s">
+      <c r="K87" s="116"/>
+      <c r="L87" s="116" t="s">
         <v>247</v>
       </c>
-      <c r="M87" s="70"/>
+      <c r="M87" s="116"/>
       <c r="N87" s="3"/>
     </row>
-    <row r="88" spans="2:26">
-      <c r="B88" s="123"/>
+    <row r="88" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B88" s="142"/>
       <c r="C88" s="40" t="s">
         <v>207</v>
       </c>
       <c r="D88" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E88" s="90" t="s">
+      <c r="E88" s="128" t="s">
         <v>208</v>
       </c>
-      <c r="F88" s="90"/>
-      <c r="G88" s="90"/>
+      <c r="F88" s="128"/>
+      <c r="G88" s="128"/>
       <c r="I88" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="J88" s="70" t="s">
+      <c r="J88" s="116" t="s">
         <v>276</v>
       </c>
-      <c r="K88" s="70"/>
-      <c r="L88" s="70"/>
-      <c r="M88" s="70"/>
+      <c r="K88" s="116"/>
+      <c r="L88" s="116"/>
+      <c r="M88" s="116"/>
       <c r="N88" s="3"/>
     </row>
-    <row r="89" spans="2:26">
-      <c r="B89" s="123"/>
+    <row r="89" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B89" s="142"/>
       <c r="C89" s="40" t="s">
         <v>211</v>
       </c>
       <c r="D89" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E89" s="90" t="s">
+      <c r="E89" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
+      <c r="F89" s="128"/>
+      <c r="G89" s="128"/>
       <c r="N89" s="3"/>
     </row>
-    <row r="90" spans="2:26">
-      <c r="B90" s="123"/>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B90" s="142"/>
       <c r="C90" s="40" t="s">
         <v>214</v>
       </c>
       <c r="D90" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E90" s="90"/>
-      <c r="F90" s="90"/>
-      <c r="G90" s="90"/>
+      <c r="E90" s="128"/>
+      <c r="F90" s="128"/>
+      <c r="G90" s="128"/>
       <c r="N90" s="3"/>
     </row>
-    <row r="91" spans="2:26">
-      <c r="B91" s="123"/>
+    <row r="91" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B91" s="142"/>
       <c r="C91" s="40" t="s">
         <v>217</v>
       </c>
       <c r="D91" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="90"/>
+      <c r="E91" s="128"/>
+      <c r="F91" s="128"/>
+      <c r="G91" s="128"/>
       <c r="N91" s="3"/>
     </row>
-    <row r="92" spans="2:26">
-      <c r="B92" s="123"/>
-      <c r="C92" s="115" t="s">
+    <row r="92" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B92" s="142"/>
+      <c r="C92" s="147" t="s">
         <v>191</v>
       </c>
       <c r="D92" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E92" s="70" t="s">
+      <c r="E92" s="116" t="s">
         <v>277</v>
       </c>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70"/>
+      <c r="F92" s="116"/>
+      <c r="G92" s="116"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="2:26">
-      <c r="B93" s="123"/>
-      <c r="C93" s="116"/>
+    <row r="93" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B93" s="142"/>
+      <c r="C93" s="148"/>
       <c r="D93" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E93" s="70" t="s">
+      <c r="E93" s="116" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="70"/>
-      <c r="G93" s="70"/>
+      <c r="F93" s="116"/>
+      <c r="G93" s="116"/>
       <c r="N93" s="3"/>
     </row>
-    <row r="94" spans="2:26">
-      <c r="B94" s="123"/>
-      <c r="C94" s="117"/>
+    <row r="94" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B94" s="142"/>
+      <c r="C94" s="149"/>
       <c r="D94" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="E94" s="138" t="s">
+      <c r="E94" s="129" t="s">
         <v>279</v>
       </c>
-      <c r="F94" s="138"/>
-      <c r="G94" s="138"/>
+      <c r="F94" s="129"/>
+      <c r="G94" s="129"/>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="2:26">
+    <row r="95" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B95" s="19" t="s">
         <v>280</v>
       </c>
@@ -8008,7 +8143,7 @@
       <c r="G95" s="127"/>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="2:26">
+    <row r="96" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B96" s="19" t="s">
         <v>282</v>
       </c>
@@ -8023,7 +8158,7 @@
       <c r="G96" s="127"/>
       <c r="N96" s="3"/>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="19" t="s">
         <v>284</v>
       </c>
@@ -8033,12 +8168,12 @@
       <c r="D97" s="29">
         <v>1</v>
       </c>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
+      <c r="E97" s="116"/>
+      <c r="F97" s="116"/>
+      <c r="G97" s="116"/>
       <c r="N97" s="3"/>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="55"/>
       <c r="C98" s="31" t="s">
         <v>286</v>
@@ -8046,12 +8181,12 @@
       <c r="D98" s="43">
         <v>10</v>
       </c>
-      <c r="E98" s="70"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="70"/>
+      <c r="E98" s="116"/>
+      <c r="F98" s="116"/>
+      <c r="G98" s="116"/>
       <c r="N98" s="3"/>
     </row>
-    <row r="99" spans="2:14" ht="15.75" thickBot="1">
+    <row r="99" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="56"/>
       <c r="C99" s="57" t="s">
         <v>287</v>
@@ -8059,9 +8194,9 @@
       <c r="D99" s="58">
         <v>10</v>
       </c>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="67"/>
+      <c r="E99" s="119"/>
+      <c r="F99" s="119"/>
+      <c r="G99" s="119"/>
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
@@ -8072,6 +8207,221 @@
     </row>
   </sheetData>
   <mergeCells count="239">
+    <mergeCell ref="S42:AH42"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="S14:Z14"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="S18:AH18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="S26:AH26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="S22:AH22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="S12:AH12"/>
+    <mergeCell ref="S8:AH8"/>
+    <mergeCell ref="S2:AB2"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="S10:Z10"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="I49:I56"/>
+    <mergeCell ref="I57:I64"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="B77:B84"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="S40:AH40"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="J75:K82"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="S34:Z34"/>
+    <mergeCell ref="AA34:AH34"/>
+    <mergeCell ref="S38:Z38"/>
+    <mergeCell ref="AA38:AH38"/>
+    <mergeCell ref="S36:AH36"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="S30:AH30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:X31"/>
     <mergeCell ref="AG32:AH32"/>
     <mergeCell ref="Y31:Z31"/>
     <mergeCell ref="AA31:AB31"/>
@@ -8096,221 +8446,6 @@
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="J87:K87"/>
     <mergeCell ref="L87:M87"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="S30:AH30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="S34:Z34"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="S38:Z38"/>
-    <mergeCell ref="AA38:AH38"/>
-    <mergeCell ref="S36:AH36"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="J75:K82"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="S40:AH40"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="B77:B84"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="I49:I56"/>
-    <mergeCell ref="I57:I64"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="S12:AH12"/>
-    <mergeCell ref="S8:AH8"/>
-    <mergeCell ref="S2:AB2"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="S10:Z10"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="S22:AH22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="S26:AH26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="S14:Z14"/>
-    <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="S18:AH18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="S42:AH42"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="W44:X44"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8319,1934 +8454,1846 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B028B19-B245-4EE1-9453-ED4D46D927D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B028B19-B245-4EE1-9453-ED4D46D927D6}">
   <dimension ref="B2:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="143"/>
-    <col min="2" max="8" width="11.5703125" style="143" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="148" customWidth="1"/>
-    <col min="10" max="10" width="15" style="148" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="143" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" style="143" customWidth="1"/>
-    <col min="13" max="19" width="9.140625" style="143"/>
-    <col min="20" max="20" width="10.85546875" style="143" customWidth="1"/>
-    <col min="21" max="21" width="14" style="143" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="143"/>
+    <col min="1" max="1" width="9.125" style="69"/>
+    <col min="2" max="8" width="11.625" style="69" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="74" customWidth="1"/>
+    <col min="10" max="10" width="15" style="74" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="69" customWidth="1"/>
+    <col min="12" max="12" width="29.125" style="69" customWidth="1"/>
+    <col min="13" max="19" width="9.125" style="69"/>
+    <col min="20" max="20" width="10.875" style="69" customWidth="1"/>
+    <col min="21" max="21" width="14" style="69" customWidth="1"/>
+    <col min="22" max="16384" width="9.125" style="69"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="26.25">
-      <c r="B2" s="158" t="s">
+    <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="199" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="M2" s="158" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="M2" s="199" t="s">
         <v>331</v>
       </c>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-    </row>
-    <row r="3" spans="2:23">
-      <c r="B3" s="159" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="81" t="s">
         <v>352</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="81" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="159" t="s">
+      <c r="D3" s="81" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="M3" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="N3" s="80" t="s">
+        <v>288</v>
+      </c>
+      <c r="O3" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="P3" s="80" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q3" s="192" t="s">
+        <v>351</v>
+      </c>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="V3" s="80" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="66" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="66">
+        <v>1</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="66">
+        <v>24</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="M4" s="66" t="s">
+        <v>291</v>
+      </c>
+      <c r="N4" s="66">
+        <v>1</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="P4" s="66">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="84" t="s">
+        <v>347</v>
+      </c>
+      <c r="R4" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="S4" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="T4" s="87" t="s">
+        <v>348</v>
+      </c>
+      <c r="U4" s="72" t="s">
+        <v>345</v>
+      </c>
+      <c r="V4" s="66" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="E5" s="201" t="s">
+        <v>429</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="U5" s="73" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="F7" s="69" t="s">
+        <v>340</v>
+      </c>
+      <c r="L7" s="92" t="s">
+        <v>372</v>
+      </c>
+      <c r="P7" s="178" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q7" s="178"/>
+      <c r="R7" s="178"/>
+      <c r="S7" s="178"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="185" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="186"/>
+      <c r="E8" s="90" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="187" t="s">
+        <v>336</v>
+      </c>
+      <c r="H8" s="187"/>
+      <c r="I8" s="89" t="s">
+        <v>377</v>
+      </c>
+      <c r="J8" s="89" t="s">
+        <v>378</v>
+      </c>
+      <c r="L8" s="90" t="s">
+        <v>373</v>
+      </c>
+      <c r="M8" s="97" t="s">
+        <v>351</v>
+      </c>
+      <c r="N8" s="91" t="s">
+        <v>360</v>
+      </c>
+      <c r="O8" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="P8" s="187" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q8" s="187"/>
+      <c r="R8" s="187"/>
+      <c r="S8" s="187"/>
+      <c r="T8" s="89" t="s">
+        <v>377</v>
+      </c>
+      <c r="U8" s="89" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="66">
+        <v>0</v>
+      </c>
+      <c r="C9" s="195" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="196"/>
+      <c r="E9" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="G9" s="188"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="208" t="s">
+        <v>440</v>
+      </c>
+      <c r="J9" s="66"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="83" t="s">
+        <v>347</v>
+      </c>
+      <c r="N9" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="O9" s="66">
+        <v>0</v>
+      </c>
+      <c r="P9" s="188" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="188"/>
+      <c r="R9" s="188"/>
+      <c r="S9" s="188"/>
+      <c r="T9" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="U9" s="66"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="66">
+        <v>1</v>
+      </c>
+      <c r="C10" s="195"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="66"/>
+      <c r="L10" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="66">
+        <v>1</v>
+      </c>
+      <c r="P10" s="188" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q10" s="188"/>
+      <c r="R10" s="188"/>
+      <c r="S10" s="188"/>
+      <c r="T10" s="67" t="s">
+        <v>417</v>
+      </c>
+      <c r="U10" s="66"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="66">
+        <v>2</v>
+      </c>
+      <c r="C11" s="195" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" s="196"/>
+      <c r="E11" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="G11" s="188"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="208" t="s">
+        <v>441</v>
+      </c>
+      <c r="J11" s="66"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="66">
+        <v>2</v>
+      </c>
+      <c r="P11" s="207" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q11" s="188"/>
+      <c r="R11" s="188"/>
+      <c r="S11" s="188"/>
+      <c r="T11" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="U11" s="66"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="66">
+        <v>3</v>
+      </c>
+      <c r="C12" s="195"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="66"/>
+      <c r="L12" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="66">
+        <v>3</v>
+      </c>
+      <c r="P12" s="207" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q12" s="188"/>
+      <c r="R12" s="188"/>
+      <c r="S12" s="188"/>
+      <c r="T12" s="67" t="s">
+        <v>420</v>
+      </c>
+      <c r="U12" s="66"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="66">
+        <v>4</v>
+      </c>
+      <c r="C13" s="195" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="196"/>
+      <c r="E13" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" s="191" t="s">
+        <v>343</v>
+      </c>
+      <c r="H13" s="191"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="66"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="66">
+        <v>4</v>
+      </c>
+      <c r="P13" s="200" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q13" s="200"/>
+      <c r="R13" s="200"/>
+      <c r="S13" s="200"/>
+      <c r="T13" s="100" t="s">
+        <v>424</v>
+      </c>
+      <c r="U13" s="66"/>
+      <c r="W13" s="69" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B14" s="66">
+        <v>5</v>
+      </c>
+      <c r="C14" s="193" t="s">
         <v>367</v>
       </c>
-      <c r="E3" s="159" t="s">
-        <v>289</v>
-      </c>
-      <c r="F3" s="194" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="159" t="s">
-        <v>290</v>
-      </c>
-      <c r="H3" s="159" t="s">
-        <v>353</v>
-      </c>
-      <c r="M3" s="157" t="s">
-        <v>352</v>
-      </c>
-      <c r="N3" s="157" t="s">
-        <v>288</v>
-      </c>
-      <c r="O3" s="157" t="s">
-        <v>367</v>
-      </c>
-      <c r="P3" s="157" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q3" s="142" t="s">
-        <v>351</v>
-      </c>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="157" t="s">
-        <v>290</v>
-      </c>
-      <c r="V3" s="157" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23">
-      <c r="B4" s="139" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="139">
+      <c r="D14" s="194"/>
+      <c r="E14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="94"/>
+      <c r="G14" s="188" t="s">
+        <v>372</v>
+      </c>
+      <c r="H14" s="188"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="66">
+        <v>5</v>
+      </c>
+      <c r="P14" s="206" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q14" s="191"/>
+      <c r="R14" s="191"/>
+      <c r="S14" s="191"/>
+      <c r="T14" s="67" t="s">
+        <v>439</v>
+      </c>
+      <c r="U14" s="66"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="66">
+        <v>6</v>
+      </c>
+      <c r="C15" s="195" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="196"/>
+      <c r="E15" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="F15" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="67" t="s">
+        <v>400</v>
+      </c>
+      <c r="J15" s="66"/>
+      <c r="L15" s="209" t="s">
+        <v>448</v>
+      </c>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="66">
+        <v>6</v>
+      </c>
+      <c r="P15" s="188"/>
+      <c r="Q15" s="188"/>
+      <c r="R15" s="188"/>
+      <c r="S15" s="188"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="66"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="66">
+        <v>7</v>
+      </c>
+      <c r="C16" s="197" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" s="198"/>
+      <c r="E16" s="85" t="s">
+        <v>369</v>
+      </c>
+      <c r="F16" s="94"/>
+      <c r="G16" s="188" t="s">
+        <v>370</v>
+      </c>
+      <c r="H16" s="188"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="L16" s="209" t="s">
+        <v>449</v>
+      </c>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="66">
+        <v>7</v>
+      </c>
+      <c r="P16" s="205" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q16" s="205"/>
+      <c r="R16" s="205"/>
+      <c r="S16" s="205"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="66"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" s="66">
+        <v>8</v>
+      </c>
+      <c r="C17" s="197" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="198"/>
+      <c r="E17" s="85" t="s">
+        <v>369</v>
+      </c>
+      <c r="F17" s="94"/>
+      <c r="G17" s="188" t="s">
+        <v>370</v>
+      </c>
+      <c r="H17" s="188"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
+      <c r="L17" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="M17" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="N17" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="O17" s="66">
+        <v>0</v>
+      </c>
+      <c r="P17" s="188" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q17" s="188"/>
+      <c r="R17" s="188"/>
+      <c r="S17" s="188"/>
+      <c r="T17" s="67" t="s">
+        <v>412</v>
+      </c>
+      <c r="U17" s="66"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" s="66">
+        <v>9</v>
+      </c>
+      <c r="C18" s="193" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" s="194"/>
+      <c r="E18" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F18" s="94"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="87"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="66">
         <v>1</v>
       </c>
-      <c r="D4" s="139" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" s="139">
-        <v>24</v>
-      </c>
-      <c r="F4" s="146" t="s">
-        <v>293</v>
-      </c>
-      <c r="G4" s="139" t="s">
-        <v>345</v>
-      </c>
-      <c r="H4" s="139" t="s">
-        <v>294</v>
-      </c>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="M4" s="139" t="s">
-        <v>291</v>
-      </c>
-      <c r="N4" s="139">
-        <v>1</v>
-      </c>
-      <c r="O4" s="139" t="s">
-        <v>292</v>
-      </c>
-      <c r="P4" s="139">
+      <c r="P18" s="188" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q18" s="188"/>
+      <c r="R18" s="188"/>
+      <c r="S18" s="188"/>
+      <c r="T18" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="U18" s="66"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="66">
+        <v>10</v>
+      </c>
+      <c r="C19" s="195" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="196"/>
+      <c r="E19" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="F19" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="208" t="s">
+        <v>442</v>
+      </c>
+      <c r="J19" s="66"/>
+      <c r="L19" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="66">
+        <v>2</v>
+      </c>
+      <c r="P19" s="188" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q19" s="188"/>
+      <c r="R19" s="188"/>
+      <c r="S19" s="188"/>
+      <c r="T19" s="67" t="s">
+        <v>414</v>
+      </c>
+      <c r="U19" s="66"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="66">
+        <v>11</v>
+      </c>
+      <c r="C20" s="195"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="66"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="66">
+        <v>3</v>
+      </c>
+      <c r="P20" s="188" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q20" s="188"/>
+      <c r="R20" s="188"/>
+      <c r="S20" s="188"/>
+      <c r="T20" s="67" t="s">
+        <v>415</v>
+      </c>
+      <c r="U20" s="66"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21" s="66">
+        <v>12</v>
+      </c>
+      <c r="C21" s="195" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="196"/>
+      <c r="E21" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="F21" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="208" t="s">
+        <v>443</v>
+      </c>
+      <c r="J21" s="66"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="66">
         <v>4</v>
       </c>
-      <c r="Q4" s="168" t="s">
-        <v>347</v>
-      </c>
-      <c r="R4" s="168" t="s">
-        <v>349</v>
-      </c>
-      <c r="S4" s="168" t="s">
+      <c r="P21" s="188" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q21" s="188"/>
+      <c r="R21" s="188"/>
+      <c r="S21" s="188"/>
+      <c r="T21" s="67" t="s">
+        <v>416</v>
+      </c>
+      <c r="U21" s="66"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22" s="66">
+        <v>13</v>
+      </c>
+      <c r="C22" s="195"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="66"/>
+      <c r="L22" s="100" t="s">
+        <v>421</v>
+      </c>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="66">
+        <v>5</v>
+      </c>
+      <c r="P22" s="188" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="188"/>
+      <c r="R22" s="188"/>
+      <c r="S22" s="188"/>
+      <c r="T22" s="67" t="s">
+        <v>419</v>
+      </c>
+      <c r="U22" s="66"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B23" s="66">
+        <v>14</v>
+      </c>
+      <c r="C23" s="197" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="198"/>
+      <c r="E23" s="85" t="s">
+        <v>369</v>
+      </c>
+      <c r="F23" s="94"/>
+      <c r="G23" s="188" t="s">
+        <v>371</v>
+      </c>
+      <c r="H23" s="188"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="87"/>
+      <c r="L23" s="100" t="s">
+        <v>422</v>
+      </c>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="66">
+        <v>6</v>
+      </c>
+      <c r="P23" s="188" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="188"/>
+      <c r="R23" s="188"/>
+      <c r="S23" s="188"/>
+      <c r="T23" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="U23" s="66"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B24" s="66">
+        <v>15</v>
+      </c>
+      <c r="C24" s="195" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" s="196"/>
+      <c r="E24" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="F24" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="67" t="s">
+        <v>399</v>
+      </c>
+      <c r="J24" s="66"/>
+      <c r="L24" s="100" t="s">
+        <v>423</v>
+      </c>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="66">
+        <v>7</v>
+      </c>
+      <c r="P24" s="188" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q24" s="188"/>
+      <c r="R24" s="188"/>
+      <c r="S24" s="188"/>
+      <c r="T24" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="U24" s="66"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B25" s="66">
+        <v>16</v>
+      </c>
+      <c r="C25" s="195"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="83" t="s">
         <v>350</v>
       </c>
-      <c r="T4" s="174" t="s">
+      <c r="N25" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="O25" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="P25" s="188" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q25" s="188"/>
+      <c r="R25" s="188"/>
+      <c r="S25" s="188"/>
+      <c r="T25" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="U25" s="66"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B26" s="66">
+        <v>17</v>
+      </c>
+      <c r="C26" s="195" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="196"/>
+      <c r="E26" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="G26" s="207" t="s">
+        <v>447</v>
+      </c>
+      <c r="H26" s="188"/>
+      <c r="I26" s="208" t="s">
+        <v>446</v>
+      </c>
+      <c r="J26" s="66"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86" t="s">
         <v>348</v>
       </c>
-      <c r="U4" s="146" t="s">
-        <v>345</v>
-      </c>
-      <c r="V4" s="139" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23">
-      <c r="F5" s="147" t="s">
-        <v>333</v>
-      </c>
-      <c r="G5" s="166" t="s">
+      <c r="N26" s="86" t="s">
+        <v>339</v>
+      </c>
+      <c r="O26" s="86"/>
+      <c r="P26" s="190" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q26" s="190"/>
+      <c r="R26" s="190"/>
+      <c r="S26" s="190"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B27" s="66">
+        <v>18</v>
+      </c>
+      <c r="C27" s="195"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="G27" s="188"/>
+      <c r="H27" s="188"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="66"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B28" s="66">
+        <v>19</v>
+      </c>
+      <c r="C28" s="193" t="s">
         <v>368</v>
       </c>
-      <c r="U5" s="147" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23">
-      <c r="F7" s="143" t="s">
-        <v>340</v>
-      </c>
-      <c r="L7" s="183" t="s">
-        <v>376</v>
-      </c>
-      <c r="P7" s="184" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="184"/>
-      <c r="S7" s="184"/>
-    </row>
-    <row r="8" spans="2:23">
-      <c r="B8" s="194" t="s">
-        <v>332</v>
-      </c>
-      <c r="C8" s="192" t="s">
-        <v>334</v>
-      </c>
-      <c r="D8" s="193"/>
-      <c r="E8" s="177" t="s">
-        <v>364</v>
-      </c>
-      <c r="F8" s="177" t="s">
-        <v>335</v>
-      </c>
-      <c r="G8" s="179" t="s">
-        <v>336</v>
-      </c>
-      <c r="H8" s="179"/>
-      <c r="I8" s="176" t="s">
-        <v>381</v>
-      </c>
-      <c r="J8" s="176" t="s">
-        <v>382</v>
-      </c>
-      <c r="L8" s="177" t="s">
-        <v>377</v>
-      </c>
-      <c r="M8" s="195" t="s">
-        <v>351</v>
-      </c>
-      <c r="N8" s="178" t="s">
-        <v>364</v>
-      </c>
-      <c r="O8" s="178" t="s">
-        <v>354</v>
-      </c>
-      <c r="P8" s="179" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q8" s="179"/>
-      <c r="R8" s="179"/>
-      <c r="S8" s="179"/>
-      <c r="T8" s="176" t="s">
-        <v>381</v>
-      </c>
-      <c r="U8" s="176" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23">
-      <c r="B9" s="139">
-        <v>0</v>
-      </c>
-      <c r="C9" s="160" t="s">
-        <v>295</v>
-      </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="141" t="s">
-        <v>338</v>
-      </c>
-      <c r="F9" s="141" t="s">
-        <v>341</v>
-      </c>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="140" t="s">
-        <v>404</v>
-      </c>
-      <c r="J9" s="139"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="167" t="s">
-        <v>347</v>
-      </c>
-      <c r="N9" s="140" t="s">
-        <v>373</v>
-      </c>
-      <c r="O9" s="139">
-        <v>0</v>
-      </c>
-      <c r="P9" s="162" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="162"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="162"/>
-      <c r="T9" s="140" t="s">
-        <v>383</v>
-      </c>
-      <c r="U9" s="139"/>
-    </row>
-    <row r="10" spans="2:23">
-      <c r="B10" s="139">
-        <v>1</v>
-      </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141" t="s">
-        <v>342</v>
-      </c>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="139"/>
-      <c r="L10" s="140" t="s">
-        <v>440</v>
-      </c>
-      <c r="M10" s="140"/>
-      <c r="N10" s="140"/>
-      <c r="O10" s="139">
-        <v>1</v>
-      </c>
-      <c r="P10" s="162" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="162"/>
-      <c r="T10" s="140" t="s">
-        <v>429</v>
-      </c>
-      <c r="U10" s="139"/>
-    </row>
-    <row r="11" spans="2:23">
-      <c r="B11" s="139">
-        <v>2</v>
-      </c>
-      <c r="C11" s="160" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" s="161"/>
-      <c r="E11" s="141" t="s">
-        <v>338</v>
-      </c>
-      <c r="F11" s="141" t="s">
-        <v>341</v>
-      </c>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="140" t="s">
-        <v>405</v>
-      </c>
-      <c r="J11" s="139"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="140"/>
-      <c r="O11" s="139">
-        <v>2</v>
-      </c>
-      <c r="P11" s="162" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="140" t="s">
-        <v>430</v>
-      </c>
-      <c r="U11" s="139"/>
-    </row>
-    <row r="12" spans="2:23">
-      <c r="B12" s="139">
-        <v>3</v>
-      </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141" t="s">
-        <v>342</v>
-      </c>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="139"/>
-      <c r="L12" s="140" t="s">
-        <v>440</v>
-      </c>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="139">
-        <v>3</v>
-      </c>
-      <c r="P12" s="162" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q12" s="162"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="162"/>
-      <c r="T12" s="140" t="s">
-        <v>433</v>
-      </c>
-      <c r="U12" s="139"/>
-    </row>
-    <row r="13" spans="2:23">
-      <c r="B13" s="139">
-        <v>4</v>
-      </c>
-      <c r="C13" s="160" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="161"/>
-      <c r="E13" s="141" t="s">
-        <v>339</v>
-      </c>
-      <c r="F13" s="141" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" s="165" t="s">
-        <v>343</v>
-      </c>
-      <c r="H13" s="165"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="139"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="139">
-        <v>4</v>
-      </c>
-      <c r="P13" s="165" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="165"/>
-      <c r="S13" s="165"/>
-      <c r="T13" s="198" t="s">
-        <v>437</v>
-      </c>
-      <c r="U13" s="139"/>
-      <c r="W13" s="143" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23">
-      <c r="B14" s="139">
-        <v>5</v>
-      </c>
-      <c r="C14" s="163" t="s">
-        <v>371</v>
-      </c>
-      <c r="D14" s="164"/>
-      <c r="E14" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F14" s="189"/>
-      <c r="G14" s="162" t="s">
-        <v>376</v>
-      </c>
-      <c r="H14" s="162"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="174"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="139">
-        <v>5</v>
-      </c>
-      <c r="P14" s="165" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="165"/>
-      <c r="S14" s="165"/>
-      <c r="T14" s="140"/>
-      <c r="U14" s="139"/>
-    </row>
-    <row r="15" spans="2:23">
-      <c r="B15" s="139">
-        <v>6</v>
-      </c>
-      <c r="C15" s="160" t="s">
-        <v>346</v>
-      </c>
-      <c r="D15" s="161"/>
-      <c r="E15" s="141" t="s">
-        <v>339</v>
-      </c>
-      <c r="F15" s="189" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="140" t="s">
-        <v>412</v>
-      </c>
-      <c r="J15" s="139"/>
-      <c r="L15" s="198" t="s">
-        <v>441</v>
-      </c>
-      <c r="M15" s="140"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="139">
-        <v>6</v>
-      </c>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="139"/>
-    </row>
-    <row r="16" spans="2:23">
-      <c r="B16" s="139">
-        <v>7</v>
-      </c>
-      <c r="C16" s="169" t="s">
-        <v>344</v>
-      </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="171" t="s">
-        <v>373</v>
-      </c>
-      <c r="F16" s="189"/>
-      <c r="G16" s="162" t="s">
-        <v>374</v>
-      </c>
-      <c r="H16" s="162"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="174"/>
-      <c r="L16" s="198" t="s">
-        <v>442</v>
-      </c>
-      <c r="M16" s="140"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="139">
-        <v>7</v>
-      </c>
-      <c r="P16" s="165" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="165"/>
-      <c r="S16" s="165"/>
-      <c r="T16" s="140"/>
-      <c r="U16" s="139"/>
-    </row>
-    <row r="17" spans="2:21">
-      <c r="B17" s="139">
-        <v>8</v>
-      </c>
-      <c r="C17" s="169" t="s">
-        <v>254</v>
-      </c>
-      <c r="D17" s="170"/>
-      <c r="E17" s="171" t="s">
-        <v>373</v>
-      </c>
-      <c r="F17" s="189"/>
-      <c r="G17" s="162" t="s">
-        <v>374</v>
-      </c>
-      <c r="H17" s="162"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="174"/>
-      <c r="L17" s="140" t="s">
-        <v>440</v>
-      </c>
-      <c r="M17" s="167" t="s">
-        <v>349</v>
-      </c>
-      <c r="N17" s="140" t="s">
-        <v>373</v>
-      </c>
-      <c r="O17" s="139">
-        <v>0</v>
-      </c>
-      <c r="P17" s="162" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="162"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="140" t="s">
-        <v>424</v>
-      </c>
-      <c r="U17" s="139"/>
-    </row>
-    <row r="18" spans="2:21">
-      <c r="B18" s="139">
-        <v>9</v>
-      </c>
-      <c r="C18" s="163" t="s">
-        <v>370</v>
-      </c>
-      <c r="D18" s="164"/>
-      <c r="E18" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F18" s="189"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="174"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="139">
-        <v>1</v>
-      </c>
-      <c r="P18" s="162" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="162"/>
-      <c r="T18" s="140" t="s">
-        <v>425</v>
-      </c>
-      <c r="U18" s="139"/>
-    </row>
-    <row r="19" spans="2:21">
-      <c r="B19" s="139">
-        <v>10</v>
-      </c>
-      <c r="C19" s="160" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19" s="161"/>
-      <c r="E19" s="141" t="s">
-        <v>338</v>
-      </c>
-      <c r="F19" s="189" t="s">
-        <v>341</v>
-      </c>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="140" t="s">
-        <v>406</v>
-      </c>
-      <c r="J19" s="139"/>
-      <c r="L19" s="140" t="s">
-        <v>440</v>
-      </c>
-      <c r="M19" s="140"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="139">
-        <v>2</v>
-      </c>
-      <c r="P19" s="162" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q19" s="162"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="140" t="s">
-        <v>426</v>
-      </c>
-      <c r="U19" s="139"/>
-    </row>
-    <row r="20" spans="2:21">
-      <c r="B20" s="139">
-        <v>11</v>
-      </c>
-      <c r="C20" s="160"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="189" t="s">
-        <v>342</v>
-      </c>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="139"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="140"/>
-      <c r="O20" s="139">
-        <v>3</v>
-      </c>
-      <c r="P20" s="162" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q20" s="162"/>
-      <c r="R20" s="162"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="140" t="s">
-        <v>427</v>
-      </c>
-      <c r="U20" s="139"/>
-    </row>
-    <row r="21" spans="2:21">
-      <c r="B21" s="139">
-        <v>12</v>
-      </c>
-      <c r="C21" s="160" t="s">
-        <v>300</v>
-      </c>
-      <c r="D21" s="161"/>
-      <c r="E21" s="141" t="s">
-        <v>338</v>
-      </c>
-      <c r="F21" s="189" t="s">
-        <v>341</v>
-      </c>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="140" t="s">
-        <v>407</v>
-      </c>
-      <c r="J21" s="139"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="139">
-        <v>4</v>
-      </c>
-      <c r="P21" s="162" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q21" s="162"/>
-      <c r="R21" s="162"/>
-      <c r="S21" s="162"/>
-      <c r="T21" s="140" t="s">
-        <v>428</v>
-      </c>
-      <c r="U21" s="139"/>
-    </row>
-    <row r="22" spans="2:21">
-      <c r="B22" s="139">
-        <v>13</v>
-      </c>
-      <c r="C22" s="160"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="189" t="s">
-        <v>342</v>
-      </c>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="139"/>
-      <c r="L22" s="198" t="s">
-        <v>434</v>
-      </c>
-      <c r="M22" s="140"/>
-      <c r="N22" s="140"/>
-      <c r="O22" s="139">
-        <v>5</v>
-      </c>
-      <c r="P22" s="162" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="162"/>
-      <c r="T22" s="140" t="s">
-        <v>431</v>
-      </c>
-      <c r="U22" s="139"/>
-    </row>
-    <row r="23" spans="2:21">
-      <c r="B23" s="139">
-        <v>14</v>
-      </c>
-      <c r="C23" s="169" t="s">
-        <v>271</v>
-      </c>
-      <c r="D23" s="170"/>
-      <c r="E23" s="171" t="s">
-        <v>373</v>
-      </c>
-      <c r="F23" s="189"/>
-      <c r="G23" s="162" t="s">
-        <v>375</v>
-      </c>
-      <c r="H23" s="162"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="174"/>
-      <c r="L23" s="198" t="s">
-        <v>435</v>
-      </c>
-      <c r="M23" s="140"/>
-      <c r="N23" s="140"/>
-      <c r="O23" s="139">
-        <v>6</v>
-      </c>
-      <c r="P23" s="162" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="162"/>
-      <c r="S23" s="162"/>
-      <c r="T23" s="140" t="s">
-        <v>384</v>
-      </c>
-      <c r="U23" s="139"/>
-    </row>
-    <row r="24" spans="2:21">
-      <c r="B24" s="139">
-        <v>15</v>
-      </c>
-      <c r="C24" s="160" t="s">
-        <v>301</v>
-      </c>
-      <c r="D24" s="161"/>
-      <c r="E24" s="141" t="s">
-        <v>337</v>
-      </c>
-      <c r="F24" s="189" t="s">
-        <v>341</v>
-      </c>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="140" t="s">
-        <v>411</v>
-      </c>
-      <c r="J24" s="139"/>
-      <c r="L24" s="198" t="s">
-        <v>436</v>
-      </c>
-      <c r="M24" s="140"/>
-      <c r="N24" s="140"/>
-      <c r="O24" s="139">
-        <v>7</v>
-      </c>
-      <c r="P24" s="162" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q24" s="162"/>
-      <c r="R24" s="162"/>
-      <c r="S24" s="162"/>
-      <c r="T24" s="140" t="s">
-        <v>385</v>
-      </c>
-      <c r="U24" s="139"/>
-    </row>
-    <row r="25" spans="2:21">
-      <c r="B25" s="139">
-        <v>16</v>
-      </c>
-      <c r="C25" s="160"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="189" t="s">
-        <v>342</v>
-      </c>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="139"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="167" t="s">
-        <v>350</v>
-      </c>
-      <c r="N25" s="140" t="s">
-        <v>339</v>
-      </c>
-      <c r="O25" s="139" t="s">
-        <v>365</v>
-      </c>
-      <c r="P25" s="162" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q25" s="162"/>
-      <c r="R25" s="162"/>
-      <c r="S25" s="162"/>
-      <c r="T25" s="140" t="s">
-        <v>386</v>
-      </c>
-      <c r="U25" s="139"/>
-    </row>
-    <row r="26" spans="2:21">
-      <c r="B26" s="139">
-        <v>17</v>
-      </c>
-      <c r="C26" s="160" t="s">
-        <v>302</v>
-      </c>
-      <c r="D26" s="161"/>
-      <c r="E26" s="141" t="s">
-        <v>338</v>
-      </c>
-      <c r="F26" s="189" t="s">
-        <v>341</v>
-      </c>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="140" t="s">
-        <v>408</v>
-      </c>
-      <c r="J26" s="139"/>
-      <c r="L26" s="172"/>
-      <c r="M26" s="172" t="s">
-        <v>348</v>
-      </c>
-      <c r="N26" s="172" t="s">
-        <v>339</v>
-      </c>
-      <c r="O26" s="172"/>
-      <c r="P26" s="173" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="173"/>
-      <c r="S26" s="173"/>
-      <c r="T26" s="172"/>
-      <c r="U26" s="172"/>
-    </row>
-    <row r="27" spans="2:21">
-      <c r="B27" s="139">
-        <v>18</v>
-      </c>
-      <c r="C27" s="160"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="189" t="s">
-        <v>342</v>
-      </c>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="139"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="148"/>
-    </row>
-    <row r="28" spans="2:21">
-      <c r="B28" s="139">
-        <v>19</v>
-      </c>
-      <c r="C28" s="163" t="s">
-        <v>372</v>
-      </c>
-      <c r="D28" s="164"/>
+      <c r="D28" s="194"/>
       <c r="E28" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F28" s="189" t="s">
-        <v>365</v>
-      </c>
-      <c r="G28" s="162" t="s">
+      <c r="F28" s="94" t="s">
+        <v>361</v>
+      </c>
+      <c r="G28" s="188" t="s">
         <v>303</v>
       </c>
-      <c r="H28" s="162"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="174"/>
-      <c r="P28" s="184" t="s">
+      <c r="H28" s="188"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
+      <c r="P28" s="178" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q28" s="178"/>
+      <c r="R28" s="178"/>
+      <c r="S28" s="178"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B29" s="66">
+        <v>20</v>
+      </c>
+      <c r="C29" s="195" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" s="196"/>
+      <c r="E29" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="F29" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="G29" s="188" t="s">
+        <v>306</v>
+      </c>
+      <c r="H29" s="188"/>
+      <c r="I29" s="208" t="s">
+        <v>445</v>
+      </c>
+      <c r="J29" s="66"/>
+      <c r="M29" s="99" t="s">
+        <v>351</v>
+      </c>
+      <c r="N29" s="91" t="s">
+        <v>360</v>
+      </c>
+      <c r="O29" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="P29" s="187" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="89" t="s">
+        <v>377</v>
+      </c>
+      <c r="U29" s="89" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B30" s="66">
+        <v>21</v>
+      </c>
+      <c r="C30" s="195"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="G30" s="188"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="66"/>
+      <c r="M30" s="98" t="s">
+        <v>383</v>
+      </c>
+      <c r="N30" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="O30" s="66">
+        <v>0</v>
+      </c>
+      <c r="P30" s="179"/>
+      <c r="Q30" s="180"/>
+      <c r="R30" s="180"/>
+      <c r="S30" s="181"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="66"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B31" s="66">
+        <v>22</v>
+      </c>
+      <c r="C31" s="195" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" s="196"/>
+      <c r="E31" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="F31" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="G31" s="188" t="s">
+        <v>307</v>
+      </c>
+      <c r="H31" s="188"/>
+      <c r="I31" s="208" t="s">
+        <v>444</v>
+      </c>
+      <c r="J31" s="66"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="66">
+        <v>1</v>
+      </c>
+      <c r="P31" s="179" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="180"/>
+      <c r="R31" s="180"/>
+      <c r="S31" s="181"/>
+      <c r="T31" s="67" t="s">
+        <v>411</v>
+      </c>
+      <c r="U31" s="66"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B32" s="66">
+        <v>23</v>
+      </c>
+      <c r="C32" s="195"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="66"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="66">
+        <v>2</v>
+      </c>
+      <c r="P32" s="179"/>
+      <c r="Q32" s="180"/>
+      <c r="R32" s="180"/>
+      <c r="S32" s="181"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="66"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E33" s="101" t="s">
+        <v>428</v>
+      </c>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="66">
+        <v>3</v>
+      </c>
+      <c r="P33" s="179" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" s="180"/>
+      <c r="R33" s="180"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="U33" s="66"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="66">
+        <v>4</v>
+      </c>
+      <c r="P34" s="179" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="180"/>
+      <c r="R34" s="180"/>
+      <c r="S34" s="181"/>
+      <c r="T34" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="U34" s="66"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B35" s="189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="K35" s="95" t="s">
+        <v>426</v>
+      </c>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="66">
+        <v>5</v>
+      </c>
+      <c r="P35" s="179"/>
+      <c r="Q35" s="180"/>
+      <c r="R35" s="180"/>
+      <c r="S35" s="181"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="66"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B36" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="116"/>
+      <c r="F36" s="128" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="66">
+        <v>0</v>
+      </c>
+      <c r="K36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="66">
+        <v>6</v>
+      </c>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="180"/>
+      <c r="R36" s="180"/>
+      <c r="S36" s="181"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="66"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B37" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="116"/>
+      <c r="F37" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="66">
+        <v>1</v>
+      </c>
+      <c r="K37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="66">
+        <v>7</v>
+      </c>
+      <c r="P37" s="179"/>
+      <c r="Q37" s="180"/>
+      <c r="R37" s="180"/>
+      <c r="S37" s="181"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="66"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B38" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="116"/>
+      <c r="F38" s="128" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="66">
+        <v>2</v>
+      </c>
+      <c r="K38" s="67"/>
+      <c r="M38" s="98" t="s">
+        <v>384</v>
+      </c>
+      <c r="N38" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="O38" s="66">
+        <v>0</v>
+      </c>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="180"/>
+      <c r="R38" s="180"/>
+      <c r="S38" s="181"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="66"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B39" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="116"/>
+      <c r="F39" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="66">
+        <v>3</v>
+      </c>
+      <c r="K39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="66">
+        <v>1</v>
+      </c>
+      <c r="P39" s="179" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
+      <c r="S39" s="181"/>
+      <c r="T39" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="U39" s="66"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B40" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="116"/>
+      <c r="F40" s="128" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="66">
+        <v>4</v>
+      </c>
+      <c r="K40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="66">
+        <v>2</v>
+      </c>
+      <c r="P40" s="202" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q40" s="203"/>
+      <c r="R40" s="203"/>
+      <c r="S40" s="204"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="66"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B41" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="116"/>
+      <c r="F41" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="66">
+        <v>5</v>
+      </c>
+      <c r="K41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="66">
+        <v>3</v>
+      </c>
+      <c r="P41" s="179" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
+      <c r="S41" s="181"/>
+      <c r="T41" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="U41" s="66"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B42" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="116"/>
+      <c r="F42" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="74"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="66">
+        <v>4</v>
+      </c>
+      <c r="P42" s="179" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q42" s="180"/>
+      <c r="R42" s="180"/>
+      <c r="S42" s="181"/>
+      <c r="T42" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="U42" s="66"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B43" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="116"/>
+      <c r="F43" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="66">
+        <v>5</v>
+      </c>
+      <c r="P43" s="179"/>
+      <c r="Q43" s="180"/>
+      <c r="R43" s="180"/>
+      <c r="S43" s="181"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="66"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="66">
+        <v>6</v>
+      </c>
+      <c r="P44" s="179"/>
+      <c r="Q44" s="180"/>
+      <c r="R44" s="180"/>
+      <c r="S44" s="181"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="66"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="66">
+        <v>7</v>
+      </c>
+      <c r="P45" s="179"/>
+      <c r="Q45" s="180"/>
+      <c r="R45" s="180"/>
+      <c r="S45" s="181"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="66"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B46" s="93" t="s">
+        <v>401</v>
+      </c>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="M46" s="98" t="s">
+        <v>385</v>
+      </c>
+      <c r="N46" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="O46" s="66">
+        <v>0</v>
+      </c>
+      <c r="P46" s="179" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q46" s="180"/>
+      <c r="R46" s="180"/>
+      <c r="S46" s="181"/>
+      <c r="T46" s="67" t="s">
+        <v>407</v>
+      </c>
+      <c r="U46" s="66"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B47" s="189" t="s">
+        <v>402</v>
+      </c>
+      <c r="C47" s="189"/>
+      <c r="D47" s="189" t="s">
         <v>403</v>
       </c>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="184"/>
-      <c r="S28" s="184"/>
-    </row>
-    <row r="29" spans="2:21">
-      <c r="B29" s="139">
-        <v>20</v>
-      </c>
-      <c r="C29" s="160" t="s">
-        <v>304</v>
-      </c>
-      <c r="D29" s="161"/>
-      <c r="E29" s="141" t="s">
-        <v>337</v>
-      </c>
-      <c r="F29" s="141" t="s">
-        <v>341</v>
-      </c>
-      <c r="G29" s="162" t="s">
-        <v>306</v>
-      </c>
-      <c r="H29" s="162"/>
-      <c r="I29" s="140" t="s">
+      <c r="E47" s="189"/>
+      <c r="F47" s="189" t="s">
+        <v>336</v>
+      </c>
+      <c r="G47" s="189"/>
+      <c r="H47" s="189"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="66">
+        <v>1</v>
+      </c>
+      <c r="P47" s="179" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q47" s="180"/>
+      <c r="R47" s="180"/>
+      <c r="S47" s="181"/>
+      <c r="T47" s="67" t="s">
+        <v>408</v>
+      </c>
+      <c r="U47" s="66"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116" t="s">
+        <v>310</v>
+      </c>
+      <c r="E48" s="116"/>
+      <c r="F48" s="128" t="s">
+        <v>436</v>
+      </c>
+      <c r="G48" s="128"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="66">
+        <v>2</v>
+      </c>
+      <c r="P48" s="182" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q48" s="183"/>
+      <c r="R48" s="183"/>
+      <c r="S48" s="184"/>
+      <c r="T48" s="67" t="s">
         <v>410</v>
       </c>
-      <c r="J29" s="139"/>
-      <c r="M29" s="197" t="s">
-        <v>351</v>
-      </c>
-      <c r="N29" s="178" t="s">
-        <v>364</v>
-      </c>
-      <c r="O29" s="178" t="s">
-        <v>354</v>
-      </c>
-      <c r="P29" s="179" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q29" s="179"/>
-      <c r="R29" s="179"/>
-      <c r="S29" s="179"/>
-      <c r="T29" s="176" t="s">
-        <v>381</v>
-      </c>
-      <c r="U29" s="176" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21">
-      <c r="B30" s="139">
-        <v>21</v>
-      </c>
-      <c r="C30" s="160"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="141" t="s">
-        <v>342</v>
-      </c>
-      <c r="G30" s="162"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="139"/>
-      <c r="M30" s="196" t="s">
-        <v>387</v>
-      </c>
-      <c r="N30" s="140" t="s">
-        <v>373</v>
-      </c>
-      <c r="O30" s="139">
-        <v>0</v>
-      </c>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="181"/>
-      <c r="R30" s="181"/>
-      <c r="S30" s="182"/>
-      <c r="T30" s="140"/>
-      <c r="U30" s="139"/>
-    </row>
-    <row r="31" spans="2:21">
-      <c r="B31" s="139">
-        <v>22</v>
-      </c>
-      <c r="C31" s="160" t="s">
-        <v>305</v>
-      </c>
-      <c r="D31" s="161"/>
-      <c r="E31" s="141" t="s">
-        <v>337</v>
-      </c>
-      <c r="F31" s="141" t="s">
-        <v>341</v>
-      </c>
-      <c r="G31" s="162" t="s">
-        <v>307</v>
-      </c>
-      <c r="H31" s="162"/>
-      <c r="I31" s="140" t="s">
-        <v>409</v>
-      </c>
-      <c r="J31" s="139"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="140"/>
-      <c r="O31" s="139">
-        <v>1</v>
-      </c>
-      <c r="P31" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="181"/>
-      <c r="S31" s="182"/>
-      <c r="T31" s="140" t="s">
-        <v>423</v>
-      </c>
-      <c r="U31" s="139"/>
-    </row>
-    <row r="32" spans="2:21">
-      <c r="B32" s="139">
-        <v>23</v>
-      </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="141" t="s">
-        <v>342</v>
-      </c>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="139"/>
-      <c r="M32" s="140"/>
-      <c r="N32" s="140"/>
-      <c r="O32" s="139">
-        <v>2</v>
-      </c>
-      <c r="P32" s="180"/>
-      <c r="Q32" s="181"/>
-      <c r="R32" s="181"/>
-      <c r="S32" s="182"/>
-      <c r="T32" s="140"/>
-      <c r="U32" s="139"/>
-    </row>
-    <row r="33" spans="2:21">
-      <c r="E33" s="199" t="s">
-        <v>443</v>
-      </c>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="M33" s="140"/>
-      <c r="N33" s="140"/>
-      <c r="O33" s="139">
+      <c r="U48" s="66"/>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="128" t="s">
+        <v>437</v>
+      </c>
+      <c r="G49" s="128"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="66">
         <v>3</v>
       </c>
-      <c r="P33" s="180" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="181"/>
-      <c r="S33" s="182"/>
-      <c r="T33" s="140" t="s">
-        <v>15</v>
-      </c>
-      <c r="U33" s="139"/>
-    </row>
-    <row r="34" spans="2:21">
-      <c r="M34" s="140"/>
-      <c r="N34" s="140"/>
-      <c r="O34" s="139">
+      <c r="P49" s="179" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49" s="180"/>
+      <c r="R49" s="180"/>
+      <c r="S49" s="181"/>
+      <c r="T49" s="67" t="s">
+        <v>395</v>
+      </c>
+      <c r="U49" s="66"/>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="128" t="s">
+        <v>438</v>
+      </c>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="66">
         <v>4</v>
       </c>
-      <c r="P34" s="180" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q34" s="181"/>
-      <c r="R34" s="181"/>
-      <c r="S34" s="182"/>
-      <c r="T34" s="140" t="s">
-        <v>19</v>
-      </c>
-      <c r="U34" s="139"/>
-    </row>
-    <row r="35" spans="2:21">
-      <c r="B35" s="191" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="191"/>
-      <c r="D35" s="191" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="191"/>
-      <c r="F35" s="191" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="191"/>
-      <c r="H35" s="191"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="190" t="s">
-        <v>386</v>
-      </c>
-      <c r="K35" s="190" t="s">
-        <v>439</v>
-      </c>
-      <c r="M35" s="140"/>
-      <c r="N35" s="140"/>
-      <c r="O35" s="139">
+      <c r="P50" s="179" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="180"/>
+      <c r="R50" s="180"/>
+      <c r="S50" s="181"/>
+      <c r="T50" s="67" t="s">
+        <v>396</v>
+      </c>
+      <c r="U50" s="66"/>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B51" s="116"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="128"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="66">
         <v>5</v>
       </c>
-      <c r="P35" s="180"/>
-      <c r="Q35" s="181"/>
-      <c r="R35" s="181"/>
-      <c r="S35" s="182"/>
-      <c r="T35" s="140"/>
-      <c r="U35" s="139"/>
-    </row>
-    <row r="36" spans="2:21">
-      <c r="B36" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="139">
-        <v>0</v>
-      </c>
-      <c r="K36" s="140"/>
-      <c r="M36" s="140"/>
-      <c r="N36" s="140"/>
-      <c r="O36" s="139">
+      <c r="P51" s="179" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q51" s="180"/>
+      <c r="R51" s="180"/>
+      <c r="S51" s="181"/>
+      <c r="T51" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="U51" s="66"/>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="66">
         <v>6</v>
       </c>
-      <c r="P36" s="180"/>
-      <c r="Q36" s="181"/>
-      <c r="R36" s="181"/>
-      <c r="S36" s="182"/>
-      <c r="T36" s="140"/>
-      <c r="U36" s="139"/>
-    </row>
-    <row r="37" spans="2:21">
-      <c r="B37" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="139">
-        <v>1</v>
-      </c>
-      <c r="K37" s="140"/>
-      <c r="M37" s="140"/>
-      <c r="N37" s="140"/>
-      <c r="O37" s="139">
+      <c r="P52" s="179" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q52" s="180"/>
+      <c r="R52" s="180"/>
+      <c r="S52" s="181"/>
+      <c r="T52" s="67" t="s">
+        <v>393</v>
+      </c>
+      <c r="U52" s="66"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="66">
         <v>7</v>
       </c>
-      <c r="P37" s="180"/>
-      <c r="Q37" s="181"/>
-      <c r="R37" s="181"/>
-      <c r="S37" s="182"/>
-      <c r="T37" s="140"/>
-      <c r="U37" s="139"/>
-    </row>
-    <row r="38" spans="2:21">
-      <c r="B38" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="139">
-        <v>2</v>
-      </c>
-      <c r="K38" s="140"/>
-      <c r="M38" s="196" t="s">
-        <v>388</v>
-      </c>
-      <c r="N38" s="140" t="s">
-        <v>373</v>
-      </c>
-      <c r="O38" s="139">
-        <v>0</v>
-      </c>
-      <c r="P38" s="180"/>
-      <c r="Q38" s="181"/>
-      <c r="R38" s="181"/>
-      <c r="S38" s="182"/>
-      <c r="T38" s="140"/>
-      <c r="U38" s="139"/>
-    </row>
-    <row r="39" spans="2:21">
-      <c r="B39" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="139">
-        <v>3</v>
-      </c>
-      <c r="K39" s="140"/>
-      <c r="M39" s="140"/>
-      <c r="N39" s="140"/>
-      <c r="O39" s="139">
-        <v>1</v>
-      </c>
-      <c r="P39" s="180" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q39" s="181"/>
-      <c r="R39" s="181"/>
-      <c r="S39" s="182"/>
-      <c r="T39" s="140" t="s">
-        <v>416</v>
-      </c>
-      <c r="U39" s="139"/>
-    </row>
-    <row r="40" spans="2:21">
-      <c r="B40" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="175"/>
-      <c r="J40" s="139">
-        <v>4</v>
-      </c>
-      <c r="K40" s="140"/>
-      <c r="M40" s="140"/>
-      <c r="N40" s="140"/>
-      <c r="O40" s="139">
-        <v>2</v>
-      </c>
-      <c r="P40" s="180" t="s">
+      <c r="P53" s="179" t="s">
         <v>391</v>
       </c>
-      <c r="Q40" s="181"/>
-      <c r="R40" s="181"/>
-      <c r="S40" s="182"/>
-      <c r="T40" s="140"/>
-      <c r="U40" s="139"/>
-    </row>
-    <row r="41" spans="2:21">
-      <c r="B41" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="175"/>
-      <c r="J41" s="139">
-        <v>5</v>
-      </c>
-      <c r="K41" s="140"/>
-      <c r="M41" s="140"/>
-      <c r="N41" s="140"/>
-      <c r="O41" s="139">
-        <v>3</v>
-      </c>
-      <c r="P41" s="180" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q41" s="181"/>
-      <c r="R41" s="181"/>
-      <c r="S41" s="182"/>
-      <c r="T41" s="140" t="s">
-        <v>417</v>
-      </c>
-      <c r="U41" s="139"/>
-    </row>
-    <row r="42" spans="2:21">
-      <c r="B42" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="175"/>
-      <c r="J42" s="175"/>
-      <c r="K42" s="148"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="140"/>
-      <c r="O42" s="139">
-        <v>4</v>
-      </c>
-      <c r="P42" s="180" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q42" s="181"/>
-      <c r="R42" s="181"/>
-      <c r="S42" s="182"/>
-      <c r="T42" s="140" t="s">
-        <v>418</v>
-      </c>
-      <c r="U42" s="139"/>
-    </row>
-    <row r="43" spans="2:21">
-      <c r="B43" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="175"/>
-      <c r="J43" s="175"/>
-      <c r="M43" s="140"/>
-      <c r="N43" s="140"/>
-      <c r="O43" s="139">
-        <v>5</v>
-      </c>
-      <c r="P43" s="180"/>
-      <c r="Q43" s="181"/>
-      <c r="R43" s="181"/>
-      <c r="S43" s="182"/>
-      <c r="T43" s="140"/>
-      <c r="U43" s="139"/>
-    </row>
-    <row r="44" spans="2:21">
-      <c r="I44" s="175"/>
-      <c r="J44" s="175"/>
-      <c r="M44" s="140"/>
-      <c r="N44" s="140"/>
-      <c r="O44" s="139">
-        <v>6</v>
-      </c>
-      <c r="P44" s="180"/>
-      <c r="Q44" s="181"/>
-      <c r="R44" s="181"/>
-      <c r="S44" s="182"/>
-      <c r="T44" s="140"/>
-      <c r="U44" s="139"/>
-    </row>
-    <row r="45" spans="2:21">
-      <c r="B45" s="175"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="175"/>
-      <c r="I45" s="175"/>
-      <c r="J45" s="175"/>
-      <c r="M45" s="140"/>
-      <c r="N45" s="140"/>
-      <c r="O45" s="139">
-        <v>7</v>
-      </c>
-      <c r="P45" s="180"/>
-      <c r="Q45" s="181"/>
-      <c r="R45" s="181"/>
-      <c r="S45" s="182"/>
-      <c r="T45" s="140"/>
-      <c r="U45" s="139"/>
-    </row>
-    <row r="46" spans="2:21">
-      <c r="B46" s="185" t="s">
-        <v>413</v>
-      </c>
-      <c r="C46" s="148"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="175"/>
-      <c r="J46" s="175"/>
-      <c r="M46" s="196" t="s">
-        <v>389</v>
-      </c>
-      <c r="N46" s="140" t="s">
-        <v>373</v>
-      </c>
-      <c r="O46" s="139">
-        <v>0</v>
-      </c>
-      <c r="P46" s="180" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q46" s="181"/>
-      <c r="R46" s="181"/>
-      <c r="S46" s="182"/>
-      <c r="T46" s="140" t="s">
-        <v>419</v>
-      </c>
-      <c r="U46" s="139"/>
-    </row>
-    <row r="47" spans="2:21">
-      <c r="B47" s="191" t="s">
-        <v>414</v>
-      </c>
-      <c r="C47" s="191"/>
-      <c r="D47" s="191" t="s">
-        <v>415</v>
-      </c>
-      <c r="E47" s="191"/>
-      <c r="F47" s="191" t="s">
-        <v>336</v>
-      </c>
-      <c r="G47" s="191"/>
-      <c r="H47" s="191"/>
-      <c r="I47" s="175"/>
-      <c r="J47" s="175"/>
-      <c r="M47" s="140"/>
-      <c r="N47" s="140"/>
-      <c r="O47" s="139">
-        <v>1</v>
-      </c>
-      <c r="P47" s="180" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q47" s="181"/>
-      <c r="R47" s="181"/>
-      <c r="S47" s="182"/>
-      <c r="T47" s="140" t="s">
-        <v>420</v>
-      </c>
-      <c r="U47" s="139"/>
-    </row>
-    <row r="48" spans="2:21">
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="175"/>
-      <c r="J48" s="175"/>
-      <c r="M48" s="140"/>
-      <c r="N48" s="140"/>
-      <c r="O48" s="139">
-        <v>2</v>
-      </c>
-      <c r="P48" s="186" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q48" s="187"/>
-      <c r="R48" s="187"/>
-      <c r="S48" s="188"/>
-      <c r="T48" s="140" t="s">
-        <v>422</v>
-      </c>
-      <c r="U48" s="139"/>
-    </row>
-    <row r="49" spans="2:22">
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="175"/>
-      <c r="J49" s="175"/>
-      <c r="M49" s="140"/>
-      <c r="N49" s="140"/>
-      <c r="O49" s="139">
-        <v>3</v>
-      </c>
-      <c r="P49" s="180" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q49" s="181"/>
-      <c r="R49" s="181"/>
-      <c r="S49" s="182"/>
-      <c r="T49" s="140" t="s">
-        <v>400</v>
-      </c>
-      <c r="U49" s="139"/>
-    </row>
-    <row r="50" spans="2:22">
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="M50" s="140"/>
-      <c r="N50" s="140"/>
-      <c r="O50" s="139">
-        <v>4</v>
-      </c>
-      <c r="P50" s="180" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" s="181"/>
-      <c r="R50" s="181"/>
-      <c r="S50" s="182"/>
-      <c r="T50" s="140" t="s">
-        <v>401</v>
-      </c>
-      <c r="U50" s="139"/>
-    </row>
-    <row r="51" spans="2:22">
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="M51" s="140"/>
-      <c r="N51" s="140"/>
-      <c r="O51" s="139">
-        <v>5</v>
-      </c>
-      <c r="P51" s="180" t="s">
+      <c r="Q53" s="180"/>
+      <c r="R53" s="180"/>
+      <c r="S53" s="181"/>
+      <c r="T53" s="67" t="s">
         <v>394</v>
       </c>
-      <c r="Q51" s="181"/>
-      <c r="R51" s="181"/>
-      <c r="S51" s="182"/>
-      <c r="T51" s="140" t="s">
-        <v>397</v>
-      </c>
-      <c r="U51" s="139"/>
-    </row>
-    <row r="52" spans="2:22">
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="M52" s="140"/>
-      <c r="N52" s="140"/>
-      <c r="O52" s="139">
-        <v>6</v>
-      </c>
-      <c r="P52" s="180" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q52" s="181"/>
-      <c r="R52" s="181"/>
-      <c r="S52" s="182"/>
-      <c r="T52" s="140" t="s">
-        <v>398</v>
-      </c>
-      <c r="U52" s="139"/>
-    </row>
-    <row r="53" spans="2:22">
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="M53" s="140"/>
-      <c r="N53" s="140"/>
-      <c r="O53" s="139">
-        <v>7</v>
-      </c>
-      <c r="P53" s="180" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q53" s="181"/>
-      <c r="R53" s="181"/>
-      <c r="S53" s="182"/>
-      <c r="T53" s="140" t="s">
-        <v>399</v>
-      </c>
-      <c r="U53" s="139"/>
-    </row>
-    <row r="54" spans="2:22">
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="P54" s="149"/>
-      <c r="Q54" s="149"/>
-      <c r="R54" s="149"/>
-      <c r="S54" s="149"/>
-    </row>
-    <row r="55" spans="2:22" ht="17.25" thickBot="1">
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-    </row>
-    <row r="56" spans="2:22">
-      <c r="M56" s="153"/>
-      <c r="N56" s="154"/>
-      <c r="O56" s="155" t="s">
+      <c r="U53" s="66"/>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="P54" s="177"/>
+      <c r="Q54" s="177"/>
+      <c r="R54" s="177"/>
+      <c r="S54" s="177"/>
+    </row>
+    <row r="55" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="128"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="M56" s="175"/>
+      <c r="N56" s="176"/>
+      <c r="O56" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="P56" s="155" t="s">
+      <c r="P56" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="Q56" s="155" t="s">
+      <c r="Q56" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="R56" s="155" t="s">
+      <c r="R56" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="S56" s="155" t="s">
+      <c r="S56" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="T56" s="155" t="s">
+      <c r="T56" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="U56" s="155" t="s">
+      <c r="U56" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="V56" s="156" t="s">
+      <c r="V56" s="79" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="2:22">
-      <c r="M57" s="145" t="s">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="M57" s="71" t="s">
         <v>310</v>
       </c>
-      <c r="N57" s="148"/>
-      <c r="O57" s="148" t="s">
+      <c r="N57" s="74"/>
+      <c r="O57" s="74" t="s">
         <v>311</v>
       </c>
-      <c r="P57" s="148" t="s">
+      <c r="P57" s="74" t="s">
         <v>312</v>
       </c>
-      <c r="Q57" s="148" t="s">
+      <c r="Q57" s="74" t="s">
         <v>313</v>
       </c>
-      <c r="R57" s="148" t="s">
+      <c r="R57" s="74" t="s">
         <v>314</v>
       </c>
-      <c r="S57" s="148" t="s">
+      <c r="S57" s="74" t="s">
         <v>315</v>
       </c>
-      <c r="T57" s="148" t="s">
+      <c r="T57" s="74" t="s">
         <v>316</v>
       </c>
-      <c r="U57" s="148" t="s">
+      <c r="U57" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="V57" s="144" t="s">
+      <c r="V57" s="70" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="58" spans="2:22">
-      <c r="M58" s="145" t="s">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="M58" s="71" t="s">
         <v>319</v>
       </c>
-      <c r="N58" s="148"/>
-      <c r="O58" s="148" t="s">
+      <c r="N58" s="74"/>
+      <c r="O58" s="74" t="s">
         <v>320</v>
       </c>
-      <c r="P58" s="148" t="s">
+      <c r="P58" s="74" t="s">
         <v>321</v>
       </c>
-      <c r="Q58" s="148" t="s">
+      <c r="Q58" s="74" t="s">
         <v>322</v>
       </c>
-      <c r="R58" s="148" t="s">
+      <c r="R58" s="74" t="s">
         <v>323</v>
       </c>
-      <c r="S58" s="148" t="s">
+      <c r="S58" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="T58" s="148" t="s">
+      <c r="T58" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="U58" s="148" t="s">
+      <c r="U58" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="V58" s="144" t="s">
+      <c r="V58" s="70" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="2:22">
-      <c r="M59" s="145"/>
-      <c r="N59" s="148"/>
-      <c r="O59" s="148"/>
-      <c r="P59" s="148"/>
-      <c r="Q59" s="148"/>
-      <c r="R59" s="148"/>
-      <c r="S59" s="148"/>
-      <c r="T59" s="148"/>
-      <c r="U59" s="148"/>
-      <c r="V59" s="144"/>
-    </row>
-    <row r="60" spans="2:22">
-      <c r="M60" s="145" t="s">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="M59" s="71"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="74"/>
+      <c r="S59" s="74"/>
+      <c r="T59" s="74"/>
+      <c r="U59" s="74"/>
+      <c r="V59" s="70"/>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="M60" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="N60" s="148" t="s">
+      <c r="N60" s="74" t="s">
         <v>327</v>
       </c>
-      <c r="O60" s="148"/>
-      <c r="P60" s="148"/>
-      <c r="Q60" s="148"/>
-      <c r="R60" s="148"/>
-      <c r="S60" s="148"/>
-      <c r="T60" s="148"/>
-      <c r="U60" s="148"/>
-      <c r="V60" s="144"/>
-    </row>
-    <row r="61" spans="2:22">
-      <c r="M61" s="145" t="s">
+      <c r="O60" s="74"/>
+      <c r="P60" s="74"/>
+      <c r="Q60" s="74"/>
+      <c r="R60" s="74"/>
+      <c r="S60" s="74"/>
+      <c r="T60" s="74"/>
+      <c r="U60" s="74"/>
+      <c r="V60" s="70"/>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="M61" s="71" t="s">
         <v>310</v>
       </c>
-      <c r="N61" s="148" t="s">
+      <c r="N61" s="74" t="s">
         <v>328</v>
       </c>
-      <c r="O61" s="148"/>
-      <c r="P61" s="148"/>
-      <c r="Q61" s="148"/>
-      <c r="R61" s="148"/>
-      <c r="S61" s="148"/>
-      <c r="T61" s="148"/>
-      <c r="U61" s="148"/>
-      <c r="V61" s="144"/>
-    </row>
-    <row r="62" spans="2:22" ht="17.25" thickBot="1">
-      <c r="M62" s="150" t="s">
+      <c r="O61" s="74"/>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="74"/>
+      <c r="R61" s="74"/>
+      <c r="S61" s="74"/>
+      <c r="T61" s="74"/>
+      <c r="U61" s="74"/>
+      <c r="V61" s="70"/>
+    </row>
+    <row r="62" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M62" s="75" t="s">
         <v>319</v>
       </c>
-      <c r="N62" s="151" t="s">
+      <c r="N62" s="76" t="s">
         <v>329</v>
       </c>
-      <c r="O62" s="151"/>
-      <c r="P62" s="151"/>
-      <c r="Q62" s="151"/>
-      <c r="R62" s="151"/>
-      <c r="S62" s="151"/>
-      <c r="T62" s="151"/>
-      <c r="U62" s="151"/>
-      <c r="V62" s="152"/>
+      <c r="O62" s="76"/>
+      <c r="P62" s="76"/>
+      <c r="Q62" s="76"/>
+      <c r="R62" s="76"/>
+      <c r="S62" s="76"/>
+      <c r="T62" s="76"/>
+      <c r="U62" s="76"/>
+      <c r="V62" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -10267,29 +10314,133 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:H53"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10305,6 +10456,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A03C2E64F0005140BDE7226CB0774D20" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2dc62d7ebda28b2248c4fcd0d1e853dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99f0e776-88d9-49cc-bc44-8f053c06a05d" xmlns:ns3="c670e95e-ae83-46c3-a0ce-27f41546ffc1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddbdedb6ae28ed921b958fa0c5f62c2b" ns2:_="" ns3:_="">
     <xsd:import namespace="99f0e776-88d9-49cc-bc44-8f053c06a05d"/>
@@ -10547,15 +10707,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4D1D403-A5EB-472D-9E01-FE3DAF7D69B0}">
   <ds:schemaRefs>
@@ -10568,6 +10719,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA663353-8C2D-4150-B0CA-BB8B28118183}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E27BFE-617B-427B-B3BC-9D5FD0F3BADE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10584,12 +10743,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA663353-8C2D-4150-B0CA-BB8B28118183}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/Cogen_Protocol.xlsx
+++ b/docs/Cogen_Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepoGit\sim-tools\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ED527C-9BC0-4135-9B33-C32759857CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010DF3C7-A009-420B-A65B-9752A3159CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="451">
   <si>
     <t>Cogen B'd 제어 로직</t>
     <phoneticPr fontId="21" type="noConversion"/>
@@ -1685,9 +1685,6 @@
     <t>동작상태</t>
   </si>
   <si>
-    <t>PIT_1</t>
-  </si>
-  <si>
     <t>FW_VER</t>
   </si>
   <si>
@@ -1787,10 +1784,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>3WAY A/M(난방수순환 우회, 사용안함)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>NC412(드레인)</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1799,10 +1792,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>NC413(전자변-CN6) 직수밸브 On/Off</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>펌프1 전원 Relay</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1819,10 +1808,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>TT_TH3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>TH_M</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1843,10 +1828,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>TH_6</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>고객측 온수 온도</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1856,6 +1837,30 @@
   </si>
   <si>
     <t>RX(코젠통신상태, LabView용)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH03</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH06</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIT01</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>방열기 냉각수 압력</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC413(직수)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>3WAY A/M(난방수순환 우회, 1KW 전용)</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -3577,7 +3582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3884,6 +3889,54 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3911,48 +3964,117 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3962,146 +4084,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4109,104 +4213,8 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="166">
@@ -4720,16 +4728,16 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:12" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
     </row>
     <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -4737,110 +4745,110 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113" t="s">
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="114"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116" t="s">
+      <c r="C6" s="109"/>
+      <c r="D6" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116" t="s">
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="117"/>
+      <c r="J6" s="110"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116" t="s">
+      <c r="C7" s="109"/>
+      <c r="D7" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116" t="s">
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="117"/>
+      <c r="J7" s="110"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="115"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="115"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="110"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="117"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="110"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="117"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
     </row>
     <row r="16" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
@@ -4851,227 +4859,279 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122" t="s">
+      <c r="C17" s="112"/>
+      <c r="D17" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122" t="s">
+      <c r="E17" s="112"/>
+      <c r="F17" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="L17" s="108" t="s">
+      <c r="G17" s="112"/>
+      <c r="H17" s="113"/>
+      <c r="L17" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="110"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="126"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116" t="s">
+      <c r="C18" s="109"/>
+      <c r="D18" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116" t="s">
+      <c r="E18" s="109"/>
+      <c r="F18" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="116"/>
-      <c r="H18" s="117"/>
-      <c r="L18" s="102" t="s">
+      <c r="G18" s="109"/>
+      <c r="H18" s="110"/>
+      <c r="L18" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="104"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="120"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116" t="s">
+      <c r="E19" s="109"/>
+      <c r="F19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="116"/>
-      <c r="H19" s="117"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="103"/>
-      <c r="T19" s="104"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="110"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="120"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116" t="s">
+      <c r="C20" s="109"/>
+      <c r="D20" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116" t="s">
+      <c r="E20" s="109"/>
+      <c r="F20" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="116"/>
-      <c r="H20" s="117"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="104"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="110"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="120"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116" t="s">
+      <c r="C21" s="109"/>
+      <c r="D21" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116" t="s">
+      <c r="E21" s="109"/>
+      <c r="F21" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="117"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="104"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="110"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="120"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116" t="s">
+      <c r="C22" s="109"/>
+      <c r="D22" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116" t="s">
+      <c r="E22" s="109"/>
+      <c r="F22" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="117"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="104"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="110"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="120"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116" t="s">
+      <c r="C23" s="109"/>
+      <c r="D23" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116" t="s">
+      <c r="E23" s="109"/>
+      <c r="F23" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="116"/>
-      <c r="H23" s="117"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="104"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="110"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="119"/>
+      <c r="T23" s="120"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116" t="s">
+      <c r="C24" s="109"/>
+      <c r="D24" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116" t="s">
+      <c r="E24" s="109"/>
+      <c r="F24" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="116"/>
-      <c r="H24" s="117"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="104"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="110"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="119"/>
+      <c r="T24" s="120"/>
     </row>
     <row r="25" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119" t="s">
+      <c r="C25" s="106"/>
+      <c r="D25" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119" t="s">
+      <c r="E25" s="106"/>
+      <c r="F25" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="119"/>
-      <c r="H25" s="120"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="107"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="107"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="L22:T22"/>
+    <mergeCell ref="L23:T23"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="L25:T25"/>
+    <mergeCell ref="L17:T17"/>
+    <mergeCell ref="L18:T18"/>
+    <mergeCell ref="L19:T19"/>
+    <mergeCell ref="L20:T20"/>
+    <mergeCell ref="L21:T21"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:H25"/>
@@ -5081,58 +5141,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="L22:T22"/>
-    <mergeCell ref="L23:T23"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="L25:T25"/>
-    <mergeCell ref="L17:T17"/>
-    <mergeCell ref="L18:T18"/>
-    <mergeCell ref="L19:T19"/>
-    <mergeCell ref="L20:T20"/>
-    <mergeCell ref="L21:T21"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5155,18 +5163,18 @@
   <sheetData>
     <row r="1" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -5174,18 +5182,18 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="161" t="s">
+      <c r="S2" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="161"/>
-      <c r="AB2" s="161"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
@@ -5419,79 +5427,79 @@
       <c r="AM5" s="3"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="133"/>
-      <c r="S6" s="133" t="s">
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="S6" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133"/>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133"/>
-      <c r="AA6" s="133" t="s">
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133"/>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
+      <c r="AB6" s="127"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="127"/>
+      <c r="AG6" s="127"/>
+      <c r="AH6" s="127"/>
       <c r="AM6" s="3"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124" t="s">
+      <c r="E7" s="128"/>
+      <c r="F7" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124" t="s">
+      <c r="G7" s="128"/>
+      <c r="H7" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124" t="s">
+      <c r="I7" s="128"/>
+      <c r="J7" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124" t="s">
+      <c r="K7" s="128"/>
+      <c r="L7" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124" t="s">
+      <c r="M7" s="128"/>
+      <c r="N7" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124" t="s">
+      <c r="O7" s="128"/>
+      <c r="P7" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="124"/>
+      <c r="Q7" s="128"/>
       <c r="S7" s="60" t="s">
         <v>69</v>
       </c>
@@ -5543,56 +5551,56 @@
       <c r="AM7" s="3"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131" t="s">
+      <c r="C8" s="142"/>
+      <c r="D8" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="131"/>
-      <c r="F8" s="116" t="s">
+      <c r="E8" s="142"/>
+      <c r="F8" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116" t="s">
+      <c r="G8" s="109"/>
+      <c r="H8" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116" t="s">
+      <c r="I8" s="109"/>
+      <c r="J8" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116" t="s">
+      <c r="K8" s="109"/>
+      <c r="L8" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116" t="s">
+      <c r="M8" s="109"/>
+      <c r="N8" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116" t="s">
+      <c r="O8" s="109"/>
+      <c r="P8" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="Q8" s="116"/>
-      <c r="S8" s="131" t="s">
+      <c r="Q8" s="109"/>
+      <c r="S8" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="131"/>
-      <c r="Z8" s="131"/>
-      <c r="AA8" s="131"/>
-      <c r="AB8" s="131"/>
-      <c r="AC8" s="131"/>
-      <c r="AD8" s="131"/>
-      <c r="AE8" s="131"/>
-      <c r="AF8" s="131"/>
-      <c r="AG8" s="131"/>
-      <c r="AH8" s="131"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="142"/>
+      <c r="X8" s="142"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="142"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="142"/>
+      <c r="AC8" s="142"/>
+      <c r="AD8" s="142"/>
+      <c r="AE8" s="142"/>
+      <c r="AF8" s="142"/>
+      <c r="AG8" s="142"/>
+      <c r="AH8" s="142"/>
       <c r="AM8" s="3"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
@@ -5651,45 +5659,45 @@
       <c r="A10" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="133"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="133" t="s">
+      <c r="S10" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="T10" s="133"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="133"/>
-      <c r="AA10" s="133" t="s">
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="AB10" s="133"/>
-      <c r="AC10" s="133"/>
-      <c r="AD10" s="133"/>
-      <c r="AE10" s="133"/>
-      <c r="AF10" s="133"/>
-      <c r="AG10" s="133"/>
-      <c r="AH10" s="133"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="127"/>
+      <c r="AF10" s="127"/>
+      <c r="AG10" s="127"/>
+      <c r="AH10" s="127"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
@@ -5697,38 +5705,38 @@
       <c r="AM10" s="36"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B11" s="163" t="s">
+      <c r="B11" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124" t="s">
+      <c r="C11" s="128"/>
+      <c r="D11" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124" t="s">
+      <c r="E11" s="128"/>
+      <c r="F11" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124" t="s">
+      <c r="G11" s="128"/>
+      <c r="H11" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124" t="s">
+      <c r="I11" s="128"/>
+      <c r="J11" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124" t="s">
+      <c r="K11" s="128"/>
+      <c r="L11" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124" t="s">
+      <c r="M11" s="128"/>
+      <c r="N11" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124" t="s">
+      <c r="O11" s="128"/>
+      <c r="P11" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="124"/>
+      <c r="Q11" s="128"/>
       <c r="R11" s="9"/>
       <c r="S11" s="60" t="s">
         <v>69</v>
@@ -5785,53 +5793,53 @@
       <c r="AM11" s="36"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B12" s="153"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="116" t="s">
+      <c r="B12" s="148"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116" t="s">
+      <c r="G12" s="109"/>
+      <c r="H12" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116" t="s">
+      <c r="I12" s="109"/>
+      <c r="J12" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116" t="s">
+      <c r="K12" s="109"/>
+      <c r="L12" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116" t="s">
+      <c r="M12" s="109"/>
+      <c r="N12" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116" t="s">
+      <c r="O12" s="109"/>
+      <c r="P12" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="116"/>
+      <c r="Q12" s="109"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="131" t="s">
+      <c r="S12" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="T12" s="131"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="131"/>
-      <c r="AA12" s="131"/>
-      <c r="AB12" s="131"/>
-      <c r="AC12" s="131"/>
-      <c r="AD12" s="131"/>
-      <c r="AE12" s="131"/>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="131"/>
-      <c r="AH12" s="131"/>
+      <c r="T12" s="142"/>
+      <c r="U12" s="142"/>
+      <c r="V12" s="142"/>
+      <c r="W12" s="142"/>
+      <c r="X12" s="142"/>
+      <c r="Y12" s="142"/>
+      <c r="Z12" s="142"/>
+      <c r="AA12" s="142"/>
+      <c r="AB12" s="142"/>
+      <c r="AC12" s="142"/>
+      <c r="AD12" s="142"/>
+      <c r="AE12" s="142"/>
+      <c r="AF12" s="142"/>
+      <c r="AG12" s="142"/>
+      <c r="AH12" s="142"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
@@ -5875,16 +5883,16 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="S14" s="133" t="s">
+      <c r="S14" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="T14" s="133"/>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="133"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="133"/>
-      <c r="Z14" s="133"/>
+      <c r="T14" s="127"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="127"/>
       <c r="AM14" s="3"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
@@ -5917,16 +5925,16 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="S16" s="131" t="s">
+      <c r="S16" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="T16" s="131"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
+      <c r="T16" s="142"/>
+      <c r="U16" s="142"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="142"/>
+      <c r="X16" s="142"/>
+      <c r="Y16" s="142"/>
+      <c r="Z16" s="142"/>
       <c r="AM16" s="3"/>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.3">
@@ -5955,24 +5963,24 @@
     </row>
     <row r="18" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
-      <c r="S18" s="133" t="s">
+      <c r="S18" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="T18" s="133"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="133"/>
-      <c r="W18" s="133"/>
-      <c r="X18" s="133"/>
-      <c r="Y18" s="133"/>
-      <c r="Z18" s="133"/>
-      <c r="AA18" s="133"/>
-      <c r="AB18" s="133"/>
-      <c r="AC18" s="133"/>
-      <c r="AD18" s="133"/>
-      <c r="AE18" s="133"/>
-      <c r="AF18" s="133"/>
-      <c r="AG18" s="133"/>
-      <c r="AH18" s="133"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+      <c r="AE18" s="127"/>
+      <c r="AF18" s="127"/>
+      <c r="AG18" s="127"/>
+      <c r="AH18" s="127"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
       <c r="AK18" s="8"/>
@@ -5981,38 +5989,38 @@
     </row>
     <row r="19" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="S19" s="124" t="s">
+      <c r="S19" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="T19" s="124"/>
-      <c r="U19" s="124" t="s">
+      <c r="T19" s="128"/>
+      <c r="U19" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="V19" s="124"/>
-      <c r="W19" s="124" t="s">
+      <c r="V19" s="128"/>
+      <c r="W19" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="X19" s="124"/>
-      <c r="Y19" s="124" t="s">
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="Z19" s="124"/>
-      <c r="AA19" s="124" t="s">
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="AB19" s="124"/>
-      <c r="AC19" s="124" t="s">
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="AD19" s="124"/>
-      <c r="AE19" s="124" t="s">
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="AF19" s="124"/>
-      <c r="AG19" s="124" t="s">
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="AH19" s="124"/>
+      <c r="AH19" s="128"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
@@ -6021,34 +6029,34 @@
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="116" t="s">
+      <c r="S20" s="142"/>
+      <c r="T20" s="142"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="142"/>
+      <c r="W20" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116" t="s">
+      <c r="X20" s="109"/>
+      <c r="Y20" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="116" t="s">
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="116" t="s">
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="AD20" s="116"/>
-      <c r="AE20" s="116" t="s">
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116" t="s">
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="AH20" s="116"/>
+      <c r="AH20" s="109"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
@@ -6077,96 +6085,96 @@
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
-      <c r="S22" s="133" t="s">
+      <c r="S22" s="127" t="s">
         <v>99</v>
       </c>
-      <c r="T22" s="133"/>
-      <c r="U22" s="133"/>
-      <c r="V22" s="133"/>
-      <c r="W22" s="133"/>
-      <c r="X22" s="133"/>
-      <c r="Y22" s="133"/>
-      <c r="Z22" s="133"/>
-      <c r="AA22" s="133"/>
-      <c r="AB22" s="133"/>
-      <c r="AC22" s="133"/>
-      <c r="AD22" s="133"/>
-      <c r="AE22" s="133"/>
-      <c r="AF22" s="133"/>
-      <c r="AG22" s="133"/>
-      <c r="AH22" s="133"/>
+      <c r="T22" s="127"/>
+      <c r="U22" s="127"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="127"/>
+      <c r="AD22" s="127"/>
+      <c r="AE22" s="127"/>
+      <c r="AF22" s="127"/>
+      <c r="AG22" s="127"/>
+      <c r="AH22" s="127"/>
       <c r="AM22" s="3"/>
     </row>
     <row r="23" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
-      <c r="S23" s="124" t="s">
+      <c r="S23" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124" t="s">
+      <c r="T23" s="128"/>
+      <c r="U23" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="V23" s="124"/>
-      <c r="W23" s="124" t="s">
+      <c r="V23" s="128"/>
+      <c r="W23" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="X23" s="124"/>
-      <c r="Y23" s="124" t="s">
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="Z23" s="124"/>
-      <c r="AA23" s="124" t="s">
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="AB23" s="124"/>
-      <c r="AC23" s="124" t="s">
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="124" t="s">
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="124" t="s">
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="AH23" s="124"/>
+      <c r="AH23" s="128"/>
       <c r="AM23" s="3"/>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
-      <c r="S24" s="131" t="s">
+      <c r="S24" s="142" t="s">
         <v>100</v>
       </c>
-      <c r="T24" s="131"/>
-      <c r="U24" s="132" t="s">
+      <c r="T24" s="142"/>
+      <c r="U24" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="V24" s="130"/>
-      <c r="W24" s="131" t="s">
+      <c r="V24" s="144"/>
+      <c r="W24" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="X24" s="131"/>
-      <c r="Y24" s="131" t="s">
+      <c r="X24" s="142"/>
+      <c r="Y24" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="Z24" s="131"/>
-      <c r="AA24" s="131" t="s">
+      <c r="Z24" s="142"/>
+      <c r="AA24" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="AB24" s="131"/>
-      <c r="AC24" s="132" t="s">
+      <c r="AB24" s="142"/>
+      <c r="AC24" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="AD24" s="130"/>
-      <c r="AE24" s="131" t="s">
+      <c r="AD24" s="144"/>
+      <c r="AE24" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="AF24" s="131"/>
-      <c r="AG24" s="130" t="s">
+      <c r="AF24" s="142"/>
+      <c r="AG24" s="144" t="s">
         <v>101</v>
       </c>
-      <c r="AH24" s="130"/>
+      <c r="AH24" s="144"/>
       <c r="AM24" s="3"/>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.3">
@@ -6195,24 +6203,24 @@
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
-      <c r="S26" s="133" t="s">
+      <c r="S26" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="T26" s="133"/>
-      <c r="U26" s="133"/>
-      <c r="V26" s="133"/>
-      <c r="W26" s="133"/>
-      <c r="X26" s="133"/>
-      <c r="Y26" s="133"/>
-      <c r="Z26" s="133"/>
-      <c r="AA26" s="133"/>
-      <c r="AB26" s="133"/>
-      <c r="AC26" s="133"/>
-      <c r="AD26" s="133"/>
-      <c r="AE26" s="133"/>
-      <c r="AF26" s="133"/>
-      <c r="AG26" s="133"/>
-      <c r="AH26" s="133"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="127"/>
+      <c r="AA26" s="127"/>
+      <c r="AB26" s="127"/>
+      <c r="AC26" s="127"/>
+      <c r="AD26" s="127"/>
+      <c r="AE26" s="127"/>
+      <c r="AF26" s="127"/>
+      <c r="AG26" s="127"/>
+      <c r="AH26" s="127"/>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
       <c r="AK26" s="37"/>
@@ -6221,38 +6229,38 @@
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
-      <c r="S27" s="124" t="s">
+      <c r="S27" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="T27" s="124"/>
-      <c r="U27" s="124" t="s">
+      <c r="T27" s="128"/>
+      <c r="U27" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="V27" s="124"/>
-      <c r="W27" s="124" t="s">
+      <c r="V27" s="128"/>
+      <c r="W27" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="X27" s="124"/>
-      <c r="Y27" s="124" t="s">
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="Z27" s="124"/>
-      <c r="AA27" s="124" t="s">
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="AB27" s="124"/>
-      <c r="AC27" s="124" t="s">
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="AD27" s="124"/>
-      <c r="AE27" s="124" t="s">
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="AF27" s="124"/>
-      <c r="AG27" s="124" t="s">
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="AH27" s="124"/>
+      <c r="AH27" s="128"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
       <c r="AK27" s="37"/>
@@ -6261,38 +6269,38 @@
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
-      <c r="S28" s="131" t="s">
+      <c r="S28" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="T28" s="131"/>
-      <c r="U28" s="132" t="s">
+      <c r="T28" s="142"/>
+      <c r="U28" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="V28" s="130"/>
-      <c r="W28" s="130" t="s">
+      <c r="V28" s="144"/>
+      <c r="W28" s="144" t="s">
         <v>101</v>
       </c>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="131" t="s">
+      <c r="X28" s="144"/>
+      <c r="Y28" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="Z28" s="131"/>
-      <c r="AA28" s="131" t="s">
+      <c r="Z28" s="142"/>
+      <c r="AA28" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="AB28" s="131"/>
-      <c r="AC28" s="132" t="s">
+      <c r="AB28" s="142"/>
+      <c r="AC28" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="AD28" s="130"/>
-      <c r="AE28" s="132" t="s">
+      <c r="AD28" s="144"/>
+      <c r="AE28" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="AF28" s="130"/>
-      <c r="AG28" s="130" t="s">
+      <c r="AF28" s="144"/>
+      <c r="AG28" s="144" t="s">
         <v>101</v>
       </c>
-      <c r="AH28" s="130"/>
+      <c r="AH28" s="144"/>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
       <c r="AK28" s="37"/>
@@ -6321,96 +6329,96 @@
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
-      <c r="S30" s="133" t="s">
+      <c r="S30" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="T30" s="133"/>
-      <c r="U30" s="133"/>
-      <c r="V30" s="133"/>
-      <c r="W30" s="133"/>
-      <c r="X30" s="133"/>
-      <c r="Y30" s="133"/>
-      <c r="Z30" s="133"/>
-      <c r="AA30" s="133"/>
-      <c r="AB30" s="133"/>
-      <c r="AC30" s="133"/>
-      <c r="AD30" s="133"/>
-      <c r="AE30" s="133"/>
-      <c r="AF30" s="133"/>
-      <c r="AG30" s="133"/>
-      <c r="AH30" s="133"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="127"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="127"/>
+      <c r="AA30" s="127"/>
+      <c r="AB30" s="127"/>
+      <c r="AC30" s="127"/>
+      <c r="AD30" s="127"/>
+      <c r="AE30" s="127"/>
+      <c r="AF30" s="127"/>
+      <c r="AG30" s="127"/>
+      <c r="AH30" s="127"/>
       <c r="AM30" s="3"/>
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
-      <c r="S31" s="124" t="s">
+      <c r="S31" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="T31" s="124"/>
-      <c r="U31" s="124" t="s">
+      <c r="T31" s="128"/>
+      <c r="U31" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="V31" s="124"/>
-      <c r="W31" s="124" t="s">
+      <c r="V31" s="128"/>
+      <c r="W31" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="X31" s="124"/>
-      <c r="Y31" s="124" t="s">
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="Z31" s="124"/>
-      <c r="AA31" s="124" t="s">
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="AB31" s="124"/>
-      <c r="AC31" s="124" t="s">
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="AD31" s="124"/>
-      <c r="AE31" s="124" t="s">
+      <c r="AD31" s="128"/>
+      <c r="AE31" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="AF31" s="124"/>
-      <c r="AG31" s="124" t="s">
+      <c r="AF31" s="128"/>
+      <c r="AG31" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="AH31" s="124"/>
+      <c r="AH31" s="128"/>
       <c r="AM31" s="3"/>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
-      <c r="S32" s="131" t="s">
+      <c r="S32" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="T32" s="131"/>
-      <c r="U32" s="131" t="s">
+      <c r="T32" s="142"/>
+      <c r="U32" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="V32" s="131"/>
-      <c r="W32" s="116" t="s">
+      <c r="V32" s="142"/>
+      <c r="W32" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116" t="s">
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="116" t="s">
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="AB32" s="116"/>
-      <c r="AC32" s="116" t="s">
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="AD32" s="116"/>
-      <c r="AE32" s="116" t="s">
+      <c r="AD32" s="109"/>
+      <c r="AE32" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116" t="s">
+      <c r="AF32" s="109"/>
+      <c r="AG32" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="AH32" s="116"/>
+      <c r="AH32" s="109"/>
       <c r="AM32" s="3"/>
     </row>
     <row r="33" spans="2:39" x14ac:dyDescent="0.3">
@@ -6435,26 +6443,26 @@
     </row>
     <row r="34" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
-      <c r="S34" s="133" t="s">
+      <c r="S34" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="T34" s="133"/>
-      <c r="U34" s="133"/>
-      <c r="V34" s="133"/>
-      <c r="W34" s="133"/>
-      <c r="X34" s="133"/>
-      <c r="Y34" s="133"/>
-      <c r="Z34" s="133"/>
-      <c r="AA34" s="133" t="s">
+      <c r="T34" s="127"/>
+      <c r="U34" s="127"/>
+      <c r="V34" s="127"/>
+      <c r="W34" s="127"/>
+      <c r="X34" s="127"/>
+      <c r="Y34" s="127"/>
+      <c r="Z34" s="127"/>
+      <c r="AA34" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="AB34" s="133"/>
-      <c r="AC34" s="133"/>
-      <c r="AD34" s="133"/>
-      <c r="AE34" s="133"/>
-      <c r="AF34" s="133"/>
-      <c r="AG34" s="133"/>
-      <c r="AH34" s="133"/>
+      <c r="AB34" s="127"/>
+      <c r="AC34" s="127"/>
+      <c r="AD34" s="127"/>
+      <c r="AE34" s="127"/>
+      <c r="AF34" s="127"/>
+      <c r="AG34" s="127"/>
+      <c r="AH34" s="127"/>
       <c r="AM34" s="3"/>
     </row>
     <row r="35" spans="2:39" x14ac:dyDescent="0.3">
@@ -6511,24 +6519,24 @@
     </row>
     <row r="36" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
-      <c r="S36" s="138" t="s">
+      <c r="S36" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="138"/>
-      <c r="U36" s="138"/>
-      <c r="V36" s="138"/>
-      <c r="W36" s="138"/>
-      <c r="X36" s="138"/>
-      <c r="Y36" s="138"/>
-      <c r="Z36" s="138"/>
-      <c r="AA36" s="138"/>
-      <c r="AB36" s="138"/>
-      <c r="AC36" s="138"/>
-      <c r="AD36" s="138"/>
-      <c r="AE36" s="138"/>
-      <c r="AF36" s="138"/>
-      <c r="AG36" s="138"/>
-      <c r="AH36" s="138"/>
+      <c r="T36" s="169"/>
+      <c r="U36" s="169"/>
+      <c r="V36" s="169"/>
+      <c r="W36" s="169"/>
+      <c r="X36" s="169"/>
+      <c r="Y36" s="169"/>
+      <c r="Z36" s="169"/>
+      <c r="AA36" s="169"/>
+      <c r="AB36" s="169"/>
+      <c r="AC36" s="169"/>
+      <c r="AD36" s="169"/>
+      <c r="AE36" s="169"/>
+      <c r="AF36" s="169"/>
+      <c r="AG36" s="169"/>
+      <c r="AH36" s="169"/>
       <c r="AM36" s="3"/>
     </row>
     <row r="37" spans="2:39" x14ac:dyDescent="0.3">
@@ -6557,26 +6565,26 @@
     </row>
     <row r="38" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
-      <c r="S38" s="133" t="s">
+      <c r="S38" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="T38" s="133"/>
-      <c r="U38" s="133"/>
-      <c r="V38" s="133"/>
-      <c r="W38" s="133"/>
-      <c r="X38" s="133"/>
-      <c r="Y38" s="133"/>
-      <c r="Z38" s="133"/>
-      <c r="AA38" s="133" t="s">
+      <c r="T38" s="127"/>
+      <c r="U38" s="127"/>
+      <c r="V38" s="127"/>
+      <c r="W38" s="127"/>
+      <c r="X38" s="127"/>
+      <c r="Y38" s="127"/>
+      <c r="Z38" s="127"/>
+      <c r="AA38" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="AB38" s="133"/>
-      <c r="AC38" s="133"/>
-      <c r="AD38" s="133"/>
-      <c r="AE38" s="133"/>
-      <c r="AF38" s="133"/>
-      <c r="AG38" s="133"/>
-      <c r="AH38" s="133"/>
+      <c r="AB38" s="127"/>
+      <c r="AC38" s="127"/>
+      <c r="AD38" s="127"/>
+      <c r="AE38" s="127"/>
+      <c r="AF38" s="127"/>
+      <c r="AG38" s="127"/>
+      <c r="AH38" s="127"/>
       <c r="AI38" s="32"/>
       <c r="AJ38" s="32"/>
       <c r="AK38" s="32"/>
@@ -6641,24 +6649,24 @@
     </row>
     <row r="40" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
-      <c r="S40" s="138" t="s">
+      <c r="S40" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="T40" s="138"/>
-      <c r="U40" s="138"/>
-      <c r="V40" s="138"/>
-      <c r="W40" s="138"/>
-      <c r="X40" s="138"/>
-      <c r="Y40" s="138"/>
-      <c r="Z40" s="138"/>
-      <c r="AA40" s="138"/>
-      <c r="AB40" s="138"/>
-      <c r="AC40" s="138"/>
-      <c r="AD40" s="138"/>
-      <c r="AE40" s="138"/>
-      <c r="AF40" s="138"/>
-      <c r="AG40" s="138"/>
-      <c r="AH40" s="138"/>
+      <c r="T40" s="169"/>
+      <c r="U40" s="169"/>
+      <c r="V40" s="169"/>
+      <c r="W40" s="169"/>
+      <c r="X40" s="169"/>
+      <c r="Y40" s="169"/>
+      <c r="Z40" s="169"/>
+      <c r="AA40" s="169"/>
+      <c r="AB40" s="169"/>
+      <c r="AC40" s="169"/>
+      <c r="AD40" s="169"/>
+      <c r="AE40" s="169"/>
+      <c r="AF40" s="169"/>
+      <c r="AG40" s="169"/>
+      <c r="AH40" s="169"/>
       <c r="AI40" s="32"/>
       <c r="AJ40" s="32"/>
       <c r="AK40" s="32"/>
@@ -6691,24 +6699,24 @@
     </row>
     <row r="42" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
-      <c r="S42" s="133" t="s">
+      <c r="S42" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="T42" s="133"/>
-      <c r="U42" s="133"/>
-      <c r="V42" s="133"/>
-      <c r="W42" s="133"/>
-      <c r="X42" s="133"/>
-      <c r="Y42" s="133"/>
-      <c r="Z42" s="133"/>
-      <c r="AA42" s="133"/>
-      <c r="AB42" s="133"/>
-      <c r="AC42" s="133"/>
-      <c r="AD42" s="133"/>
-      <c r="AE42" s="133"/>
-      <c r="AF42" s="133"/>
-      <c r="AG42" s="133"/>
-      <c r="AH42" s="133"/>
+      <c r="T42" s="127"/>
+      <c r="U42" s="127"/>
+      <c r="V42" s="127"/>
+      <c r="W42" s="127"/>
+      <c r="X42" s="127"/>
+      <c r="Y42" s="127"/>
+      <c r="Z42" s="127"/>
+      <c r="AA42" s="127"/>
+      <c r="AB42" s="127"/>
+      <c r="AC42" s="127"/>
+      <c r="AD42" s="127"/>
+      <c r="AE42" s="127"/>
+      <c r="AF42" s="127"/>
+      <c r="AG42" s="127"/>
+      <c r="AH42" s="127"/>
       <c r="AI42" s="32"/>
       <c r="AJ42" s="32" t="s">
         <v>114</v>
@@ -6723,38 +6731,38 @@
     </row>
     <row r="43" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
-      <c r="S43" s="124" t="s">
+      <c r="S43" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="T43" s="124"/>
-      <c r="U43" s="124" t="s">
+      <c r="T43" s="128"/>
+      <c r="U43" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="V43" s="124"/>
-      <c r="W43" s="124" t="s">
+      <c r="V43" s="128"/>
+      <c r="W43" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="X43" s="124"/>
-      <c r="Y43" s="124" t="s">
+      <c r="X43" s="128"/>
+      <c r="Y43" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="Z43" s="124"/>
-      <c r="AA43" s="124" t="s">
+      <c r="Z43" s="128"/>
+      <c r="AA43" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="AB43" s="124"/>
-      <c r="AC43" s="124" t="s">
+      <c r="AB43" s="128"/>
+      <c r="AC43" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="AD43" s="124"/>
-      <c r="AE43" s="124" t="s">
+      <c r="AD43" s="128"/>
+      <c r="AE43" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="AF43" s="124"/>
-      <c r="AG43" s="124" t="s">
+      <c r="AF43" s="128"/>
+      <c r="AG43" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="AH43" s="124"/>
+      <c r="AH43" s="128"/>
       <c r="AI43" s="32"/>
       <c r="AJ43" s="32" t="s">
         <v>117</v>
@@ -6785,28 +6793,28 @@
       <c r="P44" s="20"/>
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
-      <c r="S44" s="139"/>
-      <c r="T44" s="139"/>
-      <c r="U44" s="139"/>
-      <c r="V44" s="139"/>
-      <c r="W44" s="119"/>
-      <c r="X44" s="119"/>
-      <c r="Y44" s="119"/>
-      <c r="Z44" s="119"/>
-      <c r="AA44" s="119"/>
-      <c r="AB44" s="119"/>
-      <c r="AC44" s="119" t="s">
+      <c r="S44" s="176"/>
+      <c r="T44" s="176"/>
+      <c r="U44" s="176"/>
+      <c r="V44" s="176"/>
+      <c r="W44" s="106"/>
+      <c r="X44" s="106"/>
+      <c r="Y44" s="106"/>
+      <c r="Z44" s="106"/>
+      <c r="AA44" s="106"/>
+      <c r="AB44" s="106"/>
+      <c r="AC44" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="AD44" s="119"/>
-      <c r="AE44" s="119" t="s">
+      <c r="AD44" s="106"/>
+      <c r="AE44" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="AF44" s="119"/>
-      <c r="AG44" s="119" t="s">
+      <c r="AF44" s="106"/>
+      <c r="AG44" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="AH44" s="119"/>
+      <c r="AH44" s="106"/>
       <c r="AI44" s="34"/>
       <c r="AJ44" s="34" t="s">
         <v>120</v>
@@ -6853,22 +6861,22 @@
       <c r="N46" s="11"/>
     </row>
     <row r="47" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B47" s="156" t="s">
+      <c r="B47" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="154"/>
-      <c r="D47" s="154"/>
-      <c r="E47" s="154"/>
-      <c r="F47" s="154"/>
-      <c r="G47" s="154"/>
-      <c r="I47" s="154" t="s">
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="151"/>
+      <c r="I47" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="J47" s="154"/>
-      <c r="K47" s="154"/>
-      <c r="L47" s="154"/>
-      <c r="M47" s="154"/>
-      <c r="N47" s="155"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="151"/>
+      <c r="L47" s="151"/>
+      <c r="M47" s="151"/>
+      <c r="N47" s="167"/>
       <c r="O47" s="24" t="s">
         <v>125</v>
       </c>
@@ -6898,11 +6906,11 @@
       <c r="D48" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="146" t="s">
+      <c r="E48" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="141"/>
       <c r="I48" s="61" t="s">
         <v>131</v>
       </c>
@@ -6912,11 +6920,11 @@
       <c r="K48" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="L48" s="173" t="s">
+      <c r="L48" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="M48" s="173"/>
-      <c r="N48" s="174"/>
+      <c r="M48" s="138"/>
+      <c r="N48" s="139"/>
       <c r="O48" s="24" t="s">
         <v>125</v>
       </c>
@@ -6946,11 +6954,11 @@
       <c r="D49" s="43">
         <v>10</v>
       </c>
-      <c r="E49" s="128" t="s">
+      <c r="E49" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="F49" s="128"/>
-      <c r="G49" s="128"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
       <c r="I49" s="157" t="s">
         <v>142</v>
       </c>
@@ -6960,9 +6968,9 @@
       <c r="K49" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="L49" s="165"/>
-      <c r="M49" s="165"/>
-      <c r="N49" s="166"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="130"/>
+      <c r="N49" s="131"/>
       <c r="O49" s="24" t="s">
         <v>144</v>
       </c>
@@ -6986,11 +6994,11 @@
       <c r="D50" s="43">
         <v>10</v>
       </c>
-      <c r="E50" s="128" t="s">
+      <c r="E50" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="128"/>
-      <c r="G50" s="128"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="129"/>
       <c r="I50" s="158"/>
       <c r="J50" s="40" t="s">
         <v>151</v>
@@ -6998,9 +7006,9 @@
       <c r="K50" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L50" s="165"/>
-      <c r="M50" s="165"/>
-      <c r="N50" s="166"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="130"/>
+      <c r="N50" s="131"/>
       <c r="O50" s="24"/>
       <c r="P50" s="23"/>
       <c r="Q50" s="23"/>
@@ -7015,11 +7023,11 @@
       <c r="D51" s="43">
         <v>100</v>
       </c>
-      <c r="E51" s="128" t="s">
+      <c r="E51" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="F51" s="128"/>
-      <c r="G51" s="128"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
       <c r="I51" s="158"/>
       <c r="J51" s="40" t="s">
         <v>155</v>
@@ -7027,11 +7035,11 @@
       <c r="K51" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="L51" s="165" t="s">
+      <c r="L51" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="M51" s="165"/>
-      <c r="N51" s="166"/>
+      <c r="M51" s="130"/>
+      <c r="N51" s="131"/>
       <c r="O51" s="24" t="s">
         <v>144</v>
       </c>
@@ -7052,7 +7060,7 @@
       </c>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B52" s="141" t="s">
+      <c r="B52" s="161" t="s">
         <v>163</v>
       </c>
       <c r="C52" s="40" t="s">
@@ -7061,9 +7069,9 @@
       <c r="D52" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="125"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="127"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="165"/>
+      <c r="G52" s="166"/>
       <c r="I52" s="158"/>
       <c r="J52" s="40" t="s">
         <v>165</v>
@@ -7071,24 +7079,24 @@
       <c r="K52" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="L52" s="165"/>
-      <c r="M52" s="165"/>
-      <c r="N52" s="166"/>
+      <c r="L52" s="130"/>
+      <c r="M52" s="130"/>
+      <c r="N52" s="131"/>
       <c r="O52" s="24"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B53" s="142"/>
+      <c r="B53" s="162"/>
       <c r="C53" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="125"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="127"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="166"/>
       <c r="I53" s="158"/>
       <c r="J53" s="54" t="s">
         <v>167</v>
@@ -7096,24 +7104,24 @@
       <c r="K53" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="L53" s="167" t="s">
+      <c r="L53" s="132" t="s">
         <v>169</v>
       </c>
-      <c r="M53" s="168"/>
-      <c r="N53" s="169"/>
+      <c r="M53" s="133"/>
+      <c r="N53" s="134"/>
       <c r="O53" s="24"/>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B54" s="142"/>
+      <c r="B54" s="162"/>
       <c r="C54" s="40" t="s">
         <v>170</v>
       </c>
       <c r="D54" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E54" s="125"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="127"/>
+      <c r="E54" s="164"/>
+      <c r="F54" s="165"/>
+      <c r="G54" s="166"/>
       <c r="I54" s="158"/>
       <c r="J54" s="40" t="s">
         <v>171</v>
@@ -7121,11 +7129,11 @@
       <c r="K54" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="L54" s="165" t="s">
+      <c r="L54" s="130" t="s">
         <v>173</v>
       </c>
-      <c r="M54" s="165"/>
-      <c r="N54" s="166"/>
+      <c r="M54" s="130"/>
+      <c r="N54" s="131"/>
       <c r="O54" s="24" t="s">
         <v>144</v>
       </c>
@@ -7152,18 +7160,18 @@
       </c>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B55" s="142"/>
+      <c r="B55" s="162"/>
       <c r="C55" s="65" t="s">
         <v>180</v>
       </c>
       <c r="D55" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="125" t="s">
+      <c r="E55" s="164" t="s">
         <v>181</v>
       </c>
-      <c r="F55" s="126"/>
-      <c r="G55" s="127"/>
+      <c r="F55" s="165"/>
+      <c r="G55" s="166"/>
       <c r="I55" s="158"/>
       <c r="J55" s="31" t="s">
         <v>182</v>
@@ -7171,11 +7179,11 @@
       <c r="K55" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="L55" s="170" t="s">
+      <c r="L55" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="M55" s="171"/>
-      <c r="N55" s="172"/>
+      <c r="M55" s="136"/>
+      <c r="N55" s="137"/>
       <c r="O55" s="24" t="s">
         <v>125</v>
       </c>
@@ -7187,16 +7195,16 @@
       </c>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B56" s="142"/>
+      <c r="B56" s="162"/>
       <c r="C56" s="40" t="s">
         <v>187</v>
       </c>
       <c r="D56" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="125"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="127"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="166"/>
       <c r="I56" s="159"/>
       <c r="J56" s="31" t="s">
         <v>188</v>
@@ -7204,27 +7212,27 @@
       <c r="K56" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="L56" s="165"/>
-      <c r="M56" s="165"/>
-      <c r="N56" s="166"/>
+      <c r="L56" s="130"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="131"/>
       <c r="Q56" s="23" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B57" s="142"/>
-      <c r="C57" s="147" t="s">
+      <c r="B57" s="162"/>
+      <c r="C57" s="154" t="s">
         <v>191</v>
       </c>
       <c r="D57" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="125" t="s">
+      <c r="E57" s="164" t="s">
         <v>192</v>
       </c>
-      <c r="F57" s="126"/>
-      <c r="G57" s="127"/>
-      <c r="I57" s="140" t="s">
+      <c r="F57" s="165"/>
+      <c r="G57" s="166"/>
+      <c r="I57" s="160" t="s">
         <v>193</v>
       </c>
       <c r="J57" s="40" t="s">
@@ -7233,35 +7241,35 @@
       <c r="K57" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="L57" s="128" t="s">
+      <c r="L57" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="M57" s="128"/>
-      <c r="N57" s="134"/>
+      <c r="M57" s="129"/>
+      <c r="N57" s="140"/>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B58" s="142"/>
-      <c r="C58" s="148"/>
+      <c r="B58" s="162"/>
+      <c r="C58" s="155"/>
       <c r="D58" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="125" t="s">
+      <c r="E58" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="F58" s="126"/>
-      <c r="G58" s="127"/>
-      <c r="I58" s="140"/>
+      <c r="F58" s="165"/>
+      <c r="G58" s="166"/>
+      <c r="I58" s="160"/>
       <c r="J58" s="40" t="s">
         <v>196</v>
       </c>
       <c r="K58" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L58" s="128" t="s">
+      <c r="L58" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="M58" s="128"/>
-      <c r="N58" s="134"/>
+      <c r="M58" s="129"/>
+      <c r="N58" s="140"/>
       <c r="Q58" t="s">
         <v>127</v>
       </c>
@@ -7276,28 +7284,28 @@
       </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B59" s="160"/>
-      <c r="C59" s="149"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="156"/>
       <c r="D59" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="125" t="s">
+      <c r="E59" s="164" t="s">
         <v>199</v>
       </c>
-      <c r="F59" s="126"/>
-      <c r="G59" s="127"/>
-      <c r="I59" s="140"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="166"/>
+      <c r="I59" s="160"/>
       <c r="J59" s="40" t="s">
         <v>170</v>
       </c>
       <c r="K59" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="L59" s="128" t="s">
+      <c r="L59" s="129" t="s">
         <v>200</v>
       </c>
-      <c r="M59" s="128"/>
-      <c r="N59" s="134"/>
+      <c r="M59" s="129"/>
+      <c r="N59" s="140"/>
       <c r="Q59" t="s">
         <v>201</v>
       </c>
@@ -7321,26 +7329,26 @@
       <c r="D60" s="43">
         <v>1</v>
       </c>
-      <c r="E60" s="145" t="s">
+      <c r="E60" s="172" t="s">
         <v>206</v>
       </c>
-      <c r="F60" s="126"/>
-      <c r="G60" s="127"/>
-      <c r="I60" s="140"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="166"/>
+      <c r="I60" s="160"/>
       <c r="J60" s="40" t="s">
         <v>207</v>
       </c>
       <c r="K60" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="L60" s="128" t="s">
+      <c r="L60" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="M60" s="128"/>
-      <c r="N60" s="134"/>
+      <c r="M60" s="129"/>
+      <c r="N60" s="140"/>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B61" s="150" t="s">
+      <c r="B61" s="152" t="s">
         <v>209</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -7349,70 +7357,70 @@
       <c r="D61" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E61" s="128"/>
-      <c r="F61" s="128"/>
-      <c r="G61" s="128"/>
-      <c r="I61" s="140"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
+      <c r="G61" s="129"/>
+      <c r="I61" s="160"/>
       <c r="J61" s="40" t="s">
         <v>187</v>
       </c>
       <c r="K61" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="L61" s="128" t="s">
+      <c r="L61" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="M61" s="128"/>
-      <c r="N61" s="134"/>
+      <c r="M61" s="129"/>
+      <c r="N61" s="140"/>
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B62" s="151"/>
+      <c r="B62" s="153"/>
       <c r="C62" s="40" t="s">
         <v>143</v>
       </c>
       <c r="D62" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="128"/>
-      <c r="F62" s="128"/>
-      <c r="G62" s="128"/>
-      <c r="I62" s="140"/>
+      <c r="E62" s="129"/>
+      <c r="F62" s="129"/>
+      <c r="G62" s="129"/>
+      <c r="I62" s="160"/>
       <c r="J62" s="40" t="s">
         <v>211</v>
       </c>
       <c r="K62" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="L62" s="128" t="s">
+      <c r="L62" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="M62" s="128"/>
-      <c r="N62" s="134"/>
+      <c r="M62" s="129"/>
+      <c r="N62" s="140"/>
       <c r="Q62" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B63" s="151"/>
+      <c r="B63" s="153"/>
       <c r="C63" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D63" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="128"/>
-      <c r="F63" s="128"/>
-      <c r="G63" s="128"/>
-      <c r="I63" s="140"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="129"/>
+      <c r="G63" s="129"/>
+      <c r="I63" s="160"/>
       <c r="J63" s="40" t="s">
         <v>214</v>
       </c>
       <c r="K63" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="L63" s="128"/>
-      <c r="M63" s="128"/>
-      <c r="N63" s="134"/>
+      <c r="L63" s="129"/>
+      <c r="M63" s="129"/>
+      <c r="N63" s="140"/>
       <c r="Q63" t="s">
         <v>127</v>
       </c>
@@ -7424,28 +7432,28 @@
       </c>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B64" s="151"/>
+      <c r="B64" s="153"/>
       <c r="C64" s="40" t="s">
         <v>155</v>
       </c>
       <c r="D64" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E64" s="128" t="s">
+      <c r="E64" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="F64" s="128"/>
-      <c r="G64" s="128"/>
-      <c r="I64" s="140"/>
+      <c r="F64" s="129"/>
+      <c r="G64" s="129"/>
+      <c r="I64" s="160"/>
       <c r="J64" s="40" t="s">
         <v>217</v>
       </c>
       <c r="K64" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="L64" s="128"/>
-      <c r="M64" s="128"/>
-      <c r="N64" s="134"/>
+      <c r="L64" s="129"/>
+      <c r="M64" s="129"/>
+      <c r="N64" s="140"/>
       <c r="Q64" t="s">
         <v>201</v>
       </c>
@@ -7466,18 +7474,18 @@
       </c>
     </row>
     <row r="65" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B65" s="151"/>
+      <c r="B65" s="153"/>
       <c r="C65" s="40" t="s">
         <v>171</v>
       </c>
       <c r="D65" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E65" s="128" t="s">
+      <c r="E65" s="129" t="s">
         <v>173</v>
       </c>
-      <c r="F65" s="128"/>
-      <c r="G65" s="128"/>
+      <c r="F65" s="129"/>
+      <c r="G65" s="129"/>
       <c r="I65" s="31" t="s">
         <v>221</v>
       </c>
@@ -7485,26 +7493,26 @@
         <v>222</v>
       </c>
       <c r="K65" s="43"/>
-      <c r="L65" s="135" t="s">
+      <c r="L65" s="173" t="s">
         <v>223</v>
       </c>
-      <c r="M65" s="136"/>
-      <c r="N65" s="137"/>
+      <c r="M65" s="174"/>
+      <c r="N65" s="175"/>
       <c r="Q65" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="66" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B66" s="151"/>
+      <c r="B66" s="153"/>
       <c r="C66" s="31" t="s">
         <v>225</v>
       </c>
       <c r="D66" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E66" s="128"/>
-      <c r="F66" s="128"/>
-      <c r="G66" s="128"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="129"/>
+      <c r="G66" s="129"/>
       <c r="N66" s="3"/>
       <c r="Q66" t="s">
         <v>190</v>
@@ -7523,38 +7531,38 @@
       </c>
     </row>
     <row r="67" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B67" s="151"/>
+      <c r="B67" s="153"/>
       <c r="C67" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D67" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E67" s="128"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="128"/>
+      <c r="E67" s="129"/>
+      <c r="F67" s="129"/>
+      <c r="G67" s="129"/>
       <c r="N67" s="3"/>
       <c r="Q67" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="68" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B68" s="151"/>
+      <c r="B68" s="153"/>
       <c r="C68" s="31" t="s">
         <v>182</v>
       </c>
       <c r="D68" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="128" t="s">
+      <c r="E68" s="129" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="128"/>
-      <c r="G68" s="128"/>
+      <c r="F68" s="129"/>
+      <c r="G68" s="129"/>
       <c r="N68" s="3"/>
     </row>
     <row r="69" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B69" s="150" t="s">
+      <c r="B69" s="152" t="s">
         <v>229</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -7563,143 +7571,143 @@
       <c r="D69" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E69" s="128"/>
-      <c r="F69" s="128"/>
-      <c r="G69" s="128"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="129"/>
+      <c r="G69" s="129"/>
       <c r="N69" s="3"/>
       <c r="Q69" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="70" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B70" s="151"/>
+      <c r="B70" s="153"/>
       <c r="C70" s="41" t="s">
         <v>230</v>
       </c>
       <c r="D70" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E70" s="128"/>
-      <c r="F70" s="128"/>
-      <c r="G70" s="128"/>
+      <c r="E70" s="129"/>
+      <c r="F70" s="129"/>
+      <c r="G70" s="129"/>
       <c r="N70" s="3"/>
       <c r="Q70" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="71" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B71" s="151"/>
+      <c r="B71" s="153"/>
       <c r="C71" s="41" t="s">
         <v>231</v>
       </c>
       <c r="D71" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="128"/>
-      <c r="F71" s="128"/>
-      <c r="G71" s="128"/>
+      <c r="E71" s="129"/>
+      <c r="F71" s="129"/>
+      <c r="G71" s="129"/>
       <c r="N71" s="3"/>
     </row>
     <row r="72" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B72" s="151"/>
+      <c r="B72" s="153"/>
       <c r="C72" s="40" t="s">
         <v>232</v>
       </c>
       <c r="D72" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E72" s="128"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="128"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="129"/>
+      <c r="G72" s="129"/>
       <c r="N72" s="3"/>
       <c r="Q72" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="73" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B73" s="151"/>
+      <c r="B73" s="153"/>
       <c r="C73" s="40" t="s">
         <v>233</v>
       </c>
       <c r="D73" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E73" s="128"/>
-      <c r="F73" s="128"/>
-      <c r="G73" s="128"/>
+      <c r="E73" s="129"/>
+      <c r="F73" s="129"/>
+      <c r="G73" s="129"/>
       <c r="N73" s="3"/>
       <c r="Q73" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="74" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B74" s="151"/>
+      <c r="B74" s="153"/>
       <c r="C74" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D74" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E74" s="128"/>
-      <c r="F74" s="128"/>
-      <c r="G74" s="128"/>
+      <c r="E74" s="129"/>
+      <c r="F74" s="129"/>
+      <c r="G74" s="129"/>
       <c r="I74" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="J74" s="146" t="s">
+      <c r="J74" s="141" t="s">
         <v>235</v>
       </c>
-      <c r="K74" s="146"/>
-      <c r="L74" s="146" t="s">
+      <c r="K74" s="141"/>
+      <c r="L74" s="141" t="s">
         <v>236</v>
       </c>
-      <c r="M74" s="146"/>
+      <c r="M74" s="141"/>
       <c r="N74" s="3"/>
     </row>
     <row r="75" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="151"/>
+      <c r="B75" s="153"/>
       <c r="C75" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D75" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E75" s="128"/>
-      <c r="F75" s="128"/>
-      <c r="G75" s="128"/>
+      <c r="E75" s="129"/>
+      <c r="F75" s="129"/>
+      <c r="G75" s="129"/>
       <c r="I75" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="J75" s="140" t="s">
+      <c r="J75" s="160" t="s">
         <v>237</v>
       </c>
-      <c r="K75" s="140"/>
-      <c r="L75" s="116" t="s">
+      <c r="K75" s="160"/>
+      <c r="L75" s="109" t="s">
         <v>238</v>
       </c>
-      <c r="M75" s="116"/>
+      <c r="M75" s="109"/>
       <c r="N75" s="3"/>
     </row>
     <row r="76" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B76" s="151"/>
+      <c r="B76" s="153"/>
       <c r="C76" s="31" t="s">
         <v>239</v>
       </c>
       <c r="D76" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E76" s="128"/>
-      <c r="F76" s="128"/>
-      <c r="G76" s="128"/>
+      <c r="E76" s="129"/>
+      <c r="F76" s="129"/>
+      <c r="G76" s="129"/>
       <c r="I76" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="J76" s="140"/>
-      <c r="K76" s="140"/>
-      <c r="L76" s="116" t="s">
+      <c r="J76" s="160"/>
+      <c r="K76" s="160"/>
+      <c r="L76" s="109" t="s">
         <v>240</v>
       </c>
-      <c r="M76" s="116"/>
+      <c r="M76" s="109"/>
       <c r="N76" s="3"/>
       <c r="P76" s="46" t="s">
         <v>241</v>
@@ -7716,7 +7724,7 @@
       <c r="Z76" s="48"/>
     </row>
     <row r="77" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B77" s="150" t="s">
+      <c r="B77" s="152" t="s">
         <v>242</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -7725,18 +7733,18 @@
       <c r="D77" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E77" s="128"/>
-      <c r="F77" s="128"/>
-      <c r="G77" s="128"/>
+      <c r="E77" s="129"/>
+      <c r="F77" s="129"/>
+      <c r="G77" s="129"/>
       <c r="I77" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="J77" s="140"/>
-      <c r="K77" s="140"/>
-      <c r="L77" s="116" t="s">
+      <c r="J77" s="160"/>
+      <c r="K77" s="160"/>
+      <c r="L77" s="109" t="s">
         <v>243</v>
       </c>
-      <c r="M77" s="116"/>
+      <c r="M77" s="109"/>
       <c r="N77" s="3"/>
       <c r="P77" s="49" t="s">
         <v>244</v>
@@ -7744,25 +7752,25 @@
       <c r="Z77" s="50"/>
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B78" s="151"/>
+      <c r="B78" s="153"/>
       <c r="C78" s="40" t="s">
         <v>245</v>
       </c>
       <c r="D78" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E78" s="128"/>
-      <c r="F78" s="128"/>
-      <c r="G78" s="128"/>
+      <c r="E78" s="129"/>
+      <c r="F78" s="129"/>
+      <c r="G78" s="129"/>
       <c r="I78" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="J78" s="140"/>
-      <c r="K78" s="140"/>
-      <c r="L78" s="116" t="s">
+      <c r="J78" s="160"/>
+      <c r="K78" s="160"/>
+      <c r="L78" s="109" t="s">
         <v>247</v>
       </c>
-      <c r="M78" s="116"/>
+      <c r="M78" s="109"/>
       <c r="N78" s="3"/>
       <c r="P78" s="49" t="s">
         <v>248</v>
@@ -7770,25 +7778,25 @@
       <c r="Z78" s="50"/>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B79" s="151"/>
+      <c r="B79" s="153"/>
       <c r="C79" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D79" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E79" s="128"/>
-      <c r="F79" s="128"/>
-      <c r="G79" s="128"/>
+      <c r="E79" s="129"/>
+      <c r="F79" s="129"/>
+      <c r="G79" s="129"/>
       <c r="I79" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J79" s="140"/>
-      <c r="K79" s="140"/>
-      <c r="L79" s="116" t="s">
+      <c r="J79" s="160"/>
+      <c r="K79" s="160"/>
+      <c r="L79" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="M79" s="116"/>
+      <c r="M79" s="109"/>
       <c r="N79" s="3"/>
       <c r="P79" s="49" t="s">
         <v>249</v>
@@ -7796,25 +7804,25 @@
       <c r="Z79" s="50"/>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B80" s="151"/>
+      <c r="B80" s="153"/>
       <c r="C80" s="40" t="s">
         <v>165</v>
       </c>
       <c r="D80" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E80" s="128"/>
-      <c r="F80" s="128"/>
-      <c r="G80" s="128"/>
+      <c r="E80" s="129"/>
+      <c r="F80" s="129"/>
+      <c r="G80" s="129"/>
       <c r="I80" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="J80" s="140"/>
-      <c r="K80" s="140"/>
-      <c r="L80" s="116" t="s">
+      <c r="J80" s="160"/>
+      <c r="K80" s="160"/>
+      <c r="L80" s="109" t="s">
         <v>251</v>
       </c>
-      <c r="M80" s="116"/>
+      <c r="M80" s="109"/>
       <c r="N80" s="3"/>
       <c r="P80" s="49" t="s">
         <v>252</v>
@@ -7822,77 +7830,77 @@
       <c r="Z80" s="50"/>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B81" s="151"/>
+      <c r="B81" s="153"/>
       <c r="C81" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D81" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E81" s="128"/>
-      <c r="F81" s="128"/>
-      <c r="G81" s="128"/>
+      <c r="E81" s="129"/>
+      <c r="F81" s="129"/>
+      <c r="G81" s="129"/>
       <c r="I81" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="J81" s="140"/>
-      <c r="K81" s="140"/>
-      <c r="L81" s="116" t="s">
+      <c r="J81" s="160"/>
+      <c r="K81" s="160"/>
+      <c r="L81" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="M81" s="116"/>
+      <c r="M81" s="109"/>
       <c r="N81" s="3"/>
       <c r="P81" s="49"/>
       <c r="Z81" s="50"/>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B82" s="151"/>
+      <c r="B82" s="153"/>
       <c r="C82" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E82" s="128"/>
-      <c r="F82" s="128"/>
-      <c r="G82" s="128"/>
+      <c r="E82" s="129"/>
+      <c r="F82" s="129"/>
+      <c r="G82" s="129"/>
       <c r="I82" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="J82" s="140"/>
-      <c r="K82" s="140"/>
-      <c r="L82" s="116" t="s">
+      <c r="J82" s="160"/>
+      <c r="K82" s="160"/>
+      <c r="L82" s="109" t="s">
         <v>256</v>
       </c>
-      <c r="M82" s="116"/>
+      <c r="M82" s="109"/>
       <c r="N82" s="3"/>
       <c r="P82" s="49"/>
       <c r="Z82" s="50"/>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B83" s="151"/>
+      <c r="B83" s="153"/>
       <c r="C83" s="26" t="s">
         <v>257</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="143" t="s">
+      <c r="E83" s="170" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="144"/>
-      <c r="G83" s="144"/>
+      <c r="F83" s="171"/>
+      <c r="G83" s="171"/>
       <c r="I83" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="J83" s="116" t="s">
+      <c r="J83" s="109" t="s">
         <v>260</v>
       </c>
-      <c r="K83" s="116"/>
-      <c r="L83" s="116" t="s">
+      <c r="K83" s="109"/>
+      <c r="L83" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="M83" s="116"/>
+      <c r="M83" s="109"/>
       <c r="N83" s="3"/>
       <c r="P83" s="49" t="s">
         <v>262</v>
@@ -7900,29 +7908,29 @@
       <c r="Z83" s="50"/>
     </row>
     <row r="84" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="152"/>
+      <c r="B84" s="168"/>
       <c r="C84" s="27" t="s">
         <v>263</v>
       </c>
       <c r="D84" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="E84" s="144" t="s">
+      <c r="E84" s="171" t="s">
         <v>258</v>
       </c>
-      <c r="F84" s="144"/>
-      <c r="G84" s="144"/>
+      <c r="F84" s="171"/>
+      <c r="G84" s="171"/>
       <c r="I84" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="J84" s="116" t="s">
+      <c r="J84" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="K84" s="116"/>
-      <c r="L84" s="116" t="s">
+      <c r="K84" s="109"/>
+      <c r="L84" s="109" t="s">
         <v>266</v>
       </c>
-      <c r="M84" s="116"/>
+      <c r="M84" s="109"/>
       <c r="N84" s="3"/>
       <c r="P84" s="51" t="s">
         <v>267</v>
@@ -7948,22 +7956,22 @@
       <c r="D85" s="43">
         <v>10</v>
       </c>
-      <c r="E85" s="128" t="s">
+      <c r="E85" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="F85" s="128"/>
-      <c r="G85" s="128"/>
+      <c r="F85" s="129"/>
+      <c r="G85" s="129"/>
       <c r="I85" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="J85" s="116" t="s">
+      <c r="J85" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="K85" s="116"/>
-      <c r="L85" s="116" t="s">
+      <c r="K85" s="109"/>
+      <c r="L85" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="M85" s="116"/>
+      <c r="M85" s="109"/>
       <c r="N85" s="3"/>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
@@ -7976,26 +7984,26 @@
       <c r="D86" s="45">
         <v>10</v>
       </c>
-      <c r="E86" s="128" t="s">
+      <c r="E86" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="F86" s="128"/>
-      <c r="G86" s="128"/>
+      <c r="F86" s="129"/>
+      <c r="G86" s="129"/>
       <c r="I86" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="J86" s="116" t="s">
+      <c r="J86" s="109" t="s">
         <v>273</v>
       </c>
-      <c r="K86" s="116"/>
-      <c r="L86" s="116" t="s">
+      <c r="K86" s="109"/>
+      <c r="L86" s="109" t="s">
         <v>256</v>
       </c>
-      <c r="M86" s="116"/>
+      <c r="M86" s="109"/>
       <c r="N86" s="3"/>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B87" s="141" t="s">
+      <c r="B87" s="161" t="s">
         <v>274</v>
       </c>
       <c r="C87" s="40" t="s">
@@ -8004,128 +8012,128 @@
       <c r="D87" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E87" s="128" t="s">
+      <c r="E87" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="F87" s="128"/>
-      <c r="G87" s="128"/>
+      <c r="F87" s="129"/>
+      <c r="G87" s="129"/>
       <c r="I87" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="J87" s="116" t="s">
+      <c r="J87" s="109" t="s">
         <v>275</v>
       </c>
-      <c r="K87" s="116"/>
-      <c r="L87" s="116" t="s">
+      <c r="K87" s="109"/>
+      <c r="L87" s="109" t="s">
         <v>247</v>
       </c>
-      <c r="M87" s="116"/>
+      <c r="M87" s="109"/>
       <c r="N87" s="3"/>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B88" s="142"/>
+      <c r="B88" s="162"/>
       <c r="C88" s="40" t="s">
         <v>207</v>
       </c>
       <c r="D88" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E88" s="128" t="s">
+      <c r="E88" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="F88" s="128"/>
-      <c r="G88" s="128"/>
+      <c r="F88" s="129"/>
+      <c r="G88" s="129"/>
       <c r="I88" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="J88" s="116" t="s">
+      <c r="J88" s="109" t="s">
         <v>276</v>
       </c>
-      <c r="K88" s="116"/>
-      <c r="L88" s="116"/>
-      <c r="M88" s="116"/>
+      <c r="K88" s="109"/>
+      <c r="L88" s="109"/>
+      <c r="M88" s="109"/>
       <c r="N88" s="3"/>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B89" s="142"/>
+      <c r="B89" s="162"/>
       <c r="C89" s="40" t="s">
         <v>211</v>
       </c>
       <c r="D89" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E89" s="128" t="s">
+      <c r="E89" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="F89" s="128"/>
-      <c r="G89" s="128"/>
+      <c r="F89" s="129"/>
+      <c r="G89" s="129"/>
       <c r="N89" s="3"/>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B90" s="142"/>
+      <c r="B90" s="162"/>
       <c r="C90" s="40" t="s">
         <v>214</v>
       </c>
       <c r="D90" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E90" s="128"/>
-      <c r="F90" s="128"/>
-      <c r="G90" s="128"/>
+      <c r="E90" s="129"/>
+      <c r="F90" s="129"/>
+      <c r="G90" s="129"/>
       <c r="N90" s="3"/>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B91" s="142"/>
+      <c r="B91" s="162"/>
       <c r="C91" s="40" t="s">
         <v>217</v>
       </c>
       <c r="D91" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E91" s="128"/>
-      <c r="F91" s="128"/>
-      <c r="G91" s="128"/>
+      <c r="E91" s="129"/>
+      <c r="F91" s="129"/>
+      <c r="G91" s="129"/>
       <c r="N91" s="3"/>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B92" s="142"/>
-      <c r="C92" s="147" t="s">
+      <c r="B92" s="162"/>
+      <c r="C92" s="154" t="s">
         <v>191</v>
       </c>
       <c r="D92" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E92" s="116" t="s">
+      <c r="E92" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="F92" s="116"/>
-      <c r="G92" s="116"/>
+      <c r="F92" s="109"/>
+      <c r="G92" s="109"/>
       <c r="N92" s="3"/>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B93" s="142"/>
-      <c r="C93" s="148"/>
+      <c r="B93" s="162"/>
+      <c r="C93" s="155"/>
       <c r="D93" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E93" s="116" t="s">
+      <c r="E93" s="109" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="116"/>
-      <c r="G93" s="116"/>
+      <c r="F93" s="109"/>
+      <c r="G93" s="109"/>
       <c r="N93" s="3"/>
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B94" s="142"/>
-      <c r="C94" s="149"/>
+      <c r="B94" s="162"/>
+      <c r="C94" s="156"/>
       <c r="D94" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="E94" s="129" t="s">
+      <c r="E94" s="177" t="s">
         <v>279</v>
       </c>
-      <c r="F94" s="129"/>
-      <c r="G94" s="129"/>
+      <c r="F94" s="177"/>
+      <c r="G94" s="177"/>
       <c r="N94" s="3"/>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.3">
@@ -8138,9 +8146,9 @@
       <c r="D95" s="29">
         <v>10</v>
       </c>
-      <c r="E95" s="125"/>
-      <c r="F95" s="126"/>
-      <c r="G95" s="127"/>
+      <c r="E95" s="164"/>
+      <c r="F95" s="165"/>
+      <c r="G95" s="166"/>
       <c r="N95" s="3"/>
     </row>
     <row r="96" spans="2:26" x14ac:dyDescent="0.3">
@@ -8153,9 +8161,9 @@
       <c r="D96" s="29">
         <v>10</v>
       </c>
-      <c r="E96" s="125"/>
-      <c r="F96" s="126"/>
-      <c r="G96" s="127"/>
+      <c r="E96" s="164"/>
+      <c r="F96" s="165"/>
+      <c r="G96" s="166"/>
       <c r="N96" s="3"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.3">
@@ -8168,9 +8176,9 @@
       <c r="D97" s="29">
         <v>1</v>
       </c>
-      <c r="E97" s="116"/>
-      <c r="F97" s="116"/>
-      <c r="G97" s="116"/>
+      <c r="E97" s="109"/>
+      <c r="F97" s="109"/>
+      <c r="G97" s="109"/>
       <c r="N97" s="3"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.3">
@@ -8181,9 +8189,9 @@
       <c r="D98" s="43">
         <v>10</v>
       </c>
-      <c r="E98" s="116"/>
-      <c r="F98" s="116"/>
-      <c r="G98" s="116"/>
+      <c r="E98" s="109"/>
+      <c r="F98" s="109"/>
+      <c r="G98" s="109"/>
       <c r="N98" s="3"/>
     </row>
     <row r="99" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8194,9 +8202,9 @@
       <c r="D99" s="58">
         <v>10</v>
       </c>
-      <c r="E99" s="119"/>
-      <c r="F99" s="119"/>
-      <c r="G99" s="119"/>
+      <c r="E99" s="106"/>
+      <c r="F99" s="106"/>
+      <c r="G99" s="106"/>
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
@@ -8207,6 +8215,221 @@
     </row>
   </sheetData>
   <mergeCells count="239">
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="S30:AH30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="S34:Z34"/>
+    <mergeCell ref="AA34:AH34"/>
+    <mergeCell ref="S38:Z38"/>
+    <mergeCell ref="AA38:AH38"/>
+    <mergeCell ref="S36:AH36"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="J75:K82"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="S40:AH40"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="B77:B84"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="I49:I56"/>
+    <mergeCell ref="I57:I64"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="S12:AH12"/>
+    <mergeCell ref="S8:AH8"/>
+    <mergeCell ref="S2:AB2"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="S10:Z10"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="S22:AH22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="S26:AH26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="S14:Z14"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="S18:AH18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
     <mergeCell ref="S42:AH42"/>
     <mergeCell ref="AE31:AF31"/>
     <mergeCell ref="AG31:AH31"/>
@@ -8231,221 +8454,6 @@
     <mergeCell ref="L56:N56"/>
     <mergeCell ref="E87:G87"/>
     <mergeCell ref="W44:X44"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="S14:Z14"/>
-    <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="S18:AH18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="S26:AH26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="S22:AH22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="S12:AH12"/>
-    <mergeCell ref="S8:AH8"/>
-    <mergeCell ref="S2:AB2"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="S10:Z10"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="I49:I56"/>
-    <mergeCell ref="I57:I64"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="B77:B84"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="S40:AH40"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="J75:K82"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="S34:Z34"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="S38:Z38"/>
-    <mergeCell ref="AA38:AH38"/>
-    <mergeCell ref="S36:AH36"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="S30:AH30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="L87:M87"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8457,8 +8465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B028B19-B245-4EE1-9453-ED4D46D927D6}">
   <dimension ref="B2:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8476,27 +8484,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="180" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="M2" s="199" t="s">
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="M2" s="180" t="s">
         <v>331</v>
       </c>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="81" t="s">
@@ -8601,8 +8609,8 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="E5" s="201" t="s">
-        <v>429</v>
+      <c r="E5" s="102" t="s">
+        <v>428</v>
       </c>
       <c r="F5" s="73" t="s">
         <v>333</v>
@@ -8621,31 +8629,31 @@
       <c r="L7" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="P7" s="178" t="s">
+      <c r="P7" s="193" t="s">
         <v>397</v>
       </c>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="178"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="193"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="96" t="s">
         <v>332</v>
       </c>
-      <c r="C8" s="185" t="s">
+      <c r="C8" s="199" t="s">
         <v>334</v>
       </c>
-      <c r="D8" s="186"/>
+      <c r="D8" s="200"/>
       <c r="E8" s="90" t="s">
         <v>360</v>
       </c>
       <c r="F8" s="90" t="s">
         <v>335</v>
       </c>
-      <c r="G8" s="187" t="s">
+      <c r="G8" s="191" t="s">
         <v>336</v>
       </c>
-      <c r="H8" s="187"/>
+      <c r="H8" s="191"/>
       <c r="I8" s="89" t="s">
         <v>377</v>
       </c>
@@ -8664,12 +8672,12 @@
       <c r="O8" s="91" t="s">
         <v>354</v>
       </c>
-      <c r="P8" s="187" t="s">
+      <c r="P8" s="191" t="s">
         <v>374</v>
       </c>
-      <c r="Q8" s="187"/>
-      <c r="R8" s="187"/>
-      <c r="S8" s="187"/>
+      <c r="Q8" s="191"/>
+      <c r="R8" s="191"/>
+      <c r="S8" s="191"/>
       <c r="T8" s="89" t="s">
         <v>377</v>
       </c>
@@ -8681,20 +8689,20 @@
       <c r="B9" s="66">
         <v>0</v>
       </c>
-      <c r="C9" s="195" t="s">
+      <c r="C9" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="D9" s="196"/>
+      <c r="D9" s="188"/>
       <c r="E9" s="68" t="s">
         <v>338</v>
       </c>
       <c r="F9" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="G9" s="188"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="208" t="s">
-        <v>440</v>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="103" t="s">
+        <v>445</v>
       </c>
       <c r="J9" s="66"/>
       <c r="L9" s="67"/>
@@ -8707,12 +8715,12 @@
       <c r="O9" s="66">
         <v>0</v>
       </c>
-      <c r="P9" s="188" t="s">
+      <c r="P9" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="188"/>
-      <c r="R9" s="188"/>
-      <c r="S9" s="188"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="178"/>
       <c r="T9" s="67" t="s">
         <v>379</v>
       </c>
@@ -8722,32 +8730,32 @@
       <c r="B10" s="66">
         <v>1</v>
       </c>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="188"/>
       <c r="E10" s="68"/>
       <c r="F10" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
       <c r="I10" s="67"/>
       <c r="J10" s="66"/>
       <c r="L10" s="67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M10" s="67"/>
       <c r="N10" s="67"/>
       <c r="O10" s="66">
         <v>1</v>
       </c>
-      <c r="P10" s="188" t="s">
+      <c r="P10" s="178" t="s">
         <v>355</v>
       </c>
-      <c r="Q10" s="188"/>
-      <c r="R10" s="188"/>
-      <c r="S10" s="188"/>
+      <c r="Q10" s="178"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="178"/>
       <c r="T10" s="67" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U10" s="66"/>
     </row>
@@ -8755,20 +8763,20 @@
       <c r="B11" s="66">
         <v>2</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="187" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="196"/>
+      <c r="D11" s="188"/>
       <c r="E11" s="68" t="s">
         <v>338</v>
       </c>
       <c r="F11" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="208" t="s">
-        <v>441</v>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="103" t="s">
+        <v>437</v>
       </c>
       <c r="J11" s="66"/>
       <c r="L11" s="67"/>
@@ -8777,14 +8785,14 @@
       <c r="O11" s="66">
         <v>2</v>
       </c>
-      <c r="P11" s="207" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q11" s="188"/>
-      <c r="R11" s="188"/>
-      <c r="S11" s="188"/>
+      <c r="P11" s="194" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="178"/>
+      <c r="S11" s="178"/>
       <c r="T11" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U11" s="66"/>
     </row>
@@ -8792,32 +8800,32 @@
       <c r="B12" s="66">
         <v>3</v>
       </c>
-      <c r="C12" s="195"/>
-      <c r="D12" s="196"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="188"/>
       <c r="E12" s="68"/>
       <c r="F12" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
       <c r="I12" s="67"/>
       <c r="J12" s="66"/>
       <c r="L12" s="67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M12" s="67"/>
       <c r="N12" s="67"/>
       <c r="O12" s="66">
         <v>3</v>
       </c>
-      <c r="P12" s="207" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q12" s="188"/>
-      <c r="R12" s="188"/>
-      <c r="S12" s="188"/>
+      <c r="P12" s="194" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q12" s="178"/>
+      <c r="R12" s="178"/>
+      <c r="S12" s="178"/>
       <c r="T12" s="67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U12" s="66"/>
     </row>
@@ -8825,20 +8833,20 @@
       <c r="B13" s="66">
         <v>4</v>
       </c>
-      <c r="C13" s="195" t="s">
+      <c r="C13" s="187" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="196"/>
+      <c r="D13" s="188"/>
       <c r="E13" s="68" t="s">
         <v>339</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="G13" s="191" t="s">
+      <c r="G13" s="179" t="s">
         <v>343</v>
       </c>
-      <c r="H13" s="191"/>
+      <c r="H13" s="179"/>
       <c r="I13" s="67"/>
       <c r="J13" s="66"/>
       <c r="L13" s="67"/>
@@ -8847,36 +8855,36 @@
       <c r="O13" s="66">
         <v>4</v>
       </c>
-      <c r="P13" s="200" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q13" s="200"/>
-      <c r="R13" s="200"/>
-      <c r="S13" s="200"/>
+      <c r="P13" s="195" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q13" s="195"/>
+      <c r="R13" s="195"/>
+      <c r="S13" s="195"/>
       <c r="T13" s="100" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U13" s="66"/>
       <c r="W13" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="66">
         <v>5</v>
       </c>
-      <c r="C14" s="193" t="s">
+      <c r="C14" s="189" t="s">
         <v>367</v>
       </c>
-      <c r="D14" s="194"/>
+      <c r="D14" s="190"/>
       <c r="E14" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F14" s="94"/>
-      <c r="G14" s="188" t="s">
+      <c r="G14" s="178" t="s">
         <v>372</v>
       </c>
-      <c r="H14" s="188"/>
+      <c r="H14" s="178"/>
       <c r="I14" s="86"/>
       <c r="J14" s="87"/>
       <c r="L14" s="67"/>
@@ -8885,14 +8893,14 @@
       <c r="O14" s="66">
         <v>5</v>
       </c>
-      <c r="P14" s="206" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="191"/>
-      <c r="S14" s="191"/>
+      <c r="P14" s="196" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q14" s="179"/>
+      <c r="R14" s="179"/>
+      <c r="S14" s="179"/>
       <c r="T14" s="67" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="U14" s="66"/>
     </row>
@@ -8900,34 +8908,34 @@
       <c r="B15" s="66">
         <v>6</v>
       </c>
-      <c r="C15" s="195" t="s">
+      <c r="C15" s="187" t="s">
         <v>346</v>
       </c>
-      <c r="D15" s="196"/>
+      <c r="D15" s="188"/>
       <c r="E15" s="68" t="s">
         <v>339</v>
       </c>
       <c r="F15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="188"/>
-      <c r="H15" s="188"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
       <c r="I15" s="67" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J15" s="66"/>
-      <c r="L15" s="209" t="s">
-        <v>448</v>
+      <c r="L15" s="104" t="s">
+        <v>443</v>
       </c>
       <c r="M15" s="67"/>
       <c r="N15" s="67"/>
       <c r="O15" s="66">
         <v>6</v>
       </c>
-      <c r="P15" s="188"/>
-      <c r="Q15" s="188"/>
-      <c r="R15" s="188"/>
-      <c r="S15" s="188"/>
+      <c r="P15" s="178"/>
+      <c r="Q15" s="178"/>
+      <c r="R15" s="178"/>
+      <c r="S15" s="178"/>
       <c r="T15" s="67"/>
       <c r="U15" s="66"/>
     </row>
@@ -8935,34 +8943,34 @@
       <c r="B16" s="66">
         <v>7</v>
       </c>
-      <c r="C16" s="197" t="s">
+      <c r="C16" s="185" t="s">
         <v>344</v>
       </c>
-      <c r="D16" s="198"/>
+      <c r="D16" s="186"/>
       <c r="E16" s="85" t="s">
         <v>369</v>
       </c>
       <c r="F16" s="94"/>
-      <c r="G16" s="188" t="s">
+      <c r="G16" s="178" t="s">
         <v>370</v>
       </c>
-      <c r="H16" s="188"/>
+      <c r="H16" s="178"/>
       <c r="I16" s="86"/>
       <c r="J16" s="87"/>
-      <c r="L16" s="209" t="s">
-        <v>449</v>
+      <c r="L16" s="104" t="s">
+        <v>444</v>
       </c>
       <c r="M16" s="67"/>
       <c r="N16" s="67"/>
       <c r="O16" s="66">
         <v>7</v>
       </c>
-      <c r="P16" s="205" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q16" s="205"/>
-      <c r="R16" s="205"/>
-      <c r="S16" s="205"/>
+      <c r="P16" s="210" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q16" s="197"/>
+      <c r="R16" s="197"/>
+      <c r="S16" s="197"/>
       <c r="T16" s="67"/>
       <c r="U16" s="66"/>
     </row>
@@ -8970,22 +8978,22 @@
       <c r="B17" s="66">
         <v>8</v>
       </c>
-      <c r="C17" s="197" t="s">
+      <c r="C17" s="185" t="s">
         <v>254</v>
       </c>
-      <c r="D17" s="198"/>
+      <c r="D17" s="186"/>
       <c r="E17" s="85" t="s">
         <v>369</v>
       </c>
       <c r="F17" s="94"/>
-      <c r="G17" s="188" t="s">
+      <c r="G17" s="178" t="s">
         <v>370</v>
       </c>
-      <c r="H17" s="188"/>
+      <c r="H17" s="178"/>
       <c r="I17" s="86"/>
       <c r="J17" s="87"/>
       <c r="L17" s="67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M17" s="83" t="s">
         <v>349</v>
@@ -8996,14 +9004,14 @@
       <c r="O17" s="66">
         <v>0</v>
       </c>
-      <c r="P17" s="188" t="s">
+      <c r="P17" s="178" t="s">
         <v>359</v>
       </c>
-      <c r="Q17" s="188"/>
-      <c r="R17" s="188"/>
-      <c r="S17" s="188"/>
+      <c r="Q17" s="178"/>
+      <c r="R17" s="178"/>
+      <c r="S17" s="178"/>
       <c r="T17" s="67" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U17" s="66"/>
     </row>
@@ -9011,16 +9019,16 @@
       <c r="B18" s="66">
         <v>9</v>
       </c>
-      <c r="C18" s="193" t="s">
+      <c r="C18" s="189" t="s">
         <v>366</v>
       </c>
-      <c r="D18" s="194"/>
+      <c r="D18" s="190"/>
       <c r="E18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F18" s="94"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
       <c r="I18" s="86"/>
       <c r="J18" s="87"/>
       <c r="L18" s="67"/>
@@ -9029,14 +9037,14 @@
       <c r="O18" s="66">
         <v>1</v>
       </c>
-      <c r="P18" s="188" t="s">
+      <c r="P18" s="178" t="s">
         <v>375</v>
       </c>
-      <c r="Q18" s="188"/>
-      <c r="R18" s="188"/>
-      <c r="S18" s="188"/>
+      <c r="Q18" s="178"/>
+      <c r="R18" s="178"/>
+      <c r="S18" s="178"/>
       <c r="T18" s="67" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U18" s="66"/>
     </row>
@@ -9044,38 +9052,38 @@
       <c r="B19" s="66">
         <v>10</v>
       </c>
-      <c r="C19" s="195" t="s">
+      <c r="C19" s="187" t="s">
         <v>299</v>
       </c>
-      <c r="D19" s="196"/>
+      <c r="D19" s="188"/>
       <c r="E19" s="68" t="s">
         <v>338</v>
       </c>
       <c r="F19" s="94" t="s">
         <v>341</v>
       </c>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="208" t="s">
-        <v>442</v>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="103" t="s">
+        <v>438</v>
       </c>
       <c r="J19" s="66"/>
       <c r="L19" s="67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M19" s="67"/>
       <c r="N19" s="67"/>
       <c r="O19" s="66">
         <v>2</v>
       </c>
-      <c r="P19" s="188" t="s">
+      <c r="P19" s="178" t="s">
         <v>358</v>
       </c>
-      <c r="Q19" s="188"/>
-      <c r="R19" s="188"/>
-      <c r="S19" s="188"/>
+      <c r="Q19" s="178"/>
+      <c r="R19" s="178"/>
+      <c r="S19" s="178"/>
       <c r="T19" s="67" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U19" s="66"/>
     </row>
@@ -9083,14 +9091,14 @@
       <c r="B20" s="66">
         <v>11</v>
       </c>
-      <c r="C20" s="195"/>
-      <c r="D20" s="196"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="188"/>
       <c r="E20" s="68"/>
       <c r="F20" s="94" t="s">
         <v>342</v>
       </c>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
       <c r="I20" s="67"/>
       <c r="J20" s="66"/>
       <c r="L20" s="67"/>
@@ -9099,14 +9107,14 @@
       <c r="O20" s="66">
         <v>3</v>
       </c>
-      <c r="P20" s="188" t="s">
+      <c r="P20" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="Q20" s="188"/>
-      <c r="R20" s="188"/>
-      <c r="S20" s="188"/>
+      <c r="Q20" s="178"/>
+      <c r="R20" s="178"/>
+      <c r="S20" s="178"/>
       <c r="T20" s="67" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U20" s="66"/>
     </row>
@@ -9114,20 +9122,20 @@
       <c r="B21" s="66">
         <v>12</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="187" t="s">
         <v>300</v>
       </c>
-      <c r="D21" s="196"/>
+      <c r="D21" s="188"/>
       <c r="E21" s="68" t="s">
         <v>338</v>
       </c>
       <c r="F21" s="94" t="s">
         <v>341</v>
       </c>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="208" t="s">
-        <v>443</v>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="103" t="s">
+        <v>439</v>
       </c>
       <c r="J21" s="66"/>
       <c r="L21" s="67"/>
@@ -9136,14 +9144,14 @@
       <c r="O21" s="66">
         <v>4</v>
       </c>
-      <c r="P21" s="188" t="s">
+      <c r="P21" s="178" t="s">
         <v>357</v>
       </c>
-      <c r="Q21" s="188"/>
-      <c r="R21" s="188"/>
-      <c r="S21" s="188"/>
+      <c r="Q21" s="178"/>
+      <c r="R21" s="178"/>
+      <c r="S21" s="178"/>
       <c r="T21" s="67" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U21" s="66"/>
     </row>
@@ -9151,32 +9159,32 @@
       <c r="B22" s="66">
         <v>13</v>
       </c>
-      <c r="C22" s="195"/>
-      <c r="D22" s="196"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="188"/>
       <c r="E22" s="68"/>
       <c r="F22" s="94" t="s">
         <v>342</v>
       </c>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
       <c r="I22" s="67"/>
       <c r="J22" s="66"/>
       <c r="L22" s="100" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M22" s="67"/>
       <c r="N22" s="67"/>
       <c r="O22" s="66">
         <v>5</v>
       </c>
-      <c r="P22" s="188" t="s">
+      <c r="P22" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="Q22" s="188"/>
-      <c r="R22" s="188"/>
-      <c r="S22" s="188"/>
+      <c r="Q22" s="178"/>
+      <c r="R22" s="178"/>
+      <c r="S22" s="178"/>
       <c r="T22" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U22" s="66"/>
     </row>
@@ -9184,34 +9192,34 @@
       <c r="B23" s="66">
         <v>14</v>
       </c>
-      <c r="C23" s="197" t="s">
+      <c r="C23" s="185" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="198"/>
+      <c r="D23" s="186"/>
       <c r="E23" s="85" t="s">
         <v>369</v>
       </c>
       <c r="F23" s="94"/>
-      <c r="G23" s="188" t="s">
+      <c r="G23" s="178" t="s">
         <v>371</v>
       </c>
-      <c r="H23" s="188"/>
+      <c r="H23" s="178"/>
       <c r="I23" s="86"/>
       <c r="J23" s="87"/>
       <c r="L23" s="100" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M23" s="67"/>
       <c r="N23" s="67"/>
       <c r="O23" s="66">
         <v>6</v>
       </c>
-      <c r="P23" s="188" t="s">
+      <c r="P23" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="Q23" s="188"/>
-      <c r="R23" s="188"/>
-      <c r="S23" s="188"/>
+      <c r="Q23" s="178"/>
+      <c r="R23" s="178"/>
+      <c r="S23" s="178"/>
       <c r="T23" s="67" t="s">
         <v>380</v>
       </c>
@@ -9221,36 +9229,38 @@
       <c r="B24" s="66">
         <v>15</v>
       </c>
-      <c r="C24" s="195" t="s">
+      <c r="C24" s="187" t="s">
         <v>301</v>
       </c>
-      <c r="D24" s="196"/>
+      <c r="D24" s="188"/>
       <c r="E24" s="68" t="s">
         <v>337</v>
       </c>
       <c r="F24" s="94" t="s">
         <v>341</v>
       </c>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="67" t="s">
-        <v>399</v>
+      <c r="G24" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="H24" s="178"/>
+      <c r="I24" s="103" t="s">
+        <v>447</v>
       </c>
       <c r="J24" s="66"/>
       <c r="L24" s="100" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M24" s="67"/>
       <c r="N24" s="67"/>
       <c r="O24" s="66">
         <v>7</v>
       </c>
-      <c r="P24" s="188" t="s">
+      <c r="P24" s="178" t="s">
         <v>356</v>
       </c>
-      <c r="Q24" s="188"/>
-      <c r="R24" s="188"/>
-      <c r="S24" s="188"/>
+      <c r="Q24" s="178"/>
+      <c r="R24" s="178"/>
+      <c r="S24" s="178"/>
       <c r="T24" s="67" t="s">
         <v>381</v>
       </c>
@@ -9260,14 +9270,14 @@
       <c r="B25" s="66">
         <v>16</v>
       </c>
-      <c r="C25" s="195"/>
-      <c r="D25" s="196"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="188"/>
       <c r="E25" s="68"/>
       <c r="F25" s="94" t="s">
         <v>342</v>
       </c>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
       <c r="I25" s="67"/>
       <c r="J25" s="66"/>
       <c r="L25" s="67"/>
@@ -9280,12 +9290,12 @@
       <c r="O25" s="66" t="s">
         <v>361</v>
       </c>
-      <c r="P25" s="188" t="s">
+      <c r="P25" s="178" t="s">
         <v>362</v>
       </c>
-      <c r="Q25" s="188"/>
-      <c r="R25" s="188"/>
-      <c r="S25" s="188"/>
+      <c r="Q25" s="178"/>
+      <c r="R25" s="178"/>
+      <c r="S25" s="178"/>
       <c r="T25" s="67" t="s">
         <v>382</v>
       </c>
@@ -9295,21 +9305,21 @@
       <c r="B26" s="66">
         <v>17</v>
       </c>
-      <c r="C26" s="195" t="s">
+      <c r="C26" s="187" t="s">
         <v>302</v>
       </c>
-      <c r="D26" s="196"/>
+      <c r="D26" s="188"/>
       <c r="E26" s="68" t="s">
         <v>338</v>
       </c>
       <c r="F26" s="94" t="s">
         <v>341</v>
       </c>
-      <c r="G26" s="207" t="s">
-        <v>447</v>
-      </c>
-      <c r="H26" s="188"/>
-      <c r="I26" s="208" t="s">
+      <c r="G26" s="194" t="s">
+        <v>442</v>
+      </c>
+      <c r="H26" s="178"/>
+      <c r="I26" s="103" t="s">
         <v>446</v>
       </c>
       <c r="J26" s="66"/>
@@ -9321,12 +9331,12 @@
         <v>339</v>
       </c>
       <c r="O26" s="86"/>
-      <c r="P26" s="190" t="s">
+      <c r="P26" s="198" t="s">
         <v>365</v>
       </c>
-      <c r="Q26" s="190"/>
-      <c r="R26" s="190"/>
-      <c r="S26" s="190"/>
+      <c r="Q26" s="198"/>
+      <c r="R26" s="198"/>
+      <c r="S26" s="198"/>
       <c r="T26" s="86"/>
       <c r="U26" s="86"/>
     </row>
@@ -9334,14 +9344,14 @@
       <c r="B27" s="66">
         <v>18</v>
       </c>
-      <c r="C27" s="195"/>
-      <c r="D27" s="196"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="188"/>
       <c r="E27" s="68"/>
       <c r="F27" s="94" t="s">
         <v>342</v>
       </c>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
       <c r="I27" s="67"/>
       <c r="J27" s="66"/>
       <c r="M27" s="74"/>
@@ -9358,49 +9368,49 @@
       <c r="B28" s="66">
         <v>19</v>
       </c>
-      <c r="C28" s="193" t="s">
+      <c r="C28" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="D28" s="194"/>
+      <c r="D28" s="190"/>
       <c r="E28" s="1" t="s">
         <v>339</v>
       </c>
       <c r="F28" s="94" t="s">
         <v>361</v>
       </c>
-      <c r="G28" s="188" t="s">
+      <c r="G28" s="178" t="s">
         <v>303</v>
       </c>
-      <c r="H28" s="188"/>
+      <c r="H28" s="178"/>
       <c r="I28" s="86"/>
       <c r="J28" s="87"/>
-      <c r="P28" s="178" t="s">
+      <c r="P28" s="193" t="s">
         <v>398</v>
       </c>
-      <c r="Q28" s="178"/>
-      <c r="R28" s="178"/>
-      <c r="S28" s="178"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="193"/>
+      <c r="S28" s="193"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="66">
         <v>20</v>
       </c>
-      <c r="C29" s="195" t="s">
+      <c r="C29" s="187" t="s">
         <v>304</v>
       </c>
-      <c r="D29" s="196"/>
+      <c r="D29" s="188"/>
       <c r="E29" s="68" t="s">
         <v>337</v>
       </c>
       <c r="F29" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="G29" s="188" t="s">
-        <v>306</v>
-      </c>
-      <c r="H29" s="188"/>
-      <c r="I29" s="208" t="s">
-        <v>445</v>
+      <c r="G29" s="194" t="s">
+        <v>448</v>
+      </c>
+      <c r="H29" s="178"/>
+      <c r="I29" s="103" t="s">
+        <v>441</v>
       </c>
       <c r="J29" s="66"/>
       <c r="M29" s="99" t="s">
@@ -9412,12 +9422,12 @@
       <c r="O29" s="91" t="s">
         <v>354</v>
       </c>
-      <c r="P29" s="187" t="s">
+      <c r="P29" s="191" t="s">
         <v>374</v>
       </c>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="187"/>
+      <c r="Q29" s="191"/>
+      <c r="R29" s="191"/>
+      <c r="S29" s="191"/>
       <c r="T29" s="89" t="s">
         <v>377</v>
       </c>
@@ -9429,14 +9439,14 @@
       <c r="B30" s="66">
         <v>21</v>
       </c>
-      <c r="C30" s="195"/>
-      <c r="D30" s="196"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="188"/>
       <c r="E30" s="67"/>
       <c r="F30" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="G30" s="188"/>
-      <c r="H30" s="188"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
       <c r="I30" s="67"/>
       <c r="J30" s="66"/>
       <c r="M30" s="98" t="s">
@@ -9448,10 +9458,10 @@
       <c r="O30" s="66">
         <v>0</v>
       </c>
-      <c r="P30" s="179"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="182"/>
+      <c r="R30" s="182"/>
+      <c r="S30" s="183"/>
       <c r="T30" s="67"/>
       <c r="U30" s="66"/>
     </row>
@@ -9459,22 +9469,22 @@
       <c r="B31" s="66">
         <v>22</v>
       </c>
-      <c r="C31" s="195" t="s">
+      <c r="C31" s="187" t="s">
         <v>305</v>
       </c>
-      <c r="D31" s="196"/>
+      <c r="D31" s="188"/>
       <c r="E31" s="68" t="s">
         <v>337</v>
       </c>
       <c r="F31" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="G31" s="188" t="s">
+      <c r="G31" s="178" t="s">
         <v>307</v>
       </c>
-      <c r="H31" s="188"/>
-      <c r="I31" s="208" t="s">
-        <v>444</v>
+      <c r="H31" s="178"/>
+      <c r="I31" s="103" t="s">
+        <v>440</v>
       </c>
       <c r="J31" s="66"/>
       <c r="M31" s="67"/>
@@ -9482,14 +9492,14 @@
       <c r="O31" s="66">
         <v>1</v>
       </c>
-      <c r="P31" s="179" t="s">
+      <c r="P31" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="Q31" s="180"/>
-      <c r="R31" s="180"/>
-      <c r="S31" s="181"/>
+      <c r="Q31" s="182"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="183"/>
       <c r="T31" s="67" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U31" s="66"/>
     </row>
@@ -9497,14 +9507,14 @@
       <c r="B32" s="66">
         <v>23</v>
       </c>
-      <c r="C32" s="195"/>
-      <c r="D32" s="196"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="188"/>
       <c r="E32" s="67"/>
       <c r="F32" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
       <c r="I32" s="67"/>
       <c r="J32" s="66"/>
       <c r="M32" s="67"/>
@@ -9512,16 +9522,16 @@
       <c r="O32" s="66">
         <v>2</v>
       </c>
-      <c r="P32" s="179"/>
-      <c r="Q32" s="180"/>
-      <c r="R32" s="180"/>
-      <c r="S32" s="181"/>
+      <c r="P32" s="181"/>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="182"/>
+      <c r="S32" s="183"/>
       <c r="T32" s="67"/>
       <c r="U32" s="66"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E33" s="101" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
@@ -9530,12 +9540,12 @@
       <c r="O33" s="66">
         <v>3</v>
       </c>
-      <c r="P33" s="179" t="s">
+      <c r="P33" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="Q33" s="180"/>
-      <c r="R33" s="180"/>
-      <c r="S33" s="181"/>
+      <c r="Q33" s="182"/>
+      <c r="R33" s="182"/>
+      <c r="S33" s="183"/>
       <c r="T33" s="67" t="s">
         <v>15</v>
       </c>
@@ -9547,64 +9557,64 @@
       <c r="O34" s="66">
         <v>4</v>
       </c>
-      <c r="P34" s="179" t="s">
+      <c r="P34" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="Q34" s="180"/>
-      <c r="R34" s="180"/>
-      <c r="S34" s="181"/>
+      <c r="Q34" s="182"/>
+      <c r="R34" s="182"/>
+      <c r="S34" s="183"/>
       <c r="T34" s="67" t="s">
         <v>19</v>
       </c>
       <c r="U34" s="66"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B35" s="189" t="s">
+      <c r="B35" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189" t="s">
+      <c r="C35" s="184"/>
+      <c r="D35" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189" t="s">
+      <c r="E35" s="184"/>
+      <c r="F35" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
       <c r="I35" s="88"/>
       <c r="J35" s="95" t="s">
         <v>382</v>
       </c>
       <c r="K35" s="95" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M35" s="67"/>
       <c r="N35" s="67"/>
       <c r="O35" s="66">
         <v>5</v>
       </c>
-      <c r="P35" s="179"/>
-      <c r="Q35" s="180"/>
-      <c r="R35" s="180"/>
-      <c r="S35" s="181"/>
+      <c r="P35" s="181"/>
+      <c r="Q35" s="182"/>
+      <c r="R35" s="182"/>
+      <c r="S35" s="183"/>
       <c r="T35" s="67"/>
       <c r="U35" s="66"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B36" s="116" t="s">
+      <c r="B36" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116" t="s">
+      <c r="C36" s="109"/>
+      <c r="D36" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="128" t="s">
+      <c r="E36" s="109"/>
+      <c r="F36" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
       <c r="I36" s="88"/>
       <c r="J36" s="66">
         <v>0</v>
@@ -9615,27 +9625,27 @@
       <c r="O36" s="66">
         <v>6</v>
       </c>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="180"/>
-      <c r="R36" s="180"/>
-      <c r="S36" s="181"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="182"/>
+      <c r="R36" s="182"/>
+      <c r="S36" s="183"/>
       <c r="T36" s="67"/>
       <c r="U36" s="66"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116" t="s">
+      <c r="C37" s="109"/>
+      <c r="D37" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="116"/>
-      <c r="F37" s="128" t="s">
+      <c r="E37" s="109"/>
+      <c r="F37" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
       <c r="I37" s="88"/>
       <c r="J37" s="66">
         <v>1</v>
@@ -9646,27 +9656,27 @@
       <c r="O37" s="66">
         <v>7</v>
       </c>
-      <c r="P37" s="179"/>
-      <c r="Q37" s="180"/>
-      <c r="R37" s="180"/>
-      <c r="S37" s="181"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="182"/>
+      <c r="R37" s="182"/>
+      <c r="S37" s="183"/>
       <c r="T37" s="67"/>
       <c r="U37" s="66"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B38" s="116" t="s">
+      <c r="B38" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116" t="s">
+      <c r="C38" s="109"/>
+      <c r="D38" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="116"/>
-      <c r="F38" s="128" t="s">
+      <c r="E38" s="109"/>
+      <c r="F38" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
       <c r="I38" s="88"/>
       <c r="J38" s="66">
         <v>2</v>
@@ -9681,27 +9691,27 @@
       <c r="O38" s="66">
         <v>0</v>
       </c>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="180"/>
-      <c r="S38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="182"/>
+      <c r="R38" s="182"/>
+      <c r="S38" s="183"/>
       <c r="T38" s="67"/>
       <c r="U38" s="66"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116" t="s">
+      <c r="C39" s="109"/>
+      <c r="D39" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="116"/>
-      <c r="F39" s="128" t="s">
+      <c r="E39" s="109"/>
+      <c r="F39" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
       <c r="I39" s="88"/>
       <c r="J39" s="66">
         <v>3</v>
@@ -9712,31 +9722,31 @@
       <c r="O39" s="66">
         <v>1</v>
       </c>
-      <c r="P39" s="179" t="s">
+      <c r="P39" s="181" t="s">
         <v>386</v>
       </c>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="180"/>
-      <c r="S39" s="181"/>
+      <c r="Q39" s="182"/>
+      <c r="R39" s="182"/>
+      <c r="S39" s="183"/>
       <c r="T39" s="67" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U39" s="66"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B40" s="116" t="s">
+      <c r="B40" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116" t="s">
+      <c r="C40" s="109"/>
+      <c r="D40" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="116"/>
-      <c r="F40" s="128" t="s">
+      <c r="E40" s="109"/>
+      <c r="F40" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
       <c r="I40" s="88"/>
       <c r="J40" s="66">
         <v>4</v>
@@ -9747,29 +9757,29 @@
       <c r="O40" s="66">
         <v>2</v>
       </c>
-      <c r="P40" s="202" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q40" s="203"/>
-      <c r="R40" s="203"/>
-      <c r="S40" s="204"/>
+      <c r="P40" s="205" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q40" s="206"/>
+      <c r="R40" s="206"/>
+      <c r="S40" s="207"/>
       <c r="T40" s="67"/>
       <c r="U40" s="66"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116" t="s">
+      <c r="C41" s="109"/>
+      <c r="D41" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="116"/>
-      <c r="F41" s="128" t="s">
+      <c r="E41" s="109"/>
+      <c r="F41" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
       <c r="I41" s="88"/>
       <c r="J41" s="66">
         <v>5</v>
@@ -9780,31 +9790,31 @@
       <c r="O41" s="66">
         <v>3</v>
       </c>
-      <c r="P41" s="179" t="s">
+      <c r="P41" s="181" t="s">
         <v>387</v>
       </c>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="180"/>
-      <c r="S41" s="181"/>
+      <c r="Q41" s="182"/>
+      <c r="R41" s="182"/>
+      <c r="S41" s="183"/>
       <c r="T41" s="67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U41" s="66"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116" t="s">
+      <c r="C42" s="109"/>
+      <c r="D42" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="116"/>
-      <c r="F42" s="128" t="s">
+      <c r="E42" s="109"/>
+      <c r="F42" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
       <c r="I42" s="88"/>
       <c r="J42" s="88"/>
       <c r="K42" s="74"/>
@@ -9813,31 +9823,31 @@
       <c r="O42" s="66">
         <v>4</v>
       </c>
-      <c r="P42" s="179" t="s">
+      <c r="P42" s="181" t="s">
         <v>388</v>
       </c>
-      <c r="Q42" s="180"/>
-      <c r="R42" s="180"/>
-      <c r="S42" s="181"/>
+      <c r="Q42" s="182"/>
+      <c r="R42" s="182"/>
+      <c r="S42" s="183"/>
       <c r="T42" s="67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U42" s="66"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116" t="s">
+      <c r="C43" s="109"/>
+      <c r="D43" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="116"/>
-      <c r="F43" s="128" t="s">
+      <c r="E43" s="109"/>
+      <c r="F43" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
       <c r="I43" s="88"/>
       <c r="J43" s="88"/>
       <c r="M43" s="67"/>
@@ -9845,10 +9855,10 @@
       <c r="O43" s="66">
         <v>5</v>
       </c>
-      <c r="P43" s="179"/>
-      <c r="Q43" s="180"/>
-      <c r="R43" s="180"/>
-      <c r="S43" s="181"/>
+      <c r="P43" s="181"/>
+      <c r="Q43" s="182"/>
+      <c r="R43" s="182"/>
+      <c r="S43" s="183"/>
       <c r="T43" s="67"/>
       <c r="U43" s="66"/>
     </row>
@@ -9860,10 +9870,10 @@
       <c r="O44" s="66">
         <v>6</v>
       </c>
-      <c r="P44" s="179"/>
-      <c r="Q44" s="180"/>
-      <c r="R44" s="180"/>
-      <c r="S44" s="181"/>
+      <c r="P44" s="181"/>
+      <c r="Q44" s="182"/>
+      <c r="R44" s="182"/>
+      <c r="S44" s="183"/>
       <c r="T44" s="67"/>
       <c r="U44" s="66"/>
     </row>
@@ -9882,16 +9892,16 @@
       <c r="O45" s="66">
         <v>7</v>
       </c>
-      <c r="P45" s="179"/>
-      <c r="Q45" s="180"/>
-      <c r="R45" s="180"/>
-      <c r="S45" s="181"/>
+      <c r="P45" s="181"/>
+      <c r="Q45" s="182"/>
+      <c r="R45" s="182"/>
+      <c r="S45" s="183"/>
       <c r="T45" s="67"/>
       <c r="U45" s="66"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B46" s="93" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C46" s="74"/>
       <c r="D46" s="74"/>
@@ -9910,31 +9920,31 @@
       <c r="O46" s="66">
         <v>0</v>
       </c>
-      <c r="P46" s="179" t="s">
+      <c r="P46" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="Q46" s="180"/>
-      <c r="R46" s="180"/>
-      <c r="S46" s="181"/>
+      <c r="Q46" s="182"/>
+      <c r="R46" s="182"/>
+      <c r="S46" s="183"/>
       <c r="T46" s="67" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U46" s="66"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B47" s="189" t="s">
+      <c r="B47" s="184" t="s">
+        <v>401</v>
+      </c>
+      <c r="C47" s="184"/>
+      <c r="D47" s="184" t="s">
         <v>402</v>
       </c>
-      <c r="C47" s="189"/>
-      <c r="D47" s="189" t="s">
-        <v>403</v>
-      </c>
-      <c r="E47" s="189"/>
-      <c r="F47" s="189" t="s">
+      <c r="E47" s="184"/>
+      <c r="F47" s="184" t="s">
         <v>336</v>
       </c>
-      <c r="G47" s="189"/>
-      <c r="H47" s="189"/>
+      <c r="G47" s="184"/>
+      <c r="H47" s="184"/>
       <c r="I47" s="88"/>
       <c r="J47" s="88"/>
       <c r="M47" s="67"/>
@@ -9942,29 +9952,29 @@
       <c r="O47" s="66">
         <v>1</v>
       </c>
-      <c r="P47" s="179" t="s">
+      <c r="P47" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="Q47" s="180"/>
-      <c r="R47" s="180"/>
-      <c r="S47" s="181"/>
+      <c r="Q47" s="182"/>
+      <c r="R47" s="182"/>
+      <c r="S47" s="183"/>
       <c r="T47" s="67" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U47" s="66"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116" t="s">
+      <c r="B48" s="109"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109" t="s">
         <v>310</v>
       </c>
-      <c r="E48" s="116"/>
-      <c r="F48" s="128" t="s">
-        <v>436</v>
-      </c>
-      <c r="G48" s="128"/>
-      <c r="H48" s="128"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="129" t="s">
+        <v>433</v>
+      </c>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
       <c r="I48" s="88"/>
       <c r="J48" s="88"/>
       <c r="M48" s="67"/>
@@ -9972,27 +9982,27 @@
       <c r="O48" s="66">
         <v>2</v>
       </c>
-      <c r="P48" s="182" t="s">
+      <c r="P48" s="202" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q48" s="203"/>
+      <c r="R48" s="203"/>
+      <c r="S48" s="204"/>
+      <c r="T48" s="67" t="s">
         <v>409</v>
       </c>
-      <c r="Q48" s="183"/>
-      <c r="R48" s="183"/>
-      <c r="S48" s="184"/>
-      <c r="T48" s="67" t="s">
-        <v>410</v>
-      </c>
       <c r="U48" s="66"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="128" t="s">
-        <v>437</v>
-      </c>
-      <c r="G49" s="128"/>
-      <c r="H49" s="128"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="129" t="s">
+        <v>434</v>
+      </c>
+      <c r="G49" s="129"/>
+      <c r="H49" s="129"/>
       <c r="I49" s="88"/>
       <c r="J49" s="88"/>
       <c r="M49" s="67"/>
@@ -10000,140 +10010,140 @@
       <c r="O49" s="66">
         <v>3</v>
       </c>
-      <c r="P49" s="179" t="s">
+      <c r="P49" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="Q49" s="180"/>
-      <c r="R49" s="180"/>
-      <c r="S49" s="181"/>
+      <c r="Q49" s="182"/>
+      <c r="R49" s="182"/>
+      <c r="S49" s="183"/>
       <c r="T49" s="67" t="s">
         <v>395</v>
       </c>
       <c r="U49" s="66"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="128" t="s">
-        <v>438</v>
-      </c>
-      <c r="G50" s="128"/>
-      <c r="H50" s="128"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="129" t="s">
+        <v>435</v>
+      </c>
+      <c r="G50" s="129"/>
+      <c r="H50" s="129"/>
       <c r="M50" s="67"/>
       <c r="N50" s="67"/>
       <c r="O50" s="66">
         <v>4</v>
       </c>
-      <c r="P50" s="179" t="s">
+      <c r="P50" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="Q50" s="180"/>
-      <c r="R50" s="180"/>
-      <c r="S50" s="181"/>
+      <c r="Q50" s="182"/>
+      <c r="R50" s="182"/>
+      <c r="S50" s="183"/>
       <c r="T50" s="67" t="s">
         <v>396</v>
       </c>
       <c r="U50" s="66"/>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="128"/>
-      <c r="G51" s="128"/>
-      <c r="H51" s="128"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="129"/>
       <c r="M51" s="67"/>
       <c r="N51" s="67"/>
       <c r="O51" s="66">
         <v>5</v>
       </c>
-      <c r="P51" s="179" t="s">
+      <c r="P51" s="181" t="s">
         <v>389</v>
       </c>
-      <c r="Q51" s="180"/>
-      <c r="R51" s="180"/>
-      <c r="S51" s="181"/>
+      <c r="Q51" s="182"/>
+      <c r="R51" s="182"/>
+      <c r="S51" s="183"/>
       <c r="T51" s="67" t="s">
         <v>392</v>
       </c>
       <c r="U51" s="66"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
-      <c r="H52" s="128"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
       <c r="M52" s="67"/>
       <c r="N52" s="67"/>
       <c r="O52" s="66">
         <v>6</v>
       </c>
-      <c r="P52" s="179" t="s">
+      <c r="P52" s="181" t="s">
         <v>390</v>
       </c>
-      <c r="Q52" s="180"/>
-      <c r="R52" s="180"/>
-      <c r="S52" s="181"/>
+      <c r="Q52" s="182"/>
+      <c r="R52" s="182"/>
+      <c r="S52" s="183"/>
       <c r="T52" s="67" t="s">
         <v>393</v>
       </c>
       <c r="U52" s="66"/>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="128"/>
-      <c r="H53" s="128"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
       <c r="M53" s="67"/>
       <c r="N53" s="67"/>
       <c r="O53" s="66">
         <v>7</v>
       </c>
-      <c r="P53" s="179" t="s">
+      <c r="P53" s="181" t="s">
         <v>391</v>
       </c>
-      <c r="Q53" s="180"/>
-      <c r="R53" s="180"/>
-      <c r="S53" s="181"/>
+      <c r="Q53" s="182"/>
+      <c r="R53" s="182"/>
+      <c r="S53" s="183"/>
       <c r="T53" s="67" t="s">
         <v>394</v>
       </c>
       <c r="U53" s="66"/>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
-      <c r="H54" s="128"/>
-      <c r="P54" s="177"/>
-      <c r="Q54" s="177"/>
-      <c r="R54" s="177"/>
-      <c r="S54" s="177"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="P54" s="201"/>
+      <c r="Q54" s="201"/>
+      <c r="R54" s="201"/>
+      <c r="S54" s="201"/>
     </row>
     <row r="55" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="128"/>
-      <c r="H55" s="128"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="109"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="M56" s="175"/>
-      <c r="N56" s="176"/>
+      <c r="M56" s="208"/>
+      <c r="N56" s="209"/>
       <c r="O56" s="78" t="s">
         <v>69</v>
       </c>
@@ -10281,6 +10291,137 @@
     </row>
   </sheetData>
   <mergeCells count="155">
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="F48:H48"/>
@@ -10305,137 +10446,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10456,15 +10466,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A03C2E64F0005140BDE7226CB0774D20" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2dc62d7ebda28b2248c4fcd0d1e853dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99f0e776-88d9-49cc-bc44-8f053c06a05d" xmlns:ns3="c670e95e-ae83-46c3-a0ce-27f41546ffc1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddbdedb6ae28ed921b958fa0c5f62c2b" ns2:_="" ns3:_="">
     <xsd:import namespace="99f0e776-88d9-49cc-bc44-8f053c06a05d"/>
@@ -10707,6 +10708,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4D1D403-A5EB-472D-9E01-FE3DAF7D69B0}">
   <ds:schemaRefs>
@@ -10719,14 +10729,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA663353-8C2D-4150-B0CA-BB8B28118183}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E27BFE-617B-427B-B3BC-9D5FD0F3BADE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10743,4 +10745,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA663353-8C2D-4150-B0CA-BB8B28118183}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Cogen_Protocol.xlsx
+++ b/docs/Cogen_Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepoGit\sim-tools\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010DF3C7-A009-420B-A65B-9752A3159CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED981BD-D653-42A3-8FD0-4A16E690EDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="165" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me" sheetId="11" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="455">
   <si>
     <t>Cogen B'd 제어 로직</t>
     <phoneticPr fontId="21" type="noConversion"/>
@@ -1861,6 +1861,22 @@
   </si>
   <si>
     <t>3WAY A/M(난방수순환 우회, 1KW 전용)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC_RUN7</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addr(</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fcid</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x30+(1~6)</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -2136,6 +2152,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
@@ -2143,18 +2160,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
@@ -3582,7 +3602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4174,6 +4194,9 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4213,8 +4236,8 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="166">
@@ -5151,8 +5174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM99"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8466,7 +8489,7 @@
   <dimension ref="B2:W62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8511,10 +8534,10 @@
         <v>352</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>288</v>
+        <v>452</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>363</v>
+        <v>453</v>
       </c>
       <c r="E3" s="81" t="s">
         <v>289</v>
@@ -8560,8 +8583,8 @@
       <c r="C4" s="66">
         <v>1</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>292</v>
+      <c r="D4" s="211" t="s">
+        <v>454</v>
       </c>
       <c r="E4" s="66">
         <v>24</v>
@@ -8640,10 +8663,10 @@
       <c r="B8" s="96" t="s">
         <v>332</v>
       </c>
-      <c r="C8" s="199" t="s">
+      <c r="C8" s="200" t="s">
         <v>334</v>
       </c>
-      <c r="D8" s="200"/>
+      <c r="D8" s="201"/>
       <c r="E8" s="90" t="s">
         <v>360</v>
       </c>
@@ -8965,12 +8988,12 @@
       <c r="O16" s="66">
         <v>7</v>
       </c>
-      <c r="P16" s="210" t="s">
+      <c r="P16" s="197" t="s">
         <v>450</v>
       </c>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="197"/>
-      <c r="S16" s="197"/>
+      <c r="Q16" s="198"/>
+      <c r="R16" s="198"/>
+      <c r="S16" s="198"/>
       <c r="T16" s="67"/>
       <c r="U16" s="66"/>
     </row>
@@ -9101,7 +9124,9 @@
       <c r="H20" s="178"/>
       <c r="I20" s="67"/>
       <c r="J20" s="66"/>
-      <c r="L20" s="67"/>
+      <c r="L20" s="100" t="s">
+        <v>451</v>
+      </c>
       <c r="M20" s="67"/>
       <c r="N20" s="67"/>
       <c r="O20" s="66">
@@ -9331,12 +9356,12 @@
         <v>339</v>
       </c>
       <c r="O26" s="86"/>
-      <c r="P26" s="198" t="s">
+      <c r="P26" s="199" t="s">
         <v>365</v>
       </c>
-      <c r="Q26" s="198"/>
-      <c r="R26" s="198"/>
-      <c r="S26" s="198"/>
+      <c r="Q26" s="199"/>
+      <c r="R26" s="199"/>
+      <c r="S26" s="199"/>
       <c r="T26" s="86"/>
       <c r="U26" s="86"/>
     </row>
@@ -9757,12 +9782,12 @@
       <c r="O40" s="66">
         <v>2</v>
       </c>
-      <c r="P40" s="205" t="s">
+      <c r="P40" s="206" t="s">
         <v>430</v>
       </c>
-      <c r="Q40" s="206"/>
-      <c r="R40" s="206"/>
-      <c r="S40" s="207"/>
+      <c r="Q40" s="207"/>
+      <c r="R40" s="207"/>
+      <c r="S40" s="208"/>
       <c r="T40" s="67"/>
       <c r="U40" s="66"/>
     </row>
@@ -9982,12 +10007,12 @@
       <c r="O48" s="66">
         <v>2</v>
       </c>
-      <c r="P48" s="202" t="s">
+      <c r="P48" s="203" t="s">
         <v>408</v>
       </c>
-      <c r="Q48" s="203"/>
-      <c r="R48" s="203"/>
-      <c r="S48" s="204"/>
+      <c r="Q48" s="204"/>
+      <c r="R48" s="204"/>
+      <c r="S48" s="205"/>
       <c r="T48" s="67" t="s">
         <v>409</v>
       </c>
@@ -10066,7 +10091,7 @@
       <c r="Q51" s="182"/>
       <c r="R51" s="182"/>
       <c r="S51" s="183"/>
-      <c r="T51" s="67" t="s">
+      <c r="T51" s="100" t="s">
         <v>392</v>
       </c>
       <c r="U51" s="66"/>
@@ -10090,7 +10115,7 @@
       <c r="Q52" s="182"/>
       <c r="R52" s="182"/>
       <c r="S52" s="183"/>
-      <c r="T52" s="67" t="s">
+      <c r="T52" s="100" t="s">
         <v>393</v>
       </c>
       <c r="U52" s="66"/>
@@ -10114,7 +10139,7 @@
       <c r="Q53" s="182"/>
       <c r="R53" s="182"/>
       <c r="S53" s="183"/>
-      <c r="T53" s="67" t="s">
+      <c r="T53" s="100" t="s">
         <v>394</v>
       </c>
       <c r="U53" s="66"/>
@@ -10127,10 +10152,10 @@
       <c r="F54" s="129"/>
       <c r="G54" s="129"/>
       <c r="H54" s="129"/>
-      <c r="P54" s="201"/>
-      <c r="Q54" s="201"/>
-      <c r="R54" s="201"/>
-      <c r="S54" s="201"/>
+      <c r="P54" s="202"/>
+      <c r="Q54" s="202"/>
+      <c r="R54" s="202"/>
+      <c r="S54" s="202"/>
     </row>
     <row r="55" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="109"/>
@@ -10142,8 +10167,8 @@
       <c r="H55" s="129"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="M56" s="208"/>
-      <c r="N56" s="209"/>
+      <c r="M56" s="209"/>
+      <c r="N56" s="210"/>
       <c r="O56" s="78" t="s">
         <v>69</v>
       </c>

--- a/docs/Cogen_Protocol.xlsx
+++ b/docs/Cogen_Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepoGit\sim-tools\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\sim-tools\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED981BD-D653-42A3-8FD0-4A16E690EDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711508C5-C194-4BE8-98A5-CB07EE5E8D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="165" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me" sheetId="11" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="481">
   <si>
     <t>Cogen B'd 제어 로직</t>
     <phoneticPr fontId="21" type="noConversion"/>
@@ -1529,354 +1529,463 @@
     <t>Version</t>
   </si>
   <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>STX</t>
+  </si>
+  <si>
+    <t>ETX</t>
+  </si>
+  <si>
+    <t>BitIndex</t>
+  </si>
+  <si>
+    <t>Fan A/M</t>
+  </si>
+  <si>
+    <t>FanControl3</t>
+  </si>
+  <si>
+    <t>온수배출A/M</t>
+  </si>
+  <si>
+    <t>환수펌프 A/M</t>
+  </si>
+  <si>
+    <t>순환펌프 A/M</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>RPM 0~5</t>
+  </si>
+  <si>
+    <t>FCid</t>
+  </si>
+  <si>
+    <t>FCid~Data</t>
+  </si>
+  <si>
+    <t>사용 안함</t>
+  </si>
+  <si>
+    <t>rxdata2</t>
+  </si>
+  <si>
+    <t>rxdata3</t>
+  </si>
+  <si>
+    <t>U08_BF</t>
+  </si>
+  <si>
+    <t>COGEN 상태</t>
+  </si>
+  <si>
+    <t>FC, COGEN 상태</t>
+  </si>
+  <si>
+    <t>제어결과</t>
+  </si>
+  <si>
+    <t>설명(rxdata)</t>
+  </si>
+  <si>
+    <t>설명(txdata)</t>
+  </si>
+  <si>
+    <t>P02(순환펌프)</t>
+  </si>
+  <si>
+    <t>P01(온수환수)</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>FAN12_ON</t>
+  </si>
+  <si>
+    <t>FAN34_ON</t>
+  </si>
+  <si>
+    <t>FAN56_ON</t>
+  </si>
+  <si>
+    <t>P02_SP</t>
+  </si>
+  <si>
+    <t>shared1</t>
+  </si>
+  <si>
+    <t>shared2</t>
+  </si>
+  <si>
+    <t>shared3</t>
+  </si>
+  <si>
+    <t>레벨M</t>
+  </si>
+  <si>
+    <t>레벨L</t>
+  </si>
+  <si>
+    <t>레벨H</t>
+  </si>
+  <si>
+    <t>4호기운전상태</t>
+  </si>
+  <si>
+    <t>5호기운전상태</t>
+  </si>
+  <si>
+    <t>6호기운전상태</t>
+  </si>
+  <si>
+    <t>FC_RUN4</t>
+  </si>
+  <si>
+    <t>FC_RUN5</t>
+  </si>
+  <si>
+    <t>FC_RUN6</t>
+  </si>
+  <si>
+    <t>FAN34</t>
+  </si>
+  <si>
+    <t>FAN56</t>
+  </si>
+  <si>
+    <t>제어명령</t>
+  </si>
+  <si>
+    <t>동작상태</t>
+  </si>
+  <si>
+    <t>FW_VER</t>
+  </si>
+  <si>
+    <t>COGEN 입출력 포트</t>
+  </si>
+  <si>
+    <t>보드 라벨</t>
+  </si>
+  <si>
+    <t>내부 이름</t>
+  </si>
+  <si>
+    <t>LVL_M</t>
+  </si>
+  <si>
+    <t>LVL_L</t>
+  </si>
+  <si>
+    <t>LVL_H</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>온수배출밸브</t>
+  </si>
+  <si>
+    <t>NC417</t>
+  </si>
+  <si>
+    <t>FAN12</t>
+  </si>
+  <si>
+    <t>P02_MODE</t>
+  </si>
+  <si>
+    <t>P02_ON</t>
+  </si>
+  <si>
+    <t>P01_MODE</t>
+  </si>
+  <si>
+    <t>P01_ON</t>
+  </si>
+  <si>
+    <t>NC417_MODE</t>
+  </si>
+  <si>
+    <t>FAN_MODE</t>
+  </si>
+  <si>
+    <t>NC413_OPEN</t>
+  </si>
+  <si>
+    <t>NC417_OPEN</t>
+  </si>
+  <si>
+    <t>NC413_MODE</t>
+  </si>
+  <si>
+    <t>FC_RUN1</t>
+  </si>
+  <si>
+    <t>FC_RUN2</t>
+  </si>
+  <si>
+    <t>FC_RUN3</t>
+  </si>
+  <si>
+    <t>FC_RUN</t>
+  </si>
+  <si>
+    <t>각 연료전지가 기동중인 상태인지 COGEN에 알려주는 정보 아닌가?</t>
+  </si>
+  <si>
+    <t>%(RPM)</t>
+  </si>
+  <si>
+    <t>Echo Back</t>
+  </si>
+  <si>
+    <t>압력, 온도는 Scale 10 적용해서 전송</t>
+  </si>
+  <si>
+    <t>but 20</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전상태</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>유량SW(사용 안함)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC412(드레인)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>직수밸브 A/M</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>펌프1 전원 Relay</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>펌프2 PWM 신호</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>직수밸브</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC412_OPEN</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH_M</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH_H</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH_L</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIT02</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIT03</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객측 온수 온도</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX(코젠통신상태, LabView용)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX(코젠통신상태, LabView용)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH03</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH06</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIT01</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>방열기 냉각수 압력</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC413(직수)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>3WAY A/M(난방수순환 우회, 1KW 전용)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC_RUN7</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addr(</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fcid</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x30+(1~6)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>tCogenWtrCold</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>tCogenTnkMid</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>cogenFwVer</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>tCogenTnkHigh</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>tCogenTnkLow</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>pCogenWtrCustIn</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>tCogenWtrCustOut</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>pCogenRadLoop</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>pCogenWtrCold</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenFan12</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenFanMode</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenVlvTnkSupply</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenVlvTnkSplMode</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenSysRun</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenVlvDrain</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenPmpColdMode</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenPmpColdEn</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenPmpHotMode</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenPmpHotEn</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenVlvHotMode</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenVlvHotOut</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenFan34</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenFan56</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>rCogenPmpColdDes</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>rxdata1</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>rxdata4</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>rxdata2</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>rxdata3</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>txdata2</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
     <t>txdata1</t>
-  </si>
-  <si>
-    <t>txdata4</t>
-  </si>
-  <si>
-    <t>txdata2</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>txdata3</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>ETX</t>
-  </si>
-  <si>
-    <t>BitIndex</t>
-  </si>
-  <si>
-    <t>Fan A/M</t>
-  </si>
-  <si>
-    <t>FanControl3</t>
-  </si>
-  <si>
-    <t>온수배출A/M</t>
-  </si>
-  <si>
-    <t>환수펌프 A/M</t>
-  </si>
-  <si>
-    <t>순환펌프 A/M</t>
-  </si>
-  <si>
-    <t>DataType</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>RPM 0~5</t>
-  </si>
-  <si>
-    <t>FCid</t>
-  </si>
-  <si>
-    <t>FCid~Data</t>
-  </si>
-  <si>
-    <t>사용 안함</t>
-  </si>
-  <si>
-    <t>rxdata1</t>
-  </si>
-  <si>
-    <t>rxdata2</t>
-  </si>
-  <si>
-    <t>rxdata3</t>
-  </si>
-  <si>
-    <t>U08_BF</t>
-  </si>
-  <si>
-    <t>COGEN 상태</t>
-  </si>
-  <si>
-    <t>FC, COGEN 상태</t>
-  </si>
-  <si>
-    <t>제어결과</t>
-  </si>
-  <si>
-    <t>설명(rxdata)</t>
-  </si>
-  <si>
-    <t>설명(txdata)</t>
-  </si>
-  <si>
-    <t>P02(순환펌프)</t>
-  </si>
-  <si>
-    <t>P01(온수환수)</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>FAN12_ON</t>
-  </si>
-  <si>
-    <t>FAN34_ON</t>
-  </si>
-  <si>
-    <t>FAN56_ON</t>
-  </si>
-  <si>
-    <t>P02_SP</t>
-  </si>
-  <si>
-    <t>shared1</t>
-  </si>
-  <si>
-    <t>shared2</t>
-  </si>
-  <si>
-    <t>shared3</t>
-  </si>
-  <si>
-    <t>레벨M</t>
-  </si>
-  <si>
-    <t>레벨L</t>
-  </si>
-  <si>
-    <t>레벨H</t>
-  </si>
-  <si>
-    <t>4호기운전상태</t>
-  </si>
-  <si>
-    <t>5호기운전상태</t>
-  </si>
-  <si>
-    <t>6호기운전상태</t>
-  </si>
-  <si>
-    <t>FC_RUN4</t>
-  </si>
-  <si>
-    <t>FC_RUN5</t>
-  </si>
-  <si>
-    <t>FC_RUN6</t>
-  </si>
-  <si>
-    <t>FAN34</t>
-  </si>
-  <si>
-    <t>FAN56</t>
-  </si>
-  <si>
-    <t>제어명령</t>
-  </si>
-  <si>
-    <t>동작상태</t>
-  </si>
-  <si>
-    <t>FW_VER</t>
-  </si>
-  <si>
-    <t>COGEN 입출력 포트</t>
-  </si>
-  <si>
-    <t>보드 라벨</t>
-  </si>
-  <si>
-    <t>내부 이름</t>
-  </si>
-  <si>
-    <t>LVL_M</t>
-  </si>
-  <si>
-    <t>LVL_L</t>
-  </si>
-  <si>
-    <t>LVL_H</t>
-  </si>
-  <si>
-    <t>P02</t>
-  </si>
-  <si>
-    <t>P01</t>
-  </si>
-  <si>
-    <t>온수배출밸브</t>
-  </si>
-  <si>
-    <t>NC417</t>
-  </si>
-  <si>
-    <t>FAN12</t>
-  </si>
-  <si>
-    <t>P02_MODE</t>
-  </si>
-  <si>
-    <t>P02_ON</t>
-  </si>
-  <si>
-    <t>P01_MODE</t>
-  </si>
-  <si>
-    <t>P01_ON</t>
-  </si>
-  <si>
-    <t>NC417_MODE</t>
-  </si>
-  <si>
-    <t>FAN_MODE</t>
-  </si>
-  <si>
-    <t>NC413_OPEN</t>
-  </si>
-  <si>
-    <t>NC417_OPEN</t>
-  </si>
-  <si>
-    <t>NC413_MODE</t>
-  </si>
-  <si>
-    <t>FC_RUN1</t>
-  </si>
-  <si>
-    <t>FC_RUN2</t>
-  </si>
-  <si>
-    <t>FC_RUN3</t>
-  </si>
-  <si>
-    <t>FC_RUN</t>
-  </si>
-  <si>
-    <t>각 연료전지가 기동중인 상태인지 COGEN에 알려주는 정보 아닌가?</t>
-  </si>
-  <si>
-    <t>%(RPM)</t>
-  </si>
-  <si>
-    <t>Echo Back</t>
-  </si>
-  <si>
-    <t>압력, 온도는 Scale 10 적용해서 전송</t>
-  </si>
-  <si>
-    <t>but 20</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전상태</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>유량SW(사용 안함)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>NC412(드레인)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>직수밸브 A/M</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>펌프1 전원 Relay</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>펌프2 PWM 신호</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>직수밸브</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>NC412_OPEN</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH_M</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH_H</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH_L</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIT02</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIT03</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객측 온수 온도</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX(코젠통신상태, LabView용)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX(코젠통신상태, LabView용)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH03</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH06</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIT01</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>방열기 냉각수 압력</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>NC413(직수)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>3WAY A/M(난방수순환 우회, 1KW 전용)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>FC_RUN7</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>Addr(</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fcid</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x30+(1~6)</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -2459,7 +2568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -2796,15 +2905,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -3657,7 +3757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3684,10 +3784,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3729,16 +3829,19 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
@@ -3760,9 +3863,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3771,7 +3871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3786,458 +3886,458 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="166">
@@ -4748,132 +4848,132 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:12" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="114" t="s">
+    <row r="2" spans="2:12" ht="31.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-    </row>
-    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+    </row>
+    <row r="4" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="115" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116" t="s">
+      <c r="C5" s="113"/>
+      <c r="D5" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116" t="s">
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="117"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="108" t="s">
+      <c r="J5" s="114"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109" t="s">
+      <c r="C6" s="116"/>
+      <c r="D6" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="110"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="108" t="s">
+      <c r="J6" s="117"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109" t="s">
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="110"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="108"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="110"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="108"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
-    </row>
-    <row r="12" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="105"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="107"/>
-    </row>
-    <row r="16" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="117"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="115"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="117"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="117"/>
+    </row>
+    <row r="12" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
+    </row>
+    <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -4881,228 +4981,280 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="111" t="s">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112" t="s">
+      <c r="C17" s="122"/>
+      <c r="D17" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112" t="s">
+      <c r="E17" s="122"/>
+      <c r="F17" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="112"/>
-      <c r="H17" s="113"/>
-      <c r="L17" s="124" t="s">
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="L17" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="126"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="108" t="s">
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="110"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109" t="s">
+      <c r="C18" s="116"/>
+      <c r="D18" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109" t="s">
+      <c r="E18" s="116"/>
+      <c r="F18" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110"/>
-      <c r="L18" s="118" t="s">
+      <c r="G18" s="116"/>
+      <c r="H18" s="117"/>
+      <c r="L18" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
-      <c r="T18" s="120"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="108" t="s">
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="104"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109" t="s">
+      <c r="C19" s="116"/>
+      <c r="D19" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109" t="s">
+      <c r="E19" s="116"/>
+      <c r="F19" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="120"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="108" t="s">
+      <c r="G19" s="116"/>
+      <c r="H19" s="117"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="104"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109" t="s">
+      <c r="C20" s="116"/>
+      <c r="D20" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109" t="s">
+      <c r="E20" s="116"/>
+      <c r="F20" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="120"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="108" t="s">
+      <c r="G20" s="116"/>
+      <c r="H20" s="117"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="104"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109" t="s">
+      <c r="C21" s="116"/>
+      <c r="D21" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109" t="s">
+      <c r="E21" s="116"/>
+      <c r="F21" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="109"/>
-      <c r="H21" s="110"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
-      <c r="T21" s="120"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="108" t="s">
+      <c r="G21" s="116"/>
+      <c r="H21" s="117"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="104"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109" t="s">
+      <c r="C22" s="116"/>
+      <c r="D22" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109" t="s">
+      <c r="E22" s="116"/>
+      <c r="F22" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119"/>
-      <c r="T22" s="120"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="108" t="s">
+      <c r="G22" s="116"/>
+      <c r="H22" s="117"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="104"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109" t="s">
+      <c r="C23" s="116"/>
+      <c r="D23" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109" t="s">
+      <c r="E23" s="116"/>
+      <c r="F23" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="109"/>
-      <c r="H23" s="110"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
-      <c r="T23" s="120"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="108" t="s">
+      <c r="G23" s="116"/>
+      <c r="H23" s="117"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="104"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109" t="s">
+      <c r="C24" s="116"/>
+      <c r="D24" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109" t="s">
+      <c r="E24" s="116"/>
+      <c r="F24" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="109"/>
-      <c r="H24" s="110"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
-      <c r="T24" s="120"/>
-    </row>
-    <row r="25" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="105" t="s">
+      <c r="G24" s="116"/>
+      <c r="H24" s="117"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="104"/>
+    </row>
+    <row r="25" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B25" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106" t="s">
+      <c r="C25" s="119"/>
+      <c r="D25" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106" t="s">
+      <c r="E25" s="119"/>
+      <c r="F25" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="106"/>
-      <c r="H25" s="107"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="123"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="L22:T22"/>
     <mergeCell ref="L23:T23"/>
     <mergeCell ref="L24:T24"/>
@@ -5112,58 +5264,6 @@
     <mergeCell ref="L19:T19"/>
     <mergeCell ref="L20:T20"/>
     <mergeCell ref="L21:T21"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5178,26 +5278,26 @@
       <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="5" width="8.875" customWidth="1"/>
-    <col min="24" max="24" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.85546875" customWidth="1"/>
+    <col min="24" max="24" width="10.640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B2" s="146" t="s">
+    <row r="1" spans="1:39" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -5205,18 +5305,18 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="145" t="s">
+      <c r="S2" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="161"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
@@ -5229,7 +5329,7 @@
       <c r="AL2" s="10"/>
       <c r="AM2" s="11"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="12" t="s">
         <v>42</v>
       </c>
@@ -5324,7 +5424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="63" t="s">
         <v>63</v>
       </c>
@@ -5419,7 +5519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="13"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -5449,80 +5549,80 @@
       <c r="AL5" s="7"/>
       <c r="AM5" s="3"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B6" s="149" t="s">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="S6" s="127" t="s">
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="S6" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127" t="s">
+      <c r="T6" s="133"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133"/>
+      <c r="AA6" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="127"/>
-      <c r="AH6" s="127"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133"/>
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
       <c r="AM6" s="3"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B7" s="147" t="s">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128" t="s">
+      <c r="C7" s="124"/>
+      <c r="D7" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128" t="s">
+      <c r="E7" s="124"/>
+      <c r="F7" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128" t="s">
+      <c r="G7" s="124"/>
+      <c r="H7" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128" t="s">
+      <c r="I7" s="124"/>
+      <c r="J7" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128" t="s">
+      <c r="K7" s="124"/>
+      <c r="L7" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128" t="s">
+      <c r="M7" s="124"/>
+      <c r="N7" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128" t="s">
+      <c r="O7" s="124"/>
+      <c r="P7" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="128"/>
+      <c r="Q7" s="124"/>
       <c r="S7" s="60" t="s">
         <v>69</v>
       </c>
@@ -5573,60 +5673,60 @@
       </c>
       <c r="AM7" s="3"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B8" s="148" t="s">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142" t="s">
+      <c r="C8" s="131"/>
+      <c r="D8" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="142"/>
-      <c r="F8" s="109" t="s">
+      <c r="E8" s="131"/>
+      <c r="F8" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109" t="s">
+      <c r="G8" s="116"/>
+      <c r="H8" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109" t="s">
+      <c r="I8" s="116"/>
+      <c r="J8" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109" t="s">
+      <c r="K8" s="116"/>
+      <c r="L8" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109" t="s">
+      <c r="M8" s="116"/>
+      <c r="N8" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109" t="s">
+      <c r="O8" s="116"/>
+      <c r="P8" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="Q8" s="109"/>
-      <c r="S8" s="142" t="s">
+      <c r="Q8" s="116"/>
+      <c r="S8" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="142"/>
-      <c r="AF8" s="142"/>
-      <c r="AG8" s="142"/>
-      <c r="AH8" s="142"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="131"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="131"/>
+      <c r="Z8" s="131"/>
+      <c r="AA8" s="131"/>
+      <c r="AB8" s="131"/>
+      <c r="AC8" s="131"/>
+      <c r="AD8" s="131"/>
+      <c r="AE8" s="131"/>
+      <c r="AF8" s="131"/>
+      <c r="AG8" s="131"/>
+      <c r="AH8" s="131"/>
       <c r="AM8" s="3"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="13"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -5678,88 +5778,88 @@
       <c r="AL9" s="9"/>
       <c r="AM9" s="36"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="127" t="s">
+      <c r="S10" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127" t="s">
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="127"/>
-      <c r="AF10" s="127"/>
-      <c r="AG10" s="127"/>
-      <c r="AH10" s="127"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="133"/>
+      <c r="AD10" s="133"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="133"/>
+      <c r="AG10" s="133"/>
+      <c r="AH10" s="133"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="36"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B11" s="147" t="s">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128" t="s">
+      <c r="C11" s="124"/>
+      <c r="D11" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128" t="s">
+      <c r="E11" s="124"/>
+      <c r="F11" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128" t="s">
+      <c r="G11" s="124"/>
+      <c r="H11" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128" t="s">
+      <c r="I11" s="124"/>
+      <c r="J11" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128" t="s">
+      <c r="K11" s="124"/>
+      <c r="L11" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128" t="s">
+      <c r="M11" s="124"/>
+      <c r="N11" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128" t="s">
+      <c r="O11" s="124"/>
+      <c r="P11" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="128"/>
+      <c r="Q11" s="124"/>
       <c r="R11" s="9"/>
       <c r="S11" s="60" t="s">
         <v>69</v>
@@ -5815,61 +5915,61 @@
       <c r="AL11" s="9"/>
       <c r="AM11" s="36"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B12" s="148"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="109" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="153"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109" t="s">
+      <c r="G12" s="116"/>
+      <c r="H12" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109" t="s">
+      <c r="I12" s="116"/>
+      <c r="J12" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109" t="s">
+      <c r="K12" s="116"/>
+      <c r="L12" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109" t="s">
+      <c r="M12" s="116"/>
+      <c r="N12" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109" t="s">
+      <c r="O12" s="116"/>
+      <c r="P12" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="109"/>
+      <c r="Q12" s="116"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="142" t="s">
+      <c r="S12" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="T12" s="142"/>
-      <c r="U12" s="142"/>
-      <c r="V12" s="142"/>
-      <c r="W12" s="142"/>
-      <c r="X12" s="142"/>
-      <c r="Y12" s="142"/>
-      <c r="Z12" s="142"/>
-      <c r="AA12" s="142"/>
-      <c r="AB12" s="142"/>
-      <c r="AC12" s="142"/>
-      <c r="AD12" s="142"/>
-      <c r="AE12" s="142"/>
-      <c r="AF12" s="142"/>
-      <c r="AG12" s="142"/>
-      <c r="AH12" s="142"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="131"/>
+      <c r="AA12" s="131"/>
+      <c r="AB12" s="131"/>
+      <c r="AC12" s="131"/>
+      <c r="AD12" s="131"/>
+      <c r="AE12" s="131"/>
+      <c r="AF12" s="131"/>
+      <c r="AG12" s="131"/>
+      <c r="AH12" s="131"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="36"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="13"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -5904,21 +6004,21 @@
       <c r="AH13" s="8"/>
       <c r="AM13" s="3"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2"/>
-      <c r="S14" s="127" t="s">
+      <c r="S14" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="T14" s="127"/>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="133"/>
       <c r="AM14" s="3"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2"/>
       <c r="S15" s="60" t="s">
         <v>69</v>
@@ -5946,21 +6046,21 @@
       </c>
       <c r="AM15" s="3"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2"/>
-      <c r="S16" s="142" t="s">
+      <c r="S16" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="T16" s="142"/>
-      <c r="U16" s="142"/>
-      <c r="V16" s="142"/>
-      <c r="W16" s="142"/>
-      <c r="X16" s="142"/>
-      <c r="Y16" s="142"/>
-      <c r="Z16" s="142"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
+      <c r="Z16" s="131"/>
       <c r="AM16" s="3"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -5984,109 +6084,109 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="17"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2"/>
-      <c r="S18" s="127" t="s">
+      <c r="S18" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="127"/>
-      <c r="AE18" s="127"/>
-      <c r="AF18" s="127"/>
-      <c r="AG18" s="127"/>
-      <c r="AH18" s="127"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="133"/>
+      <c r="W18" s="133"/>
+      <c r="X18" s="133"/>
+      <c r="Y18" s="133"/>
+      <c r="Z18" s="133"/>
+      <c r="AA18" s="133"/>
+      <c r="AB18" s="133"/>
+      <c r="AC18" s="133"/>
+      <c r="AD18" s="133"/>
+      <c r="AE18" s="133"/>
+      <c r="AF18" s="133"/>
+      <c r="AG18" s="133"/>
+      <c r="AH18" s="133"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
       <c r="AM18" s="17"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2"/>
-      <c r="S19" s="128" t="s">
+      <c r="S19" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128" t="s">
+      <c r="T19" s="124"/>
+      <c r="U19" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128" t="s">
+      <c r="V19" s="124"/>
+      <c r="W19" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128" t="s">
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128" t="s">
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128" t="s">
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128" t="s">
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="128" t="s">
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="AH19" s="128"/>
+      <c r="AH19" s="124"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="8"/>
       <c r="AM19" s="17"/>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="142"/>
-      <c r="U20" s="142"/>
-      <c r="V20" s="142"/>
-      <c r="W20" s="109" t="s">
+      <c r="S20" s="131"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="131"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="109" t="s">
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="109" t="s">
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="109" t="s">
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="109" t="s">
+      <c r="AD20" s="116"/>
+      <c r="AE20" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="AF20" s="109"/>
-      <c r="AG20" s="109" t="s">
+      <c r="AF20" s="116"/>
+      <c r="AG20" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="AH20" s="109"/>
+      <c r="AH20" s="116"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
       <c r="AL20" s="8"/>
       <c r="AM20" s="17"/>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="2"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -6106,101 +6206,101 @@
       <c r="AH21" s="8"/>
       <c r="AM21" s="3"/>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="2"/>
-      <c r="S22" s="127" t="s">
+      <c r="S22" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="T22" s="127"/>
-      <c r="U22" s="127"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="127"/>
-      <c r="AE22" s="127"/>
-      <c r="AF22" s="127"/>
-      <c r="AG22" s="127"/>
-      <c r="AH22" s="127"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="133"/>
+      <c r="V22" s="133"/>
+      <c r="W22" s="133"/>
+      <c r="X22" s="133"/>
+      <c r="Y22" s="133"/>
+      <c r="Z22" s="133"/>
+      <c r="AA22" s="133"/>
+      <c r="AB22" s="133"/>
+      <c r="AC22" s="133"/>
+      <c r="AD22" s="133"/>
+      <c r="AE22" s="133"/>
+      <c r="AF22" s="133"/>
+      <c r="AG22" s="133"/>
+      <c r="AH22" s="133"/>
       <c r="AM22" s="3"/>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="2"/>
-      <c r="S23" s="128" t="s">
+      <c r="S23" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128" t="s">
+      <c r="T23" s="124"/>
+      <c r="U23" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128" t="s">
+      <c r="V23" s="124"/>
+      <c r="W23" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128" t="s">
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128" t="s">
+      <c r="Z23" s="124"/>
+      <c r="AA23" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128" t="s">
+      <c r="AB23" s="124"/>
+      <c r="AC23" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="128" t="s">
+      <c r="AD23" s="124"/>
+      <c r="AE23" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="128" t="s">
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="AH23" s="128"/>
+      <c r="AH23" s="124"/>
       <c r="AM23" s="3"/>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2"/>
-      <c r="S24" s="142" t="s">
+      <c r="S24" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="T24" s="142"/>
-      <c r="U24" s="143" t="s">
+      <c r="T24" s="131"/>
+      <c r="U24" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="V24" s="144"/>
-      <c r="W24" s="142" t="s">
+      <c r="V24" s="130"/>
+      <c r="W24" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="X24" s="142"/>
-      <c r="Y24" s="142" t="s">
+      <c r="X24" s="131"/>
+      <c r="Y24" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="Z24" s="142"/>
-      <c r="AA24" s="142" t="s">
+      <c r="Z24" s="131"/>
+      <c r="AA24" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="AB24" s="142"/>
-      <c r="AC24" s="143" t="s">
+      <c r="AB24" s="131"/>
+      <c r="AC24" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="AD24" s="144"/>
-      <c r="AE24" s="142" t="s">
+      <c r="AD24" s="130"/>
+      <c r="AE24" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="AF24" s="142"/>
-      <c r="AG24" s="144" t="s">
+      <c r="AF24" s="131"/>
+      <c r="AG24" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="AH24" s="144"/>
+      <c r="AH24" s="130"/>
       <c r="AM24" s="3"/>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
@@ -6224,113 +6324,113 @@
       <c r="AL25" s="38"/>
       <c r="AM25" s="39"/>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="2"/>
-      <c r="S26" s="127" t="s">
+      <c r="S26" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="127"/>
-      <c r="AF26" s="127"/>
-      <c r="AG26" s="127"/>
-      <c r="AH26" s="127"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="133"/>
+      <c r="W26" s="133"/>
+      <c r="X26" s="133"/>
+      <c r="Y26" s="133"/>
+      <c r="Z26" s="133"/>
+      <c r="AA26" s="133"/>
+      <c r="AB26" s="133"/>
+      <c r="AC26" s="133"/>
+      <c r="AD26" s="133"/>
+      <c r="AE26" s="133"/>
+      <c r="AF26" s="133"/>
+      <c r="AG26" s="133"/>
+      <c r="AH26" s="133"/>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
       <c r="AK26" s="37"/>
       <c r="AL26" s="38"/>
       <c r="AM26" s="39"/>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="2"/>
-      <c r="S27" s="128" t="s">
+      <c r="S27" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128" t="s">
+      <c r="T27" s="124"/>
+      <c r="U27" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128" t="s">
+      <c r="V27" s="124"/>
+      <c r="W27" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128" t="s">
+      <c r="X27" s="124"/>
+      <c r="Y27" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128" t="s">
+      <c r="Z27" s="124"/>
+      <c r="AA27" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128" t="s">
+      <c r="AB27" s="124"/>
+      <c r="AC27" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="128" t="s">
+      <c r="AD27" s="124"/>
+      <c r="AE27" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="128" t="s">
+      <c r="AF27" s="124"/>
+      <c r="AG27" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="AH27" s="128"/>
+      <c r="AH27" s="124"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
       <c r="AK27" s="37"/>
       <c r="AL27" s="38"/>
       <c r="AM27" s="39"/>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="2"/>
-      <c r="S28" s="142" t="s">
+      <c r="S28" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="T28" s="142"/>
-      <c r="U28" s="143" t="s">
+      <c r="T28" s="131"/>
+      <c r="U28" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="V28" s="144"/>
-      <c r="W28" s="144" t="s">
+      <c r="V28" s="130"/>
+      <c r="W28" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="142" t="s">
+      <c r="X28" s="130"/>
+      <c r="Y28" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="Z28" s="142"/>
-      <c r="AA28" s="142" t="s">
+      <c r="Z28" s="131"/>
+      <c r="AA28" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="AB28" s="142"/>
-      <c r="AC28" s="143" t="s">
+      <c r="AB28" s="131"/>
+      <c r="AC28" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="AD28" s="144"/>
-      <c r="AE28" s="143" t="s">
+      <c r="AD28" s="130"/>
+      <c r="AE28" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="AF28" s="144"/>
-      <c r="AG28" s="144" t="s">
+      <c r="AF28" s="130"/>
+      <c r="AG28" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="AH28" s="144"/>
+      <c r="AH28" s="130"/>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
       <c r="AK28" s="37"/>
       <c r="AL28" s="38"/>
       <c r="AM28" s="39"/>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="2"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -6350,101 +6450,101 @@
       <c r="AH29" s="8"/>
       <c r="AM29" s="3"/>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="2"/>
-      <c r="S30" s="127" t="s">
+      <c r="S30" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="T30" s="127"/>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="127"/>
-      <c r="AC30" s="127"/>
-      <c r="AD30" s="127"/>
-      <c r="AE30" s="127"/>
-      <c r="AF30" s="127"/>
-      <c r="AG30" s="127"/>
-      <c r="AH30" s="127"/>
+      <c r="T30" s="133"/>
+      <c r="U30" s="133"/>
+      <c r="V30" s="133"/>
+      <c r="W30" s="133"/>
+      <c r="X30" s="133"/>
+      <c r="Y30" s="133"/>
+      <c r="Z30" s="133"/>
+      <c r="AA30" s="133"/>
+      <c r="AB30" s="133"/>
+      <c r="AC30" s="133"/>
+      <c r="AD30" s="133"/>
+      <c r="AE30" s="133"/>
+      <c r="AF30" s="133"/>
+      <c r="AG30" s="133"/>
+      <c r="AH30" s="133"/>
       <c r="AM30" s="3"/>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="2"/>
-      <c r="S31" s="128" t="s">
+      <c r="S31" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128" t="s">
+      <c r="T31" s="124"/>
+      <c r="U31" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128" t="s">
+      <c r="V31" s="124"/>
+      <c r="W31" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128" t="s">
+      <c r="X31" s="124"/>
+      <c r="Y31" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128" t="s">
+      <c r="Z31" s="124"/>
+      <c r="AA31" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128" t="s">
+      <c r="AB31" s="124"/>
+      <c r="AC31" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="128" t="s">
+      <c r="AD31" s="124"/>
+      <c r="AE31" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="128" t="s">
+      <c r="AF31" s="124"/>
+      <c r="AG31" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="AH31" s="128"/>
+      <c r="AH31" s="124"/>
       <c r="AM31" s="3"/>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="2"/>
-      <c r="S32" s="142" t="s">
+      <c r="S32" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="T32" s="142"/>
-      <c r="U32" s="142" t="s">
+      <c r="T32" s="131"/>
+      <c r="U32" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="V32" s="142"/>
-      <c r="W32" s="109" t="s">
+      <c r="V32" s="131"/>
+      <c r="W32" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="X32" s="109"/>
-      <c r="Y32" s="109" t="s">
+      <c r="X32" s="116"/>
+      <c r="Y32" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="Z32" s="109"/>
-      <c r="AA32" s="109" t="s">
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="109" t="s">
+      <c r="AB32" s="116"/>
+      <c r="AC32" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="AD32" s="109"/>
-      <c r="AE32" s="109" t="s">
+      <c r="AD32" s="116"/>
+      <c r="AE32" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="AF32" s="109"/>
-      <c r="AG32" s="109" t="s">
+      <c r="AF32" s="116"/>
+      <c r="AG32" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="AH32" s="109"/>
+      <c r="AH32" s="116"/>
       <c r="AM32" s="3"/>
     </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="2"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
@@ -6464,31 +6564,31 @@
       <c r="AH33" s="8"/>
       <c r="AM33" s="3"/>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="2"/>
-      <c r="S34" s="127" t="s">
+      <c r="S34" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="T34" s="127"/>
-      <c r="U34" s="127"/>
-      <c r="V34" s="127"/>
-      <c r="W34" s="127"/>
-      <c r="X34" s="127"/>
-      <c r="Y34" s="127"/>
-      <c r="Z34" s="127"/>
-      <c r="AA34" s="127" t="s">
+      <c r="T34" s="133"/>
+      <c r="U34" s="133"/>
+      <c r="V34" s="133"/>
+      <c r="W34" s="133"/>
+      <c r="X34" s="133"/>
+      <c r="Y34" s="133"/>
+      <c r="Z34" s="133"/>
+      <c r="AA34" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="AB34" s="127"/>
-      <c r="AC34" s="127"/>
-      <c r="AD34" s="127"/>
-      <c r="AE34" s="127"/>
-      <c r="AF34" s="127"/>
-      <c r="AG34" s="127"/>
-      <c r="AH34" s="127"/>
+      <c r="AB34" s="133"/>
+      <c r="AC34" s="133"/>
+      <c r="AD34" s="133"/>
+      <c r="AE34" s="133"/>
+      <c r="AF34" s="133"/>
+      <c r="AG34" s="133"/>
+      <c r="AH34" s="133"/>
       <c r="AM34" s="3"/>
     </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="2"/>
       <c r="S35" s="60" t="s">
         <v>69</v>
@@ -6540,29 +6640,29 @@
       </c>
       <c r="AM35" s="3"/>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="2"/>
-      <c r="S36" s="169" t="s">
+      <c r="S36" s="138" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="169"/>
-      <c r="U36" s="169"/>
-      <c r="V36" s="169"/>
-      <c r="W36" s="169"/>
-      <c r="X36" s="169"/>
-      <c r="Y36" s="169"/>
-      <c r="Z36" s="169"/>
-      <c r="AA36" s="169"/>
-      <c r="AB36" s="169"/>
-      <c r="AC36" s="169"/>
-      <c r="AD36" s="169"/>
-      <c r="AE36" s="169"/>
-      <c r="AF36" s="169"/>
-      <c r="AG36" s="169"/>
-      <c r="AH36" s="169"/>
+      <c r="T36" s="138"/>
+      <c r="U36" s="138"/>
+      <c r="V36" s="138"/>
+      <c r="W36" s="138"/>
+      <c r="X36" s="138"/>
+      <c r="Y36" s="138"/>
+      <c r="Z36" s="138"/>
+      <c r="AA36" s="138"/>
+      <c r="AB36" s="138"/>
+      <c r="AC36" s="138"/>
+      <c r="AD36" s="138"/>
+      <c r="AE36" s="138"/>
+      <c r="AF36" s="138"/>
+      <c r="AG36" s="138"/>
+      <c r="AH36" s="138"/>
       <c r="AM36" s="3"/>
     </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="2"/>
       <c r="S37" s="32"/>
       <c r="T37" s="32"/>
@@ -6586,35 +6686,35 @@
       <c r="AL37" s="32"/>
       <c r="AM37" s="33"/>
     </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="2"/>
-      <c r="S38" s="127" t="s">
+      <c r="S38" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="T38" s="127"/>
-      <c r="U38" s="127"/>
-      <c r="V38" s="127"/>
-      <c r="W38" s="127"/>
-      <c r="X38" s="127"/>
-      <c r="Y38" s="127"/>
-      <c r="Z38" s="127"/>
-      <c r="AA38" s="127" t="s">
+      <c r="T38" s="133"/>
+      <c r="U38" s="133"/>
+      <c r="V38" s="133"/>
+      <c r="W38" s="133"/>
+      <c r="X38" s="133"/>
+      <c r="Y38" s="133"/>
+      <c r="Z38" s="133"/>
+      <c r="AA38" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="AB38" s="127"/>
-      <c r="AC38" s="127"/>
-      <c r="AD38" s="127"/>
-      <c r="AE38" s="127"/>
-      <c r="AF38" s="127"/>
-      <c r="AG38" s="127"/>
-      <c r="AH38" s="127"/>
+      <c r="AB38" s="133"/>
+      <c r="AC38" s="133"/>
+      <c r="AD38" s="133"/>
+      <c r="AE38" s="133"/>
+      <c r="AF38" s="133"/>
+      <c r="AG38" s="133"/>
+      <c r="AH38" s="133"/>
       <c r="AI38" s="32"/>
       <c r="AJ38" s="32"/>
       <c r="AK38" s="32"/>
       <c r="AL38" s="32"/>
       <c r="AM38" s="33"/>
     </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="2"/>
       <c r="S39" s="60" t="s">
         <v>69</v>
@@ -6670,33 +6770,33 @@
       <c r="AL39" s="32"/>
       <c r="AM39" s="33"/>
     </row>
-    <row r="40" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="2"/>
-      <c r="S40" s="169" t="s">
+      <c r="S40" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="T40" s="169"/>
-      <c r="U40" s="169"/>
-      <c r="V40" s="169"/>
-      <c r="W40" s="169"/>
-      <c r="X40" s="169"/>
-      <c r="Y40" s="169"/>
-      <c r="Z40" s="169"/>
-      <c r="AA40" s="169"/>
-      <c r="AB40" s="169"/>
-      <c r="AC40" s="169"/>
-      <c r="AD40" s="169"/>
-      <c r="AE40" s="169"/>
-      <c r="AF40" s="169"/>
-      <c r="AG40" s="169"/>
-      <c r="AH40" s="169"/>
+      <c r="T40" s="138"/>
+      <c r="U40" s="138"/>
+      <c r="V40" s="138"/>
+      <c r="W40" s="138"/>
+      <c r="X40" s="138"/>
+      <c r="Y40" s="138"/>
+      <c r="Z40" s="138"/>
+      <c r="AA40" s="138"/>
+      <c r="AB40" s="138"/>
+      <c r="AC40" s="138"/>
+      <c r="AD40" s="138"/>
+      <c r="AE40" s="138"/>
+      <c r="AF40" s="138"/>
+      <c r="AG40" s="138"/>
+      <c r="AH40" s="138"/>
       <c r="AI40" s="32"/>
       <c r="AJ40" s="32"/>
       <c r="AK40" s="32"/>
       <c r="AL40" s="32"/>
       <c r="AM40" s="33"/>
     </row>
-    <row r="41" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="2"/>
       <c r="S41" s="32"/>
       <c r="T41" s="32"/>
@@ -6720,26 +6820,26 @@
       <c r="AL41" s="32"/>
       <c r="AM41" s="33"/>
     </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="2"/>
-      <c r="S42" s="127" t="s">
+      <c r="S42" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="T42" s="127"/>
-      <c r="U42" s="127"/>
-      <c r="V42" s="127"/>
-      <c r="W42" s="127"/>
-      <c r="X42" s="127"/>
-      <c r="Y42" s="127"/>
-      <c r="Z42" s="127"/>
-      <c r="AA42" s="127"/>
-      <c r="AB42" s="127"/>
-      <c r="AC42" s="127"/>
-      <c r="AD42" s="127"/>
-      <c r="AE42" s="127"/>
-      <c r="AF42" s="127"/>
-      <c r="AG42" s="127"/>
-      <c r="AH42" s="127"/>
+      <c r="T42" s="133"/>
+      <c r="U42" s="133"/>
+      <c r="V42" s="133"/>
+      <c r="W42" s="133"/>
+      <c r="X42" s="133"/>
+      <c r="Y42" s="133"/>
+      <c r="Z42" s="133"/>
+      <c r="AA42" s="133"/>
+      <c r="AB42" s="133"/>
+      <c r="AC42" s="133"/>
+      <c r="AD42" s="133"/>
+      <c r="AE42" s="133"/>
+      <c r="AF42" s="133"/>
+      <c r="AG42" s="133"/>
+      <c r="AH42" s="133"/>
       <c r="AI42" s="32"/>
       <c r="AJ42" s="32" t="s">
         <v>114</v>
@@ -6752,40 +6852,40 @@
       </c>
       <c r="AM42" s="33"/>
     </row>
-    <row r="43" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="2"/>
-      <c r="S43" s="128" t="s">
+      <c r="S43" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="T43" s="128"/>
-      <c r="U43" s="128" t="s">
+      <c r="T43" s="124"/>
+      <c r="U43" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="V43" s="128"/>
-      <c r="W43" s="128" t="s">
+      <c r="V43" s="124"/>
+      <c r="W43" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="X43" s="128"/>
-      <c r="Y43" s="128" t="s">
+      <c r="X43" s="124"/>
+      <c r="Y43" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="Z43" s="128"/>
-      <c r="AA43" s="128" t="s">
+      <c r="Z43" s="124"/>
+      <c r="AA43" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="AB43" s="128"/>
-      <c r="AC43" s="128" t="s">
+      <c r="AB43" s="124"/>
+      <c r="AC43" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="AD43" s="128"/>
-      <c r="AE43" s="128" t="s">
+      <c r="AD43" s="124"/>
+      <c r="AE43" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="AF43" s="128"/>
-      <c r="AG43" s="128" t="s">
+      <c r="AF43" s="124"/>
+      <c r="AG43" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="AH43" s="128"/>
+      <c r="AH43" s="124"/>
       <c r="AI43" s="32"/>
       <c r="AJ43" s="32" t="s">
         <v>117</v>
@@ -6798,7 +6898,7 @@
       </c>
       <c r="AM43" s="33"/>
     </row>
-    <row r="44" spans="2:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:39" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B44" s="22"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
@@ -6816,28 +6916,28 @@
       <c r="P44" s="20"/>
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
-      <c r="S44" s="176"/>
-      <c r="T44" s="176"/>
-      <c r="U44" s="176"/>
-      <c r="V44" s="176"/>
-      <c r="W44" s="106"/>
-      <c r="X44" s="106"/>
-      <c r="Y44" s="106"/>
-      <c r="Z44" s="106"/>
-      <c r="AA44" s="106"/>
-      <c r="AB44" s="106"/>
-      <c r="AC44" s="106" t="s">
+      <c r="S44" s="139"/>
+      <c r="T44" s="139"/>
+      <c r="U44" s="139"/>
+      <c r="V44" s="139"/>
+      <c r="W44" s="119"/>
+      <c r="X44" s="119"/>
+      <c r="Y44" s="119"/>
+      <c r="Z44" s="119"/>
+      <c r="AA44" s="119"/>
+      <c r="AB44" s="119"/>
+      <c r="AC44" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="AD44" s="106"/>
-      <c r="AE44" s="106" t="s">
+      <c r="AD44" s="119"/>
+      <c r="AE44" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="AF44" s="106"/>
-      <c r="AG44" s="106" t="s">
+      <c r="AF44" s="119"/>
+      <c r="AG44" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="AH44" s="106"/>
+      <c r="AH44" s="119"/>
       <c r="AI44" s="34"/>
       <c r="AJ44" s="34" t="s">
         <v>120</v>
@@ -6848,7 +6948,7 @@
       </c>
       <c r="AM44" s="35"/>
     </row>
-    <row r="45" spans="2:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:39" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -6866,7 +6966,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="18" t="s">
         <v>122</v>
       </c>
@@ -6883,23 +6983,23 @@
       <c r="M46" s="10"/>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B47" s="150" t="s">
+    <row r="47" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="151"/>
-      <c r="F47" s="151"/>
-      <c r="G47" s="151"/>
-      <c r="I47" s="151" t="s">
+      <c r="C47" s="154"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="154"/>
+      <c r="I47" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="J47" s="151"/>
-      <c r="K47" s="151"/>
-      <c r="L47" s="151"/>
-      <c r="M47" s="151"/>
-      <c r="N47" s="167"/>
+      <c r="J47" s="154"/>
+      <c r="K47" s="154"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="154"/>
+      <c r="N47" s="155"/>
       <c r="O47" s="24" t="s">
         <v>125</v>
       </c>
@@ -6919,7 +7019,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:39" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="30" t="s">
         <v>131</v>
       </c>
@@ -6929,11 +7029,11 @@
       <c r="D48" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="141" t="s">
+      <c r="E48" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="F48" s="141"/>
-      <c r="G48" s="141"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="146"/>
       <c r="I48" s="61" t="s">
         <v>131</v>
       </c>
@@ -6943,11 +7043,11 @@
       <c r="K48" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="L48" s="138" t="s">
+      <c r="L48" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="M48" s="138"/>
-      <c r="N48" s="139"/>
+      <c r="M48" s="173"/>
+      <c r="N48" s="174"/>
       <c r="O48" s="24" t="s">
         <v>125</v>
       </c>
@@ -6967,7 +7067,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="19" t="s">
         <v>139</v>
       </c>
@@ -6977,11 +7077,11 @@
       <c r="D49" s="43">
         <v>10</v>
       </c>
-      <c r="E49" s="129" t="s">
+      <c r="E49" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
       <c r="I49" s="157" t="s">
         <v>142</v>
       </c>
@@ -6991,9 +7091,9 @@
       <c r="K49" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="L49" s="130"/>
-      <c r="M49" s="130"/>
-      <c r="N49" s="131"/>
+      <c r="L49" s="165"/>
+      <c r="M49" s="165"/>
+      <c r="N49" s="166"/>
       <c r="O49" s="24" t="s">
         <v>144</v>
       </c>
@@ -7007,7 +7107,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="19" t="s">
         <v>148</v>
       </c>
@@ -7017,11 +7117,11 @@
       <c r="D50" s="43">
         <v>10</v>
       </c>
-      <c r="E50" s="129" t="s">
+      <c r="E50" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="129"/>
-      <c r="G50" s="129"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128"/>
       <c r="I50" s="158"/>
       <c r="J50" s="40" t="s">
         <v>151</v>
@@ -7029,14 +7129,14 @@
       <c r="K50" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L50" s="130"/>
-      <c r="M50" s="130"/>
-      <c r="N50" s="131"/>
+      <c r="L50" s="165"/>
+      <c r="M50" s="165"/>
+      <c r="N50" s="166"/>
       <c r="O50" s="24"/>
       <c r="P50" s="23"/>
       <c r="Q50" s="23"/>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="19" t="s">
         <v>152</v>
       </c>
@@ -7046,11 +7146,11 @@
       <c r="D51" s="43">
         <v>100</v>
       </c>
-      <c r="E51" s="129" t="s">
+      <c r="E51" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
       <c r="I51" s="158"/>
       <c r="J51" s="40" t="s">
         <v>155</v>
@@ -7058,11 +7158,11 @@
       <c r="K51" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="L51" s="130" t="s">
+      <c r="L51" s="165" t="s">
         <v>157</v>
       </c>
-      <c r="M51" s="130"/>
-      <c r="N51" s="131"/>
+      <c r="M51" s="165"/>
+      <c r="N51" s="166"/>
       <c r="O51" s="24" t="s">
         <v>144</v>
       </c>
@@ -7082,8 +7182,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B52" s="161" t="s">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="141" t="s">
         <v>163</v>
       </c>
       <c r="C52" s="40" t="s">
@@ -7092,9 +7192,9 @@
       <c r="D52" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="164"/>
-      <c r="F52" s="165"/>
-      <c r="G52" s="166"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="127"/>
       <c r="I52" s="158"/>
       <c r="J52" s="40" t="s">
         <v>165</v>
@@ -7102,24 +7202,24 @@
       <c r="K52" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="L52" s="130"/>
-      <c r="M52" s="130"/>
-      <c r="N52" s="131"/>
+      <c r="L52" s="165"/>
+      <c r="M52" s="165"/>
+      <c r="N52" s="166"/>
       <c r="O52" s="24"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B53" s="162"/>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="142"/>
       <c r="C53" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="164"/>
-      <c r="F53" s="165"/>
-      <c r="G53" s="166"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="127"/>
       <c r="I53" s="158"/>
       <c r="J53" s="54" t="s">
         <v>167</v>
@@ -7127,24 +7227,24 @@
       <c r="K53" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="L53" s="132" t="s">
+      <c r="L53" s="167" t="s">
         <v>169</v>
       </c>
-      <c r="M53" s="133"/>
-      <c r="N53" s="134"/>
+      <c r="M53" s="168"/>
+      <c r="N53" s="169"/>
       <c r="O53" s="24"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B54" s="162"/>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="142"/>
       <c r="C54" s="40" t="s">
         <v>170</v>
       </c>
       <c r="D54" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E54" s="164"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="166"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="127"/>
       <c r="I54" s="158"/>
       <c r="J54" s="40" t="s">
         <v>171</v>
@@ -7152,11 +7252,11 @@
       <c r="K54" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="L54" s="130" t="s">
+      <c r="L54" s="165" t="s">
         <v>173</v>
       </c>
-      <c r="M54" s="130"/>
-      <c r="N54" s="131"/>
+      <c r="M54" s="165"/>
+      <c r="N54" s="166"/>
       <c r="O54" s="24" t="s">
         <v>144</v>
       </c>
@@ -7182,19 +7282,19 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B55" s="162"/>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="142"/>
       <c r="C55" s="65" t="s">
         <v>180</v>
       </c>
       <c r="D55" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="164" t="s">
+      <c r="E55" s="125" t="s">
         <v>181</v>
       </c>
-      <c r="F55" s="165"/>
-      <c r="G55" s="166"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="127"/>
       <c r="I55" s="158"/>
       <c r="J55" s="31" t="s">
         <v>182</v>
@@ -7202,11 +7302,11 @@
       <c r="K55" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="L55" s="135" t="s">
+      <c r="L55" s="170" t="s">
         <v>184</v>
       </c>
-      <c r="M55" s="136"/>
-      <c r="N55" s="137"/>
+      <c r="M55" s="171"/>
+      <c r="N55" s="172"/>
       <c r="O55" s="24" t="s">
         <v>125</v>
       </c>
@@ -7217,17 +7317,17 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B56" s="162"/>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="142"/>
       <c r="C56" s="40" t="s">
         <v>187</v>
       </c>
       <c r="D56" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="164"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="166"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="127"/>
       <c r="I56" s="159"/>
       <c r="J56" s="31" t="s">
         <v>188</v>
@@ -7235,27 +7335,27 @@
       <c r="K56" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="L56" s="130"/>
-      <c r="M56" s="130"/>
-      <c r="N56" s="131"/>
+      <c r="L56" s="165"/>
+      <c r="M56" s="165"/>
+      <c r="N56" s="166"/>
       <c r="Q56" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B57" s="162"/>
-      <c r="C57" s="154" t="s">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="142"/>
+      <c r="C57" s="147" t="s">
         <v>191</v>
       </c>
       <c r="D57" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="164" t="s">
+      <c r="E57" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="F57" s="165"/>
-      <c r="G57" s="166"/>
-      <c r="I57" s="160" t="s">
+      <c r="F57" s="126"/>
+      <c r="G57" s="127"/>
+      <c r="I57" s="140" t="s">
         <v>193</v>
       </c>
       <c r="J57" s="40" t="s">
@@ -7264,35 +7364,35 @@
       <c r="K57" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="L57" s="129" t="s">
+      <c r="L57" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="M57" s="129"/>
-      <c r="N57" s="140"/>
-    </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B58" s="162"/>
-      <c r="C58" s="155"/>
+      <c r="M57" s="128"/>
+      <c r="N57" s="134"/>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="142"/>
+      <c r="C58" s="148"/>
       <c r="D58" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="164" t="s">
+      <c r="E58" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="F58" s="165"/>
-      <c r="G58" s="166"/>
-      <c r="I58" s="160"/>
+      <c r="F58" s="126"/>
+      <c r="G58" s="127"/>
+      <c r="I58" s="140"/>
       <c r="J58" s="40" t="s">
         <v>196</v>
       </c>
       <c r="K58" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L58" s="129" t="s">
+      <c r="L58" s="128" t="s">
         <v>197</v>
       </c>
-      <c r="M58" s="129"/>
-      <c r="N58" s="140"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="134"/>
       <c r="Q58" t="s">
         <v>127</v>
       </c>
@@ -7306,29 +7406,29 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B59" s="163"/>
-      <c r="C59" s="156"/>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="160"/>
+      <c r="C59" s="149"/>
       <c r="D59" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="164" t="s">
+      <c r="E59" s="125" t="s">
         <v>199</v>
       </c>
-      <c r="F59" s="165"/>
-      <c r="G59" s="166"/>
-      <c r="I59" s="160"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="127"/>
+      <c r="I59" s="140"/>
       <c r="J59" s="40" t="s">
         <v>170</v>
       </c>
       <c r="K59" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="L59" s="129" t="s">
+      <c r="L59" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="M59" s="129"/>
-      <c r="N59" s="140"/>
+      <c r="M59" s="128"/>
+      <c r="N59" s="134"/>
       <c r="Q59" t="s">
         <v>201</v>
       </c>
@@ -7342,7 +7442,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="19" t="s">
         <v>204</v>
       </c>
@@ -7352,26 +7452,26 @@
       <c r="D60" s="43">
         <v>1</v>
       </c>
-      <c r="E60" s="172" t="s">
+      <c r="E60" s="145" t="s">
         <v>206</v>
       </c>
-      <c r="F60" s="165"/>
-      <c r="G60" s="166"/>
-      <c r="I60" s="160"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="127"/>
+      <c r="I60" s="140"/>
       <c r="J60" s="40" t="s">
         <v>207</v>
       </c>
       <c r="K60" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="L60" s="129" t="s">
+      <c r="L60" s="128" t="s">
         <v>208</v>
       </c>
-      <c r="M60" s="129"/>
-      <c r="N60" s="140"/>
-    </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B61" s="152" t="s">
+      <c r="M60" s="128"/>
+      <c r="N60" s="134"/>
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="150" t="s">
         <v>209</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -7380,70 +7480,70 @@
       <c r="D61" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E61" s="129"/>
-      <c r="F61" s="129"/>
-      <c r="G61" s="129"/>
-      <c r="I61" s="160"/>
+      <c r="E61" s="128"/>
+      <c r="F61" s="128"/>
+      <c r="G61" s="128"/>
+      <c r="I61" s="140"/>
       <c r="J61" s="40" t="s">
         <v>187</v>
       </c>
       <c r="K61" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="L61" s="129" t="s">
+      <c r="L61" s="128" t="s">
         <v>210</v>
       </c>
-      <c r="M61" s="129"/>
-      <c r="N61" s="140"/>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B62" s="153"/>
+      <c r="M61" s="128"/>
+      <c r="N61" s="134"/>
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="151"/>
       <c r="C62" s="40" t="s">
         <v>143</v>
       </c>
       <c r="D62" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="129"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="129"/>
-      <c r="I62" s="160"/>
+      <c r="E62" s="128"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="128"/>
+      <c r="I62" s="140"/>
       <c r="J62" s="40" t="s">
         <v>211</v>
       </c>
       <c r="K62" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="L62" s="129" t="s">
+      <c r="L62" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="M62" s="129"/>
-      <c r="N62" s="140"/>
+      <c r="M62" s="128"/>
+      <c r="N62" s="134"/>
       <c r="Q62" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B63" s="153"/>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="151"/>
       <c r="C63" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D63" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="129"/>
-      <c r="F63" s="129"/>
-      <c r="G63" s="129"/>
-      <c r="I63" s="160"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="128"/>
+      <c r="G63" s="128"/>
+      <c r="I63" s="140"/>
       <c r="J63" s="40" t="s">
         <v>214</v>
       </c>
       <c r="K63" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="L63" s="129"/>
-      <c r="M63" s="129"/>
-      <c r="N63" s="140"/>
+      <c r="L63" s="128"/>
+      <c r="M63" s="128"/>
+      <c r="N63" s="134"/>
       <c r="Q63" t="s">
         <v>127</v>
       </c>
@@ -7454,29 +7554,29 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B64" s="153"/>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="151"/>
       <c r="C64" s="40" t="s">
         <v>155</v>
       </c>
       <c r="D64" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E64" s="129" t="s">
+      <c r="E64" s="128" t="s">
         <v>216</v>
       </c>
-      <c r="F64" s="129"/>
-      <c r="G64" s="129"/>
-      <c r="I64" s="160"/>
+      <c r="F64" s="128"/>
+      <c r="G64" s="128"/>
+      <c r="I64" s="140"/>
       <c r="J64" s="40" t="s">
         <v>217</v>
       </c>
       <c r="K64" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="L64" s="129"/>
-      <c r="M64" s="129"/>
-      <c r="N64" s="140"/>
+      <c r="L64" s="128"/>
+      <c r="M64" s="128"/>
+      <c r="N64" s="134"/>
       <c r="Q64" t="s">
         <v>201</v>
       </c>
@@ -7496,19 +7596,19 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B65" s="153"/>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="151"/>
       <c r="C65" s="40" t="s">
         <v>171</v>
       </c>
       <c r="D65" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E65" s="129" t="s">
+      <c r="E65" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="F65" s="129"/>
-      <c r="G65" s="129"/>
+      <c r="F65" s="128"/>
+      <c r="G65" s="128"/>
       <c r="I65" s="31" t="s">
         <v>221</v>
       </c>
@@ -7516,26 +7616,26 @@
         <v>222</v>
       </c>
       <c r="K65" s="43"/>
-      <c r="L65" s="173" t="s">
+      <c r="L65" s="135" t="s">
         <v>223</v>
       </c>
-      <c r="M65" s="174"/>
-      <c r="N65" s="175"/>
+      <c r="M65" s="136"/>
+      <c r="N65" s="137"/>
       <c r="Q65" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B66" s="153"/>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="151"/>
       <c r="C66" s="31" t="s">
         <v>225</v>
       </c>
       <c r="D66" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E66" s="129"/>
-      <c r="F66" s="129"/>
-      <c r="G66" s="129"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
       <c r="N66" s="3"/>
       <c r="Q66" t="s">
         <v>190</v>
@@ -7553,39 +7653,39 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B67" s="153"/>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="151"/>
       <c r="C67" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D67" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E67" s="129"/>
-      <c r="F67" s="129"/>
-      <c r="G67" s="129"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
       <c r="N67" s="3"/>
       <c r="Q67" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B68" s="153"/>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="151"/>
       <c r="C68" s="31" t="s">
         <v>182</v>
       </c>
       <c r="D68" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="129" t="s">
+      <c r="E68" s="128" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="129"/>
-      <c r="G68" s="129"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B69" s="152" t="s">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="150" t="s">
         <v>229</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -7594,143 +7694,143 @@
       <c r="D69" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E69" s="129"/>
-      <c r="F69" s="129"/>
-      <c r="G69" s="129"/>
+      <c r="E69" s="128"/>
+      <c r="F69" s="128"/>
+      <c r="G69" s="128"/>
       <c r="N69" s="3"/>
       <c r="Q69" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B70" s="153"/>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="151"/>
       <c r="C70" s="41" t="s">
         <v>230</v>
       </c>
       <c r="D70" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E70" s="129"/>
-      <c r="F70" s="129"/>
-      <c r="G70" s="129"/>
+      <c r="E70" s="128"/>
+      <c r="F70" s="128"/>
+      <c r="G70" s="128"/>
       <c r="N70" s="3"/>
       <c r="Q70" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B71" s="153"/>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="151"/>
       <c r="C71" s="41" t="s">
         <v>231</v>
       </c>
       <c r="D71" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="129"/>
-      <c r="F71" s="129"/>
-      <c r="G71" s="129"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="128"/>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B72" s="153"/>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="151"/>
       <c r="C72" s="40" t="s">
         <v>232</v>
       </c>
       <c r="D72" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E72" s="129"/>
-      <c r="F72" s="129"/>
-      <c r="G72" s="129"/>
+      <c r="E72" s="128"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="128"/>
       <c r="N72" s="3"/>
       <c r="Q72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B73" s="153"/>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="151"/>
       <c r="C73" s="40" t="s">
         <v>233</v>
       </c>
       <c r="D73" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E73" s="129"/>
-      <c r="F73" s="129"/>
-      <c r="G73" s="129"/>
+      <c r="E73" s="128"/>
+      <c r="F73" s="128"/>
+      <c r="G73" s="128"/>
       <c r="N73" s="3"/>
       <c r="Q73" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B74" s="153"/>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="151"/>
       <c r="C74" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D74" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E74" s="129"/>
-      <c r="F74" s="129"/>
-      <c r="G74" s="129"/>
+      <c r="E74" s="128"/>
+      <c r="F74" s="128"/>
+      <c r="G74" s="128"/>
       <c r="I74" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="J74" s="141" t="s">
+      <c r="J74" s="146" t="s">
         <v>235</v>
       </c>
-      <c r="K74" s="141"/>
-      <c r="L74" s="141" t="s">
+      <c r="K74" s="146"/>
+      <c r="L74" s="146" t="s">
         <v>236</v>
       </c>
-      <c r="M74" s="141"/>
+      <c r="M74" s="146"/>
       <c r="N74" s="3"/>
     </row>
-    <row r="75" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="153"/>
+    <row r="75" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B75" s="151"/>
       <c r="C75" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D75" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E75" s="129"/>
-      <c r="F75" s="129"/>
-      <c r="G75" s="129"/>
+      <c r="E75" s="128"/>
+      <c r="F75" s="128"/>
+      <c r="G75" s="128"/>
       <c r="I75" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="J75" s="160" t="s">
+      <c r="J75" s="140" t="s">
         <v>237</v>
       </c>
-      <c r="K75" s="160"/>
-      <c r="L75" s="109" t="s">
+      <c r="K75" s="140"/>
+      <c r="L75" s="116" t="s">
         <v>238</v>
       </c>
-      <c r="M75" s="109"/>
+      <c r="M75" s="116"/>
       <c r="N75" s="3"/>
     </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B76" s="153"/>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="151"/>
       <c r="C76" s="31" t="s">
         <v>239</v>
       </c>
       <c r="D76" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E76" s="129"/>
-      <c r="F76" s="129"/>
-      <c r="G76" s="129"/>
+      <c r="E76" s="128"/>
+      <c r="F76" s="128"/>
+      <c r="G76" s="128"/>
       <c r="I76" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="J76" s="160"/>
-      <c r="K76" s="160"/>
-      <c r="L76" s="109" t="s">
+      <c r="J76" s="140"/>
+      <c r="K76" s="140"/>
+      <c r="L76" s="116" t="s">
         <v>240</v>
       </c>
-      <c r="M76" s="109"/>
+      <c r="M76" s="116"/>
       <c r="N76" s="3"/>
       <c r="P76" s="46" t="s">
         <v>241</v>
@@ -7746,8 +7846,8 @@
       <c r="Y76" s="47"/>
       <c r="Z76" s="48"/>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B77" s="152" t="s">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="150" t="s">
         <v>242</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -7756,204 +7856,204 @@
       <c r="D77" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E77" s="129"/>
-      <c r="F77" s="129"/>
-      <c r="G77" s="129"/>
+      <c r="E77" s="128"/>
+      <c r="F77" s="128"/>
+      <c r="G77" s="128"/>
       <c r="I77" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="J77" s="160"/>
-      <c r="K77" s="160"/>
-      <c r="L77" s="109" t="s">
+      <c r="J77" s="140"/>
+      <c r="K77" s="140"/>
+      <c r="L77" s="116" t="s">
         <v>243</v>
       </c>
-      <c r="M77" s="109"/>
+      <c r="M77" s="116"/>
       <c r="N77" s="3"/>
       <c r="P77" s="49" t="s">
         <v>244</v>
       </c>
       <c r="Z77" s="50"/>
     </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B78" s="153"/>
+    <row r="78" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="151"/>
       <c r="C78" s="40" t="s">
         <v>245</v>
       </c>
       <c r="D78" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E78" s="129"/>
-      <c r="F78" s="129"/>
-      <c r="G78" s="129"/>
+      <c r="E78" s="128"/>
+      <c r="F78" s="128"/>
+      <c r="G78" s="128"/>
       <c r="I78" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="J78" s="160"/>
-      <c r="K78" s="160"/>
-      <c r="L78" s="109" t="s">
+      <c r="J78" s="140"/>
+      <c r="K78" s="140"/>
+      <c r="L78" s="116" t="s">
         <v>247</v>
       </c>
-      <c r="M78" s="109"/>
+      <c r="M78" s="116"/>
       <c r="N78" s="3"/>
       <c r="P78" s="49" t="s">
         <v>248</v>
       </c>
       <c r="Z78" s="50"/>
     </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B79" s="153"/>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="151"/>
       <c r="C79" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D79" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E79" s="129"/>
-      <c r="F79" s="129"/>
-      <c r="G79" s="129"/>
+      <c r="E79" s="128"/>
+      <c r="F79" s="128"/>
+      <c r="G79" s="128"/>
       <c r="I79" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J79" s="160"/>
-      <c r="K79" s="160"/>
-      <c r="L79" s="109" t="s">
+      <c r="J79" s="140"/>
+      <c r="K79" s="140"/>
+      <c r="L79" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="M79" s="109"/>
+      <c r="M79" s="116"/>
       <c r="N79" s="3"/>
       <c r="P79" s="49" t="s">
         <v>249</v>
       </c>
       <c r="Z79" s="50"/>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B80" s="153"/>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="151"/>
       <c r="C80" s="40" t="s">
         <v>165</v>
       </c>
       <c r="D80" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E80" s="129"/>
-      <c r="F80" s="129"/>
-      <c r="G80" s="129"/>
+      <c r="E80" s="128"/>
+      <c r="F80" s="128"/>
+      <c r="G80" s="128"/>
       <c r="I80" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="J80" s="160"/>
-      <c r="K80" s="160"/>
-      <c r="L80" s="109" t="s">
+      <c r="J80" s="140"/>
+      <c r="K80" s="140"/>
+      <c r="L80" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="M80" s="109"/>
+      <c r="M80" s="116"/>
       <c r="N80" s="3"/>
       <c r="P80" s="49" t="s">
         <v>252</v>
       </c>
       <c r="Z80" s="50"/>
     </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B81" s="153"/>
+    <row r="81" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="151"/>
       <c r="C81" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D81" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E81" s="129"/>
-      <c r="F81" s="129"/>
-      <c r="G81" s="129"/>
+      <c r="E81" s="128"/>
+      <c r="F81" s="128"/>
+      <c r="G81" s="128"/>
       <c r="I81" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="J81" s="160"/>
-      <c r="K81" s="160"/>
-      <c r="L81" s="109" t="s">
+      <c r="J81" s="140"/>
+      <c r="K81" s="140"/>
+      <c r="L81" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="M81" s="109"/>
+      <c r="M81" s="116"/>
       <c r="N81" s="3"/>
       <c r="P81" s="49"/>
       <c r="Z81" s="50"/>
     </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B82" s="153"/>
+    <row r="82" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="151"/>
       <c r="C82" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E82" s="129"/>
-      <c r="F82" s="129"/>
-      <c r="G82" s="129"/>
+      <c r="E82" s="128"/>
+      <c r="F82" s="128"/>
+      <c r="G82" s="128"/>
       <c r="I82" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="J82" s="160"/>
-      <c r="K82" s="160"/>
-      <c r="L82" s="109" t="s">
+      <c r="J82" s="140"/>
+      <c r="K82" s="140"/>
+      <c r="L82" s="116" t="s">
         <v>256</v>
       </c>
-      <c r="M82" s="109"/>
+      <c r="M82" s="116"/>
       <c r="N82" s="3"/>
       <c r="P82" s="49"/>
       <c r="Z82" s="50"/>
     </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B83" s="153"/>
+    <row r="83" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="151"/>
       <c r="C83" s="26" t="s">
         <v>257</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="170" t="s">
+      <c r="E83" s="143" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="171"/>
-      <c r="G83" s="171"/>
+      <c r="F83" s="144"/>
+      <c r="G83" s="144"/>
       <c r="I83" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="J83" s="109" t="s">
+      <c r="J83" s="116" t="s">
         <v>260</v>
       </c>
-      <c r="K83" s="109"/>
-      <c r="L83" s="109" t="s">
+      <c r="K83" s="116"/>
+      <c r="L83" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="M83" s="109"/>
+      <c r="M83" s="116"/>
       <c r="N83" s="3"/>
       <c r="P83" s="49" t="s">
         <v>262</v>
       </c>
       <c r="Z83" s="50"/>
     </row>
-    <row r="84" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="168"/>
+    <row r="84" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B84" s="152"/>
       <c r="C84" s="27" t="s">
         <v>263</v>
       </c>
       <c r="D84" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="E84" s="171" t="s">
+      <c r="E84" s="144" t="s">
         <v>258</v>
       </c>
-      <c r="F84" s="171"/>
-      <c r="G84" s="171"/>
+      <c r="F84" s="144"/>
+      <c r="G84" s="144"/>
       <c r="I84" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="J84" s="109" t="s">
+      <c r="J84" s="116" t="s">
         <v>265</v>
       </c>
-      <c r="K84" s="109"/>
-      <c r="L84" s="109" t="s">
+      <c r="K84" s="116"/>
+      <c r="L84" s="116" t="s">
         <v>266</v>
       </c>
-      <c r="M84" s="109"/>
+      <c r="M84" s="116"/>
       <c r="N84" s="3"/>
       <c r="P84" s="51" t="s">
         <v>267</v>
@@ -7969,7 +8069,7 @@
       <c r="Y84" s="52"/>
       <c r="Z84" s="53"/>
     </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="19" t="s">
         <v>259</v>
       </c>
@@ -7979,25 +8079,25 @@
       <c r="D85" s="43">
         <v>10</v>
       </c>
-      <c r="E85" s="129" t="s">
+      <c r="E85" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="F85" s="129"/>
-      <c r="G85" s="129"/>
+      <c r="F85" s="128"/>
+      <c r="G85" s="128"/>
       <c r="I85" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="J85" s="109" t="s">
+      <c r="J85" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="K85" s="109"/>
-      <c r="L85" s="109" t="s">
+      <c r="K85" s="116"/>
+      <c r="L85" s="116" t="s">
         <v>271</v>
       </c>
-      <c r="M85" s="109"/>
+      <c r="M85" s="116"/>
       <c r="N85" s="3"/>
     </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="28" t="s">
         <v>264</v>
       </c>
@@ -8007,26 +8107,26 @@
       <c r="D86" s="45">
         <v>10</v>
       </c>
-      <c r="E86" s="129" t="s">
+      <c r="E86" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="F86" s="129"/>
-      <c r="G86" s="129"/>
+      <c r="F86" s="128"/>
+      <c r="G86" s="128"/>
       <c r="I86" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="J86" s="109" t="s">
+      <c r="J86" s="116" t="s">
         <v>273</v>
       </c>
-      <c r="K86" s="109"/>
-      <c r="L86" s="109" t="s">
+      <c r="K86" s="116"/>
+      <c r="L86" s="116" t="s">
         <v>256</v>
       </c>
-      <c r="M86" s="109"/>
+      <c r="M86" s="116"/>
       <c r="N86" s="3"/>
     </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B87" s="161" t="s">
+    <row r="87" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="141" t="s">
         <v>274</v>
       </c>
       <c r="C87" s="40" t="s">
@@ -8035,131 +8135,131 @@
       <c r="D87" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E87" s="129" t="s">
+      <c r="E87" s="128" t="s">
         <v>197</v>
       </c>
-      <c r="F87" s="129"/>
-      <c r="G87" s="129"/>
+      <c r="F87" s="128"/>
+      <c r="G87" s="128"/>
       <c r="I87" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="J87" s="109" t="s">
+      <c r="J87" s="116" t="s">
         <v>275</v>
       </c>
-      <c r="K87" s="109"/>
-      <c r="L87" s="109" t="s">
+      <c r="K87" s="116"/>
+      <c r="L87" s="116" t="s">
         <v>247</v>
       </c>
-      <c r="M87" s="109"/>
+      <c r="M87" s="116"/>
       <c r="N87" s="3"/>
     </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B88" s="162"/>
+    <row r="88" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="142"/>
       <c r="C88" s="40" t="s">
         <v>207</v>
       </c>
       <c r="D88" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E88" s="129" t="s">
+      <c r="E88" s="128" t="s">
         <v>208</v>
       </c>
-      <c r="F88" s="129"/>
-      <c r="G88" s="129"/>
+      <c r="F88" s="128"/>
+      <c r="G88" s="128"/>
       <c r="I88" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="J88" s="109" t="s">
+      <c r="J88" s="116" t="s">
         <v>276</v>
       </c>
-      <c r="K88" s="109"/>
-      <c r="L88" s="109"/>
-      <c r="M88" s="109"/>
+      <c r="K88" s="116"/>
+      <c r="L88" s="116"/>
+      <c r="M88" s="116"/>
       <c r="N88" s="3"/>
     </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B89" s="162"/>
+    <row r="89" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="142"/>
       <c r="C89" s="40" t="s">
         <v>211</v>
       </c>
       <c r="D89" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E89" s="129" t="s">
+      <c r="E89" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="F89" s="129"/>
-      <c r="G89" s="129"/>
+      <c r="F89" s="128"/>
+      <c r="G89" s="128"/>
       <c r="N89" s="3"/>
     </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B90" s="162"/>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="142"/>
       <c r="C90" s="40" t="s">
         <v>214</v>
       </c>
       <c r="D90" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E90" s="129"/>
-      <c r="F90" s="129"/>
-      <c r="G90" s="129"/>
+      <c r="E90" s="128"/>
+      <c r="F90" s="128"/>
+      <c r="G90" s="128"/>
       <c r="N90" s="3"/>
     </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B91" s="162"/>
+    <row r="91" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="142"/>
       <c r="C91" s="40" t="s">
         <v>217</v>
       </c>
       <c r="D91" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E91" s="129"/>
-      <c r="F91" s="129"/>
-      <c r="G91" s="129"/>
+      <c r="E91" s="128"/>
+      <c r="F91" s="128"/>
+      <c r="G91" s="128"/>
       <c r="N91" s="3"/>
     </row>
-    <row r="92" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B92" s="162"/>
-      <c r="C92" s="154" t="s">
+    <row r="92" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="142"/>
+      <c r="C92" s="147" t="s">
         <v>191</v>
       </c>
       <c r="D92" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E92" s="109" t="s">
+      <c r="E92" s="116" t="s">
         <v>277</v>
       </c>
-      <c r="F92" s="109"/>
-      <c r="G92" s="109"/>
+      <c r="F92" s="116"/>
+      <c r="G92" s="116"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B93" s="162"/>
-      <c r="C93" s="155"/>
+    <row r="93" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="142"/>
+      <c r="C93" s="148"/>
       <c r="D93" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E93" s="109" t="s">
+      <c r="E93" s="116" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="109"/>
-      <c r="G93" s="109"/>
+      <c r="F93" s="116"/>
+      <c r="G93" s="116"/>
       <c r="N93" s="3"/>
     </row>
-    <row r="94" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B94" s="162"/>
-      <c r="C94" s="156"/>
+    <row r="94" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="142"/>
+      <c r="C94" s="149"/>
       <c r="D94" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="E94" s="177" t="s">
+      <c r="E94" s="129" t="s">
         <v>279</v>
       </c>
-      <c r="F94" s="177"/>
-      <c r="G94" s="177"/>
+      <c r="F94" s="129"/>
+      <c r="G94" s="129"/>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="19" t="s">
         <v>280</v>
       </c>
@@ -8169,12 +8269,12 @@
       <c r="D95" s="29">
         <v>10</v>
       </c>
-      <c r="E95" s="164"/>
-      <c r="F95" s="165"/>
-      <c r="G95" s="166"/>
+      <c r="E95" s="125"/>
+      <c r="F95" s="126"/>
+      <c r="G95" s="127"/>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="19" t="s">
         <v>282</v>
       </c>
@@ -8184,12 +8284,12 @@
       <c r="D96" s="29">
         <v>10</v>
       </c>
-      <c r="E96" s="164"/>
-      <c r="F96" s="165"/>
-      <c r="G96" s="166"/>
+      <c r="E96" s="125"/>
+      <c r="F96" s="126"/>
+      <c r="G96" s="127"/>
       <c r="N96" s="3"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="19" t="s">
         <v>284</v>
       </c>
@@ -8199,12 +8299,12 @@
       <c r="D97" s="29">
         <v>1</v>
       </c>
-      <c r="E97" s="109"/>
-      <c r="F97" s="109"/>
-      <c r="G97" s="109"/>
+      <c r="E97" s="116"/>
+      <c r="F97" s="116"/>
+      <c r="G97" s="116"/>
       <c r="N97" s="3"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="55"/>
       <c r="C98" s="31" t="s">
         <v>286</v>
@@ -8212,12 +8312,12 @@
       <c r="D98" s="43">
         <v>10</v>
       </c>
-      <c r="E98" s="109"/>
-      <c r="F98" s="109"/>
-      <c r="G98" s="109"/>
+      <c r="E98" s="116"/>
+      <c r="F98" s="116"/>
+      <c r="G98" s="116"/>
       <c r="N98" s="3"/>
     </row>
-    <row r="99" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B99" s="56"/>
       <c r="C99" s="57" t="s">
         <v>287</v>
@@ -8225,9 +8325,9 @@
       <c r="D99" s="58">
         <v>10</v>
       </c>
-      <c r="E99" s="106"/>
-      <c r="F99" s="106"/>
-      <c r="G99" s="106"/>
+      <c r="E99" s="119"/>
+      <c r="F99" s="119"/>
+      <c r="G99" s="119"/>
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
@@ -8238,6 +8338,221 @@
     </row>
   </sheetData>
   <mergeCells count="239">
+    <mergeCell ref="S42:AH42"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="S14:Z14"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="S18:AH18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="S26:AH26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="S22:AH22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="S12:AH12"/>
+    <mergeCell ref="S8:AH8"/>
+    <mergeCell ref="S2:AB2"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="S10:Z10"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="I49:I56"/>
+    <mergeCell ref="I57:I64"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="B77:B84"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="S40:AH40"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="J75:K82"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="S34:Z34"/>
+    <mergeCell ref="AA34:AH34"/>
+    <mergeCell ref="S38:Z38"/>
+    <mergeCell ref="AA38:AH38"/>
+    <mergeCell ref="S36:AH36"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="S30:AH30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:X31"/>
     <mergeCell ref="AG32:AH32"/>
     <mergeCell ref="Y31:Z31"/>
     <mergeCell ref="AA31:AB31"/>
@@ -8262,221 +8577,6 @@
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="J87:K87"/>
     <mergeCell ref="L87:M87"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="S30:AH30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="S34:Z34"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="S38:Z38"/>
-    <mergeCell ref="AA38:AH38"/>
-    <mergeCell ref="S36:AH36"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="J75:K82"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="S40:AH40"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="B77:B84"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="I49:I56"/>
-    <mergeCell ref="I57:I64"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="S12:AH12"/>
-    <mergeCell ref="S8:AH8"/>
-    <mergeCell ref="S2:AB2"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="S10:Z10"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="S22:AH22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="S26:AH26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="S14:Z14"/>
-    <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="S18:AH18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="S42:AH42"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="W44:X44"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8486,105 +8586,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B028B19-B245-4EE1-9453-ED4D46D927D6}">
-  <dimension ref="B2:W62"/>
+  <dimension ref="B2:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="69"/>
-    <col min="2" max="8" width="11.625" style="69" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="74" customWidth="1"/>
-    <col min="10" max="10" width="15" style="74" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="69" customWidth="1"/>
-    <col min="12" max="12" width="29.125" style="69" customWidth="1"/>
-    <col min="13" max="19" width="9.125" style="69"/>
-    <col min="20" max="20" width="10.875" style="69" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="69"/>
+    <col min="2" max="9" width="11.640625" style="69" customWidth="1"/>
+    <col min="10" max="10" width="15" style="69" customWidth="1"/>
+    <col min="11" max="11" width="11.640625" style="69" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" style="69" customWidth="1"/>
+    <col min="13" max="19" width="9.140625" style="69"/>
+    <col min="20" max="20" width="10.85546875" style="69" customWidth="1"/>
     <col min="21" max="21" width="14" style="69" customWidth="1"/>
-    <col min="22" max="16384" width="9.125" style="69"/>
+    <col min="22" max="16384" width="9.140625" style="69"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="180" t="s">
+    <row r="2" spans="2:23" ht="23.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="196" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="M2" s="180" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="M2" s="196" t="s">
         <v>331</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>452</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>453</v>
-      </c>
-      <c r="E3" s="81" t="s">
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="80" t="s">
         <v>290</v>
       </c>
-      <c r="H3" s="81" t="s">
-        <v>353</v>
-      </c>
-      <c r="M3" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="N3" s="80" t="s">
+      <c r="H3" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="M3" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="N3" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="O3" s="80" t="s">
-        <v>363</v>
-      </c>
-      <c r="P3" s="80" t="s">
+      <c r="O3" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="P3" s="79" t="s">
         <v>289</v>
       </c>
-      <c r="Q3" s="192" t="s">
-        <v>351</v>
-      </c>
-      <c r="R3" s="192"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="80" t="s">
+      <c r="Q3" s="188" t="s">
+        <v>347</v>
+      </c>
+      <c r="R3" s="188"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="V3" s="80" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="V3" s="79" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="66" t="s">
         <v>291</v>
       </c>
       <c r="C4" s="66">
         <v>1</v>
       </c>
-      <c r="D4" s="211" t="s">
-        <v>454</v>
+      <c r="D4" s="101" t="s">
+        <v>449</v>
       </c>
       <c r="E4" s="66">
         <v>24</v>
@@ -8598,8 +8697,8 @@
       <c r="H4" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
       <c r="M4" s="66" t="s">
         <v>291</v>
       </c>
@@ -8612,17 +8711,17 @@
       <c r="P4" s="66">
         <v>4</v>
       </c>
-      <c r="Q4" s="84" t="s">
-        <v>347</v>
-      </c>
-      <c r="R4" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="S4" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="T4" s="87" t="s">
-        <v>348</v>
+      <c r="Q4" s="207" t="s">
+        <v>474</v>
+      </c>
+      <c r="R4" s="207" t="s">
+        <v>362</v>
+      </c>
+      <c r="S4" s="207" t="s">
+        <v>363</v>
+      </c>
+      <c r="T4" s="208" t="s">
+        <v>475</v>
       </c>
       <c r="U4" s="72" t="s">
         <v>345</v>
@@ -8631,1791 +8730,1720 @@
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="E5" s="102" t="s">
-        <v>428</v>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="96" t="s">
+        <v>423</v>
       </c>
       <c r="F5" s="73" t="s">
         <v>333</v>
       </c>
-      <c r="G5" s="82" t="s">
-        <v>364</v>
+      <c r="G5" s="81" t="s">
+        <v>360</v>
       </c>
       <c r="U5" s="73" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="69" t="s">
         <v>340</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="87" t="s">
+        <v>367</v>
+      </c>
+      <c r="P7" s="177" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="90" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="178" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="179"/>
+      <c r="E8" s="85" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="180" t="s">
+        <v>336</v>
+      </c>
+      <c r="H8" s="180"/>
+      <c r="I8" s="84" t="s">
         <v>372</v>
       </c>
-      <c r="P7" s="193" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q7" s="193"/>
-      <c r="R7" s="193"/>
-      <c r="S7" s="193"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="C8" s="200" t="s">
-        <v>334</v>
-      </c>
-      <c r="D8" s="201"/>
-      <c r="E8" s="90" t="s">
-        <v>360</v>
-      </c>
-      <c r="F8" s="90" t="s">
-        <v>335</v>
-      </c>
-      <c r="G8" s="191" t="s">
-        <v>336</v>
-      </c>
-      <c r="H8" s="191"/>
-      <c r="I8" s="89" t="s">
-        <v>377</v>
-      </c>
-      <c r="J8" s="89" t="s">
-        <v>378</v>
-      </c>
-      <c r="L8" s="90" t="s">
+      <c r="J8" s="84" t="s">
         <v>373</v>
       </c>
-      <c r="M8" s="97" t="s">
-        <v>351</v>
-      </c>
-      <c r="N8" s="91" t="s">
-        <v>360</v>
-      </c>
-      <c r="O8" s="91" t="s">
-        <v>354</v>
-      </c>
-      <c r="P8" s="191" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q8" s="191"/>
-      <c r="R8" s="191"/>
-      <c r="S8" s="191"/>
-      <c r="T8" s="89" t="s">
-        <v>377</v>
-      </c>
-      <c r="U8" s="89" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="L8" s="85" t="s">
+        <v>368</v>
+      </c>
+      <c r="M8" s="91" t="s">
+        <v>347</v>
+      </c>
+      <c r="N8" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="O8" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="P8" s="180" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q8" s="180"/>
+      <c r="R8" s="180"/>
+      <c r="S8" s="180"/>
+      <c r="T8" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="U8" s="84" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="66">
         <v>0</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="D9" s="188"/>
+      <c r="D9" s="187"/>
       <c r="E9" s="68" t="s">
         <v>338</v>
       </c>
       <c r="F9" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="103" t="s">
-        <v>445</v>
-      </c>
-      <c r="J9" s="66"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="97" t="s">
+        <v>440</v>
+      </c>
+      <c r="J9" s="99" t="s">
+        <v>450</v>
+      </c>
       <c r="L9" s="67"/>
-      <c r="M9" s="83" t="s">
-        <v>347</v>
+      <c r="M9" s="209" t="s">
+        <v>474</v>
       </c>
       <c r="N9" s="67" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="O9" s="66">
         <v>0</v>
       </c>
-      <c r="P9" s="178" t="s">
+      <c r="P9" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="178"/>
-      <c r="S9" s="178"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="181"/>
+      <c r="S9" s="181"/>
       <c r="T9" s="67" t="s">
-        <v>379</v>
-      </c>
-      <c r="U9" s="66"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+      <c r="U9" s="99" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="66">
         <v>1</v>
       </c>
-      <c r="C10" s="187"/>
-      <c r="D10" s="188"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="187"/>
       <c r="E10" s="68"/>
       <c r="F10" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
       <c r="I10" s="67"/>
-      <c r="J10" s="66"/>
+      <c r="J10" s="68"/>
       <c r="L10" s="67" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M10" s="67"/>
       <c r="N10" s="67"/>
       <c r="O10" s="66">
         <v>1</v>
       </c>
-      <c r="P10" s="178" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="178"/>
-      <c r="S10" s="178"/>
+      <c r="P10" s="181" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="181"/>
+      <c r="S10" s="181"/>
       <c r="T10" s="67" t="s">
-        <v>416</v>
-      </c>
-      <c r="U10" s="66"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="U10" s="99" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="66">
         <v>2</v>
       </c>
-      <c r="C11" s="187" t="s">
+      <c r="C11" s="186" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="188"/>
+      <c r="D11" s="187"/>
       <c r="E11" s="68" t="s">
         <v>338</v>
       </c>
       <c r="F11" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="103" t="s">
-        <v>437</v>
-      </c>
-      <c r="J11" s="66"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="97" t="s">
+        <v>432</v>
+      </c>
+      <c r="J11" s="99" t="s">
+        <v>451</v>
+      </c>
       <c r="L11" s="67"/>
       <c r="M11" s="67"/>
       <c r="N11" s="67"/>
       <c r="O11" s="66">
         <v>2</v>
       </c>
-      <c r="P11" s="194" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q11" s="178"/>
-      <c r="R11" s="178"/>
-      <c r="S11" s="178"/>
+      <c r="P11" s="182" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="181"/>
+      <c r="S11" s="181"/>
       <c r="T11" s="67" t="s">
-        <v>417</v>
-      </c>
-      <c r="U11" s="66"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="U11" s="99" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="66">
         <v>3</v>
       </c>
-      <c r="C12" s="187"/>
-      <c r="D12" s="188"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="187"/>
       <c r="E12" s="68"/>
       <c r="F12" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
       <c r="I12" s="67"/>
-      <c r="J12" s="66"/>
+      <c r="J12" s="68"/>
       <c r="L12" s="67" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M12" s="67"/>
       <c r="N12" s="67"/>
       <c r="O12" s="66">
         <v>3</v>
       </c>
-      <c r="P12" s="194" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q12" s="178"/>
-      <c r="R12" s="178"/>
-      <c r="S12" s="178"/>
+      <c r="P12" s="182" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q12" s="181"/>
+      <c r="R12" s="181"/>
+      <c r="S12" s="181"/>
       <c r="T12" s="67" t="s">
-        <v>419</v>
-      </c>
-      <c r="U12" s="66"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="U12" s="99" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="66">
         <v>4</v>
       </c>
-      <c r="C13" s="187" t="s">
+      <c r="C13" s="186" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="188"/>
+      <c r="D13" s="187"/>
       <c r="E13" s="68" t="s">
         <v>339</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="191" t="s">
         <v>343</v>
       </c>
-      <c r="H13" s="179"/>
+      <c r="H13" s="191"/>
       <c r="I13" s="67"/>
-      <c r="J13" s="66"/>
+      <c r="J13" s="68"/>
       <c r="L13" s="67"/>
       <c r="M13" s="67"/>
       <c r="N13" s="67"/>
       <c r="O13" s="66">
         <v>4</v>
       </c>
-      <c r="P13" s="195" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q13" s="195"/>
-      <c r="R13" s="195"/>
-      <c r="S13" s="195"/>
-      <c r="T13" s="100" t="s">
-        <v>423</v>
-      </c>
-      <c r="U13" s="66"/>
+      <c r="P13" s="189" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="189"/>
+      <c r="S13" s="189"/>
+      <c r="T13" s="94" t="s">
+        <v>418</v>
+      </c>
+      <c r="U13" s="99" t="s">
+        <v>463</v>
+      </c>
       <c r="W13" s="69" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="66">
         <v>5</v>
       </c>
-      <c r="C14" s="189" t="s">
+      <c r="C14" s="211" t="s">
+        <v>478</v>
+      </c>
+      <c r="D14" s="185"/>
+      <c r="E14" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F14" s="68"/>
+      <c r="G14" s="181" t="s">
         <v>367</v>
       </c>
-      <c r="D14" s="190"/>
-      <c r="E14" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="178" t="s">
-        <v>372</v>
-      </c>
-      <c r="H14" s="178"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="100"/>
       <c r="L14" s="67"/>
       <c r="M14" s="67"/>
       <c r="N14" s="67"/>
       <c r="O14" s="66">
         <v>5</v>
       </c>
-      <c r="P14" s="196" t="s">
+      <c r="P14" s="190" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q14" s="191"/>
+      <c r="R14" s="191"/>
+      <c r="S14" s="191"/>
+      <c r="T14" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="Q14" s="179"/>
-      <c r="R14" s="179"/>
-      <c r="S14" s="179"/>
-      <c r="T14" s="67" t="s">
-        <v>436</v>
-      </c>
-      <c r="U14" s="66"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="U14" s="99" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="66">
         <v>6</v>
       </c>
-      <c r="C15" s="187" t="s">
+      <c r="C15" s="186" t="s">
         <v>346</v>
       </c>
-      <c r="D15" s="188"/>
+      <c r="D15" s="187"/>
       <c r="E15" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="F15" s="94" t="s">
+      <c r="F15" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
       <c r="I15" s="67" t="s">
-        <v>399</v>
-      </c>
-      <c r="J15" s="66"/>
-      <c r="L15" s="104" t="s">
-        <v>443</v>
+        <v>394</v>
+      </c>
+      <c r="J15" s="99" t="s">
+        <v>452</v>
+      </c>
+      <c r="L15" s="98" t="s">
+        <v>438</v>
       </c>
       <c r="M15" s="67"/>
       <c r="N15" s="67"/>
       <c r="O15" s="66">
         <v>6</v>
       </c>
-      <c r="P15" s="178"/>
-      <c r="Q15" s="178"/>
-      <c r="R15" s="178"/>
-      <c r="S15" s="178"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="181"/>
       <c r="T15" s="67"/>
-      <c r="U15" s="66"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="U15" s="68"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="66">
         <v>7</v>
       </c>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="194" t="s">
         <v>344</v>
       </c>
-      <c r="D16" s="186"/>
-      <c r="E16" s="85" t="s">
-        <v>369</v>
-      </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="178" t="s">
-        <v>370</v>
-      </c>
-      <c r="H16" s="178"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
-      <c r="L16" s="104" t="s">
-        <v>444</v>
+      <c r="D16" s="195"/>
+      <c r="E16" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" s="68"/>
+      <c r="G16" s="181" t="s">
+        <v>365</v>
+      </c>
+      <c r="H16" s="181"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="100"/>
+      <c r="L16" s="98" t="s">
+        <v>439</v>
       </c>
       <c r="M16" s="67"/>
       <c r="N16" s="67"/>
       <c r="O16" s="66">
         <v>7</v>
       </c>
-      <c r="P16" s="197" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q16" s="198"/>
-      <c r="R16" s="198"/>
-      <c r="S16" s="198"/>
+      <c r="P16" s="192" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q16" s="193"/>
+      <c r="R16" s="193"/>
+      <c r="S16" s="193"/>
       <c r="T16" s="67"/>
-      <c r="U16" s="66"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U16" s="68"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="66">
         <v>8</v>
       </c>
-      <c r="C17" s="185" t="s">
+      <c r="C17" s="194" t="s">
         <v>254</v>
       </c>
-      <c r="D17" s="186"/>
-      <c r="E17" s="85" t="s">
-        <v>369</v>
-      </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="178" t="s">
-        <v>370</v>
-      </c>
-      <c r="H17" s="178"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="87"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="F17" s="68"/>
+      <c r="G17" s="181" t="s">
+        <v>365</v>
+      </c>
+      <c r="H17" s="181"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="100"/>
       <c r="L17" s="67" t="s">
-        <v>426</v>
-      </c>
-      <c r="M17" s="83" t="s">
-        <v>349</v>
+        <v>421</v>
+      </c>
+      <c r="M17" s="209" t="s">
+        <v>476</v>
       </c>
       <c r="N17" s="67" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="O17" s="66">
         <v>0</v>
       </c>
-      <c r="P17" s="178" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q17" s="178"/>
-      <c r="R17" s="178"/>
-      <c r="S17" s="178"/>
+      <c r="P17" s="181" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q17" s="181"/>
+      <c r="R17" s="181"/>
+      <c r="S17" s="181"/>
       <c r="T17" s="67" t="s">
-        <v>411</v>
-      </c>
-      <c r="U17" s="66"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+      <c r="U17" s="99" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="66">
         <v>9</v>
       </c>
-      <c r="C18" s="189" t="s">
-        <v>366</v>
-      </c>
-      <c r="D18" s="190"/>
+      <c r="C18" s="211" t="s">
+        <v>479</v>
+      </c>
+      <c r="D18" s="185"/>
       <c r="E18" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="87"/>
+        <v>364</v>
+      </c>
+      <c r="F18" s="68"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="100"/>
       <c r="L18" s="67"/>
       <c r="M18" s="67"/>
       <c r="N18" s="67"/>
       <c r="O18" s="66">
         <v>1</v>
       </c>
-      <c r="P18" s="178" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q18" s="178"/>
-      <c r="R18" s="178"/>
-      <c r="S18" s="178"/>
+      <c r="P18" s="181" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="181"/>
+      <c r="S18" s="181"/>
       <c r="T18" s="67" t="s">
-        <v>412</v>
-      </c>
-      <c r="U18" s="66"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+      <c r="U18" s="99" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="66">
         <v>10</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="186" t="s">
         <v>299</v>
       </c>
-      <c r="D19" s="188"/>
+      <c r="D19" s="187"/>
       <c r="E19" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="103" t="s">
-        <v>438</v>
-      </c>
-      <c r="J19" s="66"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="97" t="s">
+        <v>433</v>
+      </c>
+      <c r="J19" s="99" t="s">
+        <v>453</v>
+      </c>
       <c r="L19" s="67" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M19" s="67"/>
       <c r="N19" s="67"/>
       <c r="O19" s="66">
         <v>2</v>
       </c>
-      <c r="P19" s="178" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q19" s="178"/>
-      <c r="R19" s="178"/>
-      <c r="S19" s="178"/>
+      <c r="P19" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q19" s="181"/>
+      <c r="R19" s="181"/>
+      <c r="S19" s="181"/>
       <c r="T19" s="67" t="s">
-        <v>413</v>
-      </c>
-      <c r="U19" s="66"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+      <c r="U19" s="99" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="66">
         <v>11</v>
       </c>
-      <c r="C20" s="187"/>
-      <c r="D20" s="188"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="187"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="94" t="s">
+      <c r="F20" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
       <c r="I20" s="67"/>
-      <c r="J20" s="66"/>
-      <c r="L20" s="100" t="s">
-        <v>451</v>
+      <c r="J20" s="68"/>
+      <c r="L20" s="94" t="s">
+        <v>446</v>
       </c>
       <c r="M20" s="67"/>
       <c r="N20" s="67"/>
       <c r="O20" s="66">
         <v>3</v>
       </c>
-      <c r="P20" s="178" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q20" s="178"/>
-      <c r="R20" s="178"/>
-      <c r="S20" s="178"/>
+      <c r="P20" s="181" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="181"/>
+      <c r="S20" s="181"/>
       <c r="T20" s="67" t="s">
-        <v>414</v>
-      </c>
-      <c r="U20" s="66"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+      <c r="U20" s="99" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="66">
         <v>12</v>
       </c>
-      <c r="C21" s="187" t="s">
+      <c r="C21" s="186" t="s">
         <v>300</v>
       </c>
-      <c r="D21" s="188"/>
+      <c r="D21" s="187"/>
       <c r="E21" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="F21" s="94" t="s">
+      <c r="F21" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="103" t="s">
-        <v>439</v>
-      </c>
-      <c r="J21" s="66"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="97" t="s">
+        <v>434</v>
+      </c>
+      <c r="J21" s="99" t="s">
+        <v>454</v>
+      </c>
       <c r="L21" s="67"/>
       <c r="M21" s="67"/>
       <c r="N21" s="67"/>
       <c r="O21" s="66">
         <v>4</v>
       </c>
-      <c r="P21" s="178" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q21" s="178"/>
-      <c r="R21" s="178"/>
-      <c r="S21" s="178"/>
+      <c r="P21" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q21" s="181"/>
+      <c r="R21" s="181"/>
+      <c r="S21" s="181"/>
       <c r="T21" s="67" t="s">
-        <v>415</v>
-      </c>
-      <c r="U21" s="66"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+      <c r="U21" s="99" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="66">
         <v>13</v>
       </c>
-      <c r="C22" s="187"/>
-      <c r="D22" s="188"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="187"/>
       <c r="E22" s="68"/>
-      <c r="F22" s="94" t="s">
+      <c r="F22" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
       <c r="I22" s="67"/>
-      <c r="J22" s="66"/>
-      <c r="L22" s="100" t="s">
-        <v>420</v>
+      <c r="J22" s="68"/>
+      <c r="L22" s="94" t="s">
+        <v>415</v>
       </c>
       <c r="M22" s="67"/>
       <c r="N22" s="67"/>
       <c r="O22" s="66">
         <v>5</v>
       </c>
-      <c r="P22" s="178" t="s">
+      <c r="P22" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="Q22" s="178"/>
-      <c r="R22" s="178"/>
-      <c r="S22" s="178"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="181"/>
+      <c r="S22" s="181"/>
       <c r="T22" s="67" t="s">
-        <v>418</v>
-      </c>
-      <c r="U22" s="66"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+      <c r="U22" s="99" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="66">
         <v>14</v>
       </c>
-      <c r="C23" s="185" t="s">
+      <c r="C23" s="194" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="186"/>
-      <c r="E23" s="85" t="s">
-        <v>369</v>
-      </c>
-      <c r="F23" s="94"/>
-      <c r="G23" s="178" t="s">
-        <v>371</v>
-      </c>
-      <c r="H23" s="178"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="87"/>
-      <c r="L23" s="100" t="s">
-        <v>421</v>
+      <c r="D23" s="195"/>
+      <c r="E23" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="F23" s="68"/>
+      <c r="G23" s="181" t="s">
+        <v>366</v>
+      </c>
+      <c r="H23" s="181"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="100"/>
+      <c r="L23" s="94" t="s">
+        <v>416</v>
       </c>
       <c r="M23" s="67"/>
       <c r="N23" s="67"/>
       <c r="O23" s="66">
         <v>6</v>
       </c>
-      <c r="P23" s="178" t="s">
+      <c r="P23" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="Q23" s="178"/>
-      <c r="R23" s="178"/>
-      <c r="S23" s="178"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="181"/>
+      <c r="S23" s="181"/>
       <c r="T23" s="67" t="s">
-        <v>380</v>
-      </c>
-      <c r="U23" s="66"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="U23" s="99" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="66">
         <v>15</v>
       </c>
-      <c r="C24" s="187" t="s">
+      <c r="C24" s="186" t="s">
         <v>301</v>
       </c>
-      <c r="D24" s="188"/>
+      <c r="D24" s="187"/>
       <c r="E24" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="F24" s="94" t="s">
+      <c r="F24" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="G24" s="178" t="s">
+      <c r="G24" s="181" t="s">
         <v>306</v>
       </c>
-      <c r="H24" s="178"/>
-      <c r="I24" s="103" t="s">
-        <v>447</v>
-      </c>
-      <c r="J24" s="66"/>
-      <c r="L24" s="100" t="s">
-        <v>422</v>
+      <c r="H24" s="181"/>
+      <c r="I24" s="97" t="s">
+        <v>442</v>
+      </c>
+      <c r="J24" s="99" t="s">
+        <v>455</v>
+      </c>
+      <c r="L24" s="94" t="s">
+        <v>417</v>
       </c>
       <c r="M24" s="67"/>
       <c r="N24" s="67"/>
       <c r="O24" s="66">
         <v>7</v>
       </c>
-      <c r="P24" s="178" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q24" s="178"/>
-      <c r="R24" s="178"/>
-      <c r="S24" s="178"/>
+      <c r="P24" s="181" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="181"/>
+      <c r="S24" s="181"/>
       <c r="T24" s="67" t="s">
-        <v>381</v>
-      </c>
-      <c r="U24" s="66"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="U24" s="99" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="66">
         <v>16</v>
       </c>
-      <c r="C25" s="187"/>
-      <c r="D25" s="188"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="187"/>
       <c r="E25" s="68"/>
-      <c r="F25" s="94" t="s">
+      <c r="F25" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
       <c r="I25" s="67"/>
-      <c r="J25" s="66"/>
+      <c r="J25" s="68"/>
       <c r="L25" s="67"/>
-      <c r="M25" s="83" t="s">
-        <v>350</v>
+      <c r="M25" s="209" t="s">
+        <v>477</v>
       </c>
       <c r="N25" s="67" t="s">
         <v>339</v>
       </c>
       <c r="O25" s="66" t="s">
-        <v>361</v>
-      </c>
-      <c r="P25" s="178" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q25" s="178"/>
-      <c r="R25" s="178"/>
-      <c r="S25" s="178"/>
+        <v>357</v>
+      </c>
+      <c r="P25" s="181" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="181"/>
+      <c r="S25" s="181"/>
       <c r="T25" s="67" t="s">
-        <v>382</v>
-      </c>
-      <c r="U25" s="66"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+      <c r="U25" s="99" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="66">
         <v>17</v>
       </c>
-      <c r="C26" s="187" t="s">
+      <c r="C26" s="186" t="s">
         <v>302</v>
       </c>
-      <c r="D26" s="188"/>
+      <c r="D26" s="187"/>
       <c r="E26" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="F26" s="94" t="s">
+      <c r="F26" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="G26" s="194" t="s">
-        <v>442</v>
-      </c>
-      <c r="H26" s="178"/>
-      <c r="I26" s="103" t="s">
-        <v>446</v>
-      </c>
-      <c r="J26" s="66"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86" t="s">
-        <v>348</v>
-      </c>
-      <c r="N26" s="86" t="s">
+      <c r="G26" s="182" t="s">
+        <v>437</v>
+      </c>
+      <c r="H26" s="181"/>
+      <c r="I26" s="97" t="s">
+        <v>441</v>
+      </c>
+      <c r="J26" s="99" t="s">
+        <v>456</v>
+      </c>
+      <c r="L26" s="83"/>
+      <c r="M26" s="210" t="s">
+        <v>475</v>
+      </c>
+      <c r="N26" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="O26" s="86"/>
-      <c r="P26" s="199" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="199"/>
-      <c r="S26" s="199"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O26" s="83"/>
+      <c r="P26" s="184" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q26" s="184"/>
+      <c r="R26" s="184"/>
+      <c r="S26" s="184"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="100"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="66">
         <v>18</v>
       </c>
-      <c r="C27" s="187"/>
-      <c r="D27" s="188"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="187"/>
       <c r="E27" s="68"/>
-      <c r="F27" s="94" t="s">
+      <c r="F27" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
       <c r="I27" s="67"/>
-      <c r="J27" s="66"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J27" s="68"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="66">
         <v>19</v>
       </c>
-      <c r="C28" s="189" t="s">
-        <v>368</v>
-      </c>
-      <c r="D28" s="190"/>
+      <c r="C28" s="211" t="s">
+        <v>480</v>
+      </c>
+      <c r="D28" s="185"/>
       <c r="E28" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F28" s="94" t="s">
-        <v>361</v>
-      </c>
-      <c r="G28" s="178" t="s">
+      <c r="F28" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="G28" s="181" t="s">
         <v>303</v>
       </c>
-      <c r="H28" s="178"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="87"/>
-      <c r="P28" s="193" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="193"/>
-      <c r="S28" s="193"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H28" s="181"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="100"/>
+    </row>
+    <row r="29" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="66">
         <v>20</v>
       </c>
-      <c r="C29" s="187" t="s">
+      <c r="C29" s="186" t="s">
         <v>304</v>
       </c>
-      <c r="D29" s="188"/>
+      <c r="D29" s="187"/>
       <c r="E29" s="68" t="s">
         <v>337</v>
       </c>
       <c r="F29" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="G29" s="194" t="s">
-        <v>448</v>
-      </c>
-      <c r="H29" s="178"/>
-      <c r="I29" s="103" t="s">
-        <v>441</v>
-      </c>
-      <c r="J29" s="66"/>
-      <c r="M29" s="99" t="s">
-        <v>351</v>
-      </c>
-      <c r="N29" s="91" t="s">
-        <v>360</v>
-      </c>
-      <c r="O29" s="91" t="s">
-        <v>354</v>
-      </c>
-      <c r="P29" s="191" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q29" s="191"/>
-      <c r="R29" s="191"/>
-      <c r="S29" s="191"/>
-      <c r="T29" s="89" t="s">
-        <v>377</v>
-      </c>
-      <c r="U29" s="89" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G29" s="182" t="s">
+        <v>443</v>
+      </c>
+      <c r="H29" s="181"/>
+      <c r="I29" s="97" t="s">
+        <v>436</v>
+      </c>
+      <c r="J29" s="99" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="66">
         <v>21</v>
       </c>
-      <c r="C30" s="187"/>
-      <c r="D30" s="188"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="187"/>
       <c r="E30" s="67"/>
       <c r="F30" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
       <c r="I30" s="67"/>
-      <c r="J30" s="66"/>
-      <c r="M30" s="98" t="s">
-        <v>383</v>
-      </c>
-      <c r="N30" s="67" t="s">
-        <v>369</v>
-      </c>
-      <c r="O30" s="66">
-        <v>0</v>
-      </c>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="182"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="66"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J30" s="68"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="176"/>
+      <c r="O30" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q30" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="R30" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="S30" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="T30" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="U30" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="V30" s="78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="66">
         <v>22</v>
       </c>
-      <c r="C31" s="187" t="s">
+      <c r="C31" s="186" t="s">
         <v>305</v>
       </c>
-      <c r="D31" s="188"/>
+      <c r="D31" s="187"/>
       <c r="E31" s="68" t="s">
         <v>337</v>
       </c>
       <c r="F31" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="G31" s="178" t="s">
+      <c r="G31" s="181" t="s">
         <v>307</v>
       </c>
-      <c r="H31" s="178"/>
-      <c r="I31" s="103" t="s">
-        <v>440</v>
-      </c>
-      <c r="J31" s="66"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="66">
-        <v>1</v>
-      </c>
-      <c r="P31" s="181" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="182"/>
-      <c r="S31" s="183"/>
-      <c r="T31" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="U31" s="66"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H31" s="181"/>
+      <c r="I31" s="97" t="s">
+        <v>435</v>
+      </c>
+      <c r="J31" s="99" t="s">
+        <v>458</v>
+      </c>
+      <c r="M31" s="71" t="s">
+        <v>310</v>
+      </c>
+      <c r="O31" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="P31" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q31" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="R31" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="S31" s="69" t="s">
+        <v>315</v>
+      </c>
+      <c r="T31" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="U31" s="69" t="s">
+        <v>317</v>
+      </c>
+      <c r="V31" s="70" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="66">
         <v>23</v>
       </c>
-      <c r="C32" s="187"/>
-      <c r="D32" s="188"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="187"/>
       <c r="E32" s="67"/>
       <c r="F32" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181"/>
       <c r="I32" s="67"/>
-      <c r="J32" s="66"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="66">
+      <c r="J32" s="68"/>
+      <c r="M32" s="71" t="s">
+        <v>319</v>
+      </c>
+      <c r="O32" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="P32" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q32" s="69" t="s">
+        <v>322</v>
+      </c>
+      <c r="R32" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="S32" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="T32" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="U32" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="V32" s="70" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33" s="95" t="s">
+        <v>422</v>
+      </c>
+      <c r="M33" s="71"/>
+      <c r="V33" s="70"/>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="M34" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="N34" s="69" t="s">
+        <v>327</v>
+      </c>
+      <c r="V34" s="70"/>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="F35" s="177" t="s">
+        <v>393</v>
+      </c>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="M35" s="71" t="s">
+        <v>310</v>
+      </c>
+      <c r="N35" s="69" t="s">
+        <v>328</v>
+      </c>
+      <c r="V35" s="70"/>
+    </row>
+    <row r="36" spans="3:22" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C36" s="93" t="s">
+        <v>347</v>
+      </c>
+      <c r="D36" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="E36" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="F36" s="178" t="s">
+        <v>369</v>
+      </c>
+      <c r="G36" s="203"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="J36" s="84" t="s">
+        <v>373</v>
+      </c>
+      <c r="M36" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="N36" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="76"/>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" s="92" t="s">
+        <v>378</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="E37" s="66">
+        <v>0</v>
+      </c>
+      <c r="F37" s="204"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="68"/>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="66">
+        <v>1</v>
+      </c>
+      <c r="F38" s="204" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="J38" s="68"/>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="66">
         <v>2</v>
       </c>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="182"/>
-      <c r="S32" s="183"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="66"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="E33" s="101" t="s">
-        <v>427</v>
-      </c>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="66">
+      <c r="F39" s="204"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="205"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="68"/>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="66">
         <v>3</v>
       </c>
-      <c r="P33" s="181" t="s">
+      <c r="F40" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="182"/>
-      <c r="S33" s="183"/>
-      <c r="T33" s="67" t="s">
+      <c r="G40" s="205"/>
+      <c r="H40" s="205"/>
+      <c r="I40" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="U33" s="66"/>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="66">
+      <c r="J40" s="68"/>
+      <c r="M40" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="183"/>
+      <c r="O40" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" s="183"/>
+      <c r="Q40" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="R40" s="183"/>
+      <c r="S40" s="183"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="89" t="s">
+        <v>377</v>
+      </c>
+      <c r="V40" s="89" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="66">
         <v>4</v>
       </c>
-      <c r="P34" s="181" t="s">
+      <c r="F41" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="Q34" s="182"/>
-      <c r="R34" s="182"/>
-      <c r="S34" s="183"/>
-      <c r="T34" s="67" t="s">
+      <c r="G41" s="205"/>
+      <c r="H41" s="205"/>
+      <c r="I41" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="U34" s="66"/>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B35" s="184" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="184"/>
-      <c r="D35" s="184" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="184"/>
-      <c r="F35" s="184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="95" t="s">
+      <c r="J41" s="68"/>
+      <c r="M41" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="116"/>
+      <c r="O41" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="116"/>
+      <c r="Q41" s="128" t="s">
+        <v>17</v>
+      </c>
+      <c r="R41" s="128"/>
+      <c r="S41" s="128"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="66">
+        <v>0</v>
+      </c>
+      <c r="V41" s="67"/>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="66">
+        <v>5</v>
+      </c>
+      <c r="F42" s="204"/>
+      <c r="G42" s="205"/>
+      <c r="H42" s="205"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="68"/>
+      <c r="M42" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="128"/>
+      <c r="S42" s="128"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="66">
+        <v>1</v>
+      </c>
+      <c r="V42" s="67"/>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="66">
+        <v>6</v>
+      </c>
+      <c r="F43" s="204"/>
+      <c r="G43" s="205"/>
+      <c r="H43" s="205"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
+      <c r="M43" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" s="116"/>
+      <c r="O43" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="128" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43" s="128"/>
+      <c r="S43" s="128"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="66">
+        <v>2</v>
+      </c>
+      <c r="V43" s="67"/>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="66">
+        <v>7</v>
+      </c>
+      <c r="F44" s="204"/>
+      <c r="G44" s="205"/>
+      <c r="H44" s="205"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="68"/>
+      <c r="M44" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="116"/>
+      <c r="O44" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="R44" s="128"/>
+      <c r="S44" s="128"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="66">
+        <v>3</v>
+      </c>
+      <c r="V44" s="67"/>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="E45" s="66">
+        <v>0</v>
+      </c>
+      <c r="F45" s="204"/>
+      <c r="G45" s="205"/>
+      <c r="H45" s="205"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
+      <c r="M45" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" s="116"/>
+      <c r="O45" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="128" t="s">
+        <v>30</v>
+      </c>
+      <c r="R45" s="128"/>
+      <c r="S45" s="128"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="66">
+        <v>4</v>
+      </c>
+      <c r="V45" s="67"/>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="66">
+        <v>1</v>
+      </c>
+      <c r="F46" s="204" t="s">
+        <v>381</v>
+      </c>
+      <c r="G46" s="205"/>
+      <c r="H46" s="205"/>
+      <c r="I46" s="67" t="s">
+        <v>398</v>
+      </c>
+      <c r="J46" s="68"/>
+      <c r="M46" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" s="116"/>
+      <c r="O46" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" s="128"/>
+      <c r="S46" s="128"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="66">
+        <v>5</v>
+      </c>
+      <c r="V46" s="67"/>
+    </row>
+    <row r="47" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="66">
+        <v>2</v>
+      </c>
+      <c r="F47" s="201" t="s">
+        <v>425</v>
+      </c>
+      <c r="G47" s="202"/>
+      <c r="H47" s="202"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
+      <c r="M47" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="N47" s="116"/>
+      <c r="O47" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="P47" s="116"/>
+      <c r="Q47" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="R47" s="128"/>
+      <c r="S47" s="128"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+    </row>
+    <row r="48" spans="3:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="66">
+        <v>3</v>
+      </c>
+      <c r="F48" s="197" t="s">
         <v>382</v>
       </c>
-      <c r="K35" s="95" t="s">
-        <v>425</v>
-      </c>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="66">
+      <c r="G48" s="198"/>
+      <c r="H48" s="198"/>
+      <c r="I48" s="67" t="s">
+        <v>399</v>
+      </c>
+      <c r="J48" s="68"/>
+      <c r="M48" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="N48" s="116"/>
+      <c r="O48" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="P48" s="116"/>
+      <c r="Q48" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="R48" s="128"/>
+      <c r="S48" s="128"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="73"/>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="66">
+        <v>4</v>
+      </c>
+      <c r="F49" s="197" t="s">
+        <v>383</v>
+      </c>
+      <c r="G49" s="198"/>
+      <c r="H49" s="198"/>
+      <c r="I49" s="67" t="s">
+        <v>400</v>
+      </c>
+      <c r="J49" s="68"/>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="66">
         <v>5</v>
       </c>
-      <c r="P35" s="181"/>
-      <c r="Q35" s="182"/>
-      <c r="R35" s="182"/>
-      <c r="S35" s="183"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="66"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B36" s="109" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="109"/>
-      <c r="F36" s="129" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="66">
+      <c r="F50" s="197"/>
+      <c r="G50" s="198"/>
+      <c r="H50" s="198"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="68"/>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="66">
+        <v>6</v>
+      </c>
+      <c r="F51" s="197"/>
+      <c r="G51" s="198"/>
+      <c r="H51" s="198"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="68"/>
+      <c r="M51" s="88" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="66">
+        <v>7</v>
+      </c>
+      <c r="F52" s="197"/>
+      <c r="G52" s="198"/>
+      <c r="H52" s="198"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="68"/>
+      <c r="M52" s="183" t="s">
+        <v>396</v>
+      </c>
+      <c r="N52" s="183"/>
+      <c r="O52" s="183" t="s">
+        <v>397</v>
+      </c>
+      <c r="P52" s="183"/>
+      <c r="Q52" s="183" t="s">
+        <v>336</v>
+      </c>
+      <c r="R52" s="183"/>
+      <c r="S52" s="183"/>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" s="92" t="s">
+        <v>380</v>
+      </c>
+      <c r="D53" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="E53" s="66">
         <v>0</v>
       </c>
-      <c r="K36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="66">
+      <c r="F53" s="197" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="198"/>
+      <c r="H53" s="198"/>
+      <c r="I53" s="67" t="s">
+        <v>401</v>
+      </c>
+      <c r="J53" s="68"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="116" t="s">
+        <v>310</v>
+      </c>
+      <c r="P53" s="116"/>
+      <c r="Q53" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="R53" s="128"/>
+      <c r="S53" s="128"/>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="66">
+        <v>1</v>
+      </c>
+      <c r="F54" s="197" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="198"/>
+      <c r="H54" s="198"/>
+      <c r="I54" s="67" t="s">
+        <v>402</v>
+      </c>
+      <c r="J54" s="68"/>
+      <c r="M54" s="116"/>
+      <c r="N54" s="116"/>
+      <c r="O54" s="116"/>
+      <c r="P54" s="116"/>
+      <c r="Q54" s="128" t="s">
+        <v>429</v>
+      </c>
+      <c r="R54" s="128"/>
+      <c r="S54" s="128"/>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="66">
+        <v>2</v>
+      </c>
+      <c r="F55" s="199" t="s">
+        <v>403</v>
+      </c>
+      <c r="G55" s="200"/>
+      <c r="H55" s="200"/>
+      <c r="I55" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="J55" s="68"/>
+      <c r="M55" s="116"/>
+      <c r="N55" s="116"/>
+      <c r="O55" s="116"/>
+      <c r="P55" s="116"/>
+      <c r="Q55" s="128" t="s">
+        <v>430</v>
+      </c>
+      <c r="R55" s="128"/>
+      <c r="S55" s="128"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="66">
+        <v>3</v>
+      </c>
+      <c r="F56" s="197" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="198"/>
+      <c r="H56" s="198"/>
+      <c r="I56" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="J56" s="68"/>
+      <c r="K56" s="206"/>
+      <c r="M56" s="116"/>
+      <c r="N56" s="116"/>
+      <c r="O56" s="116"/>
+      <c r="P56" s="116"/>
+      <c r="Q56" s="128"/>
+      <c r="R56" s="128"/>
+      <c r="S56" s="128"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="66">
+        <v>4</v>
+      </c>
+      <c r="F57" s="197" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="198"/>
+      <c r="H57" s="198"/>
+      <c r="I57" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="J57" s="68"/>
+      <c r="K57" s="206"/>
+      <c r="M57" s="116"/>
+      <c r="N57" s="116"/>
+      <c r="O57" s="116"/>
+      <c r="P57" s="116"/>
+      <c r="Q57" s="128"/>
+      <c r="R57" s="128"/>
+      <c r="S57" s="128"/>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="66">
+        <v>5</v>
+      </c>
+      <c r="F58" s="197" t="s">
+        <v>384</v>
+      </c>
+      <c r="G58" s="198"/>
+      <c r="H58" s="198"/>
+      <c r="I58" s="94" t="s">
+        <v>387</v>
+      </c>
+      <c r="J58" s="68"/>
+      <c r="K58" s="206"/>
+      <c r="M58" s="116"/>
+      <c r="N58" s="116"/>
+      <c r="O58" s="116"/>
+      <c r="P58" s="116"/>
+      <c r="Q58" s="128"/>
+      <c r="R58" s="128"/>
+      <c r="S58" s="128"/>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="66">
         <v>6</v>
       </c>
-      <c r="P36" s="181"/>
-      <c r="Q36" s="182"/>
-      <c r="R36" s="182"/>
-      <c r="S36" s="183"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="66"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B37" s="109" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="109"/>
-      <c r="F37" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="66">
-        <v>1</v>
-      </c>
-      <c r="K37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="66">
+      <c r="F59" s="197" t="s">
+        <v>385</v>
+      </c>
+      <c r="G59" s="198"/>
+      <c r="H59" s="198"/>
+      <c r="I59" s="94" t="s">
+        <v>388</v>
+      </c>
+      <c r="J59" s="68"/>
+      <c r="K59" s="206"/>
+      <c r="M59" s="116"/>
+      <c r="N59" s="116"/>
+      <c r="O59" s="116"/>
+      <c r="P59" s="116"/>
+      <c r="Q59" s="128"/>
+      <c r="R59" s="128"/>
+      <c r="S59" s="128"/>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="66">
         <v>7</v>
       </c>
-      <c r="P37" s="181"/>
-      <c r="Q37" s="182"/>
-      <c r="R37" s="182"/>
-      <c r="S37" s="183"/>
-      <c r="T37" s="67"/>
-      <c r="U37" s="66"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B38" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="109"/>
-      <c r="F38" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="66">
-        <v>2</v>
-      </c>
-      <c r="K38" s="67"/>
-      <c r="M38" s="98" t="s">
-        <v>384</v>
-      </c>
-      <c r="N38" s="67" t="s">
-        <v>369</v>
-      </c>
-      <c r="O38" s="66">
-        <v>0</v>
-      </c>
-      <c r="P38" s="181"/>
-      <c r="Q38" s="182"/>
-      <c r="R38" s="182"/>
-      <c r="S38" s="183"/>
-      <c r="T38" s="67"/>
-      <c r="U38" s="66"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B39" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="109"/>
-      <c r="F39" s="129" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="66">
-        <v>3</v>
-      </c>
-      <c r="K39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="66">
-        <v>1</v>
-      </c>
-      <c r="P39" s="181" t="s">
+      <c r="F60" s="197" t="s">
         <v>386</v>
       </c>
-      <c r="Q39" s="182"/>
-      <c r="R39" s="182"/>
-      <c r="S39" s="183"/>
-      <c r="T39" s="67" t="s">
-        <v>403</v>
-      </c>
-      <c r="U39" s="66"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B40" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="109"/>
-      <c r="F40" s="129" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="129"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="66">
-        <v>4</v>
-      </c>
-      <c r="K40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="66">
-        <v>2</v>
-      </c>
-      <c r="P40" s="206" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q40" s="207"/>
-      <c r="R40" s="207"/>
-      <c r="S40" s="208"/>
-      <c r="T40" s="67"/>
-      <c r="U40" s="66"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B41" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="109"/>
-      <c r="F41" s="129" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="66">
-        <v>5</v>
-      </c>
-      <c r="K41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="66">
-        <v>3</v>
-      </c>
-      <c r="P41" s="181" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q41" s="182"/>
-      <c r="R41" s="182"/>
-      <c r="S41" s="183"/>
-      <c r="T41" s="67" t="s">
-        <v>404</v>
-      </c>
-      <c r="U41" s="66"/>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B42" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="109"/>
-      <c r="F42" s="129" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="74"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="66">
-        <v>4</v>
-      </c>
-      <c r="P42" s="181" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q42" s="182"/>
-      <c r="R42" s="182"/>
-      <c r="S42" s="183"/>
-      <c r="T42" s="67" t="s">
-        <v>405</v>
-      </c>
-      <c r="U42" s="66"/>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B43" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="109"/>
-      <c r="F43" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="66">
-        <v>5</v>
-      </c>
-      <c r="P43" s="181"/>
-      <c r="Q43" s="182"/>
-      <c r="R43" s="182"/>
-      <c r="S43" s="183"/>
-      <c r="T43" s="67"/>
-      <c r="U43" s="66"/>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="66">
-        <v>6</v>
-      </c>
-      <c r="P44" s="181"/>
-      <c r="Q44" s="182"/>
-      <c r="R44" s="182"/>
-      <c r="S44" s="183"/>
-      <c r="T44" s="67"/>
-      <c r="U44" s="66"/>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="M45" s="67"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="66">
-        <v>7</v>
-      </c>
-      <c r="P45" s="181"/>
-      <c r="Q45" s="182"/>
-      <c r="R45" s="182"/>
-      <c r="S45" s="183"/>
-      <c r="T45" s="67"/>
-      <c r="U45" s="66"/>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B46" s="93" t="s">
-        <v>400</v>
-      </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="M46" s="98" t="s">
-        <v>385</v>
-      </c>
-      <c r="N46" s="67" t="s">
-        <v>369</v>
-      </c>
-      <c r="O46" s="66">
-        <v>0</v>
-      </c>
-      <c r="P46" s="181" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q46" s="182"/>
-      <c r="R46" s="182"/>
-      <c r="S46" s="183"/>
-      <c r="T46" s="67" t="s">
-        <v>406</v>
-      </c>
-      <c r="U46" s="66"/>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B47" s="184" t="s">
-        <v>401</v>
-      </c>
-      <c r="C47" s="184"/>
-      <c r="D47" s="184" t="s">
-        <v>402</v>
-      </c>
-      <c r="E47" s="184"/>
-      <c r="F47" s="184" t="s">
-        <v>336</v>
-      </c>
-      <c r="G47" s="184"/>
-      <c r="H47" s="184"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="66">
-        <v>1</v>
-      </c>
-      <c r="P47" s="181" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q47" s="182"/>
-      <c r="R47" s="182"/>
-      <c r="S47" s="183"/>
-      <c r="T47" s="67" t="s">
-        <v>407</v>
-      </c>
-      <c r="U47" s="66"/>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B48" s="109"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109" t="s">
-        <v>310</v>
-      </c>
-      <c r="E48" s="109"/>
-      <c r="F48" s="129" t="s">
-        <v>433</v>
-      </c>
-      <c r="G48" s="129"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="66">
-        <v>2</v>
-      </c>
-      <c r="P48" s="203" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q48" s="204"/>
-      <c r="R48" s="204"/>
-      <c r="S48" s="205"/>
-      <c r="T48" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="U48" s="66"/>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B49" s="109"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="129" t="s">
-        <v>434</v>
-      </c>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="66">
-        <v>3</v>
-      </c>
-      <c r="P49" s="181" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q49" s="182"/>
-      <c r="R49" s="182"/>
-      <c r="S49" s="183"/>
-      <c r="T49" s="67" t="s">
-        <v>395</v>
-      </c>
-      <c r="U49" s="66"/>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="129" t="s">
-        <v>435</v>
-      </c>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="66">
-        <v>4</v>
-      </c>
-      <c r="P50" s="181" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" s="182"/>
-      <c r="R50" s="182"/>
-      <c r="S50" s="183"/>
-      <c r="T50" s="67" t="s">
-        <v>396</v>
-      </c>
-      <c r="U50" s="66"/>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B51" s="109"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="66">
-        <v>5</v>
-      </c>
-      <c r="P51" s="181" t="s">
+      <c r="G60" s="198"/>
+      <c r="H60" s="198"/>
+      <c r="I60" s="94" t="s">
         <v>389</v>
       </c>
-      <c r="Q51" s="182"/>
-      <c r="R51" s="182"/>
-      <c r="S51" s="183"/>
-      <c r="T51" s="100" t="s">
-        <v>392</v>
-      </c>
-      <c r="U51" s="66"/>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B52" s="109"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="66">
-        <v>6</v>
-      </c>
-      <c r="P52" s="181" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q52" s="182"/>
-      <c r="R52" s="182"/>
-      <c r="S52" s="183"/>
-      <c r="T52" s="100" t="s">
-        <v>393</v>
-      </c>
-      <c r="U52" s="66"/>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B53" s="109"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="66">
-        <v>7</v>
-      </c>
-      <c r="P53" s="181" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q53" s="182"/>
-      <c r="R53" s="182"/>
-      <c r="S53" s="183"/>
-      <c r="T53" s="100" t="s">
-        <v>394</v>
-      </c>
-      <c r="U53" s="66"/>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="P54" s="202"/>
-      <c r="Q54" s="202"/>
-      <c r="R54" s="202"/>
-      <c r="S54" s="202"/>
-    </row>
-    <row r="55" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="109"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="M56" s="209"/>
-      <c r="N56" s="210"/>
-      <c r="O56" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="P56" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q56" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="R56" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="S56" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="T56" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="U56" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="V56" s="79" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="M57" s="71" t="s">
-        <v>310</v>
-      </c>
-      <c r="N57" s="74"/>
-      <c r="O57" s="74" t="s">
-        <v>311</v>
-      </c>
-      <c r="P57" s="74" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q57" s="74" t="s">
-        <v>313</v>
-      </c>
-      <c r="R57" s="74" t="s">
-        <v>314</v>
-      </c>
-      <c r="S57" s="74" t="s">
-        <v>315</v>
-      </c>
-      <c r="T57" s="74" t="s">
-        <v>316</v>
-      </c>
-      <c r="U57" s="74" t="s">
-        <v>317</v>
-      </c>
-      <c r="V57" s="70" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="M58" s="71" t="s">
-        <v>319</v>
-      </c>
-      <c r="N58" s="74"/>
-      <c r="O58" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="P58" s="74" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q58" s="74" t="s">
-        <v>322</v>
-      </c>
-      <c r="R58" s="74" t="s">
-        <v>323</v>
-      </c>
-      <c r="S58" s="74" t="s">
-        <v>324</v>
-      </c>
-      <c r="T58" s="74" t="s">
-        <v>325</v>
-      </c>
-      <c r="U58" s="74" t="s">
-        <v>309</v>
-      </c>
-      <c r="V58" s="70" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="M59" s="71"/>
-      <c r="N59" s="74"/>
-      <c r="O59" s="74"/>
-      <c r="P59" s="74"/>
-      <c r="Q59" s="74"/>
-      <c r="R59" s="74"/>
-      <c r="S59" s="74"/>
-      <c r="T59" s="74"/>
-      <c r="U59" s="74"/>
-      <c r="V59" s="70"/>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="M60" s="71" t="s">
-        <v>326</v>
-      </c>
-      <c r="N60" s="74" t="s">
-        <v>327</v>
-      </c>
-      <c r="O60" s="74"/>
-      <c r="P60" s="74"/>
-      <c r="Q60" s="74"/>
-      <c r="R60" s="74"/>
-      <c r="S60" s="74"/>
-      <c r="T60" s="74"/>
-      <c r="U60" s="74"/>
-      <c r="V60" s="70"/>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="M61" s="71" t="s">
-        <v>310</v>
-      </c>
-      <c r="N61" s="74" t="s">
-        <v>328</v>
-      </c>
-      <c r="O61" s="74"/>
-      <c r="P61" s="74"/>
-      <c r="Q61" s="74"/>
-      <c r="R61" s="74"/>
-      <c r="S61" s="74"/>
-      <c r="T61" s="74"/>
-      <c r="U61" s="74"/>
-      <c r="V61" s="70"/>
-    </row>
-    <row r="62" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M62" s="75" t="s">
-        <v>319</v>
-      </c>
-      <c r="N62" s="76" t="s">
-        <v>329</v>
-      </c>
-      <c r="O62" s="76"/>
-      <c r="P62" s="76"/>
-      <c r="Q62" s="76"/>
-      <c r="R62" s="76"/>
-      <c r="S62" s="76"/>
-      <c r="T62" s="76"/>
-      <c r="U62" s="76"/>
-      <c r="V62" s="77"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="206"/>
+      <c r="M60" s="116"/>
+      <c r="N60" s="116"/>
+      <c r="O60" s="116"/>
+      <c r="P60" s="116"/>
+      <c r="Q60" s="128"/>
+      <c r="R60" s="128"/>
+      <c r="S60" s="128"/>
+    </row>
+    <row r="74" spans="20:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="T74" s="73"/>
+      <c r="U74" s="73"/>
+    </row>
+    <row r="75" spans="20:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="T75" s="73"/>
+      <c r="U75" s="73"/>
+    </row>
+    <row r="76" spans="20:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="T76" s="73"/>
+      <c r="U76" s="73"/>
+    </row>
+    <row r="77" spans="20:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="T77" s="73"/>
+      <c r="U77" s="73"/>
+    </row>
+    <row r="78" spans="20:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="T78" s="73"/>
+      <c r="U78" s="73"/>
+    </row>
+    <row r="79" spans="20:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="T79" s="73"/>
+      <c r="U79" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="155">
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
+  <mergeCells count="140">
+    <mergeCell ref="F41:H41"/>
     <mergeCell ref="F42:H42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:H43"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P23:S23"/>
     <mergeCell ref="P24:S24"/>
     <mergeCell ref="P25:S25"/>
     <mergeCell ref="Q3:T3"/>
@@ -10429,48 +10457,86 @@
     <mergeCell ref="P16:S16"/>
     <mergeCell ref="P17:S17"/>
     <mergeCell ref="P18:S18"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:S58"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10491,6 +10557,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A03C2E64F0005140BDE7226CB0774D20" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2dc62d7ebda28b2248c4fcd0d1e853dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99f0e776-88d9-49cc-bc44-8f053c06a05d" xmlns:ns3="c670e95e-ae83-46c3-a0ce-27f41546ffc1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddbdedb6ae28ed921b958fa0c5f62c2b" ns2:_="" ns3:_="">
     <xsd:import namespace="99f0e776-88d9-49cc-bc44-8f053c06a05d"/>
@@ -10733,15 +10808,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4D1D403-A5EB-472D-9E01-FE3DAF7D69B0}">
   <ds:schemaRefs>
@@ -10754,6 +10820,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA663353-8C2D-4150-B0CA-BB8B28118183}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E27BFE-617B-427B-B3BC-9D5FD0F3BADE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10770,12 +10844,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA663353-8C2D-4150-B0CA-BB8B28118183}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/Cogen_Protocol.xlsx
+++ b/docs/Cogen_Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\sim-tools\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711508C5-C194-4BE8-98A5-CB07EE5E8D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C49A60-3A91-45CA-9F93-A4A428EF7261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2769" yWindow="3643" windowWidth="24840" windowHeight="10766" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me" sheetId="11" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="483">
   <si>
     <t>Cogen B'd 제어 로직</t>
     <phoneticPr fontId="21" type="noConversion"/>
@@ -1568,9 +1568,6 @@
     <t>FCid</t>
   </si>
   <si>
-    <t>FCid~Data</t>
-  </si>
-  <si>
     <t>사용 안함</t>
   </si>
   <si>
@@ -1667,9 +1664,6 @@
     <t>제어명령</t>
   </si>
   <si>
-    <t>동작상태</t>
-  </si>
-  <si>
     <t>FW_VER</t>
   </si>
   <si>
@@ -1853,10 +1847,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>Addr(</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>Fcid</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1986,6 +1976,24 @@
   </si>
   <si>
     <t>txdata3</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>COGEN 상태</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenSysRun4</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtCogenSysRun5</t>
+  </si>
+  <si>
+    <t>swtCogenSysRun6</t>
+  </si>
+  <si>
+    <t>STX~Data</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -3702,7 +3710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4313,12 +4321,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8588,8 +8590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B028B19-B245-4EE1-9453-ED4D46D927D6}">
   <dimension ref="B2:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -8600,7 +8602,7 @@
     <col min="11" max="11" width="11.640625" style="69" customWidth="1"/>
     <col min="12" max="12" width="29.140625" style="69" customWidth="1"/>
     <col min="13" max="19" width="9.140625" style="69"/>
-    <col min="20" max="20" width="10.85546875" style="69" customWidth="1"/>
+    <col min="20" max="20" width="15.0703125" style="69" customWidth="1"/>
     <col min="21" max="21" width="14" style="69" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="69"/>
   </cols>
@@ -8633,10 +8635,10 @@
         <v>348</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>447</v>
+        <v>288</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E3" s="80" t="s">
         <v>289</v>
@@ -8683,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="101" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E4" s="66">
         <v>24</v>
@@ -8711,17 +8713,17 @@
       <c r="P4" s="66">
         <v>4</v>
       </c>
-      <c r="Q4" s="207" t="s">
-        <v>474</v>
-      </c>
-      <c r="R4" s="207" t="s">
+      <c r="Q4" s="205" t="s">
+        <v>471</v>
+      </c>
+      <c r="R4" s="205" t="s">
+        <v>361</v>
+      </c>
+      <c r="S4" s="205" t="s">
         <v>362</v>
       </c>
-      <c r="S4" s="207" t="s">
-        <v>363</v>
-      </c>
-      <c r="T4" s="208" t="s">
-        <v>475</v>
+      <c r="T4" s="206" t="s">
+        <v>472</v>
       </c>
       <c r="U4" s="72" t="s">
         <v>345</v>
@@ -8732,16 +8734,16 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E5" s="96" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F5" s="73" t="s">
         <v>333</v>
       </c>
       <c r="G5" s="81" t="s">
-        <v>360</v>
-      </c>
-      <c r="U5" s="73" t="s">
-        <v>360</v>
+        <v>482</v>
+      </c>
+      <c r="U5" s="96" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.55000000000000004">
@@ -8749,10 +8751,10 @@
         <v>340</v>
       </c>
       <c r="L7" s="87" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P7" s="177" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q7" s="177"/>
       <c r="R7" s="177"/>
@@ -8777,13 +8779,13 @@
       </c>
       <c r="H8" s="180"/>
       <c r="I8" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="J8" s="84" t="s">
         <v>372</v>
       </c>
-      <c r="J8" s="84" t="s">
-        <v>373</v>
-      </c>
       <c r="L8" s="85" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M8" s="91" t="s">
         <v>347</v>
@@ -8795,16 +8797,16 @@
         <v>350</v>
       </c>
       <c r="P8" s="180" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q8" s="180"/>
       <c r="R8" s="180"/>
       <c r="S8" s="180"/>
       <c r="T8" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="U8" s="84" t="s">
         <v>372</v>
-      </c>
-      <c r="U8" s="84" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
@@ -8824,17 +8826,17 @@
       <c r="G9" s="181"/>
       <c r="H9" s="181"/>
       <c r="I9" s="97" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J9" s="99" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L9" s="67"/>
-      <c r="M9" s="209" t="s">
-        <v>474</v>
+      <c r="M9" s="207" t="s">
+        <v>471</v>
       </c>
       <c r="N9" s="67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O9" s="66">
         <v>0</v>
@@ -8846,10 +8848,10 @@
       <c r="R9" s="181"/>
       <c r="S9" s="181"/>
       <c r="T9" s="67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U9" s="99" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
@@ -8867,7 +8869,7 @@
       <c r="I10" s="67"/>
       <c r="J10" s="68"/>
       <c r="L10" s="67" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M10" s="67"/>
       <c r="N10" s="67"/>
@@ -8881,10 +8883,10 @@
       <c r="R10" s="181"/>
       <c r="S10" s="181"/>
       <c r="T10" s="67" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="U10" s="99" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.55000000000000004">
@@ -8904,10 +8906,10 @@
       <c r="G11" s="181"/>
       <c r="H11" s="181"/>
       <c r="I11" s="97" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J11" s="99" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L11" s="67"/>
       <c r="M11" s="67"/>
@@ -8916,16 +8918,16 @@
         <v>2</v>
       </c>
       <c r="P11" s="182" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q11" s="181"/>
       <c r="R11" s="181"/>
       <c r="S11" s="181"/>
       <c r="T11" s="67" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="U11" s="99" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.55000000000000004">
@@ -8943,7 +8945,7 @@
       <c r="I12" s="67"/>
       <c r="J12" s="68"/>
       <c r="L12" s="67" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M12" s="67"/>
       <c r="N12" s="67"/>
@@ -8951,16 +8953,16 @@
         <v>3</v>
       </c>
       <c r="P12" s="182" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="Q12" s="181"/>
       <c r="R12" s="181"/>
       <c r="S12" s="181"/>
       <c r="T12" s="67" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="U12" s="99" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.55000000000000004">
@@ -8990,35 +8992,35 @@
         <v>4</v>
       </c>
       <c r="P13" s="189" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Q13" s="189"/>
       <c r="R13" s="189"/>
       <c r="S13" s="189"/>
       <c r="T13" s="94" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U13" s="99" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="W13" s="69" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="66">
         <v>5</v>
       </c>
-      <c r="C14" s="211" t="s">
-        <v>478</v>
+      <c r="C14" s="209" t="s">
+        <v>475</v>
       </c>
       <c r="D14" s="185"/>
       <c r="E14" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F14" s="68"/>
       <c r="G14" s="181" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H14" s="181"/>
       <c r="I14" s="83"/>
@@ -9030,16 +9032,16 @@
         <v>5</v>
       </c>
       <c r="P14" s="190" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Q14" s="191"/>
       <c r="R14" s="191"/>
       <c r="S14" s="191"/>
       <c r="T14" s="67" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="U14" s="99" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.55000000000000004">
@@ -9059,13 +9061,13 @@
       <c r="G15" s="181"/>
       <c r="H15" s="181"/>
       <c r="I15" s="67" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J15" s="99" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L15" s="98" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M15" s="67"/>
       <c r="N15" s="67"/>
@@ -9088,17 +9090,17 @@
       </c>
       <c r="D16" s="195"/>
       <c r="E16" s="82" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F16" s="68"/>
       <c r="G16" s="181" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H16" s="181"/>
       <c r="I16" s="83"/>
       <c r="J16" s="100"/>
       <c r="L16" s="98" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M16" s="67"/>
       <c r="N16" s="67"/>
@@ -9106,7 +9108,7 @@
         <v>7</v>
       </c>
       <c r="P16" s="192" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q16" s="193"/>
       <c r="R16" s="193"/>
@@ -9123,23 +9125,23 @@
       </c>
       <c r="D17" s="195"/>
       <c r="E17" s="82" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F17" s="68"/>
       <c r="G17" s="181" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H17" s="181"/>
       <c r="I17" s="83"/>
       <c r="J17" s="100"/>
       <c r="L17" s="67" t="s">
-        <v>421</v>
-      </c>
-      <c r="M17" s="209" t="s">
-        <v>476</v>
+        <v>419</v>
+      </c>
+      <c r="M17" s="207" t="s">
+        <v>473</v>
       </c>
       <c r="N17" s="67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O17" s="66">
         <v>0</v>
@@ -9151,22 +9153,22 @@
       <c r="R17" s="181"/>
       <c r="S17" s="181"/>
       <c r="T17" s="67" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="U17" s="99" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="66">
         <v>9</v>
       </c>
-      <c r="C18" s="211" t="s">
-        <v>479</v>
+      <c r="C18" s="209" t="s">
+        <v>476</v>
       </c>
       <c r="D18" s="185"/>
       <c r="E18" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="181"/>
@@ -9180,16 +9182,16 @@
         <v>1</v>
       </c>
       <c r="P18" s="181" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q18" s="181"/>
       <c r="R18" s="181"/>
       <c r="S18" s="181"/>
       <c r="T18" s="67" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="U18" s="99" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -9209,13 +9211,13 @@
       <c r="G19" s="181"/>
       <c r="H19" s="181"/>
       <c r="I19" s="97" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J19" s="99" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L19" s="67" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M19" s="67"/>
       <c r="N19" s="67"/>
@@ -9229,10 +9231,10 @@
       <c r="R19" s="181"/>
       <c r="S19" s="181"/>
       <c r="T19" s="67" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="U19" s="99" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -9250,7 +9252,7 @@
       <c r="I20" s="67"/>
       <c r="J20" s="68"/>
       <c r="L20" s="94" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M20" s="67"/>
       <c r="N20" s="67"/>
@@ -9258,16 +9260,16 @@
         <v>3</v>
       </c>
       <c r="P20" s="181" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q20" s="181"/>
       <c r="R20" s="181"/>
       <c r="S20" s="181"/>
       <c r="T20" s="67" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="U20" s="99" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -9287,10 +9289,10 @@
       <c r="G21" s="181"/>
       <c r="H21" s="181"/>
       <c r="I21" s="97" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J21" s="99" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L21" s="67"/>
       <c r="M21" s="67"/>
@@ -9305,10 +9307,10 @@
       <c r="R21" s="181"/>
       <c r="S21" s="181"/>
       <c r="T21" s="67" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="U21" s="99" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -9326,7 +9328,7 @@
       <c r="I22" s="67"/>
       <c r="J22" s="68"/>
       <c r="L22" s="94" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M22" s="67"/>
       <c r="N22" s="67"/>
@@ -9340,10 +9342,10 @@
       <c r="R22" s="181"/>
       <c r="S22" s="181"/>
       <c r="T22" s="67" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="U22" s="99" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -9355,17 +9357,17 @@
       </c>
       <c r="D23" s="195"/>
       <c r="E23" s="82" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="181" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H23" s="181"/>
       <c r="I23" s="83"/>
       <c r="J23" s="100"/>
       <c r="L23" s="94" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M23" s="67"/>
       <c r="N23" s="67"/>
@@ -9379,10 +9381,10 @@
       <c r="R23" s="181"/>
       <c r="S23" s="181"/>
       <c r="T23" s="67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U23" s="99" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -9404,13 +9406,13 @@
       </c>
       <c r="H24" s="181"/>
       <c r="I24" s="97" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J24" s="99" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L24" s="94" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M24" s="67"/>
       <c r="N24" s="67"/>
@@ -9424,10 +9426,10 @@
       <c r="R24" s="181"/>
       <c r="S24" s="181"/>
       <c r="T24" s="67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U24" s="99" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -9445,8 +9447,8 @@
       <c r="I25" s="67"/>
       <c r="J25" s="68"/>
       <c r="L25" s="67"/>
-      <c r="M25" s="209" t="s">
-        <v>477</v>
+      <c r="M25" s="207" t="s">
+        <v>474</v>
       </c>
       <c r="N25" s="67" t="s">
         <v>339</v>
@@ -9461,10 +9463,10 @@
       <c r="R25" s="181"/>
       <c r="S25" s="181"/>
       <c r="T25" s="67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U25" s="99" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -9482,25 +9484,25 @@
         <v>341</v>
       </c>
       <c r="G26" s="182" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H26" s="181"/>
       <c r="I26" s="97" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J26" s="99" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L26" s="83"/>
-      <c r="M26" s="210" t="s">
-        <v>475</v>
+      <c r="M26" s="208" t="s">
+        <v>472</v>
       </c>
       <c r="N26" s="83" t="s">
         <v>339</v>
       </c>
       <c r="O26" s="83"/>
       <c r="P26" s="184" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q26" s="184"/>
       <c r="R26" s="184"/>
@@ -9527,8 +9529,8 @@
       <c r="B28" s="66">
         <v>19</v>
       </c>
-      <c r="C28" s="211" t="s">
-        <v>480</v>
+      <c r="C28" s="209" t="s">
+        <v>477</v>
       </c>
       <c r="D28" s="185"/>
       <c r="E28" s="1" t="s">
@@ -9559,14 +9561,14 @@
         <v>341</v>
       </c>
       <c r="G29" s="182" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H29" s="181"/>
       <c r="I29" s="97" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J29" s="99" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -9629,10 +9631,10 @@
       </c>
       <c r="H31" s="181"/>
       <c r="I31" s="97" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J31" s="99" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M31" s="71" t="s">
         <v>310</v>
@@ -9706,7 +9708,7 @@
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" s="95" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M33" s="71"/>
       <c r="V33" s="70"/>
@@ -9722,7 +9724,7 @@
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" s="177" t="s">
-        <v>393</v>
+        <v>478</v>
       </c>
       <c r="G35" s="177"/>
       <c r="H35" s="177"/>
@@ -9745,15 +9747,15 @@
         <v>350</v>
       </c>
       <c r="F36" s="178" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G36" s="203"/>
       <c r="H36" s="179"/>
       <c r="I36" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="J36" s="84" t="s">
         <v>372</v>
-      </c>
-      <c r="J36" s="84" t="s">
-        <v>373</v>
       </c>
       <c r="M36" s="74" t="s">
         <v>319</v>
@@ -9772,17 +9774,17 @@
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="92" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E37" s="66">
         <v>0</v>
       </c>
-      <c r="F37" s="204"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="198"/>
+      <c r="H37" s="198"/>
       <c r="I37" s="67"/>
       <c r="J37" s="68"/>
     </row>
@@ -9792,13 +9794,13 @@
       <c r="E38" s="66">
         <v>1</v>
       </c>
-      <c r="F38" s="204" t="s">
+      <c r="F38" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
+      <c r="G38" s="198"/>
+      <c r="H38" s="198"/>
       <c r="I38" s="67" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J38" s="68"/>
     </row>
@@ -9808,9 +9810,9 @@
       <c r="E39" s="66">
         <v>2</v>
       </c>
-      <c r="F39" s="204"/>
-      <c r="G39" s="205"/>
-      <c r="H39" s="205"/>
+      <c r="F39" s="197"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="198"/>
       <c r="I39" s="67"/>
       <c r="J39" s="68"/>
     </row>
@@ -9820,11 +9822,11 @@
       <c r="E40" s="66">
         <v>3</v>
       </c>
-      <c r="F40" s="204" t="s">
+      <c r="F40" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="205"/>
-      <c r="H40" s="205"/>
+      <c r="G40" s="198"/>
+      <c r="H40" s="198"/>
       <c r="I40" s="67" t="s">
         <v>15</v>
       </c>
@@ -9844,10 +9846,10 @@
       <c r="S40" s="183"/>
       <c r="T40" s="73"/>
       <c r="U40" s="89" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="V40" s="89" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.55000000000000004">
@@ -9856,11 +9858,11 @@
       <c r="E41" s="66">
         <v>4</v>
       </c>
-      <c r="F41" s="204" t="s">
+      <c r="F41" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="205"/>
-      <c r="H41" s="205"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="198"/>
       <c r="I41" s="67" t="s">
         <v>19</v>
       </c>
@@ -9890,9 +9892,9 @@
       <c r="E42" s="66">
         <v>5</v>
       </c>
-      <c r="F42" s="204"/>
-      <c r="G42" s="205"/>
-      <c r="H42" s="205"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
       <c r="I42" s="67"/>
       <c r="J42" s="68"/>
       <c r="M42" s="116" t="s">
@@ -9920,9 +9922,9 @@
       <c r="E43" s="66">
         <v>6</v>
       </c>
-      <c r="F43" s="204"/>
-      <c r="G43" s="205"/>
-      <c r="H43" s="205"/>
+      <c r="F43" s="197"/>
+      <c r="G43" s="198"/>
+      <c r="H43" s="198"/>
       <c r="I43" s="67"/>
       <c r="J43" s="68"/>
       <c r="M43" s="116" t="s">
@@ -9950,9 +9952,9 @@
       <c r="E44" s="66">
         <v>7</v>
       </c>
-      <c r="F44" s="204"/>
-      <c r="G44" s="205"/>
-      <c r="H44" s="205"/>
+      <c r="F44" s="197"/>
+      <c r="G44" s="198"/>
+      <c r="H44" s="198"/>
       <c r="I44" s="67"/>
       <c r="J44" s="68"/>
       <c r="M44" s="116" t="s">
@@ -9976,17 +9978,17 @@
     </row>
     <row r="45" spans="3:22" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="92" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D45" s="67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E45" s="66">
         <v>0</v>
       </c>
-      <c r="F45" s="204"/>
-      <c r="G45" s="205"/>
-      <c r="H45" s="205"/>
+      <c r="F45" s="197"/>
+      <c r="G45" s="198"/>
+      <c r="H45" s="198"/>
       <c r="I45" s="67"/>
       <c r="J45" s="68"/>
       <c r="M45" s="116" t="s">
@@ -10014,13 +10016,13 @@
       <c r="E46" s="66">
         <v>1</v>
       </c>
-      <c r="F46" s="204" t="s">
-        <v>381</v>
-      </c>
-      <c r="G46" s="205"/>
-      <c r="H46" s="205"/>
+      <c r="F46" s="197" t="s">
+        <v>380</v>
+      </c>
+      <c r="G46" s="198"/>
+      <c r="H46" s="198"/>
       <c r="I46" s="67" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J46" s="68"/>
       <c r="M46" s="116" t="s">
@@ -10049,7 +10051,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="201" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G47" s="202"/>
       <c r="H47" s="202"/>
@@ -10078,12 +10080,12 @@
         <v>3</v>
       </c>
       <c r="F48" s="197" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G48" s="198"/>
       <c r="H48" s="198"/>
       <c r="I48" s="67" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J48" s="68"/>
       <c r="M48" s="116" t="s">
@@ -10109,12 +10111,12 @@
         <v>4</v>
       </c>
       <c r="F49" s="197" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G49" s="198"/>
       <c r="H49" s="198"/>
       <c r="I49" s="67" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J49" s="68"/>
     </row>
@@ -10142,7 +10144,7 @@
       <c r="I51" s="67"/>
       <c r="J51" s="68"/>
       <c r="M51" s="88" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.55000000000000004">
@@ -10157,11 +10159,11 @@
       <c r="I52" s="67"/>
       <c r="J52" s="68"/>
       <c r="M52" s="183" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N52" s="183"/>
       <c r="O52" s="183" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P52" s="183"/>
       <c r="Q52" s="183" t="s">
@@ -10172,10 +10174,10 @@
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" s="92" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D53" s="67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E53" s="66">
         <v>0</v>
@@ -10186,7 +10188,7 @@
       <c r="G53" s="198"/>
       <c r="H53" s="198"/>
       <c r="I53" s="67" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J53" s="68"/>
       <c r="M53" s="116"/>
@@ -10196,7 +10198,7 @@
       </c>
       <c r="P53" s="116"/>
       <c r="Q53" s="128" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="R53" s="128"/>
       <c r="S53" s="128"/>
@@ -10213,7 +10215,7 @@
       <c r="G54" s="198"/>
       <c r="H54" s="198"/>
       <c r="I54" s="67" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J54" s="68"/>
       <c r="M54" s="116"/>
@@ -10221,7 +10223,7 @@
       <c r="O54" s="116"/>
       <c r="P54" s="116"/>
       <c r="Q54" s="128" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="R54" s="128"/>
       <c r="S54" s="128"/>
@@ -10233,12 +10235,12 @@
         <v>2</v>
       </c>
       <c r="F55" s="199" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G55" s="200"/>
       <c r="H55" s="200"/>
       <c r="I55" s="67" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J55" s="68"/>
       <c r="M55" s="116"/>
@@ -10246,7 +10248,7 @@
       <c r="O55" s="116"/>
       <c r="P55" s="116"/>
       <c r="Q55" s="128" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="R55" s="128"/>
       <c r="S55" s="128"/>
@@ -10263,10 +10265,10 @@
       <c r="G56" s="198"/>
       <c r="H56" s="198"/>
       <c r="I56" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J56" s="68"/>
-      <c r="K56" s="206"/>
+      <c r="K56" s="204"/>
       <c r="M56" s="116"/>
       <c r="N56" s="116"/>
       <c r="O56" s="116"/>
@@ -10287,10 +10289,10 @@
       <c r="G57" s="198"/>
       <c r="H57" s="198"/>
       <c r="I57" s="67" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J57" s="68"/>
-      <c r="K57" s="206"/>
+      <c r="K57" s="204"/>
       <c r="M57" s="116"/>
       <c r="N57" s="116"/>
       <c r="O57" s="116"/>
@@ -10306,15 +10308,17 @@
         <v>5</v>
       </c>
       <c r="F58" s="197" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G58" s="198"/>
       <c r="H58" s="198"/>
       <c r="I58" s="94" t="s">
-        <v>387</v>
-      </c>
-      <c r="J58" s="68"/>
-      <c r="K58" s="206"/>
+        <v>386</v>
+      </c>
+      <c r="J58" s="99" t="s">
+        <v>479</v>
+      </c>
+      <c r="K58" s="204"/>
       <c r="M58" s="116"/>
       <c r="N58" s="116"/>
       <c r="O58" s="116"/>
@@ -10330,15 +10334,17 @@
         <v>6</v>
       </c>
       <c r="F59" s="197" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G59" s="198"/>
       <c r="H59" s="198"/>
       <c r="I59" s="94" t="s">
-        <v>388</v>
-      </c>
-      <c r="J59" s="68"/>
-      <c r="K59" s="206"/>
+        <v>387</v>
+      </c>
+      <c r="J59" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="K59" s="204"/>
       <c r="M59" s="116"/>
       <c r="N59" s="116"/>
       <c r="O59" s="116"/>
@@ -10354,15 +10360,17 @@
         <v>7</v>
       </c>
       <c r="F60" s="197" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G60" s="198"/>
       <c r="H60" s="198"/>
       <c r="I60" s="94" t="s">
-        <v>389</v>
-      </c>
-      <c r="J60" s="68"/>
-      <c r="K60" s="206"/>
+        <v>388</v>
+      </c>
+      <c r="J60" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="K60" s="204"/>
       <c r="M60" s="116"/>
       <c r="N60" s="116"/>
       <c r="O60" s="116"/>
@@ -10396,13 +10404,7 @@
       <c r="U79" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="140">
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
+  <mergeCells count="130">
     <mergeCell ref="M53:N53"/>
     <mergeCell ref="O53:P53"/>
     <mergeCell ref="Q53:S53"/>
@@ -10511,10 +10513,6 @@
     <mergeCell ref="P9:S9"/>
     <mergeCell ref="F35:H35"/>
     <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
     <mergeCell ref="M55:N55"/>
     <mergeCell ref="O55:P55"/>
     <mergeCell ref="Q55:S55"/>
